--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244605</v>
+        <v>5236200</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N32">
+        <v>2.2</v>
+      </c>
+      <c r="O32">
         <v>3.6</v>
       </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
       <c r="P32">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5236200</v>
+        <v>5244605</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45026.375</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L34">
+        <v>3.3</v>
+      </c>
+      <c r="M34">
+        <v>1.95</v>
+      </c>
+      <c r="N34">
         <v>3.6</v>
       </c>
-      <c r="M34">
-        <v>2.9</v>
-      </c>
-      <c r="N34">
-        <v>2.2</v>
-      </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P34">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y34">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6528884</v>
+        <v>6526519</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,58 +8015,58 @@
         <v>45094.375</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>4</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N85">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
+        <v>1.8</v>
+      </c>
+      <c r="V85">
         <v>2</v>
       </c>
-      <c r="V85">
-        <v>1.8</v>
-      </c>
       <c r="W85">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,13 +8075,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6528870</v>
+        <v>6528884</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,58 +8104,58 @@
         <v>45094.375</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
         <v>47</v>
       </c>
       <c r="K86">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="L86">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N86">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O86">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,16 +8164,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6527542</v>
+        <v>6528870</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,40 +8193,40 @@
         <v>45094.375</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>47</v>
       </c>
       <c r="K87">
-        <v>1.142</v>
+        <v>1.45</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M87">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="N87">
-        <v>1.125</v>
+        <v>1.333</v>
       </c>
       <c r="O87">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P87">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Q87">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R87">
         <v>1.85</v>
@@ -8235,16 +8235,16 @@
         <v>1.95</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.125</v>
+        <v>0.333</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6528871</v>
+        <v>6527542</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45094.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>3</v>
-      </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>1.6</v>
+        <v>1.142</v>
       </c>
       <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>13</v>
+      </c>
+      <c r="N88">
+        <v>1.125</v>
+      </c>
+      <c r="O88">
+        <v>8</v>
+      </c>
+      <c r="P88">
+        <v>13</v>
+      </c>
+      <c r="Q88">
+        <v>-2.5</v>
+      </c>
+      <c r="R88">
+        <v>1.85</v>
+      </c>
+      <c r="S88">
+        <v>1.95</v>
+      </c>
+      <c r="T88">
         <v>4</v>
       </c>
-      <c r="M88">
-        <v>4.5</v>
-      </c>
-      <c r="N88">
-        <v>1.3</v>
-      </c>
-      <c r="O88">
-        <v>5</v>
-      </c>
-      <c r="P88">
-        <v>7</v>
-      </c>
-      <c r="Q88">
-        <v>-1.75</v>
-      </c>
-      <c r="R88">
-        <v>1.95</v>
-      </c>
-      <c r="S88">
-        <v>1.85</v>
-      </c>
-      <c r="T88">
-        <v>3.5</v>
-      </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6526519</v>
+        <v>6528871</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8371,73 @@
         <v>45094.375</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89">
+        <v>1.6</v>
+      </c>
+      <c r="L89">
         <v>4</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>47</v>
-      </c>
-      <c r="K89">
-        <v>1.571</v>
-      </c>
-      <c r="L89">
-        <v>4.2</v>
-      </c>
       <c r="M89">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N89">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O89">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45143.375</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N95">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X95">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45143.375</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6859110</v>
+        <v>6858790</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45185.375</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N131">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y131">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6858790</v>
+        <v>6859110</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45185.375</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M132">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6858794</v>
+        <v>6859108</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,46 +12643,46 @@
         <v>45192.375</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>47</v>
       </c>
       <c r="K137">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N137">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>3</v>
@@ -12694,7 +12694,7 @@
         <v>1.825</v>
       </c>
       <c r="W137">
-        <v>2.5</v>
+        <v>0.571</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6859108</v>
+        <v>6858794</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,46 +12732,46 @@
         <v>45192.375</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138">
         <v>1</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>47</v>
       </c>
       <c r="K138">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="N138">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>3</v>
@@ -12783,7 +12783,7 @@
         <v>1.825</v>
       </c>
       <c r="W138">
-        <v>0.571</v>
+        <v>2.5</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6859107</v>
+        <v>6858795</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K139">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N139">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P139">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q139">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
+        <v>1.875</v>
+      </c>
+      <c r="S139">
+        <v>1.925</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
         <v>1.8</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>2</v>
       </c>
-      <c r="T139">
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
         <v>2.75</v>
       </c>
-      <c r="U139">
-        <v>1.875</v>
-      </c>
-      <c r="V139">
-        <v>1.925</v>
-      </c>
-      <c r="W139">
-        <v>2.3</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6858795</v>
+        <v>6859107</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
         <v>1.875</v>
       </c>
-      <c r="S140">
+      <c r="V140">
         <v>1.925</v>
       </c>
-      <c r="T140">
-        <v>3</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X140">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6858806</v>
+        <v>6858805</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,13 +14156,13 @@
         <v>45213.375</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14171,43 +14171,43 @@
         <v>47</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L154">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="N154">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P154">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
+        <v>1.975</v>
+      </c>
+      <c r="S154">
         <v>1.825</v>
       </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14216,7 +14216,7 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA154">
         <v>-1</v>
@@ -14225,7 +14225,7 @@
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6858805</v>
+        <v>6858806</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,13 +14245,13 @@
         <v>45213.375</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14260,43 +14260,43 @@
         <v>47</v>
       </c>
       <c r="K155">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="N155">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O155">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q155">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
+        <v>1.825</v>
+      </c>
+      <c r="S155">
         <v>1.975</v>
       </c>
-      <c r="S155">
-        <v>1.825</v>
-      </c>
       <c r="T155">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14305,7 +14305,7 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
         <v>-1</v>
@@ -14314,7 +14314,7 @@
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6858815</v>
+        <v>6858818</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45234.375</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M170">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N170">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P170">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R170">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6858818</v>
+        <v>6858817</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,55 +15669,55 @@
         <v>45234.375</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>46</v>
       </c>
       <c r="K171">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="L171">
+        <v>3.75</v>
+      </c>
+      <c r="M171">
+        <v>2.4</v>
+      </c>
+      <c r="N171">
+        <v>2.15</v>
+      </c>
+      <c r="O171">
         <v>3.8</v>
       </c>
-      <c r="M171">
-        <v>4.5</v>
-      </c>
-      <c r="N171">
-        <v>1.533</v>
-      </c>
-      <c r="O171">
-        <v>4.333</v>
-      </c>
       <c r="P171">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q171">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15726,19 +15726,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC171">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6858817</v>
+        <v>6858815</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45234.375</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K172">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
         <v>2.4</v>
       </c>
-      <c r="N172">
-        <v>2.15</v>
-      </c>
       <c r="O172">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
+        <v>2.7</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>1.775</v>
+      </c>
+      <c r="S172">
+        <v>2.025</v>
+      </c>
+      <c r="T172">
         <v>2.75</v>
       </c>
-      <c r="Q172">
-        <v>-0.25</v>
-      </c>
-      <c r="R172">
-        <v>1.95</v>
-      </c>
-      <c r="S172">
-        <v>1.85</v>
-      </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
       <c r="U172">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y172">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -139,10 +139,10 @@
     <t>Young Boys FD</t>
   </si>
   <si>
-    <t>Vejgaard B</t>
+    <t>Holbk</t>
   </si>
   <si>
-    <t>Holbk</t>
+    <t>Vejgaard B</t>
   </si>
   <si>
     <t>Frem</t>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5236200</v>
+        <v>5244605</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L32">
+        <v>3.3</v>
+      </c>
+      <c r="M32">
+        <v>1.95</v>
+      </c>
+      <c r="N32">
         <v>3.6</v>
       </c>
-      <c r="M32">
-        <v>2.9</v>
-      </c>
-      <c r="N32">
-        <v>2.2</v>
-      </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y32">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5244605</v>
+        <v>5236200</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45026.375</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
+        <v>2.2</v>
+      </c>
+      <c r="O34">
         <v>3.6</v>
       </c>
-      <c r="O34">
-        <v>3.3</v>
-      </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6528865</v>
+        <v>6526654</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>3</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N67">
-        <v>2.05</v>
+        <v>12</v>
       </c>
       <c r="O67">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P67">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
         <v>1.875</v>
       </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
         <v>0.875</v>
       </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6526654</v>
+        <v>6528865</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>3.75</v>
+      </c>
+      <c r="M68">
         <v>3</v>
       </c>
-      <c r="J68" t="s">
-        <v>46</v>
-      </c>
-      <c r="K68">
-        <v>12</v>
-      </c>
-      <c r="L68">
-        <v>6.5</v>
-      </c>
-      <c r="M68">
-        <v>1.166</v>
-      </c>
       <c r="N68">
-        <v>12</v>
+        <v>2.05</v>
       </c>
       <c r="O68">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>1.166</v>
+        <v>2.75</v>
       </c>
       <c r="Q68">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
         <v>1.925</v>
       </c>
-      <c r="S68">
-        <v>1.875</v>
-      </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6526519</v>
+        <v>6528871</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,73 +8015,73 @@
         <v>45094.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85" t="s">
+        <v>46</v>
+      </c>
+      <c r="K85">
+        <v>1.6</v>
+      </c>
+      <c r="L85">
         <v>4</v>
       </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85" t="s">
-        <v>47</v>
-      </c>
-      <c r="K85">
-        <v>1.571</v>
-      </c>
-      <c r="L85">
-        <v>4.2</v>
-      </c>
       <c r="M85">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6528871</v>
+        <v>6526519</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8371,73 @@
         <v>45094.375</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M89">
+        <v>4.333</v>
+      </c>
+      <c r="N89">
+        <v>1.5</v>
+      </c>
+      <c r="O89">
         <v>4.5</v>
       </c>
-      <c r="N89">
-        <v>1.3</v>
-      </c>
-      <c r="O89">
+      <c r="P89">
         <v>5</v>
       </c>
-      <c r="P89">
-        <v>7</v>
-      </c>
       <c r="Q89">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8552,7 +8552,7 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45143.375</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45143.375</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X96">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6859120</v>
+        <v>6859121</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,73 +9175,73 @@
         <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98">
+        <v>5</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>1.5</v>
+      </c>
+      <c r="N98">
+        <v>4.2</v>
+      </c>
+      <c r="O98">
+        <v>3.8</v>
+      </c>
+      <c r="P98">
+        <v>1.666</v>
+      </c>
+      <c r="Q98">
+        <v>0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
+        <v>1.825</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
+        <v>1.8</v>
+      </c>
+      <c r="V98">
         <v>2</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.25</v>
-      </c>
-      <c r="L98">
-        <v>3.5</v>
-      </c>
-      <c r="M98">
-        <v>2.6</v>
-      </c>
-      <c r="N98">
-        <v>2</v>
-      </c>
-      <c r="O98">
-        <v>3.6</v>
-      </c>
-      <c r="P98">
-        <v>3</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.8</v>
-      </c>
-      <c r="S98">
-        <v>2</v>
-      </c>
-      <c r="T98">
-        <v>3</v>
-      </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
-      <c r="V98">
-        <v>1.975</v>
-      </c>
       <c r="W98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6859121</v>
+        <v>6859120</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,73 +9264,73 @@
         <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
+      <c r="J99" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99">
+        <v>2.25</v>
+      </c>
+      <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2.6</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>3.6</v>
+      </c>
+      <c r="P99">
         <v>3</v>
       </c>
-      <c r="J99" t="s">
-        <v>46</v>
-      </c>
-      <c r="K99">
-        <v>5</v>
-      </c>
-      <c r="L99">
-        <v>4</v>
-      </c>
-      <c r="M99">
-        <v>1.5</v>
-      </c>
-      <c r="N99">
-        <v>4.2</v>
-      </c>
-      <c r="O99">
-        <v>3.8</v>
-      </c>
-      <c r="P99">
-        <v>1.666</v>
-      </c>
       <c r="Q99">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.825</v>
+      </c>
+      <c r="V99">
         <v>1.975</v>
       </c>
-      <c r="S99">
-        <v>1.825</v>
-      </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.8</v>
-      </c>
-      <c r="V99">
-        <v>2</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9795,7 +9795,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
         <v>34</v>
@@ -10154,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10421,7 +10421,7 @@
         <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10774,7 +10774,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -11044,7 +11044,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11397,7 +11397,7 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11489,7 +11489,7 @@
         <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11753,7 +11753,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
         <v>32</v>
@@ -11845,7 +11845,7 @@
         <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6858790</v>
+        <v>6859110</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45185.375</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M131">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6859110</v>
+        <v>6858790</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45185.375</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L132">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y132">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>44</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6859108</v>
+        <v>6858794</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,46 +12643,46 @@
         <v>45192.375</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
         <v>1</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>47</v>
       </c>
       <c r="K137">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="N137">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
         <v>3</v>
@@ -12694,7 +12694,7 @@
         <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.571</v>
+        <v>2.5</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6858794</v>
+        <v>6859108</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,46 +12732,46 @@
         <v>45192.375</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>47</v>
       </c>
       <c r="K138">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N138">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>3</v>
@@ -12783,7 +12783,7 @@
         <v>1.825</v>
       </c>
       <c r="W138">
-        <v>2.5</v>
+        <v>0.571</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12910,10 +12910,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F140" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" t="s">
         <v>42</v>
-      </c>
-      <c r="G140" t="s">
-        <v>41</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13355,7 +13355,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
         <v>36</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6858801</v>
+        <v>6858800</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45206.375</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N147">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.75</v>
+      </c>
+      <c r="AB147">
         <v>0</v>
       </c>
-      <c r="AA147">
+      <c r="AC147">
         <v>-0</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6858800</v>
+        <v>6858801</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45206.375</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N148">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S148">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y148">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13978,7 +13978,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
         <v>37</v>
@@ -14423,10 +14423,10 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G157" t="s">
         <v>41</v>
-      </c>
-      <c r="G157" t="s">
-        <v>42</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -15046,7 +15046,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
         <v>34</v>
@@ -15227,7 +15227,7 @@
         <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15491,7 +15491,7 @@
         <v>45233.625</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6858818</v>
+        <v>6858815</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45234.375</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>45</v>
+      </c>
+      <c r="K170">
+        <v>2.1</v>
+      </c>
+      <c r="L170">
+        <v>3.5</v>
+      </c>
+      <c r="M170">
+        <v>3</v>
+      </c>
+      <c r="N170">
+        <v>2.4</v>
+      </c>
+      <c r="O170">
+        <v>3.2</v>
+      </c>
+      <c r="P170">
+        <v>2.7</v>
+      </c>
+      <c r="Q170">
         <v>0</v>
       </c>
-      <c r="I170">
-        <v>3</v>
-      </c>
-      <c r="J170" t="s">
-        <v>46</v>
-      </c>
-      <c r="K170">
-        <v>1.65</v>
-      </c>
-      <c r="L170">
-        <v>3.8</v>
-      </c>
-      <c r="M170">
-        <v>4.5</v>
-      </c>
-      <c r="N170">
-        <v>1.533</v>
-      </c>
-      <c r="O170">
-        <v>4.333</v>
-      </c>
-      <c r="P170">
-        <v>4.75</v>
-      </c>
-      <c r="Q170">
-        <v>-1</v>
-      </c>
       <c r="R170">
+        <v>1.775</v>
+      </c>
+      <c r="S170">
+        <v>2.025</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
         <v>1.825</v>
       </c>
-      <c r="S170">
-        <v>1.975</v>
-      </c>
-      <c r="T170">
-        <v>3.25</v>
-      </c>
-      <c r="U170">
-        <v>1.9</v>
-      </c>
-      <c r="V170">
-        <v>1.9</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y170">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6858817</v>
+        <v>6858818</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45234.375</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>46</v>
       </c>
       <c r="K171">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L171">
+        <v>3.8</v>
+      </c>
+      <c r="M171">
+        <v>4.5</v>
+      </c>
+      <c r="N171">
+        <v>1.533</v>
+      </c>
+      <c r="O171">
+        <v>4.333</v>
+      </c>
+      <c r="P171">
+        <v>4.75</v>
+      </c>
+      <c r="Q171">
+        <v>-1</v>
+      </c>
+      <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
+        <v>3.25</v>
+      </c>
+      <c r="U171">
+        <v>1.9</v>
+      </c>
+      <c r="V171">
+        <v>1.9</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
         <v>3.75</v>
       </c>
-      <c r="M171">
-        <v>2.4</v>
-      </c>
-      <c r="N171">
-        <v>2.15</v>
-      </c>
-      <c r="O171">
-        <v>3.8</v>
-      </c>
-      <c r="P171">
-        <v>2.75</v>
-      </c>
-      <c r="Q171">
-        <v>-0.25</v>
-      </c>
-      <c r="R171">
-        <v>1.95</v>
-      </c>
-      <c r="S171">
-        <v>1.85</v>
-      </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>1.75</v>
-      </c>
-      <c r="V171">
-        <v>1.95</v>
-      </c>
-      <c r="W171">
-        <v>-1</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>1.75</v>
-      </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6858815</v>
+        <v>6858817</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45234.375</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
+        <v>2.4</v>
+      </c>
+      <c r="N172">
+        <v>2.15</v>
+      </c>
+      <c r="O172">
+        <v>3.8</v>
+      </c>
+      <c r="P172">
+        <v>2.75</v>
+      </c>
+      <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
+        <v>1.85</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="N172">
-        <v>2.4</v>
-      </c>
-      <c r="O172">
-        <v>3.2</v>
-      </c>
-      <c r="P172">
-        <v>2.7</v>
-      </c>
-      <c r="Q172">
+      <c r="U172">
+        <v>1.75</v>
+      </c>
+      <c r="V172">
+        <v>1.95</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>1.75</v>
+      </c>
+      <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB172">
         <v>0</v>
       </c>
-      <c r="R172">
-        <v>1.775</v>
-      </c>
-      <c r="S172">
-        <v>2.025</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>2.2</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>0</v>
-      </c>
-      <c r="AA172">
+      <c r="AC172">
         <v>-0</v>
-      </c>
-      <c r="AB172">
-        <v>-1</v>
-      </c>
-      <c r="AC172">
-        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16473,7 +16473,7 @@
         <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6858828</v>
+        <v>6859093</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45248.375</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182" t="s">
+        <v>47</v>
+      </c>
+      <c r="K182">
+        <v>2.75</v>
+      </c>
+      <c r="L182">
+        <v>3.4</v>
+      </c>
+      <c r="M182">
+        <v>2.25</v>
+      </c>
+      <c r="N182">
+        <v>2.6</v>
+      </c>
+      <c r="O182">
+        <v>3.4</v>
+      </c>
+      <c r="P182">
+        <v>2.375</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
         <v>2</v>
       </c>
-      <c r="J182" t="s">
-        <v>46</v>
-      </c>
-      <c r="K182">
-        <v>4</v>
-      </c>
-      <c r="L182">
-        <v>3.8</v>
-      </c>
-      <c r="M182">
-        <v>1.727</v>
-      </c>
-      <c r="N182">
-        <v>4</v>
-      </c>
-      <c r="O182">
-        <v>3.75</v>
-      </c>
-      <c r="P182">
-        <v>1.75</v>
-      </c>
-      <c r="Q182">
-        <v>0.75</v>
-      </c>
-      <c r="R182">
-        <v>1.825</v>
-      </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA182">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6858827</v>
+        <v>6858828</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,46 +16737,46 @@
         <v>45248.375</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>46</v>
       </c>
       <c r="K183">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L183">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M183">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="N183">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="O183">
         <v>3.75</v>
       </c>
       <c r="P183">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
         <v>2.75</v>
@@ -16794,19 +16794,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.4</v>
+        <v>0.75</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6859093</v>
+        <v>6859092</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,58 +16826,58 @@
         <v>45248.375</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
         <v>1</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>47</v>
       </c>
       <c r="K184">
+        <v>2.5</v>
+      </c>
+      <c r="L184">
+        <v>3.6</v>
+      </c>
+      <c r="M184">
+        <v>2.45</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184">
+        <v>3.6</v>
+      </c>
+      <c r="P184">
+        <v>3.1</v>
+      </c>
+      <c r="Q184">
+        <v>-0.25</v>
+      </c>
+      <c r="R184">
+        <v>1.825</v>
+      </c>
+      <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
         <v>2.75</v>
       </c>
-      <c r="L184">
-        <v>3.4</v>
-      </c>
-      <c r="M184">
-        <v>2.25</v>
-      </c>
-      <c r="N184">
-        <v>2.6</v>
-      </c>
-      <c r="O184">
-        <v>3.4</v>
-      </c>
-      <c r="P184">
-        <v>2.375</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>2</v>
-      </c>
-      <c r="S184">
-        <v>1.8</v>
-      </c>
-      <c r="T184">
-        <v>2.5</v>
-      </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16886,16 +16886,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6859092</v>
+        <v>6858827</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45248.375</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K185">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M185">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N185">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z185">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB185">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>45248.375</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
         <v>43</v>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -106,19 +106,19 @@
     <t>Oure FA</t>
   </si>
   <si>
-    <t>AB Trnby</t>
+    <t>Middelfart</t>
   </si>
   <si>
-    <t>Middelfart</t>
+    <t>AB Trnby</t>
   </si>
   <si>
     <t>Holstebro</t>
   </si>
   <si>
-    <t>IF Lyseng</t>
+    <t>Ishoj</t>
   </si>
   <si>
-    <t>Ishoj</t>
+    <t>IF Lyseng</t>
   </si>
   <si>
     <t>Vanlse</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5244596</v>
+        <v>5244479</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,52 +720,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P3">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -774,19 +774,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5244479</v>
+        <v>5244596</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,52 +809,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="N4">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -863,19 +863,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
+        <v>0.925</v>
+      </c>
+      <c r="AB4">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5244597</v>
+        <v>5244624</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
         <v>4.5</v>
       </c>
       <c r="M6">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="O6">
         <v>4.5</v>
       </c>
       <c r="P6">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
         <v>1.9</v>
@@ -1026,34 +1026,34 @@
         <v>1.9</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5244624</v>
+        <v>5244597</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,37 +1076,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
         <v>4.5</v>
       </c>
       <c r="M7">
+        <v>1.45</v>
+      </c>
+      <c r="N7">
         <v>6</v>
-      </c>
-      <c r="N7">
-        <v>1.363</v>
       </c>
       <c r="O7">
         <v>4.5</v>
       </c>
       <c r="P7">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R7">
         <v>1.9</v>
@@ -1115,34 +1115,34 @@
         <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>45006.625</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5244600</v>
+        <v>5251081</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,49 +1785,49 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
+        <v>1.925</v>
+      </c>
+      <c r="S15">
         <v>1.875</v>
       </c>
-      <c r="S15">
-        <v>1.925</v>
-      </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.8</v>
@@ -1836,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>3.333</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1845,16 +1845,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1874,10 +1874,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5251081</v>
+        <v>5244600</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,49 +2052,49 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
+        <v>1.875</v>
+      </c>
+      <c r="S18">
         <v>1.925</v>
       </c>
-      <c r="S18">
-        <v>1.875</v>
-      </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
         <v>1.8</v>
@@ -2103,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="W18">
-        <v>3.333</v>
+        <v>2</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2112,16 +2112,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5251082</v>
+        <v>5236199</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,73 +2144,73 @@
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>2.35</v>
+        <v>1.083</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="M19">
-        <v>2.45</v>
+        <v>19</v>
       </c>
       <c r="N19">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="P19">
-        <v>2.4</v>
+        <v>41</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X19">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5236199</v>
+        <v>5251082</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,73 +2322,73 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>2.35</v>
+      </c>
+      <c r="L21">
+        <v>3.75</v>
+      </c>
+      <c r="M21">
+        <v>2.45</v>
+      </c>
+      <c r="N21">
+        <v>2.4</v>
+      </c>
+      <c r="O21">
+        <v>3.75</v>
+      </c>
+      <c r="P21">
+        <v>2.4</v>
+      </c>
+      <c r="Q21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>1.083</v>
-      </c>
-      <c r="L21">
-        <v>9.5</v>
-      </c>
-      <c r="M21">
-        <v>19</v>
-      </c>
-      <c r="N21">
-        <v>1.02</v>
-      </c>
-      <c r="O21">
-        <v>17</v>
-      </c>
-      <c r="P21">
-        <v>41</v>
-      </c>
-      <c r="Q21">
-        <v>-4</v>
-      </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5244629</v>
+        <v>5244602</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45017.375</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
+        <v>2.15</v>
+      </c>
+      <c r="N23">
+        <v>2.375</v>
+      </c>
+      <c r="O23">
+        <v>3.6</v>
+      </c>
+      <c r="P23">
+        <v>2.45</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>1.85</v>
       </c>
-      <c r="N23">
-        <v>3.8</v>
-      </c>
-      <c r="O23">
-        <v>3.75</v>
-      </c>
-      <c r="P23">
-        <v>1.727</v>
-      </c>
-      <c r="Q23">
-        <v>0.75</v>
-      </c>
-      <c r="R23">
-        <v>1.825</v>
-      </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y23">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5244602</v>
+        <v>5244629</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45017.375</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5251084</v>
+        <v>5244631</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>1.55</v>
+        <v>1.416</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5244631</v>
+        <v>5236200</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,49 +3209,49 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>2.05</v>
+      </c>
+      <c r="L31">
+        <v>3.6</v>
+      </c>
+      <c r="M31">
+        <v>2.9</v>
+      </c>
+      <c r="N31">
+        <v>2.2</v>
+      </c>
+      <c r="O31">
+        <v>3.6</v>
+      </c>
+      <c r="P31">
+        <v>2.8</v>
+      </c>
+      <c r="Q31">
+        <v>-0.25</v>
+      </c>
+      <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
         <v>3</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31">
-        <v>1.416</v>
-      </c>
-      <c r="L31">
-        <v>4.333</v>
-      </c>
-      <c r="M31">
-        <v>6</v>
-      </c>
-      <c r="N31">
-        <v>1.363</v>
-      </c>
-      <c r="O31">
-        <v>4.75</v>
-      </c>
-      <c r="P31">
-        <v>7</v>
-      </c>
-      <c r="Q31">
-        <v>-1.25</v>
-      </c>
-      <c r="R31">
-        <v>1.75</v>
-      </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
-      <c r="T31">
-        <v>2.75</v>
       </c>
       <c r="U31">
         <v>1.975</v>
@@ -3260,19 +3260,19 @@
         <v>1.825</v>
       </c>
       <c r="W31">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
         <v>0.9750000000000001</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244605</v>
+        <v>5244604</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
+        <v>1.65</v>
+      </c>
+      <c r="N32">
+        <v>4.2</v>
+      </c>
+      <c r="O32">
+        <v>3.8</v>
+      </c>
+      <c r="P32">
+        <v>1.65</v>
+      </c>
+      <c r="Q32">
+        <v>0.75</v>
+      </c>
+      <c r="R32">
         <v>1.95</v>
       </c>
-      <c r="N32">
-        <v>3.6</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>1.909</v>
-      </c>
-      <c r="Q32">
-        <v>0.5</v>
-      </c>
-      <c r="R32">
-        <v>1.875</v>
-      </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5244604</v>
+        <v>5251084</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,56 +3387,56 @@
         <v>45026.375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>1</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
       </c>
       <c r="J33" t="s">
         <v>46</v>
       </c>
       <c r="K33">
+        <v>1.55</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>1.533</v>
+      </c>
+      <c r="O33">
         <v>4.2</v>
       </c>
-      <c r="L33">
-        <v>3.8</v>
-      </c>
-      <c r="M33">
-        <v>1.65</v>
-      </c>
-      <c r="N33">
-        <v>4.2</v>
-      </c>
-      <c r="O33">
-        <v>3.8</v>
-      </c>
       <c r="P33">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R33">
+        <v>1.8</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
         <v>1.95</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="T33">
-        <v>2.75</v>
-      </c>
-      <c r="U33">
-        <v>1.775</v>
-      </c>
-      <c r="V33">
-        <v>2.025</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
@@ -3444,19 +3444,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.6499999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB33">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5236200</v>
+        <v>5244605</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3479,73 +3479,73 @@
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L34">
+        <v>3.3</v>
+      </c>
+      <c r="M34">
+        <v>1.95</v>
+      </c>
+      <c r="N34">
         <v>3.6</v>
       </c>
-      <c r="M34">
-        <v>2.9</v>
-      </c>
-      <c r="N34">
-        <v>2.2</v>
-      </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P34">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y34">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>45031.34375</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -3746,7 +3746,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3921,7 +3921,7 @@
         <v>45032.375</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6526648</v>
+        <v>6528856</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,49 +4188,49 @@
         <v>45038.375</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N42">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
         <v>1.925</v>
@@ -4242,22 +4242,22 @@
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y42">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6528856</v>
+        <v>6526648</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,49 +4277,49 @@
         <v>45038.375</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43">
+        <v>2.5</v>
+      </c>
+      <c r="L43">
+        <v>3.6</v>
+      </c>
+      <c r="M43">
+        <v>2.3</v>
+      </c>
+      <c r="N43">
+        <v>2.5</v>
+      </c>
+      <c r="O43">
+        <v>3.6</v>
+      </c>
+      <c r="P43">
+        <v>2.3</v>
+      </c>
+      <c r="Q43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>45</v>
-      </c>
-      <c r="K43">
-        <v>1.533</v>
-      </c>
-      <c r="L43">
-        <v>4</v>
-      </c>
-      <c r="M43">
-        <v>5.25</v>
-      </c>
-      <c r="N43">
-        <v>1.363</v>
-      </c>
-      <c r="O43">
-        <v>4.5</v>
-      </c>
-      <c r="P43">
-        <v>7</v>
-      </c>
-      <c r="Q43">
-        <v>-1.5</v>
-      </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
         <v>1.925</v>
@@ -4331,22 +4331,22 @@
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6526512</v>
+        <v>6528857</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,46 +4458,46 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
         <v>1.925</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6528857</v>
+        <v>6526512</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,46 +4547,46 @@
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.925</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y46">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4814,7 +4814,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4992,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5170,7 +5170,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6526513</v>
+        <v>6528860</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45052.375</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
         <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W54">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6528860</v>
+        <v>6526513</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45052.375</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O55">
         <v>3.6</v>
       </c>
       <c r="P55">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC55">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>45059.375</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6526514</v>
+        <v>6526652</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,76 +5612,76 @@
         <v>45059.375</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K58">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L58">
+        <v>3.8</v>
+      </c>
+      <c r="M58">
+        <v>2.15</v>
+      </c>
+      <c r="N58">
+        <v>2.9</v>
+      </c>
+      <c r="O58">
         <v>4</v>
       </c>
-      <c r="M58">
-        <v>4.75</v>
-      </c>
-      <c r="N58">
-        <v>1.5</v>
-      </c>
-      <c r="O58">
-        <v>4.2</v>
-      </c>
       <c r="P58">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6526652</v>
+        <v>6526514</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45059.375</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L59">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="N59">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P59">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>45065.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5968,7 +5968,7 @@
         <v>45065.57291666666</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6324,7 +6324,7 @@
         <v>45066.375</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6526654</v>
+        <v>6528865</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>47</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>3.75</v>
+      </c>
+      <c r="M67">
         <v>3</v>
       </c>
-      <c r="J67" t="s">
-        <v>46</v>
-      </c>
-      <c r="K67">
-        <v>12</v>
-      </c>
-      <c r="L67">
-        <v>6.5</v>
-      </c>
-      <c r="M67">
-        <v>1.166</v>
-      </c>
       <c r="N67">
-        <v>12</v>
+        <v>2.05</v>
       </c>
       <c r="O67">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P67">
-        <v>1.166</v>
+        <v>2.75</v>
       </c>
       <c r="Q67">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>1.875</v>
+      </c>
+      <c r="S67">
         <v>1.925</v>
       </c>
-      <c r="S67">
-        <v>1.875</v>
-      </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6528865</v>
+        <v>6526654</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F68" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" t="s">
         <v>34</v>
       </c>
-      <c r="G68" t="s">
-        <v>37</v>
-      </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>3</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N68">
-        <v>2.05</v>
+        <v>12</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P68">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R68">
+        <v>1.925</v>
+      </c>
+      <c r="S68">
         <v>1.875</v>
       </c>
-      <c r="S68">
-        <v>1.925</v>
-      </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
         <v>0.875</v>
       </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6769,7 +6769,7 @@
         <v>45073.375</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>40</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6528867</v>
+        <v>6526656</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N73">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6526656</v>
+        <v>6528867</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
         <v>33</v>
       </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
       <c r="H74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
         <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N74">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA74">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>45080.375</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>39</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6528882</v>
+        <v>6526517</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45080.375</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N76">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O76">
         <v>3.6</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6526517</v>
+        <v>6528882</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45080.375</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M77">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N77">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O77">
         <v>3.6</v>
       </c>
       <c r="P77">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7481,10 +7481,10 @@
         <v>45086.57291666666</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7748,10 +7748,10 @@
         <v>45087.375</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6528871</v>
+        <v>6526660</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,55 +8015,55 @@
         <v>45094.375</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <v>1</v>
-      </c>
-      <c r="I85">
-        <v>3</v>
       </c>
       <c r="J85" t="s">
         <v>46</v>
       </c>
       <c r="K85">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="L85">
+        <v>3.6</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3.1</v>
+      </c>
+      <c r="O85">
         <v>4</v>
       </c>
-      <c r="M85">
-        <v>4.5</v>
-      </c>
-      <c r="N85">
-        <v>1.3</v>
-      </c>
-      <c r="O85">
-        <v>5</v>
-      </c>
       <c r="P85">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q85">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8072,19 +8072,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>6</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.8500000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6528884</v>
+        <v>6528870</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,58 +8104,58 @@
         <v>45094.375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>47</v>
       </c>
       <c r="K86">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="L86">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N86">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P86">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R86">
+        <v>1.85</v>
+      </c>
+      <c r="S86">
+        <v>1.95</v>
+      </c>
+      <c r="T86">
+        <v>3.25</v>
+      </c>
+      <c r="U86">
+        <v>1.925</v>
+      </c>
+      <c r="V86">
         <v>1.875</v>
       </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
-      <c r="V86">
-        <v>1.8</v>
-      </c>
       <c r="W86">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,16 +8164,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA86">
+        <v>-1</v>
+      </c>
+      <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
         <v>0.875</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>1</v>
-      </c>
-      <c r="AC86">
-        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6528870</v>
+        <v>6527542</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,40 +8193,40 @@
         <v>45094.375</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>47</v>
       </c>
       <c r="K87">
-        <v>1.45</v>
+        <v>1.142</v>
       </c>
       <c r="L87">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M87">
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="N87">
-        <v>1.333</v>
+        <v>1.125</v>
       </c>
       <c r="O87">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P87">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Q87">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R87">
         <v>1.85</v>
@@ -8235,16 +8235,16 @@
         <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>0.333</v>
+        <v>0.125</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6527542</v>
+        <v>6526519</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,58 +8282,58 @@
         <v>45094.375</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
         <v>2</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="L88">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>13</v>
+        <v>4.333</v>
       </c>
       <c r="N88">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="O88">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P88">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q88">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8342,16 +8342,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6526519</v>
+        <v>6528871</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8371,73 @@
         <v>45094.375</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89">
+        <v>1.6</v>
+      </c>
+      <c r="L89">
         <v>4</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>47</v>
-      </c>
-      <c r="K89">
-        <v>1.571</v>
-      </c>
-      <c r="L89">
-        <v>4.2</v>
-      </c>
       <c r="M89">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N89">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O89">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6526660</v>
+        <v>6528884</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45094.375</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q90">
         <v>0.25</v>
       </c>
       <c r="R90">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC90">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6858502</v>
+        <v>6859123</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
         <v>3.75</v>
       </c>
       <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>1.85</v>
+      </c>
+      <c r="O93">
+        <v>3.8</v>
+      </c>
+      <c r="P93">
+        <v>3.25</v>
+      </c>
+      <c r="Q93">
+        <v>-0.5</v>
+      </c>
+      <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
+        <v>1.9</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <v>1.8</v>
+      </c>
+      <c r="V93">
         <v>2</v>
       </c>
-      <c r="N93">
-        <v>3.4</v>
-      </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
-      <c r="P93">
-        <v>1.75</v>
-      </c>
-      <c r="Q93">
-        <v>0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.975</v>
-      </c>
-      <c r="S93">
-        <v>1.825</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>1.85</v>
-      </c>
-      <c r="V93">
-        <v>1.95</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6859123</v>
+        <v>6858502</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L94">
         <v>3.75</v>
       </c>
       <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3.4</v>
+      </c>
+      <c r="O94">
         <v>4</v>
       </c>
-      <c r="N94">
+      <c r="P94">
+        <v>1.75</v>
+      </c>
+      <c r="Q94">
+        <v>0.5</v>
+      </c>
+      <c r="R94">
+        <v>1.975</v>
+      </c>
+      <c r="S94">
+        <v>1.825</v>
+      </c>
+      <c r="T94">
+        <v>3.25</v>
+      </c>
+      <c r="U94">
         <v>1.85</v>
       </c>
-      <c r="O94">
-        <v>3.8</v>
-      </c>
-      <c r="P94">
-        <v>3.25</v>
-      </c>
-      <c r="Q94">
-        <v>-0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.9</v>
-      </c>
-      <c r="S94">
-        <v>1.9</v>
-      </c>
-      <c r="T94">
+      <c r="V94">
+        <v>1.95</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>3</v>
       </c>
-      <c r="U94">
-        <v>1.8</v>
-      </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
-      <c r="W94">
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
-      <c r="Z94">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45143.375</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N95">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X95">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45143.375</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9264,7 +9264,7 @@
         <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6859118</v>
+        <v>6858768</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L103">
+        <v>3.8</v>
+      </c>
+      <c r="M103">
+        <v>1.65</v>
+      </c>
+      <c r="N103">
         <v>4.5</v>
       </c>
-      <c r="M103">
-        <v>6</v>
-      </c>
-      <c r="N103">
-        <v>1.45</v>
-      </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6858768</v>
+        <v>6859118</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N104">
+        <v>1.45</v>
+      </c>
+      <c r="O104">
         <v>4.5</v>
       </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
       <c r="P104">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y104">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -10240,7 +10240,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
@@ -10329,7 +10329,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
         <v>36</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6858777</v>
+        <v>6859115</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,67 +10685,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M115">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N115">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
         <v>3</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10754,7 +10754,7 @@
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6859115</v>
+        <v>6858777</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,67 +10774,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L116">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X116">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10843,7 +10843,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6858784</v>
+        <v>6859113</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,13 +11397,13 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11412,19 +11412,19 @@
         <v>47</v>
       </c>
       <c r="K123">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N123">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P123">
         <v>4.75</v>
@@ -11433,13 +11433,13 @@
         <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
         <v>1.9</v>
@@ -11448,7 +11448,7 @@
         <v>1.9</v>
       </c>
       <c r="W123">
-        <v>0.571</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11457,16 +11457,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6859113</v>
+        <v>6858784</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,13 +11486,13 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11501,19 +11501,19 @@
         <v>47</v>
       </c>
       <c r="K124">
+        <v>1.65</v>
+      </c>
+      <c r="L124">
+        <v>3.75</v>
+      </c>
+      <c r="M124">
+        <v>4.333</v>
+      </c>
+      <c r="N124">
         <v>1.571</v>
       </c>
-      <c r="L124">
+      <c r="O124">
         <v>3.8</v>
-      </c>
-      <c r="M124">
-        <v>4.5</v>
-      </c>
-      <c r="N124">
-        <v>1.533</v>
-      </c>
-      <c r="O124">
-        <v>4</v>
       </c>
       <c r="P124">
         <v>4.75</v>
@@ -11522,13 +11522,13 @@
         <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
         <v>1.9</v>
@@ -11537,7 +11537,7 @@
         <v>1.9</v>
       </c>
       <c r="W124">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
         <v>35</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6859111</v>
+        <v>6858785</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,76 +11753,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>45</v>
+      </c>
+      <c r="K127">
+        <v>1.909</v>
+      </c>
+      <c r="L127">
+        <v>3.6</v>
+      </c>
+      <c r="M127">
+        <v>3.4</v>
+      </c>
+      <c r="N127">
+        <v>1.85</v>
+      </c>
+      <c r="O127">
+        <v>3.75</v>
+      </c>
+      <c r="P127">
+        <v>3.4</v>
+      </c>
+      <c r="Q127">
+        <v>-0.5</v>
+      </c>
+      <c r="R127">
+        <v>1.925</v>
+      </c>
+      <c r="S127">
+        <v>1.875</v>
+      </c>
+      <c r="T127">
         <v>3</v>
       </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>47</v>
-      </c>
-      <c r="K127">
-        <v>2.3</v>
-      </c>
-      <c r="L127">
-        <v>3.5</v>
-      </c>
-      <c r="M127">
-        <v>2.7</v>
-      </c>
-      <c r="N127">
-        <v>2.15</v>
-      </c>
-      <c r="O127">
-        <v>3.6</v>
-      </c>
-      <c r="P127">
-        <v>2.8</v>
-      </c>
-      <c r="Q127">
-        <v>-0.25</v>
-      </c>
-      <c r="R127">
-        <v>1.95</v>
-      </c>
-      <c r="S127">
-        <v>1.85</v>
-      </c>
-      <c r="T127">
+      <c r="U127">
+        <v>1.8</v>
+      </c>
+      <c r="V127">
+        <v>2</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
         <v>2.75</v>
       </c>
-      <c r="U127">
-        <v>1.975</v>
-      </c>
-      <c r="V127">
-        <v>1.825</v>
-      </c>
-      <c r="W127">
-        <v>1.15</v>
-      </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB127">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6858785</v>
+        <v>6859111</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L128">
+        <v>3.5</v>
+      </c>
+      <c r="M128">
+        <v>2.7</v>
+      </c>
+      <c r="N128">
+        <v>2.15</v>
+      </c>
+      <c r="O128">
         <v>3.6</v>
       </c>
-      <c r="M128">
-        <v>3.4</v>
-      </c>
-      <c r="N128">
+      <c r="P128">
+        <v>2.8</v>
+      </c>
+      <c r="Q128">
+        <v>-0.25</v>
+      </c>
+      <c r="R128">
+        <v>1.95</v>
+      </c>
+      <c r="S128">
         <v>1.85</v>
       </c>
-      <c r="O128">
-        <v>3.75</v>
-      </c>
-      <c r="P128">
-        <v>3.4</v>
-      </c>
-      <c r="Q128">
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
+        <v>1.825</v>
+      </c>
+      <c r="W128">
+        <v>1.15</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>0.95</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>0.4875</v>
+      </c>
+      <c r="AC128">
         <v>-0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.925</v>
-      </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>3</v>
-      </c>
-      <c r="U128">
-        <v>1.8</v>
-      </c>
-      <c r="V128">
-        <v>2</v>
-      </c>
-      <c r="W128">
-        <v>-1</v>
-      </c>
-      <c r="X128">
-        <v>2.75</v>
-      </c>
-      <c r="Y128">
-        <v>-1</v>
-      </c>
-      <c r="Z128">
-        <v>-1</v>
-      </c>
-      <c r="AA128">
-        <v>0.875</v>
-      </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
-      <c r="AC128">
-        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6858789</v>
+        <v>6859110</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,55 +12020,55 @@
         <v>45185.375</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>46</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L130">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
-        <v>1.666</v>
+        <v>5.25</v>
       </c>
       <c r="N130">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12077,19 +12077,19 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6859110</v>
+        <v>6858790</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45185.375</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N131">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y131">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6858790</v>
+        <v>6858789</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45185.375</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M132">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
         <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z132">
         <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -12376,7 +12376,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -13002,7 +13002,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13269,7 +13269,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6858799</v>
+        <v>6859105</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,40 +13355,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N145">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
         <v>1.975</v>
@@ -13397,22 +13397,22 @@
         <v>1.825</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
@@ -13421,10 +13421,10 @@
         <v>0.825</v>
       </c>
       <c r="AB145">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6859105</v>
+        <v>6858799</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,40 +13444,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N146">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
         <v>1.975</v>
@@ -13486,22 +13486,22 @@
         <v>1.825</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z146">
         <v>-1</v>
@@ -13510,10 +13510,10 @@
         <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC146">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13800,7 +13800,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -14248,7 +14248,7 @@
         <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14337,7 +14337,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14601,7 +14601,7 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6859100</v>
+        <v>6858810</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K160">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N160">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6858810</v>
+        <v>6859100</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45220.375</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K161">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N161">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y161">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>40</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6858811</v>
+        <v>6859099</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,56 +14957,56 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J163" t="s">
         <v>46</v>
       </c>
       <c r="K163">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N163">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O163">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P163">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2.75</v>
+      </c>
+      <c r="U163">
         <v>1.825</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.975</v>
       </c>
-      <c r="T163">
-        <v>3.25</v>
-      </c>
-      <c r="U163">
-        <v>1.9</v>
-      </c>
-      <c r="V163">
-        <v>1.9</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
@@ -15014,19 +15014,19 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6859099</v>
+        <v>6858811</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,55 +15046,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>46</v>
       </c>
       <c r="K164">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O164">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P164">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15103,19 +15103,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB164">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6858815</v>
+        <v>6858818</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45234.375</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M170">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N170">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P170">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R170">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6858818</v>
+        <v>6858817</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,55 +15669,55 @@
         <v>45234.375</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>46</v>
       </c>
       <c r="K171">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="L171">
+        <v>3.75</v>
+      </c>
+      <c r="M171">
+        <v>2.4</v>
+      </c>
+      <c r="N171">
+        <v>2.15</v>
+      </c>
+      <c r="O171">
         <v>3.8</v>
       </c>
-      <c r="M171">
-        <v>4.5</v>
-      </c>
-      <c r="N171">
-        <v>1.533</v>
-      </c>
-      <c r="O171">
-        <v>4.333</v>
-      </c>
       <c r="P171">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q171">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15726,19 +15726,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC171">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6858817</v>
+        <v>6858815</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45234.375</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K172">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
         <v>2.4</v>
       </c>
-      <c r="N172">
-        <v>2.15</v>
-      </c>
       <c r="O172">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
+        <v>2.7</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>1.775</v>
+      </c>
+      <c r="S172">
+        <v>2.025</v>
+      </c>
+      <c r="T172">
         <v>2.75</v>
       </c>
-      <c r="Q172">
-        <v>-0.25</v>
-      </c>
-      <c r="R172">
-        <v>1.95</v>
-      </c>
-      <c r="S172">
-        <v>1.85</v>
-      </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
       <c r="U172">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y172">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
         <v>36</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6858821</v>
+        <v>6859096</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,46 +16114,46 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K176">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N176">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O176">
         <v>4</v>
       </c>
       <c r="P176">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q176">
         <v>-1</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T176">
         <v>3</v>
@@ -16165,25 +16165,25 @@
         <v>2</v>
       </c>
       <c r="W176">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6859096</v>
+        <v>6858823</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,40 +16292,40 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H178">
+        <v>2</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>47</v>
+      </c>
+      <c r="K178">
+        <v>2.45</v>
+      </c>
+      <c r="L178">
+        <v>3.75</v>
+      </c>
+      <c r="M178">
+        <v>2.375</v>
+      </c>
+      <c r="N178">
+        <v>2.45</v>
+      </c>
+      <c r="O178">
+        <v>3.75</v>
+      </c>
+      <c r="P178">
+        <v>2.375</v>
+      </c>
+      <c r="Q178">
         <v>0</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" t="s">
-        <v>45</v>
-      </c>
-      <c r="K178">
-        <v>1.571</v>
-      </c>
-      <c r="L178">
-        <v>4</v>
-      </c>
-      <c r="M178">
-        <v>4.75</v>
-      </c>
-      <c r="N178">
-        <v>1.571</v>
-      </c>
-      <c r="O178">
-        <v>4</v>
-      </c>
-      <c r="P178">
-        <v>4.75</v>
-      </c>
-      <c r="Q178">
-        <v>-1</v>
       </c>
       <c r="R178">
         <v>1.95</v>
@@ -16334,34 +16334,34 @@
         <v>1.85</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U178">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X178">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6858823</v>
+        <v>6858821</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,76 +16381,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
         <v>2</v>
-      </c>
-      <c r="I179">
-        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>47</v>
       </c>
       <c r="K179">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L179">
         <v>3.75</v>
       </c>
       <c r="M179">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N179">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P179">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q179">
+        <v>-1</v>
+      </c>
+      <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>3</v>
+      </c>
+      <c r="U179">
+        <v>1.8</v>
+      </c>
+      <c r="V179">
+        <v>2</v>
+      </c>
+      <c r="W179">
+        <v>0.5</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
         <v>0</v>
       </c>
-      <c r="R179">
-        <v>1.95</v>
-      </c>
-      <c r="S179">
-        <v>1.85</v>
-      </c>
-      <c r="T179">
-        <v>3.25</v>
-      </c>
-      <c r="U179">
-        <v>1.95</v>
-      </c>
-      <c r="V179">
-        <v>1.85</v>
-      </c>
-      <c r="W179">
-        <v>1.45</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>0.95</v>
-      </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC179">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6858825</v>
+        <v>6859092</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,58 +16559,58 @@
         <v>45248.375</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>47</v>
       </c>
       <c r="K181">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L181">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="N181">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
+        <v>1.975</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
+        <v>1.75</v>
+      </c>
+      <c r="V181">
         <v>1.95</v>
       </c>
-      <c r="T181">
-        <v>3.5</v>
-      </c>
-      <c r="U181">
-        <v>1.95</v>
-      </c>
-      <c r="V181">
-        <v>1.85</v>
-      </c>
       <c r="W181">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16619,16 +16619,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6859093</v>
+        <v>6858827</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45248.375</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K182">
+        <v>2.3</v>
+      </c>
+      <c r="L182">
+        <v>3.5</v>
+      </c>
+      <c r="M182">
+        <v>2.625</v>
+      </c>
+      <c r="N182">
+        <v>1.85</v>
+      </c>
+      <c r="O182">
+        <v>3.75</v>
+      </c>
+      <c r="P182">
+        <v>3.4</v>
+      </c>
+      <c r="Q182">
+        <v>-0.5</v>
+      </c>
+      <c r="R182">
+        <v>1.875</v>
+      </c>
+      <c r="S182">
+        <v>1.925</v>
+      </c>
+      <c r="T182">
         <v>2.75</v>
       </c>
-      <c r="L182">
-        <v>3.4</v>
-      </c>
-      <c r="M182">
-        <v>2.25</v>
-      </c>
-      <c r="N182">
-        <v>2.6</v>
-      </c>
-      <c r="O182">
-        <v>3.4</v>
-      </c>
-      <c r="P182">
-        <v>2.375</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182">
-        <v>2</v>
-      </c>
-      <c r="S182">
-        <v>1.8</v>
-      </c>
-      <c r="T182">
-        <v>2.5</v>
-      </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6858828</v>
+        <v>6858826</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,55 +16737,55 @@
         <v>45248.375</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J183" t="s">
         <v>46</v>
       </c>
       <c r="K183">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L183">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M183">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N183">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16794,19 +16794,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB183">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6859092</v>
+        <v>6859093</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45248.375</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>47</v>
       </c>
       <c r="K184">
+        <v>2.75</v>
+      </c>
+      <c r="L184">
+        <v>3.4</v>
+      </c>
+      <c r="M184">
+        <v>2.25</v>
+      </c>
+      <c r="N184">
+        <v>2.6</v>
+      </c>
+      <c r="O184">
+        <v>3.4</v>
+      </c>
+      <c r="P184">
+        <v>2.375</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>1.8</v>
+      </c>
+      <c r="T184">
         <v>2.5</v>
       </c>
-      <c r="L184">
-        <v>3.6</v>
-      </c>
-      <c r="M184">
-        <v>2.45</v>
-      </c>
-      <c r="N184">
-        <v>2</v>
-      </c>
-      <c r="O184">
-        <v>3.6</v>
-      </c>
-      <c r="P184">
-        <v>3.1</v>
-      </c>
-      <c r="Q184">
-        <v>-0.25</v>
-      </c>
-      <c r="R184">
-        <v>1.825</v>
-      </c>
-      <c r="S184">
-        <v>1.975</v>
-      </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
       <c r="U184">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
+        <v>1.6</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
         <v>1</v>
       </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
-      <c r="Z184">
-        <v>0.825</v>
-      </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6858827</v>
+        <v>6858828</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,46 +16915,46 @@
         <v>45248.375</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
         <v>46</v>
       </c>
       <c r="K185">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L185">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M185">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="N185">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="O185">
         <v>3.75</v>
       </c>
       <c r="P185">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
         <v>2.75</v>
@@ -16972,19 +16972,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.4</v>
+        <v>0.75</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6858826</v>
+        <v>6858825</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45248.375</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K186">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L186">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M186">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N186">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O186">
+        <v>3.8</v>
+      </c>
+      <c r="P186">
+        <v>4.2</v>
+      </c>
+      <c r="Q186">
+        <v>-0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.85</v>
+      </c>
+      <c r="S186">
+        <v>1.95</v>
+      </c>
+      <c r="T186">
         <v>3.5</v>
       </c>
-      <c r="P186">
-        <v>2.15</v>
-      </c>
-      <c r="Q186">
-        <v>0.25</v>
-      </c>
-      <c r="R186">
-        <v>1.875</v>
-      </c>
-      <c r="S186">
-        <v>1.925</v>
-      </c>
-      <c r="T186">
-        <v>3</v>
-      </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -103,10 +103,10 @@
     <t>Denmark Division 3</t>
   </si>
   <si>
-    <t>Oure FA</t>
+    <t>Middelfart</t>
   </si>
   <si>
-    <t>Middelfart</t>
+    <t>Oure FA</t>
   </si>
   <si>
     <t>AB Trnby</t>
@@ -115,13 +115,13 @@
     <t>Holstebro</t>
   </si>
   <si>
-    <t>Ishoj</t>
-  </si>
-  <si>
     <t>IF Lyseng</t>
   </si>
   <si>
     <t>Vanlse</t>
+  </si>
+  <si>
+    <t>Ishoj</t>
   </si>
   <si>
     <t>VSK Arhus</t>
@@ -151,10 +151,10 @@
     <t>Avarta</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5235485</v>
+        <v>5244479</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,10 +631,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -643,61 +643,61 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="L2">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="N2">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="O2">
         <v>4.5</v>
       </c>
       <c r="P2">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q2">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5244479</v>
+        <v>5235485</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -732,61 +732,61 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="N3">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="O3">
         <v>4.5</v>
       </c>
       <c r="P3">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y3">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>3.75</v>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>3.4</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5244624</v>
+        <v>5244597</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L6">
         <v>4.5</v>
       </c>
       <c r="M6">
+        <v>1.45</v>
+      </c>
+      <c r="N6">
         <v>6</v>
-      </c>
-      <c r="N6">
-        <v>1.363</v>
       </c>
       <c r="O6">
         <v>4.5</v>
       </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R6">
         <v>1.9</v>
@@ -1026,34 +1026,34 @@
         <v>1.9</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5244597</v>
+        <v>5244625</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,37 +1076,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>5.5</v>
+        <v>1.166</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M7">
-        <v>1.45</v>
+        <v>12</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>1.111</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P7">
-        <v>1.444</v>
+        <v>17</v>
       </c>
       <c r="Q7">
-        <v>1.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R7">
         <v>1.9</v>
@@ -1115,31 +1115,31 @@
         <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5244625</v>
+        <v>5244624</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,37 +1165,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="L8">
+        <v>4.5</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>1.363</v>
+      </c>
+      <c r="O8">
+        <v>4.5</v>
+      </c>
+      <c r="P8">
         <v>6.5</v>
       </c>
-      <c r="M8">
-        <v>12</v>
-      </c>
-      <c r="N8">
-        <v>1.111</v>
-      </c>
-      <c r="O8">
-        <v>9</v>
-      </c>
-      <c r="P8">
-        <v>17</v>
-      </c>
       <c r="Q8">
-        <v>-2.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R8">
         <v>1.9</v>
@@ -1204,16 +1204,16 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
+        <v>1.775</v>
+      </c>
+      <c r="V8">
         <v>1.925</v>
       </c>
-      <c r="V8">
-        <v>1.775</v>
-      </c>
       <c r="W8">
-        <v>0.111</v>
+        <v>0.363</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1228,10 +1228,10 @@
         <v>-1</v>
       </c>
       <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.925</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>3.5</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5251080</v>
+        <v>5244626</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,58 +1340,58 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
+        <v>1.825</v>
+      </c>
+      <c r="V10">
         <v>1.975</v>
       </c>
-      <c r="V10">
-        <v>1.825</v>
-      </c>
       <c r="W10">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1400,16 +1400,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5244626</v>
+        <v>5251080</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,58 +1429,58 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>2</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N11">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
+        <v>1.975</v>
+      </c>
+      <c r="V11">
         <v>1.825</v>
       </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
       <c r="W11">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1489,16 +1489,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>45006.625</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>19</v>
@@ -1699,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1788,7 +1788,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>2.4</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5244627</v>
+        <v>5244600</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,58 +1963,58 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>2.15</v>
       </c>
       <c r="Q17">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>0.1419999999999999</v>
+        <v>2</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5244600</v>
+        <v>5244627</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,58 +2052,58 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P18">
-        <v>2.15</v>
+        <v>15</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R18">
+        <v>1.825</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>3.5</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="S18">
-        <v>1.925</v>
-      </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.8</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
       <c r="W18">
-        <v>2</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2112,16 +2112,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>0.825</v>
+      </c>
+      <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.875</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>0.8</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5244628</v>
+        <v>5251082</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,10 +2230,10 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2242,64 +2242,64 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5251082</v>
+        <v>5244628</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,7 +2322,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2331,64 +2331,64 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N21">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5244630</v>
+        <v>5244602</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45017.375</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5244602</v>
+        <v>5244629</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,13 +2497,13 @@
         <v>45017.375</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2512,61 +2512,61 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="N23">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5244629</v>
+        <v>5244630</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45017.375</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="L24">
         <v>3.75</v>
       </c>
       <c r="M24">
+        <v>3.2</v>
+      </c>
+      <c r="N24">
+        <v>2.3</v>
+      </c>
+      <c r="O24">
+        <v>3.6</v>
+      </c>
+      <c r="P24">
+        <v>2.55</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.8</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="N24">
-        <v>3.8</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
-      <c r="P24">
-        <v>1.727</v>
-      </c>
-      <c r="Q24">
-        <v>0.75</v>
-      </c>
-      <c r="R24">
-        <v>1.825</v>
-      </c>
-      <c r="S24">
-        <v>1.975</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
-        <v>1.9</v>
-      </c>
-      <c r="V24">
-        <v>1.9</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.533</v>
@@ -2767,7 +2767,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>2.1</v>
@@ -2945,7 +2945,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2954,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>1.6</v>
@@ -3043,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>1.9</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5244631</v>
+        <v>5244604</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,73 +3120,73 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>1.416</v>
+        <v>4.2</v>
       </c>
       <c r="L30">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="N30">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5236200</v>
+        <v>5244605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,73 +3212,73 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>46</v>
       </c>
       <c r="K31">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L31">
+        <v>3.3</v>
+      </c>
+      <c r="M31">
+        <v>1.95</v>
+      </c>
+      <c r="N31">
         <v>3.6</v>
       </c>
-      <c r="M31">
-        <v>2.9</v>
-      </c>
-      <c r="N31">
-        <v>2.2</v>
-      </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y31">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244604</v>
+        <v>5244631</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,73 +3298,73 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>4.2</v>
+        <v>1.416</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M32">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N32">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P32">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R32">
+        <v>1.75</v>
+      </c>
+      <c r="S32">
         <v>1.95</v>
-      </c>
-      <c r="S32">
-        <v>1.85</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB32">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
         <v>45026.375</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>1.55</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5244605</v>
+        <v>5236200</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45026.375</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
+        <v>2.2</v>
+      </c>
+      <c r="O34">
         <v>3.6</v>
       </c>
-      <c r="O34">
-        <v>3.3</v>
-      </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6519855</v>
+        <v>6519913</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,70 +3565,70 @@
         <v>45031.34375</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N35">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
+        <v>3.4</v>
+      </c>
+      <c r="Q35">
+        <v>-0.5</v>
+      </c>
+      <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
         <v>2.75</v>
       </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>1.8</v>
-      </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V35">
         <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA35">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6519913</v>
+        <v>6519855</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,70 +3654,70 @@
         <v>45031.34375</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36">
+        <v>2.3</v>
+      </c>
+      <c r="L36">
+        <v>3.5</v>
+      </c>
+      <c r="M36">
+        <v>2.6</v>
+      </c>
+      <c r="N36">
+        <v>2.2</v>
+      </c>
+      <c r="O36">
+        <v>3.5</v>
+      </c>
+      <c r="P36">
+        <v>2.75</v>
+      </c>
+      <c r="Q36">
+        <v>-0.25</v>
+      </c>
+      <c r="R36">
         <v>2</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36">
-        <v>2.2</v>
-      </c>
-      <c r="L36">
-        <v>3.6</v>
-      </c>
-      <c r="M36">
-        <v>2.75</v>
-      </c>
-      <c r="N36">
+      <c r="S36">
+        <v>1.8</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
         <v>1.85</v>
-      </c>
-      <c r="O36">
-        <v>3.75</v>
-      </c>
-      <c r="P36">
-        <v>3.4</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.925</v>
-      </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.75</v>
       </c>
       <c r="V36">
         <v>1.95</v>
       </c>
       <c r="W36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3746,7 +3746,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3835,7 +3835,7 @@
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3924,7 +3924,7 @@
         <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4010,7 +4010,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>36</v>
@@ -4022,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>2.375</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4188,10 +4188,10 @@
         <v>45038.375</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>1.533</v>
@@ -4277,10 +4277,10 @@
         <v>45038.375</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4289,7 +4289,7 @@
         <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.5</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.714</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6528857</v>
+        <v>6526512</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,46 +4458,46 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>46</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U45">
         <v>1.925</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y45">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6526512</v>
+        <v>6528857</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,49 +4544,49 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>45</v>
       </c>
       <c r="K46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
         <v>1.925</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4722,7 +4722,7 @@
         <v>45045.375</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4811,10 +4811,10 @@
         <v>45045.4375</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -4992,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5090,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>2.45</v>
@@ -5170,7 +5170,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5259,7 +5259,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>2.2</v>
@@ -5437,7 +5437,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>2.375</v>
@@ -5523,7 +5523,7 @@
         <v>45059.375</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>1.7</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6526652</v>
+        <v>6526514</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,76 +5612,76 @@
         <v>45059.375</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L58">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="N58">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X58">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6526514</v>
+        <v>6526652</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45059.375</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L59">
+        <v>3.8</v>
+      </c>
+      <c r="M59">
+        <v>2.15</v>
+      </c>
+      <c r="N59">
+        <v>2.9</v>
+      </c>
+      <c r="O59">
         <v>4</v>
       </c>
-      <c r="M59">
-        <v>4.75</v>
-      </c>
-      <c r="N59">
-        <v>1.5</v>
-      </c>
-      <c r="O59">
-        <v>4.2</v>
-      </c>
       <c r="P59">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R59">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45059.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5879,7 +5879,7 @@
         <v>45065.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>1.444</v>
@@ -5968,10 +5968,10 @@
         <v>45065.57291666666</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5980,7 +5980,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>1.75</v>
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>3.1</v>
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6528865</v>
+        <v>6526654</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F67" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" t="s">
         <v>33</v>
       </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>3</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N67">
-        <v>2.05</v>
+        <v>12</v>
       </c>
       <c r="O67">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P67">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
         <v>1.875</v>
       </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
         <v>0.875</v>
       </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6526654</v>
+        <v>6528865</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>3.75</v>
+      </c>
+      <c r="M68">
         <v>3</v>
       </c>
-      <c r="J68" t="s">
-        <v>46</v>
-      </c>
-      <c r="K68">
-        <v>12</v>
-      </c>
-      <c r="L68">
-        <v>6.5</v>
-      </c>
-      <c r="M68">
-        <v>1.166</v>
-      </c>
       <c r="N68">
-        <v>12</v>
+        <v>2.05</v>
       </c>
       <c r="O68">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>1.166</v>
+        <v>2.75</v>
       </c>
       <c r="Q68">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
         <v>1.925</v>
       </c>
-      <c r="S68">
-        <v>1.875</v>
-      </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>2.875</v>
@@ -6683,7 +6683,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -6861,7 +6861,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6526656</v>
+        <v>6528867</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6950,73 +6950,73 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N73">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6528867</v>
+        <v>6526656</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
         <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N74">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6528881</v>
+        <v>6526517</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,55 +7128,55 @@
         <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
         <v>1</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N75">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>1.975</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
+        <v>1.8</v>
+      </c>
+      <c r="V75">
         <v>2</v>
       </c>
-      <c r="S75">
-        <v>1.8</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.95</v>
-      </c>
-      <c r="V75">
-        <v>1.85</v>
-      </c>
       <c r="W75">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7185,16 +7185,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6526517</v>
+        <v>6528881</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,55 +7217,55 @@
         <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="K76">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7274,16 +7274,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7315,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>3</v>
@@ -7481,10 +7481,10 @@
         <v>45086.57291666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>3.6</v>
@@ -7582,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>17</v>
@@ -7751,7 +7751,7 @@
         <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7760,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>2.3</v>
@@ -7837,7 +7837,7 @@
         <v>45087.5</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
         <v>37</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>1.909</v>
@@ -7929,7 +7929,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6526660</v>
+        <v>6528884</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45094.375</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N85">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P85">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q85">
         <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC85">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6528870</v>
+        <v>6528871</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45094.375</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>35</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="M86">
         <v>4.5</v>
       </c>
-      <c r="M86">
-        <v>5.25</v>
-      </c>
       <c r="N86">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O86">
         <v>5</v>
       </c>
       <c r="P86">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R86">
+        <v>1.95</v>
+      </c>
+      <c r="S86">
         <v>1.85</v>
       </c>
-      <c r="S86">
+      <c r="T86">
+        <v>3.5</v>
+      </c>
+      <c r="U86">
         <v>1.95</v>
       </c>
-      <c r="T86">
-        <v>3.25</v>
-      </c>
-      <c r="U86">
-        <v>1.925</v>
-      </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6527542</v>
+        <v>6526519</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,58 +8193,58 @@
         <v>45094.375</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
         <v>2</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>47</v>
       </c>
       <c r="K87">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>13</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="O87">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P87">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q87">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6526519</v>
+        <v>6526660</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45094.375</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <v>3.6</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>3.1</v>
+      </c>
+      <c r="O88">
         <v>4</v>
       </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
-      <c r="J88" t="s">
-        <v>47</v>
-      </c>
-      <c r="K88">
-        <v>1.571</v>
-      </c>
-      <c r="L88">
-        <v>4.2</v>
-      </c>
-      <c r="M88">
-        <v>4.333</v>
-      </c>
-      <c r="N88">
-        <v>1.5</v>
-      </c>
-      <c r="O88">
-        <v>4.5</v>
-      </c>
       <c r="P88">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T88">
         <v>3.25</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6528871</v>
+        <v>6528870</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45094.375</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N89">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O89">
         <v>5</v>
       </c>
       <c r="P89">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q89">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
         <v>1.95</v>
       </c>
-      <c r="S89">
-        <v>1.85</v>
-      </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6528884</v>
+        <v>6527542</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45094.375</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>1.142</v>
       </c>
       <c r="L90">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M90">
-        <v>2.05</v>
+        <v>13</v>
       </c>
       <c r="N90">
-        <v>2.8</v>
+        <v>1.125</v>
       </c>
       <c r="O90">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="P90">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>1.8</v>
+        <v>0.125</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,16 +8520,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>2.25</v>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859123</v>
+        <v>6858502</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s">
         <v>35</v>
       </c>
-      <c r="G93" t="s">
-        <v>44</v>
-      </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L93">
         <v>3.75</v>
       </c>
       <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>3.4</v>
+      </c>
+      <c r="O93">
         <v>4</v>
       </c>
-      <c r="N93">
+      <c r="P93">
+        <v>1.75</v>
+      </c>
+      <c r="Q93">
+        <v>0.5</v>
+      </c>
+      <c r="R93">
+        <v>1.975</v>
+      </c>
+      <c r="S93">
+        <v>1.825</v>
+      </c>
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
         <v>1.85</v>
       </c>
-      <c r="O93">
-        <v>3.8</v>
-      </c>
-      <c r="P93">
-        <v>3.25</v>
-      </c>
-      <c r="Q93">
-        <v>-0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.9</v>
-      </c>
-      <c r="S93">
-        <v>1.9</v>
-      </c>
-      <c r="T93">
+      <c r="V93">
+        <v>1.95</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>3</v>
       </c>
-      <c r="U93">
-        <v>1.8</v>
-      </c>
-      <c r="V93">
-        <v>2</v>
-      </c>
-      <c r="W93">
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6858502</v>
+        <v>6859123</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,73 +8819,73 @@
         <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L94">
         <v>3.75</v>
       </c>
       <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>1.85</v>
+      </c>
+      <c r="O94">
+        <v>3.8</v>
+      </c>
+      <c r="P94">
+        <v>3.25</v>
+      </c>
+      <c r="Q94">
+        <v>-0.5</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
+        <v>1.8</v>
+      </c>
+      <c r="V94">
         <v>2</v>
       </c>
-      <c r="N94">
-        <v>3.4</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
-      <c r="P94">
-        <v>1.75</v>
-      </c>
-      <c r="Q94">
-        <v>0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.975</v>
-      </c>
-      <c r="S94">
-        <v>1.825</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
-      </c>
-      <c r="U94">
-        <v>1.85</v>
-      </c>
-      <c r="V94">
-        <v>1.95</v>
-      </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X94">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45143.375</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45143.375</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X96">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6858539</v>
+        <v>6859121</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
         <v>45</v>
       </c>
       <c r="K97">
+        <v>5</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>1.5</v>
+      </c>
+      <c r="N97">
+        <v>4.2</v>
+      </c>
+      <c r="O97">
+        <v>3.8</v>
+      </c>
+      <c r="P97">
+        <v>1.666</v>
+      </c>
+      <c r="Q97">
+        <v>0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
+        <v>1.825</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.8</v>
+      </c>
+      <c r="V97">
         <v>2</v>
       </c>
-      <c r="L97">
-        <v>3.6</v>
-      </c>
-      <c r="M97">
-        <v>3</v>
-      </c>
-      <c r="N97">
-        <v>1.909</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
-      <c r="P97">
-        <v>3.2</v>
-      </c>
-      <c r="Q97">
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.825</v>
+      </c>
+      <c r="AB97">
+        <v>0.4</v>
+      </c>
+      <c r="AC97">
         <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.95</v>
-      </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
-      <c r="T97">
-        <v>3.25</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>1.975</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>2.75</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6859121</v>
+        <v>6858539</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>46</v>
       </c>
       <c r="K98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>1.85</v>
+      </c>
+      <c r="T98">
+        <v>3.25</v>
+      </c>
+      <c r="U98">
+        <v>1.825</v>
+      </c>
+      <c r="V98">
         <v>1.975</v>
       </c>
-      <c r="S98">
-        <v>1.825</v>
-      </c>
-      <c r="T98">
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>2.75</v>
       </c>
-      <c r="U98">
-        <v>1.8</v>
-      </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
       <c r="Y98">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9353,7 +9353,7 @@
         <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9362,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.9</v>
@@ -9531,7 +9531,7 @@
         <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6858768</v>
+        <v>6859118</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>46</v>
       </c>
       <c r="K103">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L103">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M103">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N103">
+        <v>1.45</v>
+      </c>
+      <c r="O103">
         <v>4.5</v>
       </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
       <c r="P103">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q103">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y103">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6859118</v>
+        <v>6858768</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L104">
+        <v>3.8</v>
+      </c>
+      <c r="M104">
+        <v>1.65</v>
+      </c>
+      <c r="N104">
         <v>4.5</v>
       </c>
-      <c r="M104">
-        <v>6</v>
-      </c>
-      <c r="N104">
-        <v>1.45</v>
-      </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -9884,7 +9884,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -9976,7 +9976,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>1.285</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>1.4</v>
@@ -10240,7 +10240,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
@@ -10329,7 +10329,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
         <v>36</v>
@@ -10507,7 +10507,7 @@
         <v>45164.375</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
         <v>37</v>
@@ -10519,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>3.5</v>
@@ -10599,7 +10599,7 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>1.714</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6859115</v>
+        <v>6858777</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,67 +10685,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L115">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N115">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
         <v>3</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X115">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10754,7 +10754,7 @@
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6858777</v>
+        <v>6859115</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,67 +10774,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M116">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N116">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10843,7 +10843,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>45171.375</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>44</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>1.85</v>
@@ -11133,7 +11133,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>2.4</v>
@@ -11231,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>1.727</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>1.666</v>
@@ -11397,7 +11397,7 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
         <v>41</v>
@@ -11489,7 +11489,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -11575,10 +11575,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F125" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" t="s">
         <v>34</v>
-      </c>
-      <c r="G125" t="s">
-        <v>35</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -11753,7 +11753,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>1.909</v>
@@ -11934,7 +11934,7 @@
         <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
         <v>1.5</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6858790</v>
+        <v>6858789</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45185.375</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M131">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
         <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z131">
         <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6858789</v>
+        <v>6858790</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45185.375</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>46</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="L132">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
         <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y132">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6858791</v>
+        <v>6858792</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,49 +12287,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M133">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N133">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P133">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
+        <v>1.925</v>
+      </c>
+      <c r="S133">
         <v>1.875</v>
       </c>
-      <c r="S133">
-        <v>1.925</v>
-      </c>
       <c r="T133">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
         <v>1.875</v>
@@ -12341,16 +12341,16 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB133">
         <v>0.875</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6858792</v>
+        <v>6859109</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,13 +12376,13 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -12391,61 +12391,61 @@
         <v>45</v>
       </c>
       <c r="K134">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="O134">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P134">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6859109</v>
+        <v>6858791</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>46</v>
       </c>
       <c r="K135">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L135">
         <v>3.6</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N135">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y135">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12821,7 +12821,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
         <v>36</v>
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
         <v>2.8</v>
@@ -12999,10 +12999,10 @@
         <v>45199.375</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13100,7 +13100,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>1.65</v>
@@ -13189,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K143">
         <v>2.6</v>
@@ -13269,7 +13269,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13355,7 +13355,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K145">
         <v>2.1</v>
@@ -13456,7 +13456,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K146">
         <v>3.1</v>
@@ -13545,7 +13545,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>2.3</v>
@@ -13625,7 +13625,7 @@
         <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>2.45</v>
@@ -13714,7 +13714,7 @@
         <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13723,7 +13723,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -13800,7 +13800,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13901,7 +13901,7 @@
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K151">
         <v>1.7</v>
@@ -13990,7 +13990,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>2.7</v>
@@ -14079,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>1.4</v>
@@ -14156,10 +14156,10 @@
         <v>45213.375</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14337,7 +14337,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6859101</v>
+        <v>6858807</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,73 +14423,73 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>47</v>
+      </c>
+      <c r="K157">
         <v>2</v>
-      </c>
-      <c r="I157">
-        <v>2</v>
-      </c>
-      <c r="J157" t="s">
-        <v>45</v>
-      </c>
-      <c r="K157">
-        <v>1.727</v>
       </c>
       <c r="L157">
         <v>3.6</v>
       </c>
       <c r="M157">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X157">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6858809</v>
+        <v>6859101</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,46 +14512,46 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>46</v>
       </c>
       <c r="K158">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L158">
         <v>3.6</v>
       </c>
       <c r="M158">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
         <v>2.75</v>
@@ -14566,22 +14566,22 @@
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y158">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6858807</v>
+        <v>6858809</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,73 +14604,73 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L159">
         <v>3.6</v>
       </c>
       <c r="M159">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N159">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O159">
         <v>4</v>
       </c>
       <c r="P159">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>1.55</v>
+      </c>
+      <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>1</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X159">
-        <v>-1</v>
-      </c>
-      <c r="Y159">
-        <v>-1</v>
-      </c>
-      <c r="Z159">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA159">
-        <v>-1</v>
-      </c>
-      <c r="AB159">
-        <v>0.925</v>
-      </c>
-      <c r="AC159">
-        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14702,7 +14702,7 @@
         <v>4</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>3.2</v>
@@ -14791,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K161">
         <v>2.375</v>
@@ -14868,7 +14868,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>40</v>
@@ -14960,7 +14960,7 @@
         <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14969,7 +14969,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>3</v>
@@ -15058,7 +15058,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>1.55</v>
@@ -15138,7 +15138,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15224,7 +15224,7 @@
         <v>45227.375</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>42</v>
@@ -15236,7 +15236,7 @@
         <v>5</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
         <v>2.45</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K167">
         <v>1.769</v>
@@ -15405,7 +15405,7 @@
         <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K168">
         <v>2.375</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6858818</v>
+        <v>6858815</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45234.375</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>46</v>
       </c>
       <c r="K170">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L170">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M170">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N170">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="O170">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R170">
+        <v>1.775</v>
+      </c>
+      <c r="S170">
+        <v>2.025</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
         <v>1.825</v>
       </c>
-      <c r="S170">
-        <v>1.975</v>
-      </c>
-      <c r="T170">
-        <v>3.25</v>
-      </c>
-      <c r="U170">
-        <v>1.9</v>
-      </c>
-      <c r="V170">
-        <v>1.9</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y170">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15681,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K171">
         <v>2.45</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6858815</v>
+        <v>6858818</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15761,73 +15761,73 @@
         <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N172">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P172">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R172">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K173">
         <v>2.875</v>
@@ -15936,7 +15936,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
         <v>36</v>
@@ -15948,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K174">
         <v>3.1</v>
@@ -16028,7 +16028,7 @@
         <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>4</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6859096</v>
+        <v>6858821</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,46 +16114,46 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O176">
         <v>4</v>
       </c>
       <c r="P176">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q176">
         <v>-1</v>
       </c>
       <c r="R176">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T176">
         <v>3</v>
@@ -16165,25 +16165,25 @@
         <v>2</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16215,7 +16215,7 @@
         <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K177">
         <v>2.55</v>
@@ -16292,7 +16292,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
         <v>32</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6858821</v>
+        <v>6859096</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,46 +16381,46 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K179">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O179">
         <v>4</v>
       </c>
       <c r="P179">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q179">
         <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
         <v>3</v>
@@ -16432,25 +16432,25 @@
         <v>2</v>
       </c>
       <c r="W179">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6859092</v>
+        <v>6858825</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,58 +16559,58 @@
         <v>45248.375</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H181">
+        <v>4</v>
+      </c>
+      <c r="I181">
         <v>2</v>
-      </c>
-      <c r="I181">
-        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>47</v>
       </c>
       <c r="K181">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M181">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U181">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16619,16 +16619,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6858827</v>
+        <v>6858826</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,40 +16648,40 @@
         <v>45248.375</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K182">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L182">
+        <v>3.6</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>2.875</v>
+      </c>
+      <c r="O182">
         <v>3.5</v>
       </c>
-      <c r="M182">
-        <v>2.625</v>
-      </c>
-      <c r="N182">
-        <v>1.85</v>
-      </c>
-      <c r="O182">
-        <v>3.75</v>
-      </c>
       <c r="P182">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
         <v>1.875</v>
@@ -16690,13 +16690,13 @@
         <v>1.925</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16705,7 +16705,7 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="Z182">
         <v>-1</v>
@@ -16714,10 +16714,10 @@
         <v>0.925</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6858826</v>
+        <v>6858828</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,55 +16737,55 @@
         <v>45248.375</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K183">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M183">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N183">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q183">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16794,19 +16794,19 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6859093</v>
+        <v>6859092</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,58 +16826,58 @@
         <v>45248.375</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
         <v>1</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>47</v>
       </c>
       <c r="K184">
+        <v>2.5</v>
+      </c>
+      <c r="L184">
+        <v>3.6</v>
+      </c>
+      <c r="M184">
+        <v>2.45</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184">
+        <v>3.6</v>
+      </c>
+      <c r="P184">
+        <v>3.1</v>
+      </c>
+      <c r="Q184">
+        <v>-0.25</v>
+      </c>
+      <c r="R184">
+        <v>1.825</v>
+      </c>
+      <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
         <v>2.75</v>
       </c>
-      <c r="L184">
-        <v>3.4</v>
-      </c>
-      <c r="M184">
-        <v>2.25</v>
-      </c>
-      <c r="N184">
-        <v>2.6</v>
-      </c>
-      <c r="O184">
-        <v>3.4</v>
-      </c>
-      <c r="P184">
-        <v>2.375</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>2</v>
-      </c>
-      <c r="S184">
-        <v>1.8</v>
-      </c>
-      <c r="T184">
-        <v>2.5</v>
-      </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16886,16 +16886,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6858828</v>
+        <v>6859093</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45248.375</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H185">
         <v>1</v>
       </c>
       <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185" t="s">
+        <v>47</v>
+      </c>
+      <c r="K185">
+        <v>2.75</v>
+      </c>
+      <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
+        <v>2.25</v>
+      </c>
+      <c r="N185">
+        <v>2.6</v>
+      </c>
+      <c r="O185">
+        <v>3.4</v>
+      </c>
+      <c r="P185">
+        <v>2.375</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
         <v>2</v>
       </c>
-      <c r="J185" t="s">
-        <v>46</v>
-      </c>
-      <c r="K185">
-        <v>4</v>
-      </c>
-      <c r="L185">
-        <v>3.8</v>
-      </c>
-      <c r="M185">
-        <v>1.727</v>
-      </c>
-      <c r="N185">
-        <v>4</v>
-      </c>
-      <c r="O185">
-        <v>3.75</v>
-      </c>
-      <c r="P185">
-        <v>1.75</v>
-      </c>
-      <c r="Q185">
-        <v>0.75</v>
-      </c>
-      <c r="R185">
-        <v>1.825</v>
-      </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA185">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6858825</v>
+        <v>6858827</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45248.375</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L186">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N186">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O186">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -103,22 +103,22 @@
     <t>Denmark Division 3</t>
   </si>
   <si>
-    <t>Middelfart</t>
+    <t>AB Trnby</t>
   </si>
   <si>
     <t>Oure FA</t>
   </si>
   <si>
-    <t>AB Trnby</t>
+    <t>Middelfart</t>
   </si>
   <si>
     <t>Holstebro</t>
   </si>
   <si>
-    <t>IF Lyseng</t>
+    <t>Vanlse</t>
   </si>
   <si>
-    <t>Vanlse</t>
+    <t>IF Lyseng</t>
   </si>
   <si>
     <t>Ishoj</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5244479</v>
+        <v>5244596</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,52 +631,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M2">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="N2">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q2">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -685,19 +685,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
+        <v>0.925</v>
+      </c>
+      <c r="AB2">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5244596</v>
+        <v>5244479</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,52 +809,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M4">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P4">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q4">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -863,19 +863,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5244597</v>
+        <v>5244625</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>5.5</v>
+        <v>1.166</v>
       </c>
       <c r="L6">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M6">
-        <v>1.45</v>
+        <v>12</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>1.111</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P6">
-        <v>1.444</v>
+        <v>17</v>
       </c>
       <c r="Q6">
-        <v>1.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R6">
         <v>1.9</v>
@@ -1026,31 +1026,31 @@
         <v>1.9</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5244625</v>
+        <v>5244597</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,37 +1076,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>1.166</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>1.45</v>
       </c>
       <c r="N7">
-        <v>1.111</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P7">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="Q7">
-        <v>-2.75</v>
+        <v>1.25</v>
       </c>
       <c r="R7">
         <v>1.9</v>
@@ -1115,31 +1115,31 @@
         <v>1.9</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5251081</v>
+        <v>5244601</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
         <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5244601</v>
+        <v>5244627</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>1.142</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <v>-2.25</v>
+      </c>
+      <c r="R16">
+        <v>1.825</v>
+      </c>
+      <c r="S16">
+        <v>1.975</v>
+      </c>
+      <c r="T16">
         <v>3.5</v>
       </c>
-      <c r="M16">
-        <v>2.5</v>
-      </c>
-      <c r="N16">
-        <v>2.1</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
-      <c r="P16">
-        <v>2.875</v>
-      </c>
-      <c r="Q16">
-        <v>-0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.9</v>
-      </c>
-      <c r="S16">
-        <v>1.9</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5244600</v>
+        <v>5251081</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,49 +1963,49 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
         <v>1.875</v>
       </c>
-      <c r="S17">
-        <v>1.925</v>
-      </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
         <v>1.8</v>
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>3.333</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5244627</v>
+        <v>5244600</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,58 +2052,58 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>15</v>
+        <v>2.15</v>
       </c>
       <c r="Q18">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>0.1419999999999999</v>
+        <v>2</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2112,16 +2112,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5236199</v>
+        <v>5251082</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19">
+        <v>2.35</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
+        <v>2.45</v>
+      </c>
+      <c r="N19">
+        <v>2.4</v>
+      </c>
+      <c r="O19">
+        <v>3.75</v>
+      </c>
+      <c r="P19">
+        <v>2.4</v>
+      </c>
+      <c r="Q19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19">
-        <v>1.083</v>
-      </c>
-      <c r="L19">
-        <v>9.5</v>
-      </c>
-      <c r="M19">
-        <v>19</v>
-      </c>
-      <c r="N19">
-        <v>1.02</v>
-      </c>
-      <c r="O19">
-        <v>17</v>
-      </c>
-      <c r="P19">
-        <v>41</v>
-      </c>
-      <c r="Q19">
-        <v>-4</v>
-      </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5251082</v>
+        <v>5236199</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>2.35</v>
+        <v>1.083</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>19</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>41</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -2500,7 +2500,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2678,7 +2678,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3034,7 +3034,7 @@
         <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5244604</v>
+        <v>5251084</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,56 +3120,56 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>1</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
       </c>
       <c r="J30" t="s">
         <v>45</v>
       </c>
       <c r="K30">
+        <v>1.55</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>1.533</v>
+      </c>
+      <c r="O30">
         <v>4.2</v>
       </c>
-      <c r="L30">
-        <v>3.8</v>
-      </c>
-      <c r="M30">
-        <v>1.65</v>
-      </c>
-      <c r="N30">
-        <v>4.2</v>
-      </c>
-      <c r="O30">
-        <v>3.8</v>
-      </c>
       <c r="P30">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
         <v>1.95</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.85</v>
       </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.775</v>
-      </c>
-      <c r="V30">
-        <v>2.025</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
@@ -3177,19 +3177,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.6499999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB30">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5244605</v>
+        <v>5236200</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N31">
+        <v>2.2</v>
+      </c>
+      <c r="O31">
         <v>3.6</v>
       </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244631</v>
+        <v>5244605</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>1.416</v>
+        <v>3.5</v>
       </c>
       <c r="L32">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N32">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O32">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA32">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5251084</v>
+        <v>5244631</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,76 +3387,76 @@
         <v>45026.375</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>1.55</v>
+        <v>1.416</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N33">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P33">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5236200</v>
+        <v>5244604</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,55 +3476,55 @@
         <v>45026.375</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M34">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="N34">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3533,16 +3533,16 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.8</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3568,7 +3568,7 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3921,7 +3921,7 @@
         <v>45032.375</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>30</v>
@@ -4010,7 +4010,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>36</v>
@@ -4188,7 +4188,7 @@
         <v>45038.375</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
@@ -4280,7 +4280,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6526512</v>
+        <v>6528857</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,49 +4455,49 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
         <v>1.925</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6528857</v>
+        <v>6526512</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,49 +4544,49 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.925</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y46">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4811,10 +4811,10 @@
         <v>45045.4375</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4992,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5170,7 +5170,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6528860</v>
+        <v>6526513</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45052.375</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N54">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O54">
         <v>3.6</v>
       </c>
       <c r="P54">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC54">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6526513</v>
+        <v>6528860</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45052.375</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N55">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O55">
         <v>3.6</v>
       </c>
       <c r="P55">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6528879</v>
+        <v>6526514</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45059.375</v>
       </c>
       <c r="F57" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" t="s">
         <v>29</v>
       </c>
-      <c r="G57" t="s">
-        <v>36</v>
-      </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N57">
-        <v>1.714</v>
+        <v>1.5</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R57">
+        <v>1.75</v>
+      </c>
+      <c r="S57">
+        <v>1.95</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>1.825</v>
+      </c>
+      <c r="V57">
         <v>1.975</v>
       </c>
-      <c r="S57">
-        <v>1.825</v>
-      </c>
-      <c r="T57">
-        <v>2.5</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
         <v>0.825</v>
       </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6526514</v>
+        <v>6526652</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,76 +5612,76 @@
         <v>45059.375</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K58">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L58">
+        <v>3.8</v>
+      </c>
+      <c r="M58">
+        <v>2.15</v>
+      </c>
+      <c r="N58">
+        <v>2.9</v>
+      </c>
+      <c r="O58">
         <v>4</v>
       </c>
-      <c r="M58">
-        <v>4.75</v>
-      </c>
-      <c r="N58">
-        <v>1.5</v>
-      </c>
-      <c r="O58">
-        <v>4.2</v>
-      </c>
       <c r="P58">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6526652</v>
+        <v>6528879</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45059.375</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="L59">
         <v>3.8</v>
       </c>
       <c r="M59">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N59">
-        <v>2.9</v>
+        <v>1.714</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q59">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.85</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45059.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -5879,7 +5879,7 @@
         <v>45065.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5968,7 +5968,7 @@
         <v>45065.57291666666</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>30</v>
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>45066.375</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -6416,7 +6416,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6769,7 +6769,7 @@
         <v>45073.375</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
         <v>40</v>
@@ -6947,7 +6947,7 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>35</v>
@@ -7036,7 +7036,7 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7128,7 +7128,7 @@
         <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7214,7 +7214,7 @@
         <v>45080.375</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7484,7 +7484,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7748,10 +7748,10 @@
         <v>45087.375</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45087.5</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>37</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6528884</v>
+        <v>6526519</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,58 +8015,58 @@
         <v>45094.375</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H85">
         <v>4</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N85">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
+        <v>1.8</v>
+      </c>
+      <c r="V85">
         <v>2</v>
       </c>
-      <c r="V85">
-        <v>1.8</v>
-      </c>
       <c r="W85">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,13 +8075,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6528871</v>
+        <v>6527542</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45094.375</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>3</v>
-      </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>1.6</v>
+        <v>1.142</v>
       </c>
       <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>13</v>
+      </c>
+      <c r="N86">
+        <v>1.125</v>
+      </c>
+      <c r="O86">
+        <v>8</v>
+      </c>
+      <c r="P86">
+        <v>13</v>
+      </c>
+      <c r="Q86">
+        <v>-2.5</v>
+      </c>
+      <c r="R86">
+        <v>1.85</v>
+      </c>
+      <c r="S86">
+        <v>1.95</v>
+      </c>
+      <c r="T86">
         <v>4</v>
       </c>
-      <c r="M86">
-        <v>4.5</v>
-      </c>
-      <c r="N86">
-        <v>1.3</v>
-      </c>
-      <c r="O86">
-        <v>5</v>
-      </c>
-      <c r="P86">
-        <v>7</v>
-      </c>
-      <c r="Q86">
-        <v>-1.75</v>
-      </c>
-      <c r="R86">
-        <v>1.95</v>
-      </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>3.5</v>
-      </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6526519</v>
+        <v>6526660</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45094.375</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>45</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>3.6</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>3.1</v>
+      </c>
+      <c r="O87">
         <v>4</v>
       </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87" t="s">
-        <v>47</v>
-      </c>
-      <c r="K87">
-        <v>1.571</v>
-      </c>
-      <c r="L87">
-        <v>4.2</v>
-      </c>
-      <c r="M87">
-        <v>4.333</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.5</v>
-      </c>
       <c r="P87">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T87">
         <v>3.25</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6526660</v>
+        <v>6528870</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45094.375</v>
       </c>
       <c r="F88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
         <v>33</v>
       </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="N88">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P88">
+        <v>7.5</v>
+      </c>
+      <c r="Q88">
+        <v>-1.5</v>
+      </c>
+      <c r="R88">
         <v>1.85</v>
       </c>
-      <c r="Q88">
-        <v>0.25</v>
-      </c>
-      <c r="R88">
-        <v>2.1</v>
-      </c>
       <c r="S88">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
         <v>3.25</v>
       </c>
       <c r="U88">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z88">
-        <v>-1</v>
-      </c>
       <c r="AA88">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6528870</v>
+        <v>6528884</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45094.375</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M89">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N89">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q89">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6527542</v>
+        <v>6528871</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45094.375</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>1.142</v>
+        <v>1.6</v>
       </c>
       <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>4.5</v>
+      </c>
+      <c r="N90">
+        <v>1.3</v>
+      </c>
+      <c r="O90">
+        <v>5</v>
+      </c>
+      <c r="P90">
         <v>7</v>
       </c>
-      <c r="M90">
-        <v>13</v>
-      </c>
-      <c r="N90">
-        <v>1.125</v>
-      </c>
-      <c r="O90">
-        <v>8</v>
-      </c>
-      <c r="P90">
-        <v>13</v>
-      </c>
       <c r="Q90">
-        <v>-2.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
         <v>1.85</v>
       </c>
-      <c r="S90">
+      <c r="T90">
+        <v>3.5</v>
+      </c>
+      <c r="U90">
         <v>1.95</v>
       </c>
-      <c r="T90">
-        <v>4</v>
-      </c>
-      <c r="U90">
-        <v>1.9</v>
-      </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB90">
         <v>0.95</v>
       </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
       <c r="AC90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6858502</v>
+        <v>6859123</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,73 +8730,73 @@
         <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
         <v>3.75</v>
       </c>
       <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>1.85</v>
+      </c>
+      <c r="O93">
+        <v>3.8</v>
+      </c>
+      <c r="P93">
+        <v>3.25</v>
+      </c>
+      <c r="Q93">
+        <v>-0.5</v>
+      </c>
+      <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
+        <v>1.9</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <v>1.8</v>
+      </c>
+      <c r="V93">
         <v>2</v>
       </c>
-      <c r="N93">
-        <v>3.4</v>
-      </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
-      <c r="P93">
-        <v>1.75</v>
-      </c>
-      <c r="Q93">
-        <v>0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.975</v>
-      </c>
-      <c r="S93">
-        <v>1.825</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>1.85</v>
-      </c>
-      <c r="V93">
-        <v>1.95</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6859123</v>
+        <v>6858502</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,73 +8819,73 @@
         <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L94">
         <v>3.75</v>
       </c>
       <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3.4</v>
+      </c>
+      <c r="O94">
         <v>4</v>
       </c>
-      <c r="N94">
+      <c r="P94">
+        <v>1.75</v>
+      </c>
+      <c r="Q94">
+        <v>0.5</v>
+      </c>
+      <c r="R94">
+        <v>1.975</v>
+      </c>
+      <c r="S94">
+        <v>1.825</v>
+      </c>
+      <c r="T94">
+        <v>3.25</v>
+      </c>
+      <c r="U94">
         <v>1.85</v>
       </c>
-      <c r="O94">
-        <v>3.8</v>
-      </c>
-      <c r="P94">
-        <v>3.25</v>
-      </c>
-      <c r="Q94">
-        <v>-0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.9</v>
-      </c>
-      <c r="S94">
-        <v>1.9</v>
-      </c>
-      <c r="T94">
+      <c r="V94">
+        <v>1.95</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>3</v>
       </c>
-      <c r="U94">
-        <v>1.8</v>
-      </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
-      <c r="W94">
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
-      <c r="Z94">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45143.375</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N95">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X95">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45143.375</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6858539</v>
+        <v>6859120</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,49 +9172,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
+        <v>2.25</v>
+      </c>
+      <c r="L98">
+        <v>3.5</v>
+      </c>
+      <c r="M98">
+        <v>2.6</v>
+      </c>
+      <c r="N98">
         <v>2</v>
       </c>
-      <c r="L98">
+      <c r="O98">
         <v>3.6</v>
       </c>
-      <c r="M98">
+      <c r="P98">
         <v>3</v>
       </c>
-      <c r="N98">
-        <v>1.909</v>
-      </c>
-      <c r="O98">
-        <v>3.75</v>
-      </c>
-      <c r="P98">
-        <v>3.2</v>
-      </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U98">
         <v>1.825</v>
@@ -9223,19 +9223,19 @@
         <v>1.975</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X98">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6859120</v>
+        <v>6858539</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,49 +9261,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K99">
         <v>2</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.25</v>
-      </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
         <v>1.825</v>
@@ -9312,19 +9312,19 @@
         <v>1.975</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9353,7 +9353,7 @@
         <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9617,7 +9617,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>41</v>
@@ -9884,7 +9884,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -10329,7 +10329,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
         <v>36</v>
@@ -10599,7 +10599,7 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>35</v>
@@ -11133,7 +11133,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6859113</v>
+        <v>6858784</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,13 +11397,13 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11412,19 +11412,19 @@
         <v>47</v>
       </c>
       <c r="K123">
+        <v>1.65</v>
+      </c>
+      <c r="L123">
+        <v>3.75</v>
+      </c>
+      <c r="M123">
+        <v>4.333</v>
+      </c>
+      <c r="N123">
         <v>1.571</v>
       </c>
-      <c r="L123">
+      <c r="O123">
         <v>3.8</v>
-      </c>
-      <c r="M123">
-        <v>4.5</v>
-      </c>
-      <c r="N123">
-        <v>1.533</v>
-      </c>
-      <c r="O123">
-        <v>4</v>
       </c>
       <c r="P123">
         <v>4.75</v>
@@ -11433,13 +11433,13 @@
         <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
         <v>1.9</v>
@@ -11448,7 +11448,7 @@
         <v>1.9</v>
       </c>
       <c r="W123">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11457,16 +11457,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6858784</v>
+        <v>6859113</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,13 +11486,13 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11501,19 +11501,19 @@
         <v>47</v>
       </c>
       <c r="K124">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M124">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N124">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P124">
         <v>4.75</v>
@@ -11522,13 +11522,13 @@
         <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U124">
         <v>1.9</v>
@@ -11537,7 +11537,7 @@
         <v>1.9</v>
       </c>
       <c r="W124">
-        <v>0.571</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,10 +11575,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
         <v>33</v>
-      </c>
-      <c r="G125" t="s">
-        <v>34</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6858785</v>
+        <v>6859111</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,76 +11753,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L127">
+        <v>3.5</v>
+      </c>
+      <c r="M127">
+        <v>2.7</v>
+      </c>
+      <c r="N127">
+        <v>2.15</v>
+      </c>
+      <c r="O127">
         <v>3.6</v>
       </c>
-      <c r="M127">
-        <v>3.4</v>
-      </c>
-      <c r="N127">
+      <c r="P127">
+        <v>2.8</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>1.95</v>
+      </c>
+      <c r="S127">
         <v>1.85</v>
       </c>
-      <c r="O127">
-        <v>3.75</v>
-      </c>
-      <c r="P127">
-        <v>3.4</v>
-      </c>
-      <c r="Q127">
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
+        <v>1.975</v>
+      </c>
+      <c r="V127">
+        <v>1.825</v>
+      </c>
+      <c r="W127">
+        <v>1.15</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>0.95</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0.4875</v>
+      </c>
+      <c r="AC127">
         <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.925</v>
-      </c>
-      <c r="S127">
-        <v>1.875</v>
-      </c>
-      <c r="T127">
-        <v>3</v>
-      </c>
-      <c r="U127">
-        <v>1.8</v>
-      </c>
-      <c r="V127">
-        <v>2</v>
-      </c>
-      <c r="W127">
-        <v>-1</v>
-      </c>
-      <c r="X127">
-        <v>2.75</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
-        <v>-1</v>
-      </c>
-      <c r="AA127">
-        <v>0.875</v>
-      </c>
-      <c r="AB127">
-        <v>-1</v>
-      </c>
-      <c r="AC127">
-        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6859111</v>
+        <v>6858785</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>46</v>
+      </c>
+      <c r="K128">
+        <v>1.909</v>
+      </c>
+      <c r="L128">
+        <v>3.6</v>
+      </c>
+      <c r="M128">
+        <v>3.4</v>
+      </c>
+      <c r="N128">
+        <v>1.85</v>
+      </c>
+      <c r="O128">
+        <v>3.75</v>
+      </c>
+      <c r="P128">
+        <v>3.4</v>
+      </c>
+      <c r="Q128">
+        <v>-0.5</v>
+      </c>
+      <c r="R128">
+        <v>1.925</v>
+      </c>
+      <c r="S128">
+        <v>1.875</v>
+      </c>
+      <c r="T128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>47</v>
-      </c>
-      <c r="K128">
-        <v>2.3</v>
-      </c>
-      <c r="L128">
-        <v>3.5</v>
-      </c>
-      <c r="M128">
-        <v>2.7</v>
-      </c>
-      <c r="N128">
-        <v>2.15</v>
-      </c>
-      <c r="O128">
-        <v>3.6</v>
-      </c>
-      <c r="P128">
-        <v>2.8</v>
-      </c>
-      <c r="Q128">
-        <v>-0.25</v>
-      </c>
-      <c r="R128">
-        <v>1.95</v>
-      </c>
-      <c r="S128">
-        <v>1.85</v>
-      </c>
-      <c r="T128">
+      <c r="U128">
+        <v>1.8</v>
+      </c>
+      <c r="V128">
+        <v>2</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
         <v>2.75</v>
       </c>
-      <c r="U128">
-        <v>1.975</v>
-      </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
-      <c r="W128">
-        <v>1.15</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6859110</v>
+        <v>6858790</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45185.375</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K130">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y130">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6858790</v>
+        <v>6859110</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45185.375</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M132">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6858792</v>
+        <v>6859109</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6859109</v>
+        <v>6858792</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N134">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="O134">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P134">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y134">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB134">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
         <v>40</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6858794</v>
+        <v>6859108</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,46 +12643,46 @@
         <v>45192.375</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>47</v>
       </c>
       <c r="K137">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N137">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>3</v>
@@ -12694,7 +12694,7 @@
         <v>1.825</v>
       </c>
       <c r="W137">
-        <v>2.5</v>
+        <v>0.571</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6859108</v>
+        <v>6858794</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,46 +12732,46 @@
         <v>45192.375</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138">
         <v>1</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>47</v>
       </c>
       <c r="K138">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="N138">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>3</v>
@@ -12783,7 +12783,7 @@
         <v>1.825</v>
       </c>
       <c r="W138">
-        <v>0.571</v>
+        <v>2.5</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
         <v>36</v>
@@ -13002,7 +13002,7 @@
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6859105</v>
+        <v>6858799</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,40 +13355,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N145">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
         <v>1.975</v>
@@ -13397,22 +13397,22 @@
         <v>1.825</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z145">
         <v>-1</v>
@@ -13421,10 +13421,10 @@
         <v>0.825</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6858799</v>
+        <v>6859105</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,40 +13444,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
         <v>1.975</v>
@@ -13486,22 +13486,22 @@
         <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y146">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
@@ -13510,10 +13510,10 @@
         <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6858800</v>
+        <v>6858801</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45206.375</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y147">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6858801</v>
+        <v>6858800</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45206.375</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K148">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N148">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.75</v>
+      </c>
+      <c r="AB148">
         <v>0</v>
       </c>
-      <c r="AA148">
+      <c r="AC148">
         <v>-0</v>
-      </c>
-      <c r="AB148">
-        <v>-1</v>
-      </c>
-      <c r="AC148">
-        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13800,7 +13800,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -14159,7 +14159,7 @@
         <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14423,7 +14423,7 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
         <v>30</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6859101</v>
+        <v>6858809</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,46 +14512,46 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L158">
         <v>3.6</v>
       </c>
       <c r="M158">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N158">
+        <v>2.2</v>
+      </c>
+      <c r="O158">
+        <v>4</v>
+      </c>
+      <c r="P158">
+        <v>2.55</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
         <v>1.8</v>
       </c>
-      <c r="O158">
-        <v>3.4</v>
-      </c>
-      <c r="P158">
-        <v>4.2</v>
-      </c>
-      <c r="Q158">
-        <v>-0.5</v>
-      </c>
-      <c r="R158">
-        <v>1.75</v>
-      </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T158">
         <v>2.75</v>
@@ -14566,22 +14566,22 @@
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6858809</v>
+        <v>6859101</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,46 +14601,46 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L159">
         <v>3.6</v>
       </c>
       <c r="M159">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N159">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
         <v>2.75</v>
@@ -14655,22 +14655,22 @@
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y159">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6858810</v>
+        <v>6859100</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K160">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N160">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y160">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6859100</v>
+        <v>6858810</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45220.375</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K161">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N161">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6858814</v>
+        <v>6858813</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,76 +15224,76 @@
         <v>45227.375</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K166">
-        <v>2.45</v>
+        <v>1.769</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O166">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y166">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6858813</v>
+        <v>6858814</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45227.375</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
+        <v>5</v>
+      </c>
+      <c r="J167" t="s">
+        <v>45</v>
+      </c>
+      <c r="K167">
+        <v>2.45</v>
+      </c>
+      <c r="L167">
+        <v>3.75</v>
+      </c>
+      <c r="M167">
+        <v>2.375</v>
+      </c>
+      <c r="N167">
+        <v>2.45</v>
+      </c>
+      <c r="O167">
+        <v>3.75</v>
+      </c>
+      <c r="P167">
+        <v>2.375</v>
+      </c>
+      <c r="Q167">
         <v>0</v>
       </c>
-      <c r="J167" t="s">
-        <v>46</v>
-      </c>
-      <c r="K167">
-        <v>1.769</v>
-      </c>
-      <c r="L167">
-        <v>3.6</v>
-      </c>
-      <c r="M167">
-        <v>4</v>
-      </c>
-      <c r="N167">
-        <v>1.65</v>
-      </c>
-      <c r="O167">
-        <v>3.8</v>
-      </c>
-      <c r="P167">
-        <v>4.5</v>
-      </c>
-      <c r="Q167">
-        <v>-0.75</v>
-      </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T167">
         <v>3</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>45234.375</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
         <v>37</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6858817</v>
+        <v>6858818</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45234.375</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>45</v>
       </c>
       <c r="K171">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L171">
+        <v>3.8</v>
+      </c>
+      <c r="M171">
+        <v>4.5</v>
+      </c>
+      <c r="N171">
+        <v>1.533</v>
+      </c>
+      <c r="O171">
+        <v>4.333</v>
+      </c>
+      <c r="P171">
+        <v>4.75</v>
+      </c>
+      <c r="Q171">
+        <v>-1</v>
+      </c>
+      <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
+        <v>3.25</v>
+      </c>
+      <c r="U171">
+        <v>1.9</v>
+      </c>
+      <c r="V171">
+        <v>1.9</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
         <v>3.75</v>
       </c>
-      <c r="M171">
-        <v>2.4</v>
-      </c>
-      <c r="N171">
-        <v>2.15</v>
-      </c>
-      <c r="O171">
-        <v>3.8</v>
-      </c>
-      <c r="P171">
-        <v>2.75</v>
-      </c>
-      <c r="Q171">
-        <v>-0.25</v>
-      </c>
-      <c r="R171">
-        <v>1.95</v>
-      </c>
-      <c r="S171">
-        <v>1.85</v>
-      </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>1.75</v>
-      </c>
-      <c r="V171">
-        <v>1.95</v>
-      </c>
-      <c r="W171">
-        <v>-1</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>1.75</v>
-      </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6858818</v>
+        <v>6858817</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,55 +15758,55 @@
         <v>45234.375</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="L172">
+        <v>3.75</v>
+      </c>
+      <c r="M172">
+        <v>2.4</v>
+      </c>
+      <c r="N172">
+        <v>2.15</v>
+      </c>
+      <c r="O172">
         <v>3.8</v>
       </c>
-      <c r="M172">
-        <v>4.5</v>
-      </c>
-      <c r="N172">
-        <v>1.533</v>
-      </c>
-      <c r="O172">
-        <v>4.333</v>
-      </c>
       <c r="P172">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15815,19 +15815,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16028,7 +16028,7 @@
         <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>4</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6858821</v>
+        <v>6859096</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,46 +16114,46 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N176">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O176">
         <v>4</v>
       </c>
       <c r="P176">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q176">
         <v>-1</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T176">
         <v>3</v>
@@ -16165,25 +16165,25 @@
         <v>2</v>
       </c>
       <c r="W176">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6859096</v>
+        <v>6858821</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,46 +16381,46 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K179">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N179">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O179">
         <v>4</v>
       </c>
       <c r="P179">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q179">
         <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T179">
         <v>3</v>
@@ -16432,25 +16432,25 @@
         <v>2</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X179">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6858825</v>
+        <v>6858827</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,76 +16559,76 @@
         <v>45248.375</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K181">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L181">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N181">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6858828</v>
+        <v>6858825</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45248.375</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="L183">
         <v>3.8</v>
       </c>
       <c r="M183">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="N183">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P183">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA183">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6859092</v>
+        <v>6859093</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45248.375</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>47</v>
       </c>
       <c r="K184">
+        <v>2.75</v>
+      </c>
+      <c r="L184">
+        <v>3.4</v>
+      </c>
+      <c r="M184">
+        <v>2.25</v>
+      </c>
+      <c r="N184">
+        <v>2.6</v>
+      </c>
+      <c r="O184">
+        <v>3.4</v>
+      </c>
+      <c r="P184">
+        <v>2.375</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>1.8</v>
+      </c>
+      <c r="T184">
         <v>2.5</v>
       </c>
-      <c r="L184">
-        <v>3.6</v>
-      </c>
-      <c r="M184">
-        <v>2.45</v>
-      </c>
-      <c r="N184">
-        <v>2</v>
-      </c>
-      <c r="O184">
-        <v>3.6</v>
-      </c>
-      <c r="P184">
-        <v>3.1</v>
-      </c>
-      <c r="Q184">
-        <v>-0.25</v>
-      </c>
-      <c r="R184">
-        <v>1.825</v>
-      </c>
-      <c r="S184">
-        <v>1.975</v>
-      </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
       <c r="U184">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
+        <v>1.6</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
         <v>1</v>
       </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
-      <c r="Z184">
-        <v>0.825</v>
-      </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6859093</v>
+        <v>6859092</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,58 +16915,58 @@
         <v>45248.375</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
         <v>1</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>47</v>
       </c>
       <c r="K185">
+        <v>2.5</v>
+      </c>
+      <c r="L185">
+        <v>3.6</v>
+      </c>
+      <c r="M185">
+        <v>2.45</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185">
+        <v>3.6</v>
+      </c>
+      <c r="P185">
+        <v>3.1</v>
+      </c>
+      <c r="Q185">
+        <v>-0.25</v>
+      </c>
+      <c r="R185">
+        <v>1.825</v>
+      </c>
+      <c r="S185">
+        <v>1.975</v>
+      </c>
+      <c r="T185">
         <v>2.75</v>
       </c>
-      <c r="L185">
-        <v>3.4</v>
-      </c>
-      <c r="M185">
-        <v>2.25</v>
-      </c>
-      <c r="N185">
-        <v>2.6</v>
-      </c>
-      <c r="O185">
-        <v>3.4</v>
-      </c>
-      <c r="P185">
-        <v>2.375</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>2</v>
-      </c>
-      <c r="S185">
-        <v>1.8</v>
-      </c>
-      <c r="T185">
-        <v>2.5</v>
-      </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16975,16 +16975,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6858827</v>
+        <v>6858828</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,46 +17004,46 @@
         <v>45248.375</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
         <v>45</v>
       </c>
       <c r="K186">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M186">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="N186">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="O186">
         <v>3.75</v>
       </c>
       <c r="P186">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
         <v>2.75</v>
@@ -17061,19 +17061,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.4</v>
+        <v>0.75</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA186">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC186">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -103,10 +103,10 @@
     <t>Denmark Division 3</t>
   </si>
   <si>
-    <t>AB Trnby</t>
+    <t>Oure FA</t>
   </si>
   <si>
-    <t>Oure FA</t>
+    <t>AB Trnby</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -115,13 +115,13 @@
     <t>Holstebro</t>
   </si>
   <si>
-    <t>Vanlse</t>
-  </si>
-  <si>
     <t>IF Lyseng</t>
   </si>
   <si>
     <t>Ishoj</t>
+  </si>
+  <si>
+    <t>Vanlse</t>
   </si>
   <si>
     <t>VSK Arhus</t>
@@ -139,10 +139,10 @@
     <t>Young Boys FD</t>
   </si>
   <si>
-    <t>Holbk</t>
+    <t>Vejgaard B</t>
   </si>
   <si>
-    <t>Vejgaard B</t>
+    <t>Holbk</t>
   </si>
   <si>
     <t>Frem</t>
@@ -151,10 +151,10 @@
     <t>Avarta</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5244596</v>
+        <v>5235485</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,70 +631,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M2">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P2">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R2">
+        <v>1.925</v>
+      </c>
+      <c r="S2">
         <v>1.875</v>
       </c>
-      <c r="S2">
-        <v>1.925</v>
-      </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y2">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5235485</v>
+        <v>5244596</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,70 +720,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L3">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Q3">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
+        <v>1.875</v>
+      </c>
+      <c r="S3">
         <v>1.925</v>
       </c>
-      <c r="S3">
-        <v>1.875</v>
-      </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>0.925</v>
       </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>1.363</v>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>3.4</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5244625</v>
+        <v>5244597</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>1.166</v>
+        <v>5.5</v>
       </c>
       <c r="L6">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>1.45</v>
       </c>
       <c r="N6">
-        <v>1.111</v>
+        <v>6</v>
       </c>
       <c r="O6">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P6">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="Q6">
-        <v>-2.75</v>
+        <v>1.25</v>
       </c>
       <c r="R6">
         <v>1.9</v>
@@ -1026,31 +1026,31 @@
         <v>1.9</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5244597</v>
+        <v>5244624</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,37 +1076,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L7">
         <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="O7">
         <v>4.5</v>
       </c>
       <c r="P7">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="Q7">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R7">
         <v>1.9</v>
@@ -1115,34 +1115,34 @@
         <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5244624</v>
+        <v>5244625</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,37 +1165,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N8">
-        <v>1.363</v>
+        <v>1.111</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="Q8">
-        <v>-1.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R8">
         <v>1.9</v>
@@ -1204,16 +1204,16 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U8">
+        <v>1.925</v>
+      </c>
+      <c r="V8">
         <v>1.775</v>
       </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
       <c r="W8">
-        <v>0.363</v>
+        <v>0.111</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1228,10 +1228,10 @@
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>3.5</v>
@@ -1429,7 +1429,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1518,7 +1518,7 @@
         <v>45006.625</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>19</v>
@@ -1699,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1785,10 +1785,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>2.4</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5244627</v>
+        <v>5244600</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,58 +1874,58 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>15</v>
+        <v>2.15</v>
       </c>
       <c r="Q16">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0.1419999999999999</v>
+        <v>2</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1966,7 +1966,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5244600</v>
+        <v>5244627</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,58 +2052,58 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P18">
-        <v>2.15</v>
+        <v>15</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R18">
+        <v>1.825</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>3.5</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="S18">
-        <v>1.925</v>
-      </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.8</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
       <c r="W18">
-        <v>2</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2112,16 +2112,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>0.825</v>
+      </c>
+      <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.875</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>0.8</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>2.35</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5236199</v>
+        <v>5244628</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,46 +2233,46 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>1.083</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>2.9</v>
       </c>
       <c r="N20">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="O20">
-        <v>17</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>41</v>
+        <v>3.3</v>
       </c>
       <c r="Q20">
-        <v>-4</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
         <v>1.95</v>
@@ -2281,25 +2281,25 @@
         <v>1.85</v>
       </c>
       <c r="W20">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5244628</v>
+        <v>5236199</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,49 +2319,49 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.083</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="M21">
-        <v>2.9</v>
+        <v>19</v>
       </c>
       <c r="N21">
+        <v>1.02</v>
+      </c>
+      <c r="O21">
+        <v>17</v>
+      </c>
+      <c r="P21">
+        <v>41</v>
+      </c>
+      <c r="Q21">
+        <v>-4</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.85</v>
       </c>
-      <c r="O21">
-        <v>3.8</v>
-      </c>
-      <c r="P21">
-        <v>3.3</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U21">
         <v>1.95</v>
@@ -2370,25 +2370,25 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X21">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5244602</v>
+        <v>5244630</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45017.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="N22">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.975</v>
-      </c>
-      <c r="V22">
-        <v>1.825</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X22">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
+        <v>0.8</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>0</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>-0</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>0.825</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5244629</v>
+        <v>5244602</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,13 +2497,13 @@
         <v>45017.375</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2512,61 +2512,61 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
+        <v>2.15</v>
+      </c>
+      <c r="N23">
+        <v>2.375</v>
+      </c>
+      <c r="O23">
+        <v>3.6</v>
+      </c>
+      <c r="P23">
+        <v>2.45</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>1.85</v>
       </c>
-      <c r="N23">
-        <v>3.8</v>
-      </c>
-      <c r="O23">
-        <v>3.75</v>
-      </c>
-      <c r="P23">
-        <v>1.727</v>
-      </c>
-      <c r="Q23">
-        <v>0.75</v>
-      </c>
-      <c r="R23">
-        <v>1.825</v>
-      </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y23">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5244630</v>
+        <v>5244629</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45017.375</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
         <v>3.75</v>
       </c>
       <c r="M24">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>1.533</v>
@@ -2767,7 +2767,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>2.1</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5235486</v>
+        <v>5251083</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,73 +2942,73 @@
         <v>45022.375</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>46</v>
       </c>
       <c r="K28">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N28">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5251083</v>
+        <v>5235486</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,73 +3031,73 @@
         <v>45022.375</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N29">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <v>-1.5</v>
+      </c>
+      <c r="R29">
+        <v>1.875</v>
+      </c>
+      <c r="S29">
+        <v>1.925</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>1.875</v>
+      </c>
+      <c r="V29">
+        <v>1.925</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>3.5</v>
       </c>
-      <c r="Q29">
-        <v>-0.5</v>
-      </c>
-      <c r="R29">
-        <v>1.825</v>
-      </c>
-      <c r="S29">
-        <v>1.975</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
       <c r="Y29">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5251084</v>
+        <v>5236200</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,55 +3120,55 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N30">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
         <v>3</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3177,19 +3177,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>4.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5236200</v>
+        <v>5244605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>45</v>
       </c>
       <c r="K31">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L31">
+        <v>3.3</v>
+      </c>
+      <c r="M31">
+        <v>1.95</v>
+      </c>
+      <c r="N31">
         <v>3.6</v>
       </c>
-      <c r="M31">
-        <v>2.9</v>
-      </c>
-      <c r="N31">
-        <v>2.2</v>
-      </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y31">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244605</v>
+        <v>5244631</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>3.5</v>
+        <v>1.416</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>1.363</v>
+      </c>
+      <c r="O32">
+        <v>4.75</v>
+      </c>
+      <c r="P32">
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <v>-1.25</v>
+      </c>
+      <c r="R32">
+        <v>1.75</v>
+      </c>
+      <c r="S32">
         <v>1.95</v>
-      </c>
-      <c r="N32">
-        <v>3.6</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>1.909</v>
-      </c>
-      <c r="Q32">
-        <v>0.5</v>
-      </c>
-      <c r="R32">
-        <v>1.875</v>
-      </c>
-      <c r="S32">
-        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X32">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5244631</v>
+        <v>5244604</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,73 +3387,73 @@
         <v>45026.375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>1.416</v>
+        <v>4.2</v>
       </c>
       <c r="L33">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="N33">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="O33">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R33">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5244604</v>
+        <v>5251084</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,56 +3476,56 @@
         <v>45026.375</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>1.55</v>
+      </c>
+      <c r="L34">
         <v>4</v>
       </c>
-      <c r="J34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34">
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>1.533</v>
+      </c>
+      <c r="O34">
         <v>4.2</v>
       </c>
-      <c r="L34">
-        <v>3.8</v>
-      </c>
-      <c r="M34">
-        <v>1.65</v>
-      </c>
-      <c r="N34">
-        <v>4.2</v>
-      </c>
-      <c r="O34">
-        <v>3.8</v>
-      </c>
       <c r="P34">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R34">
+        <v>1.8</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
         <v>1.95</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>1.85</v>
       </c>
-      <c r="T34">
-        <v>2.75</v>
-      </c>
-      <c r="U34">
-        <v>1.775</v>
-      </c>
-      <c r="V34">
-        <v>2.025</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
@@ -3533,19 +3533,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.6499999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>-1</v>
+      </c>
+      <c r="AC34">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB34">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC34">
-        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6519913</v>
+        <v>6519855</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,70 +3565,70 @@
         <v>45031.34375</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>2.3</v>
+      </c>
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
+        <v>2.6</v>
+      </c>
+      <c r="N35">
+        <v>2.2</v>
+      </c>
+      <c r="O35">
+        <v>3.5</v>
+      </c>
+      <c r="P35">
+        <v>2.75</v>
+      </c>
+      <c r="Q35">
+        <v>-0.25</v>
+      </c>
+      <c r="R35">
         <v>2</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35">
-        <v>2.2</v>
-      </c>
-      <c r="L35">
-        <v>3.6</v>
-      </c>
-      <c r="M35">
-        <v>2.75</v>
-      </c>
-      <c r="N35">
+      <c r="S35">
+        <v>1.8</v>
+      </c>
+      <c r="T35">
+        <v>2.5</v>
+      </c>
+      <c r="U35">
         <v>1.85</v>
-      </c>
-      <c r="O35">
-        <v>3.75</v>
-      </c>
-      <c r="P35">
-        <v>3.4</v>
-      </c>
-      <c r="Q35">
-        <v>-0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.925</v>
-      </c>
-      <c r="S35">
-        <v>1.875</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.75</v>
       </c>
       <c r="V35">
         <v>1.95</v>
       </c>
       <c r="W35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6519855</v>
+        <v>6519913</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,70 +3654,70 @@
         <v>45031.34375</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
+        <v>3.4</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
         <v>2.75</v>
       </c>
-      <c r="Q36">
-        <v>-0.25</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36">
-        <v>1.8</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V36">
         <v>1.95</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3835,7 +3835,7 @@
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3921,10 +3921,10 @@
         <v>45032.375</v>
       </c>
       <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
         <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4010,7 +4010,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>36</v>
@@ -4022,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>2.375</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6528856</v>
+        <v>6526648</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,49 +4188,49 @@
         <v>45038.375</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42" t="s">
         <v>46</v>
       </c>
       <c r="K42">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N42">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O42">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U42">
         <v>1.925</v>
@@ -4242,22 +4242,22 @@
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6526648</v>
+        <v>6528856</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,49 +4277,49 @@
         <v>45038.375</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>45</v>
       </c>
       <c r="K43">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
         <v>1.925</v>
@@ -4331,22 +4331,22 @@
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y43">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>1.714</v>
@@ -4455,7 +4455,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
         <v>39</v>
@@ -4467,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>2.3</v>
@@ -4544,10 +4544,10 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>1.85</v>
@@ -4722,7 +4722,7 @@
         <v>45045.375</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4811,7 +4811,7 @@
         <v>45045.4375</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -4992,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5090,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>2.45</v>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6526513</v>
+        <v>6528860</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45052.375</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
         <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W54">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6528860</v>
+        <v>6526513</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45052.375</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O55">
         <v>3.6</v>
       </c>
       <c r="P55">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC55">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>2.375</v>
@@ -5526,7 +5526,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6526652</v>
+        <v>6528879</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,76 +5612,76 @@
         <v>45059.375</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>46</v>
       </c>
       <c r="K58">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="L58">
         <v>3.8</v>
       </c>
       <c r="M58">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N58">
-        <v>2.9</v>
+        <v>1.714</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
+        <v>1.85</v>
+      </c>
+      <c r="V58">
         <v>1.95</v>
       </c>
-      <c r="V58">
-        <v>1.85</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z58">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6528879</v>
+        <v>6526652</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45059.375</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>45</v>
       </c>
       <c r="K59">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="L59">
         <v>3.8</v>
       </c>
       <c r="M59">
+        <v>2.15</v>
+      </c>
+      <c r="N59">
+        <v>2.9</v>
+      </c>
+      <c r="O59">
         <v>4</v>
       </c>
-      <c r="N59">
-        <v>1.714</v>
-      </c>
-      <c r="O59">
-        <v>3.6</v>
-      </c>
       <c r="P59">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
         <v>1.85</v>
       </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y59">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45059.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>1.444</v>
@@ -5968,10 +5968,10 @@
         <v>45065.57291666666</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5980,7 +5980,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>1.75</v>
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>3.1</v>
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6324,7 +6324,7 @@
         <v>45066.375</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6526654</v>
+        <v>6528865</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>47</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>3.75</v>
+      </c>
+      <c r="M67">
         <v>3</v>
       </c>
-      <c r="J67" t="s">
-        <v>45</v>
-      </c>
-      <c r="K67">
-        <v>12</v>
-      </c>
-      <c r="L67">
-        <v>6.5</v>
-      </c>
-      <c r="M67">
-        <v>1.166</v>
-      </c>
       <c r="N67">
-        <v>12</v>
+        <v>2.05</v>
       </c>
       <c r="O67">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P67">
-        <v>1.166</v>
+        <v>2.75</v>
       </c>
       <c r="Q67">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>1.875</v>
+      </c>
+      <c r="S67">
         <v>1.925</v>
       </c>
-      <c r="S67">
-        <v>1.875</v>
-      </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6528865</v>
+        <v>6526654</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>3</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N68">
-        <v>2.05</v>
+        <v>12</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P68">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R68">
+        <v>1.925</v>
+      </c>
+      <c r="S68">
         <v>1.875</v>
       </c>
-      <c r="S68">
-        <v>1.925</v>
-      </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
         <v>0.875</v>
       </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>2.875</v>
@@ -6683,7 +6683,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6769,7 +6769,7 @@
         <v>45073.375</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
         <v>40</v>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -6861,7 +6861,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6947,10 +6947,10 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7036,7 +7036,7 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7048,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7125,10 +7125,10 @@
         <v>45080.375</v>
       </c>
       <c r="F75" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
         <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7315,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>3</v>
@@ -7481,7 +7481,7 @@
         <v>45086.57291666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7493,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>3.6</v>
@@ -7582,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>17</v>
@@ -7748,10 +7748,10 @@
         <v>45087.375</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7760,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>2.3</v>
@@ -7837,7 +7837,7 @@
         <v>45087.5</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>37</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>1.909</v>
@@ -7929,7 +7929,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6526519</v>
+        <v>6526660</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45094.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>46</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>3.6</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3.1</v>
+      </c>
+      <c r="O85">
         <v>4</v>
       </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85" t="s">
-        <v>47</v>
-      </c>
-      <c r="K85">
-        <v>1.571</v>
-      </c>
-      <c r="L85">
-        <v>4.2</v>
-      </c>
-      <c r="M85">
-        <v>4.333</v>
-      </c>
-      <c r="N85">
-        <v>1.5</v>
-      </c>
-      <c r="O85">
-        <v>4.5</v>
-      </c>
       <c r="P85">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6527542</v>
+        <v>6528871</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45094.375</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>1.142</v>
+        <v>1.6</v>
       </c>
       <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="M86">
+        <v>4.5</v>
+      </c>
+      <c r="N86">
+        <v>1.3</v>
+      </c>
+      <c r="O86">
+        <v>5</v>
+      </c>
+      <c r="P86">
         <v>7</v>
       </c>
-      <c r="M86">
-        <v>13</v>
-      </c>
-      <c r="N86">
-        <v>1.125</v>
-      </c>
-      <c r="O86">
-        <v>8</v>
-      </c>
-      <c r="P86">
-        <v>13</v>
-      </c>
       <c r="Q86">
-        <v>-2.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R86">
+        <v>1.95</v>
+      </c>
+      <c r="S86">
         <v>1.85</v>
       </c>
-      <c r="S86">
+      <c r="T86">
+        <v>3.5</v>
+      </c>
+      <c r="U86">
         <v>1.95</v>
       </c>
-      <c r="T86">
-        <v>4</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB86">
         <v>0.95</v>
       </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6526660</v>
+        <v>6526519</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45094.375</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
+        <v>4.333</v>
+      </c>
+      <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <v>4.5</v>
+      </c>
+      <c r="P87">
+        <v>5</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
+        <v>1.8</v>
+      </c>
+      <c r="S87">
         <v>2</v>
-      </c>
-      <c r="N87">
-        <v>3.1</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
-      <c r="P87">
-        <v>1.85</v>
-      </c>
-      <c r="Q87">
-        <v>0.25</v>
-      </c>
-      <c r="R87">
-        <v>2.1</v>
-      </c>
-      <c r="S87">
-        <v>1.7</v>
       </c>
       <c r="T87">
         <v>3.25</v>
       </c>
       <c r="U87">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6528870</v>
+        <v>6527542</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,40 +8282,40 @@
         <v>45094.375</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>1.45</v>
+        <v>1.142</v>
       </c>
       <c r="L88">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M88">
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="N88">
-        <v>1.333</v>
+        <v>1.125</v>
       </c>
       <c r="O88">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P88">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Q88">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R88">
         <v>1.85</v>
@@ -8324,16 +8324,16 @@
         <v>1.95</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>0.333</v>
+        <v>0.125</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8342,16 +8342,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6528884</v>
+        <v>6528870</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45094.375</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="L89">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N89">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P89">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
+        <v>1.95</v>
+      </c>
+      <c r="T89">
+        <v>3.25</v>
+      </c>
+      <c r="U89">
+        <v>1.925</v>
+      </c>
+      <c r="V89">
         <v>1.875</v>
       </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>3</v>
-      </c>
-      <c r="U89">
-        <v>2</v>
-      </c>
-      <c r="V89">
-        <v>1.8</v>
-      </c>
       <c r="W89">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.875</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>1</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6528871</v>
+        <v>6528884</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,73 +8460,73 @@
         <v>45094.375</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N90">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q90">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8552,7 +8552,7 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>2.25</v>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859123</v>
+        <v>6858502</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,73 +8730,73 @@
         <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L93">
         <v>3.75</v>
       </c>
       <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>3.4</v>
+      </c>
+      <c r="O93">
         <v>4</v>
       </c>
-      <c r="N93">
+      <c r="P93">
+        <v>1.75</v>
+      </c>
+      <c r="Q93">
+        <v>0.5</v>
+      </c>
+      <c r="R93">
+        <v>1.975</v>
+      </c>
+      <c r="S93">
+        <v>1.825</v>
+      </c>
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
         <v>1.85</v>
       </c>
-      <c r="O93">
-        <v>3.8</v>
-      </c>
-      <c r="P93">
-        <v>3.25</v>
-      </c>
-      <c r="Q93">
-        <v>-0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.9</v>
-      </c>
-      <c r="S93">
-        <v>1.9</v>
-      </c>
-      <c r="T93">
+      <c r="V93">
+        <v>1.95</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>3</v>
       </c>
-      <c r="U93">
-        <v>1.8</v>
-      </c>
-      <c r="V93">
-        <v>2</v>
-      </c>
-      <c r="W93">
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6858502</v>
+        <v>6859123</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L94">
         <v>3.75</v>
       </c>
       <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>1.85</v>
+      </c>
+      <c r="O94">
+        <v>3.8</v>
+      </c>
+      <c r="P94">
+        <v>3.25</v>
+      </c>
+      <c r="Q94">
+        <v>-0.5</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
+        <v>1.8</v>
+      </c>
+      <c r="V94">
         <v>2</v>
       </c>
-      <c r="N94">
-        <v>3.4</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
-      <c r="P94">
-        <v>1.75</v>
-      </c>
-      <c r="Q94">
-        <v>0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.975</v>
-      </c>
-      <c r="S94">
-        <v>1.825</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
-      </c>
-      <c r="U94">
-        <v>1.85</v>
-      </c>
-      <c r="V94">
-        <v>1.95</v>
-      </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X94">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8994,10 +8994,10 @@
         <v>45143.375</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.4</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859121</v>
+        <v>6859120</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9086,73 +9086,73 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="I97">
+      <c r="J97" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97">
+        <v>2.25</v>
+      </c>
+      <c r="L97">
+        <v>3.5</v>
+      </c>
+      <c r="M97">
+        <v>2.6</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
         <v>3</v>
       </c>
-      <c r="J97" t="s">
-        <v>45</v>
-      </c>
-      <c r="K97">
-        <v>5</v>
-      </c>
-      <c r="L97">
-        <v>4</v>
-      </c>
-      <c r="M97">
-        <v>1.5</v>
-      </c>
-      <c r="N97">
-        <v>4.2</v>
-      </c>
-      <c r="O97">
-        <v>3.8</v>
-      </c>
-      <c r="P97">
-        <v>1.666</v>
-      </c>
       <c r="Q97">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
         <v>1.975</v>
       </c>
-      <c r="S97">
-        <v>1.825</v>
-      </c>
-      <c r="T97">
-        <v>2.75</v>
-      </c>
-      <c r="U97">
-        <v>1.8</v>
-      </c>
-      <c r="V97">
-        <v>2</v>
-      </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6859120</v>
+        <v>6858539</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,49 +9172,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K98">
         <v>2</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.25</v>
-      </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.825</v>
@@ -9223,19 +9223,19 @@
         <v>1.975</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6858539</v>
+        <v>6859121</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>46</v>
       </c>
       <c r="K99">
+        <v>5</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>1.5</v>
+      </c>
+      <c r="N99">
+        <v>4.2</v>
+      </c>
+      <c r="O99">
+        <v>3.8</v>
+      </c>
+      <c r="P99">
+        <v>1.666</v>
+      </c>
+      <c r="Q99">
+        <v>0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
+        <v>1.825</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.8</v>
+      </c>
+      <c r="V99">
         <v>2</v>
       </c>
-      <c r="L99">
-        <v>3.6</v>
-      </c>
-      <c r="M99">
-        <v>3</v>
-      </c>
-      <c r="N99">
-        <v>1.909</v>
-      </c>
-      <c r="O99">
-        <v>3.75</v>
-      </c>
-      <c r="P99">
-        <v>3.2</v>
-      </c>
-      <c r="Q99">
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.825</v>
+      </c>
+      <c r="AB99">
+        <v>0.4</v>
+      </c>
+      <c r="AC99">
         <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>3.25</v>
-      </c>
-      <c r="U99">
-        <v>1.825</v>
-      </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.75</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
-      <c r="AC99">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9353,7 +9353,7 @@
         <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9362,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>1.9</v>
@@ -9531,7 +9531,7 @@
         <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6859118</v>
+        <v>6858768</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>46</v>
       </c>
       <c r="K103">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L103">
+        <v>3.8</v>
+      </c>
+      <c r="M103">
+        <v>1.65</v>
+      </c>
+      <c r="N103">
         <v>4.5</v>
       </c>
-      <c r="M103">
-        <v>6</v>
-      </c>
-      <c r="N103">
-        <v>1.45</v>
-      </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6858768</v>
+        <v>6859118</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N104">
+        <v>1.45</v>
+      </c>
+      <c r="O104">
         <v>4.5</v>
       </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
       <c r="P104">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y104">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,10 +9795,10 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -9884,7 +9884,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -9976,7 +9976,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>1.285</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.4</v>
@@ -10154,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10240,7 +10240,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
@@ -10329,7 +10329,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
         <v>36</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6858775</v>
+        <v>6858774</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45164.375</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M112">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N112">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O112">
         <v>3.8</v>
       </c>
       <c r="P112">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z112">
+        <v>-0.5</v>
+      </c>
+      <c r="AA112">
+        <v>0.425</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
-      <c r="AB112">
-        <v>0</v>
-      </c>
-      <c r="AC112">
-        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858774</v>
+        <v>6858775</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45164.375</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N113">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
         <v>3.8</v>
       </c>
       <c r="P113">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>1.714</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6858777</v>
+        <v>6859115</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,67 +10685,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M115">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N115">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
         <v>3</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10754,7 +10754,7 @@
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6859115</v>
+        <v>6858777</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,67 +10774,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L116">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X116">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10843,7 +10843,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>45171.375</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>44</v>
@@ -11044,7 +11044,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>1.85</v>
@@ -11133,7 +11133,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
         <v>2.4</v>
@@ -11231,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>1.727</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>1.666</v>
@@ -11397,10 +11397,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -11486,10 +11486,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11575,10 +11575,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6859111</v>
+        <v>6858785</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,76 +11753,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F127" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" t="s">
         <v>41</v>
       </c>
-      <c r="G127" t="s">
-        <v>32</v>
-      </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>45</v>
+      </c>
+      <c r="K127">
+        <v>1.909</v>
+      </c>
+      <c r="L127">
+        <v>3.6</v>
+      </c>
+      <c r="M127">
+        <v>3.4</v>
+      </c>
+      <c r="N127">
+        <v>1.85</v>
+      </c>
+      <c r="O127">
+        <v>3.75</v>
+      </c>
+      <c r="P127">
+        <v>3.4</v>
+      </c>
+      <c r="Q127">
+        <v>-0.5</v>
+      </c>
+      <c r="R127">
+        <v>1.925</v>
+      </c>
+      <c r="S127">
+        <v>1.875</v>
+      </c>
+      <c r="T127">
         <v>3</v>
       </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>47</v>
-      </c>
-      <c r="K127">
-        <v>2.3</v>
-      </c>
-      <c r="L127">
-        <v>3.5</v>
-      </c>
-      <c r="M127">
-        <v>2.7</v>
-      </c>
-      <c r="N127">
-        <v>2.15</v>
-      </c>
-      <c r="O127">
-        <v>3.6</v>
-      </c>
-      <c r="P127">
-        <v>2.8</v>
-      </c>
-      <c r="Q127">
-        <v>-0.25</v>
-      </c>
-      <c r="R127">
-        <v>1.95</v>
-      </c>
-      <c r="S127">
-        <v>1.85</v>
-      </c>
-      <c r="T127">
+      <c r="U127">
+        <v>1.8</v>
+      </c>
+      <c r="V127">
+        <v>2</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
         <v>2.75</v>
       </c>
-      <c r="U127">
-        <v>1.975</v>
-      </c>
-      <c r="V127">
-        <v>1.825</v>
-      </c>
-      <c r="W127">
-        <v>1.15</v>
-      </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB127">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6858785</v>
+        <v>6859111</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L128">
+        <v>3.5</v>
+      </c>
+      <c r="M128">
+        <v>2.7</v>
+      </c>
+      <c r="N128">
+        <v>2.15</v>
+      </c>
+      <c r="O128">
         <v>3.6</v>
       </c>
-      <c r="M128">
-        <v>3.4</v>
-      </c>
-      <c r="N128">
+      <c r="P128">
+        <v>2.8</v>
+      </c>
+      <c r="Q128">
+        <v>-0.25</v>
+      </c>
+      <c r="R128">
+        <v>1.95</v>
+      </c>
+      <c r="S128">
         <v>1.85</v>
       </c>
-      <c r="O128">
-        <v>3.75</v>
-      </c>
-      <c r="P128">
-        <v>3.4</v>
-      </c>
-      <c r="Q128">
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
+        <v>1.825</v>
+      </c>
+      <c r="W128">
+        <v>1.15</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>0.95</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>0.4875</v>
+      </c>
+      <c r="AC128">
         <v>-0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.925</v>
-      </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>3</v>
-      </c>
-      <c r="U128">
-        <v>1.8</v>
-      </c>
-      <c r="V128">
-        <v>2</v>
-      </c>
-      <c r="W128">
-        <v>-1</v>
-      </c>
-      <c r="X128">
-        <v>2.75</v>
-      </c>
-      <c r="Y128">
-        <v>-1</v>
-      </c>
-      <c r="Z128">
-        <v>-1</v>
-      </c>
-      <c r="AA128">
-        <v>0.875</v>
-      </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
-      <c r="AC128">
-        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6858790</v>
+        <v>6859110</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,13 +12020,13 @@
         <v>45185.375</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>2</v>
@@ -12035,61 +12035,61 @@
         <v>46</v>
       </c>
       <c r="K130">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N130">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>45185.375</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>43</v>
@@ -12121,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6859110</v>
+        <v>6858790</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,13 +12198,13 @@
         <v>45185.375</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -12213,61 +12213,61 @@
         <v>45</v>
       </c>
       <c r="K132">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L132">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y132">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6859109</v>
+        <v>6858791</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>45</v>
       </c>
       <c r="K133">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L133">
         <v>3.6</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N133">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,10 +12376,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
         <v>1.45</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6858791</v>
+        <v>6859109</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>46</v>
       </c>
       <c r="K135">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L135">
         <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>1.85</v>
+      </c>
+      <c r="V135">
+        <v>1.95</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
         <v>3</v>
       </c>
-      <c r="U135">
-        <v>1.875</v>
-      </c>
-      <c r="V135">
-        <v>1.925</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>2.4</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
       <c r="Z135">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
+        <v>0.825</v>
+      </c>
+      <c r="AB135">
+        <v>0.425</v>
+      </c>
+      <c r="AC135">
         <v>-0.5</v>
-      </c>
-      <c r="AB135">
-        <v>0.875</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12735,7 +12735,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12821,7 +12821,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>36</v>
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K139">
         <v>2.8</v>
@@ -12910,10 +12910,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F140" t="s">
+        <v>42</v>
+      </c>
+      <c r="G140" t="s">
         <v>41</v>
-      </c>
-      <c r="G140" t="s">
-        <v>42</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12999,10 +12999,10 @@
         <v>45199.375</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13100,7 +13100,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K142">
         <v>1.65</v>
@@ -13189,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K143">
         <v>2.6</v>
@@ -13269,7 +13269,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6858799</v>
+        <v>6859105</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,40 +13355,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>45</v>
       </c>
       <c r="K145">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N145">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
         <v>1.975</v>
@@ -13397,22 +13397,22 @@
         <v>1.825</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
@@ -13421,10 +13421,10 @@
         <v>0.825</v>
       </c>
       <c r="AB145">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6859105</v>
+        <v>6858799</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,40 +13444,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>46</v>
       </c>
       <c r="K146">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N146">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
         <v>1.975</v>
@@ -13486,22 +13486,22 @@
         <v>1.825</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z146">
         <v>-1</v>
@@ -13510,10 +13510,10 @@
         <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC146">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13536,7 +13536,7 @@
         <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13545,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>2.45</v>
@@ -13634,7 +13634,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>2.3</v>
@@ -13714,7 +13714,7 @@
         <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13723,7 +13723,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -13800,10 +13800,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13892,7 +13892,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K151">
         <v>1.7</v>
@@ -13978,7 +13978,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
         <v>37</v>
@@ -13990,7 +13990,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>2.7</v>
@@ -14079,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K153">
         <v>1.4</v>
@@ -14156,10 +14156,10 @@
         <v>45213.375</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14337,7 +14337,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6858807</v>
+        <v>6858809</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L157">
         <v>3.6</v>
       </c>
       <c r="M157">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N157">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O157">
         <v>4</v>
       </c>
       <c r="P157">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>1.55</v>
+      </c>
+      <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
+        <v>1</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
-      <c r="AB157">
-        <v>0.925</v>
-      </c>
-      <c r="AC157">
-        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6858809</v>
+        <v>6858807</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,73 +14515,73 @@
         <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L158">
         <v>3.6</v>
       </c>
       <c r="M158">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O158">
         <v>4</v>
       </c>
       <c r="P158">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14601,10 +14601,10 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F159" t="s">
+        <v>41</v>
+      </c>
+      <c r="G159" t="s">
         <v>42</v>
-      </c>
-      <c r="G159" t="s">
-        <v>41</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14613,7 +14613,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K159">
         <v>1.727</v>
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6859100</v>
+        <v>6858810</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N160">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6858810</v>
+        <v>6859100</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45220.375</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>45</v>
       </c>
       <c r="K161">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N161">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y161">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>40</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6859099</v>
+        <v>6858811</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,55 +14957,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>46</v>
+      </c>
+      <c r="K163">
+        <v>1.55</v>
+      </c>
+      <c r="L163">
         <v>4</v>
       </c>
-      <c r="J163" t="s">
-        <v>45</v>
-      </c>
-      <c r="K163">
-        <v>3</v>
-      </c>
-      <c r="L163">
-        <v>3.6</v>
-      </c>
       <c r="M163">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O163">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P163">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15014,19 +15014,19 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6858811</v>
+        <v>6859099</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,56 +15046,56 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K164">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N164">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
+        <v>1.95</v>
+      </c>
+      <c r="S164">
+        <v>1.85</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
         <v>1.825</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>1.975</v>
       </c>
-      <c r="T164">
-        <v>3.25</v>
-      </c>
-      <c r="U164">
-        <v>1.9</v>
-      </c>
-      <c r="V164">
-        <v>1.9</v>
-      </c>
       <c r="W164">
         <v>-1</v>
       </c>
@@ -15103,19 +15103,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6858813</v>
+        <v>6858814</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,76 +15224,76 @@
         <v>45227.375</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J166" t="s">
         <v>46</v>
       </c>
       <c r="K166">
-        <v>1.769</v>
+        <v>2.45</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N166">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6858814</v>
+        <v>6858813</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45227.375</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>45</v>
       </c>
       <c r="K167">
-        <v>2.45</v>
+        <v>1.769</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
         <v>3</v>
       </c>
       <c r="U167">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y167">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>2.375</v>
@@ -15491,7 +15491,7 @@
         <v>45233.625</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15580,7 +15580,7 @@
         <v>45234.375</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>37</v>
@@ -15592,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2.1</v>
@@ -15669,10 +15669,10 @@
         <v>45234.375</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15681,7 +15681,7 @@
         <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K171">
         <v>1.65</v>
@@ -15758,7 +15758,7 @@
         <v>45234.375</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
         <v>40</v>
@@ -15770,7 +15770,7 @@
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K172">
         <v>2.45</v>
@@ -15859,7 +15859,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K173">
         <v>2.875</v>
@@ -15936,7 +15936,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
         <v>36</v>
@@ -15948,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>3.1</v>
@@ -16028,7 +16028,7 @@
         <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>4</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6859096</v>
+        <v>6858823</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,40 +16114,40 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>47</v>
+      </c>
+      <c r="K176">
+        <v>2.45</v>
+      </c>
+      <c r="L176">
+        <v>3.75</v>
+      </c>
+      <c r="M176">
+        <v>2.375</v>
+      </c>
+      <c r="N176">
+        <v>2.45</v>
+      </c>
+      <c r="O176">
+        <v>3.75</v>
+      </c>
+      <c r="P176">
+        <v>2.375</v>
+      </c>
+      <c r="Q176">
         <v>0</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" t="s">
-        <v>46</v>
-      </c>
-      <c r="K176">
-        <v>1.571</v>
-      </c>
-      <c r="L176">
-        <v>4</v>
-      </c>
-      <c r="M176">
-        <v>4.75</v>
-      </c>
-      <c r="N176">
-        <v>1.571</v>
-      </c>
-      <c r="O176">
-        <v>4</v>
-      </c>
-      <c r="P176">
-        <v>4.75</v>
-      </c>
-      <c r="Q176">
-        <v>-1</v>
       </c>
       <c r="R176">
         <v>1.95</v>
@@ -16156,34 +16156,34 @@
         <v>1.85</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U176">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6858824</v>
+        <v>6858821</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>2.35</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
         <v>3</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6858823</v>
+        <v>6858824</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,76 +16292,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K178">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M178">
-        <v>2.375</v>
+        <v>2.35</v>
       </c>
       <c r="N178">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O178">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q178">
         <v>0</v>
       </c>
       <c r="R178">
+        <v>1.85</v>
+      </c>
+      <c r="S178">
         <v>1.95</v>
       </c>
-      <c r="S178">
-        <v>1.85</v>
-      </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
         <v>0.95</v>
       </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6858821</v>
+        <v>6859096</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,46 +16381,46 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O179">
         <v>4</v>
       </c>
       <c r="P179">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q179">
         <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
         <v>3</v>
@@ -16432,25 +16432,25 @@
         <v>2</v>
       </c>
       <c r="W179">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6858827</v>
+        <v>6859093</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,76 +16559,76 @@
         <v>45248.375</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
         <v>0</v>
       </c>
-      <c r="I181">
+      <c r="J181" t="s">
+        <v>47</v>
+      </c>
+      <c r="K181">
+        <v>2.75</v>
+      </c>
+      <c r="L181">
+        <v>3.4</v>
+      </c>
+      <c r="M181">
+        <v>2.25</v>
+      </c>
+      <c r="N181">
+        <v>2.6</v>
+      </c>
+      <c r="O181">
+        <v>3.4</v>
+      </c>
+      <c r="P181">
+        <v>2.375</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
+        <v>1.875</v>
+      </c>
+      <c r="W181">
+        <v>1.6</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
         <v>1</v>
       </c>
-      <c r="J181" t="s">
-        <v>45</v>
-      </c>
-      <c r="K181">
-        <v>2.3</v>
-      </c>
-      <c r="L181">
-        <v>3.5</v>
-      </c>
-      <c r="M181">
-        <v>2.625</v>
-      </c>
-      <c r="N181">
-        <v>1.85</v>
-      </c>
-      <c r="O181">
-        <v>3.75</v>
-      </c>
-      <c r="P181">
-        <v>3.4</v>
-      </c>
-      <c r="Q181">
-        <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>1.875</v>
-      </c>
-      <c r="S181">
-        <v>1.925</v>
-      </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>1.825</v>
-      </c>
-      <c r="V181">
-        <v>1.975</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>2.4</v>
-      </c>
-      <c r="Z181">
-        <v>-1</v>
-      </c>
       <c r="AA181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6858826</v>
+        <v>6859092</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16651,73 +16651,73 @@
         <v>42</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L182">
         <v>3.6</v>
       </c>
       <c r="M182">
+        <v>2.45</v>
+      </c>
+      <c r="N182">
         <v>2</v>
       </c>
-      <c r="N182">
-        <v>2.875</v>
-      </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P182">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q182">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S182">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC182">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6858825</v>
+        <v>6858828</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45248.375</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K183">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="L183">
         <v>3.8</v>
       </c>
       <c r="M183">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="N183">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="O183">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB183">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6859093</v>
+        <v>6858827</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45248.375</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
         <v>1</v>
       </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K184">
+        <v>2.3</v>
+      </c>
+      <c r="L184">
+        <v>3.5</v>
+      </c>
+      <c r="M184">
+        <v>2.625</v>
+      </c>
+      <c r="N184">
+        <v>1.85</v>
+      </c>
+      <c r="O184">
+        <v>3.75</v>
+      </c>
+      <c r="P184">
+        <v>3.4</v>
+      </c>
+      <c r="Q184">
+        <v>-0.5</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
         <v>2.75</v>
       </c>
-      <c r="L184">
-        <v>3.4</v>
-      </c>
-      <c r="M184">
-        <v>2.25</v>
-      </c>
-      <c r="N184">
-        <v>2.6</v>
-      </c>
-      <c r="O184">
-        <v>3.4</v>
-      </c>
-      <c r="P184">
-        <v>2.375</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>2</v>
-      </c>
-      <c r="S184">
-        <v>1.8</v>
-      </c>
-      <c r="T184">
-        <v>2.5</v>
-      </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6859092</v>
+        <v>6858826</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16918,73 +16918,73 @@
         <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K185">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L185">
         <v>3.6</v>
       </c>
       <c r="M185">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N185">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P185">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U185">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z185">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB185">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6858828</v>
+        <v>6858825</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45248.375</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I186">
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K186">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="L186">
         <v>3.8</v>
       </c>
       <c r="M186">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="N186">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P186">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q186">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -103,22 +103,22 @@
     <t>Denmark Division 3</t>
   </si>
   <si>
-    <t>Oure FA</t>
-  </si>
-  <si>
     <t>AB Trnby</t>
   </si>
   <si>
     <t>Middelfart</t>
   </si>
   <si>
+    <t>Oure FA</t>
+  </si>
+  <si>
     <t>Holstebro</t>
   </si>
   <si>
-    <t>IF Lyseng</t>
+    <t>Ishoj</t>
   </si>
   <si>
-    <t>Ishoj</t>
+    <t>IF Lyseng</t>
   </si>
   <si>
     <t>Vanlse</t>
@@ -139,10 +139,10 @@
     <t>Young Boys FD</t>
   </si>
   <si>
-    <t>Vejgaard B</t>
+    <t>Holbk</t>
   </si>
   <si>
-    <t>Holbk</t>
+    <t>Vejgaard B</t>
   </si>
   <si>
     <t>Frem</t>
@@ -151,10 +151,10 @@
     <t>Avarta</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5235485</v>
+        <v>5244596</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,70 +631,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L2">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M2">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="N2">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Q2">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
+        <v>1.875</v>
+      </c>
+      <c r="S2">
         <v>1.925</v>
       </c>
-      <c r="S2">
-        <v>1.875</v>
-      </c>
       <c r="T2">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
         <v>0.925</v>
       </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
       <c r="AB2">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5244596</v>
+        <v>5244479</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,52 +720,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P3">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -774,19 +774,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5244479</v>
+        <v>5235485</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,10 +809,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -821,61 +821,61 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="N4">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
         <v>4.5</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y4">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>3.4</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5244597</v>
+        <v>5244624</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
         <v>4.5</v>
       </c>
       <c r="M6">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="O6">
         <v>4.5</v>
       </c>
       <c r="P6">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
         <v>1.9</v>
@@ -1026,34 +1026,34 @@
         <v>1.9</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5244624</v>
+        <v>5244597</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,37 +1076,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
         <v>4.5</v>
       </c>
       <c r="M7">
+        <v>1.45</v>
+      </c>
+      <c r="N7">
         <v>6</v>
-      </c>
-      <c r="N7">
-        <v>1.363</v>
       </c>
       <c r="O7">
         <v>4.5</v>
       </c>
       <c r="P7">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R7">
         <v>1.9</v>
@@ -1115,34 +1115,34 @@
         <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>3.5</v>
@@ -1429,7 +1429,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1518,7 +1518,7 @@
         <v>45006.625</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>19</v>
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5244601</v>
+        <v>5251081</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,7 +1785,7 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -1794,67 +1794,67 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
         <v>3.5</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5251081</v>
+        <v>5244627</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,13 +1963,13 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1978,43 +1978,43 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>1.142</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>-2.25</v>
+      </c>
+      <c r="R17">
+        <v>1.825</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
         <v>3.5</v>
       </c>
-      <c r="M17">
-        <v>1.85</v>
-      </c>
-      <c r="N17">
-        <v>4.333</v>
-      </c>
-      <c r="O17">
-        <v>3.75</v>
-      </c>
-      <c r="P17">
-        <v>1.65</v>
-      </c>
-      <c r="Q17">
-        <v>0.75</v>
-      </c>
-      <c r="R17">
+      <c r="U17">
         <v>1.925</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.875</v>
       </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
-      <c r="U17">
-        <v>1.8</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
       <c r="W17">
-        <v>3.333</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,7 +2023,7 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA17">
         <v>-1</v>
@@ -2032,7 +2032,7 @@
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5244627</v>
+        <v>5244601</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
-        <v>1.142</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="Q18">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
+        <v>1.9</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
         <v>1.875</v>
       </c>
-      <c r="W18">
-        <v>0.1419999999999999</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5251082</v>
+        <v>5236199</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,73 +2144,73 @@
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>2.35</v>
+        <v>1.083</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="M19">
-        <v>2.45</v>
+        <v>19</v>
       </c>
       <c r="N19">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="P19">
-        <v>2.4</v>
+        <v>41</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X19">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5244628</v>
+        <v>5251082</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,10 +2230,10 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2242,64 +2242,64 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5236199</v>
+        <v>5244628</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,49 +2319,49 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>1.083</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>2.9</v>
       </c>
       <c r="N21">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>17</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>41</v>
+        <v>3.3</v>
       </c>
       <c r="Q21">
-        <v>-4</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>1.95</v>
@@ -2370,25 +2370,25 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,10 +2408,10 @@
         <v>45017.375</v>
       </c>
       <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
         <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
         <v>2.7</v>
@@ -2589,7 +2589,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>3.4</v>
@@ -2678,7 +2678,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.533</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>2.1</v>
@@ -2945,7 +2945,7 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.9</v>
@@ -3034,7 +3034,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>1.6</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5236200</v>
+        <v>5244631</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,49 +3120,49 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>2.05</v>
+        <v>1.416</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
         <v>1.975</v>
@@ -3171,19 +3171,19 @@
         <v>1.825</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB30">
         <v>0.9750000000000001</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5244605</v>
+        <v>5251084</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,13 +3209,13 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3224,61 +3224,61 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>1.533</v>
+      </c>
+      <c r="O31">
+        <v>4.2</v>
+      </c>
+      <c r="P31">
+        <v>5.25</v>
+      </c>
+      <c r="Q31">
+        <v>-1</v>
+      </c>
+      <c r="R31">
+        <v>1.8</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
         <v>1.95</v>
       </c>
-      <c r="N31">
-        <v>3.6</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>1.909</v>
-      </c>
-      <c r="Q31">
-        <v>0.5</v>
-      </c>
-      <c r="R31">
-        <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.925</v>
-      </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244631</v>
+        <v>5244604</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,73 +3298,73 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>1.416</v>
+        <v>4.2</v>
       </c>
       <c r="L32">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="N32">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="O32">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W32">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5244604</v>
+        <v>5244605</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,76 +3387,76 @@
         <v>45026.375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>46</v>
       </c>
       <c r="K33">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="N33">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y33">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5251084</v>
+        <v>5236200</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,55 +3476,55 @@
         <v>45026.375</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
         <v>3</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3533,19 +3533,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>4.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6519855</v>
+        <v>6519913</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,70 +3565,70 @@
         <v>45031.34375</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N35">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
+        <v>3.4</v>
+      </c>
+      <c r="Q35">
+        <v>-0.5</v>
+      </c>
+      <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
         <v>2.75</v>
       </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>1.8</v>
-      </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V35">
         <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA35">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6519913</v>
+        <v>6519855</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,70 +3654,70 @@
         <v>45031.34375</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36">
+        <v>2.3</v>
+      </c>
+      <c r="L36">
+        <v>3.5</v>
+      </c>
+      <c r="M36">
+        <v>2.6</v>
+      </c>
+      <c r="N36">
+        <v>2.2</v>
+      </c>
+      <c r="O36">
+        <v>3.5</v>
+      </c>
+      <c r="P36">
+        <v>2.75</v>
+      </c>
+      <c r="Q36">
+        <v>-0.25</v>
+      </c>
+      <c r="R36">
         <v>2</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36">
-        <v>2.2</v>
-      </c>
-      <c r="L36">
-        <v>3.6</v>
-      </c>
-      <c r="M36">
-        <v>2.75</v>
-      </c>
-      <c r="N36">
+      <c r="S36">
+        <v>1.8</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
         <v>1.85</v>
-      </c>
-      <c r="O36">
-        <v>3.75</v>
-      </c>
-      <c r="P36">
-        <v>3.4</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.925</v>
-      </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.75</v>
       </c>
       <c r="V36">
         <v>1.95</v>
       </c>
       <c r="W36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3746,7 +3746,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3835,7 +3835,7 @@
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3921,10 +3921,10 @@
         <v>45032.375</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4022,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>2.375</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4188,10 +4188,10 @@
         <v>45038.375</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>2.5</v>
@@ -4277,10 +4277,10 @@
         <v>45038.375</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>1.533</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.714</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6528857</v>
+        <v>6526512</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,46 +4458,46 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>46</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U45">
         <v>1.925</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y45">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6526512</v>
+        <v>6528857</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,46 +4547,46 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>45</v>
       </c>
       <c r="K46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
         <v>1.925</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4722,7 +4722,7 @@
         <v>45045.375</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4814,7 +4814,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -4992,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5090,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>2.45</v>
@@ -5170,7 +5170,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6528860</v>
+        <v>6526513</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45052.375</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N54">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O54">
         <v>3.6</v>
       </c>
       <c r="P54">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC54">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6526513</v>
+        <v>6528860</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45052.375</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N55">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O55">
         <v>3.6</v>
       </c>
       <c r="P55">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>2.375</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6526514</v>
+        <v>6528879</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45059.375</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K57">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
+        <v>3.8</v>
+      </c>
+      <c r="M57">
         <v>4</v>
       </c>
-      <c r="M57">
-        <v>4.75</v>
-      </c>
       <c r="N57">
-        <v>1.5</v>
+        <v>1.714</v>
       </c>
       <c r="O57">
+        <v>3.6</v>
+      </c>
+      <c r="P57">
         <v>4.2</v>
       </c>
-      <c r="P57">
-        <v>5.75</v>
-      </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
+        <v>1.825</v>
+      </c>
+      <c r="T57">
+        <v>2.5</v>
+      </c>
+      <c r="U57">
+        <v>1.85</v>
+      </c>
+      <c r="V57">
         <v>1.95</v>
       </c>
-      <c r="T57">
-        <v>3</v>
-      </c>
-      <c r="U57">
-        <v>1.825</v>
-      </c>
-      <c r="V57">
-        <v>1.975</v>
-      </c>
       <c r="W57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z57">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6528879</v>
+        <v>6526652</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,73 +5615,73 @@
         <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>46</v>
       </c>
       <c r="K58">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="L58">
         <v>3.8</v>
       </c>
       <c r="M58">
+        <v>2.15</v>
+      </c>
+      <c r="N58">
+        <v>2.9</v>
+      </c>
+      <c r="O58">
         <v>4</v>
       </c>
-      <c r="N58">
-        <v>1.714</v>
-      </c>
-      <c r="O58">
-        <v>3.6</v>
-      </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U58">
+        <v>1.95</v>
+      </c>
+      <c r="V58">
         <v>1.85</v>
       </c>
-      <c r="V58">
-        <v>1.95</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6526652</v>
+        <v>6526514</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45059.375</v>
       </c>
       <c r="F59" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" t="s">
         <v>29</v>
       </c>
-      <c r="G59" t="s">
-        <v>32</v>
-      </c>
       <c r="H59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L59">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="N59">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P59">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5879,7 +5879,7 @@
         <v>45065.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>1.444</v>
@@ -5968,10 +5968,10 @@
         <v>45065.57291666666</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5980,7 +5980,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>1.75</v>
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>3.1</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6324,7 +6324,7 @@
         <v>45066.375</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -6413,7 +6413,7 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>37</v>
@@ -6505,7 +6505,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>12</v>
@@ -6594,7 +6594,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>2.875</v>
@@ -6769,7 +6769,7 @@
         <v>45073.375</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
         <v>40</v>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -6861,7 +6861,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6950,7 +6950,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7036,7 +7036,7 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7048,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7125,10 +7125,10 @@
         <v>45080.375</v>
       </c>
       <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
         <v>29</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6528881</v>
+        <v>6528882</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45080.375</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N76">
+        <v>3.3</v>
+      </c>
+      <c r="O76">
+        <v>3.6</v>
+      </c>
+      <c r="P76">
+        <v>1.909</v>
+      </c>
+      <c r="Q76">
+        <v>0.5</v>
+      </c>
+      <c r="R76">
+        <v>1.85</v>
+      </c>
+      <c r="S76">
         <v>1.95</v>
       </c>
-      <c r="O76">
-        <v>3.4</v>
-      </c>
-      <c r="P76">
-        <v>3.25</v>
-      </c>
-      <c r="Q76">
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
+        <v>1.825</v>
+      </c>
+      <c r="V76">
+        <v>1.975</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
+        <v>0.909</v>
+      </c>
+      <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
+        <v>0.95</v>
+      </c>
+      <c r="AB76">
+        <v>0.4125</v>
+      </c>
+      <c r="AC76">
         <v>-0.5</v>
-      </c>
-      <c r="R76">
-        <v>2</v>
-      </c>
-      <c r="S76">
-        <v>1.8</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
-      <c r="V76">
-        <v>1.85</v>
-      </c>
-      <c r="W76">
-        <v>0.95</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>-1</v>
-      </c>
-      <c r="Z76">
-        <v>1</v>
-      </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
-      <c r="AB76">
-        <v>-1</v>
-      </c>
-      <c r="AC76">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6528882</v>
+        <v>6528881</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45080.375</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77">
+        <v>2.1</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>1.95</v>
+      </c>
+      <c r="O77">
+        <v>3.4</v>
+      </c>
+      <c r="P77">
+        <v>3.25</v>
+      </c>
+      <c r="Q77">
+        <v>-0.5</v>
+      </c>
+      <c r="R77">
         <v>2</v>
       </c>
-      <c r="J77" t="s">
-        <v>46</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="L77">
-        <v>3.8</v>
-      </c>
-      <c r="M77">
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
         <v>1.95</v>
       </c>
-      <c r="N77">
-        <v>3.3</v>
-      </c>
-      <c r="O77">
-        <v>3.6</v>
-      </c>
-      <c r="P77">
-        <v>1.909</v>
-      </c>
-      <c r="Q77">
-        <v>0.5</v>
-      </c>
-      <c r="R77">
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
-        <v>2.75</v>
-      </c>
-      <c r="U77">
-        <v>1.825</v>
-      </c>
-      <c r="V77">
-        <v>1.975</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7481,10 +7481,10 @@
         <v>45086.57291666666</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>3.6</v>
@@ -7582,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>17</v>
@@ -7748,10 +7748,10 @@
         <v>45087.375</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7760,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>2.3</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>1.909</v>
@@ -7929,7 +7929,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6526660</v>
+        <v>6528871</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,55 +8015,55 @@
         <v>45094.375</v>
       </c>
       <c r="F85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s">
         <v>33</v>
       </c>
-      <c r="G85" t="s">
-        <v>40</v>
-      </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N85">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P85">
+        <v>7</v>
+      </c>
+      <c r="Q85">
+        <v>-1.75</v>
+      </c>
+      <c r="R85">
+        <v>1.95</v>
+      </c>
+      <c r="S85">
         <v>1.85</v>
       </c>
-      <c r="Q85">
-        <v>0.25</v>
-      </c>
-      <c r="R85">
-        <v>2.1</v>
-      </c>
-      <c r="S85">
-        <v>1.7</v>
-      </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8072,19 +8072,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
+        <v>6</v>
+      </c>
+      <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z85">
-        <v>-1</v>
-      </c>
-      <c r="AA85">
-        <v>0.7</v>
-      </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6528871</v>
+        <v>6528884</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45094.375</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86">
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N86">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O86">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q86">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6526519</v>
+        <v>6526660</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45094.375</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>45</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>3.6</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>3.1</v>
+      </c>
+      <c r="O87">
         <v>4</v>
       </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87" t="s">
-        <v>47</v>
-      </c>
-      <c r="K87">
-        <v>1.571</v>
-      </c>
-      <c r="L87">
-        <v>4.2</v>
-      </c>
-      <c r="M87">
-        <v>4.333</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.5</v>
-      </c>
       <c r="P87">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T87">
         <v>3.25</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>45094.375</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8371,7 +8371,7 @@
         <v>45094.375</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>35</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6528884</v>
+        <v>6526519</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45094.375</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>4</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L90">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M90">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N90">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O90">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
+        <v>1.8</v>
+      </c>
+      <c r="V90">
         <v>2</v>
       </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
       <c r="W90">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,13 +8520,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8552,7 +8552,7 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>2.25</v>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8727,10 +8727,10 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" t="s">
         <v>33</v>
-      </c>
-      <c r="G93" t="s">
-        <v>34</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8739,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>2.875</v>
@@ -8994,10 +8994,10 @@
         <v>45143.375</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>2.4</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859120</v>
+        <v>6859121</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9086,73 +9086,73 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>45</v>
+      </c>
+      <c r="K97">
+        <v>5</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>1.5</v>
+      </c>
+      <c r="N97">
+        <v>4.2</v>
+      </c>
+      <c r="O97">
+        <v>3.8</v>
+      </c>
+      <c r="P97">
+        <v>1.666</v>
+      </c>
+      <c r="Q97">
+        <v>0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
+        <v>1.825</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.8</v>
+      </c>
+      <c r="V97">
         <v>2</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>47</v>
-      </c>
-      <c r="K97">
-        <v>2.25</v>
-      </c>
-      <c r="L97">
-        <v>3.5</v>
-      </c>
-      <c r="M97">
-        <v>2.6</v>
-      </c>
-      <c r="N97">
-        <v>2</v>
-      </c>
-      <c r="O97">
-        <v>3.6</v>
-      </c>
-      <c r="P97">
-        <v>3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>1.8</v>
-      </c>
-      <c r="S97">
-        <v>2</v>
-      </c>
-      <c r="T97">
-        <v>3</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>1.975</v>
-      </c>
       <c r="W97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6858539</v>
+        <v>6859120</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,49 +9172,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F98" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" t="s">
         <v>34</v>
       </c>
-      <c r="G98" t="s">
-        <v>37</v>
-      </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K98">
+        <v>2.25</v>
+      </c>
+      <c r="L98">
+        <v>3.5</v>
+      </c>
+      <c r="M98">
+        <v>2.6</v>
+      </c>
+      <c r="N98">
         <v>2</v>
       </c>
-      <c r="L98">
+      <c r="O98">
         <v>3.6</v>
       </c>
-      <c r="M98">
+      <c r="P98">
         <v>3</v>
       </c>
-      <c r="N98">
-        <v>1.909</v>
-      </c>
-      <c r="O98">
-        <v>3.75</v>
-      </c>
-      <c r="P98">
-        <v>3.2</v>
-      </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U98">
         <v>1.825</v>
@@ -9223,19 +9223,19 @@
         <v>1.975</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X98">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6859121</v>
+        <v>6858539</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>46</v>
       </c>
       <c r="K99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P99">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="Q99">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>3.25</v>
+      </c>
+      <c r="U99">
+        <v>1.825</v>
+      </c>
+      <c r="V99">
         <v>1.975</v>
       </c>
-      <c r="S99">
-        <v>1.825</v>
-      </c>
-      <c r="T99">
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
         <v>2.75</v>
       </c>
-      <c r="U99">
-        <v>1.8</v>
-      </c>
-      <c r="V99">
-        <v>2</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
       <c r="Y99">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.9</v>
@@ -9531,7 +9531,7 @@
         <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6858768</v>
+        <v>6859118</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>46</v>
       </c>
       <c r="K103">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L103">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M103">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N103">
+        <v>1.45</v>
+      </c>
+      <c r="O103">
         <v>4.5</v>
       </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
       <c r="P103">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q103">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y103">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6859118</v>
+        <v>6858768</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L104">
+        <v>3.8</v>
+      </c>
+      <c r="M104">
+        <v>1.65</v>
+      </c>
+      <c r="N104">
         <v>4.5</v>
       </c>
-      <c r="M104">
-        <v>6</v>
-      </c>
-      <c r="N104">
-        <v>1.45</v>
-      </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,10 +9795,10 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -9884,7 +9884,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -9976,7 +9976,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>1.285</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>1.4</v>
@@ -10154,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10240,7 +10240,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
@@ -10329,7 +10329,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
         <v>36</v>
@@ -10418,7 +10418,7 @@
         <v>45164.375</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -10430,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>3.5</v>
@@ -10510,7 +10510,7 @@
         <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>1.714</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6859115</v>
+        <v>6858777</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,67 +10685,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L115">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N115">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
         <v>3</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X115">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10754,7 +10754,7 @@
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6858777</v>
+        <v>6859115</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,67 +10774,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M116">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N116">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10843,7 +10843,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>45171.375</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>44</v>
@@ -11044,7 +11044,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>1.85</v>
@@ -11133,7 +11133,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>2.4</v>
@@ -11231,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>1.727</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>1.666</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6858784</v>
+        <v>6859113</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,13 +11397,13 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F123" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s">
         <v>41</v>
       </c>
-      <c r="G123" t="s">
-        <v>29</v>
-      </c>
       <c r="H123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11412,19 +11412,19 @@
         <v>47</v>
       </c>
       <c r="K123">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N123">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P123">
         <v>4.75</v>
@@ -11433,13 +11433,13 @@
         <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
         <v>1.9</v>
@@ -11448,7 +11448,7 @@
         <v>1.9</v>
       </c>
       <c r="W123">
-        <v>0.571</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11457,16 +11457,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6859113</v>
+        <v>6858784</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,13 +11486,13 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11501,19 +11501,19 @@
         <v>47</v>
       </c>
       <c r="K124">
+        <v>1.65</v>
+      </c>
+      <c r="L124">
+        <v>3.75</v>
+      </c>
+      <c r="M124">
+        <v>4.333</v>
+      </c>
+      <c r="N124">
         <v>1.571</v>
       </c>
-      <c r="L124">
+      <c r="O124">
         <v>3.8</v>
-      </c>
-      <c r="M124">
-        <v>4.5</v>
-      </c>
-      <c r="N124">
-        <v>1.533</v>
-      </c>
-      <c r="O124">
-        <v>4</v>
       </c>
       <c r="P124">
         <v>4.75</v>
@@ -11522,13 +11522,13 @@
         <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
         <v>1.9</v>
@@ -11537,7 +11537,7 @@
         <v>1.9</v>
       </c>
       <c r="W124">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
         <v>35</v>
@@ -11756,7 +11756,7 @@
         <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>1.909</v>
@@ -11842,7 +11842,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -11934,7 +11934,7 @@
         <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6859110</v>
+        <v>6858790</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,13 +12020,13 @@
         <v>45185.375</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>2</v>
@@ -12035,61 +12035,61 @@
         <v>46</v>
       </c>
       <c r="K130">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y130">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>45185.375</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>43</v>
@@ -12121,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6858790</v>
+        <v>6859110</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,13 +12198,13 @@
         <v>45185.375</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -12213,61 +12213,61 @@
         <v>45</v>
       </c>
       <c r="K132">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M132">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -12299,7 +12299,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
         <v>2.8</v>
@@ -12376,10 +12376,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
         <v>1.45</v>
@@ -12465,7 +12465,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>44</v>
@@ -12477,7 +12477,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>1.75</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6859108</v>
+        <v>6858794</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,46 +12643,46 @@
         <v>45192.375</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
         <v>1</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>47</v>
       </c>
       <c r="K137">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="N137">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
         <v>3</v>
@@ -12694,7 +12694,7 @@
         <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.571</v>
+        <v>2.5</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6858794</v>
+        <v>6859108</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,46 +12732,46 @@
         <v>45192.375</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>47</v>
       </c>
       <c r="K138">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N138">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>3</v>
@@ -12783,7 +12783,7 @@
         <v>1.825</v>
       </c>
       <c r="W138">
-        <v>2.5</v>
+        <v>0.571</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6858795</v>
+        <v>6859107</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N139">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O139">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R139">
+        <v>1.8</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>2.75</v>
+      </c>
+      <c r="U139">
         <v>1.875</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.925</v>
       </c>
-      <c r="T139">
-        <v>3</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X139">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6859107</v>
+        <v>6858795</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N140">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P140">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q140">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
+        <v>1.875</v>
+      </c>
+      <c r="S140">
+        <v>1.925</v>
+      </c>
+      <c r="T140">
+        <v>3</v>
+      </c>
+      <c r="U140">
         <v>1.8</v>
       </c>
-      <c r="S140">
+      <c r="V140">
         <v>2</v>
       </c>
-      <c r="T140">
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
         <v>2.75</v>
       </c>
-      <c r="U140">
-        <v>1.875</v>
-      </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
-      <c r="W140">
-        <v>2.3</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6858797</v>
+        <v>6858796</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45199.375</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>45</v>
+      </c>
+      <c r="K141">
+        <v>1.65</v>
+      </c>
+      <c r="L141">
+        <v>3.75</v>
+      </c>
+      <c r="M141">
+        <v>4.2</v>
+      </c>
+      <c r="N141">
+        <v>1.65</v>
+      </c>
+      <c r="O141">
+        <v>4</v>
+      </c>
+      <c r="P141">
+        <v>4.333</v>
+      </c>
+      <c r="Q141">
+        <v>-0.75</v>
+      </c>
+      <c r="R141">
+        <v>1.8</v>
+      </c>
+      <c r="S141">
+        <v>2</v>
+      </c>
+      <c r="T141">
+        <v>3.25</v>
+      </c>
+      <c r="U141">
+        <v>1.9</v>
+      </c>
+      <c r="V141">
+        <v>1.9</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>3.333</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
         <v>1</v>
       </c>
-      <c r="J141" t="s">
-        <v>47</v>
-      </c>
-      <c r="K141">
-        <v>3.1</v>
-      </c>
-      <c r="L141">
-        <v>3.6</v>
-      </c>
-      <c r="M141">
-        <v>2.05</v>
-      </c>
-      <c r="N141">
-        <v>3</v>
-      </c>
-      <c r="O141">
-        <v>3.6</v>
-      </c>
-      <c r="P141">
-        <v>2.1</v>
-      </c>
-      <c r="Q141">
-        <v>0.25</v>
-      </c>
-      <c r="R141">
-        <v>1.95</v>
-      </c>
-      <c r="S141">
-        <v>1.85</v>
-      </c>
-      <c r="T141">
-        <v>3.5</v>
-      </c>
-      <c r="U141">
-        <v>1.925</v>
-      </c>
-      <c r="V141">
-        <v>1.775</v>
-      </c>
-      <c r="W141">
-        <v>2</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
-      <c r="Z141">
-        <v>0.95</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6858796</v>
+        <v>6858797</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45199.375</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
+      <c r="J142" t="s">
+        <v>47</v>
+      </c>
+      <c r="K142">
+        <v>3.1</v>
+      </c>
+      <c r="L142">
+        <v>3.6</v>
+      </c>
+      <c r="M142">
+        <v>2.05</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142">
+        <v>3.6</v>
+      </c>
+      <c r="P142">
+        <v>2.1</v>
+      </c>
+      <c r="Q142">
+        <v>0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>3.5</v>
+      </c>
+      <c r="U142">
+        <v>1.925</v>
+      </c>
+      <c r="V142">
+        <v>1.775</v>
+      </c>
+      <c r="W142">
         <v>2</v>
       </c>
-      <c r="J142" t="s">
-        <v>46</v>
-      </c>
-      <c r="K142">
-        <v>1.65</v>
-      </c>
-      <c r="L142">
-        <v>3.75</v>
-      </c>
-      <c r="M142">
-        <v>4.2</v>
-      </c>
-      <c r="N142">
-        <v>1.65</v>
-      </c>
-      <c r="O142">
-        <v>4</v>
-      </c>
-      <c r="P142">
-        <v>4.333</v>
-      </c>
-      <c r="Q142">
-        <v>-0.75</v>
-      </c>
-      <c r="R142">
-        <v>1.8</v>
-      </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142">
-        <v>3.25</v>
-      </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC142">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K143">
         <v>2.6</v>
@@ -13269,7 +13269,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13355,7 +13355,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K145">
         <v>2.1</v>
@@ -13444,7 +13444,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
         <v>36</v>
@@ -13456,7 +13456,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K146">
         <v>3.1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6858801</v>
+        <v>6858800</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45206.375</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
         <v>45</v>
       </c>
       <c r="K147">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N147">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.75</v>
+      </c>
+      <c r="AB147">
         <v>0</v>
       </c>
-      <c r="AA147">
+      <c r="AC147">
         <v>-0</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6858800</v>
+        <v>6858801</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45206.375</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>46</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N148">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S148">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y148">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13723,7 +13723,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -13800,10 +13800,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13892,7 +13892,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K151">
         <v>1.7</v>
@@ -13978,7 +13978,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
         <v>37</v>
@@ -13990,7 +13990,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>2.7</v>
@@ -14079,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>1.4</v>
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6858805</v>
+        <v>6858806</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,13 +14156,13 @@
         <v>45213.375</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14171,43 +14171,43 @@
         <v>47</v>
       </c>
       <c r="K154">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M154">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="N154">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O154">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P154">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
+        <v>1.825</v>
+      </c>
+      <c r="S154">
         <v>1.975</v>
       </c>
-      <c r="S154">
-        <v>1.825</v>
-      </c>
       <c r="T154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W154">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14216,7 +14216,7 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
@@ -14225,7 +14225,7 @@
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6858806</v>
+        <v>6858805</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,13 +14245,13 @@
         <v>45213.375</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14260,43 +14260,43 @@
         <v>47</v>
       </c>
       <c r="K155">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L155">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M155">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="N155">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P155">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
+        <v>1.975</v>
+      </c>
+      <c r="S155">
         <v>1.825</v>
       </c>
-      <c r="S155">
-        <v>1.975</v>
-      </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14305,7 +14305,7 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA155">
         <v>-1</v>
@@ -14314,7 +14314,7 @@
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14337,7 +14337,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6858809</v>
+        <v>6859101</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,46 +14423,46 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>46</v>
       </c>
       <c r="K157">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L157">
         <v>3.6</v>
       </c>
       <c r="M157">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T157">
         <v>2.75</v>
@@ -14477,22 +14477,22 @@
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y157">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6858807</v>
+        <v>6858809</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L158">
         <v>3.6</v>
       </c>
       <c r="M158">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N158">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
         <v>4</v>
       </c>
       <c r="P158">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T158">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>1.55</v>
+      </c>
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
+        <v>1</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>0.925</v>
-      </c>
-      <c r="AC158">
-        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6859101</v>
+        <v>6858807</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,73 +14601,73 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H159">
+        <v>4</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" t="s">
+        <v>47</v>
+      </c>
+      <c r="K159">
         <v>2</v>
-      </c>
-      <c r="I159">
-        <v>2</v>
-      </c>
-      <c r="J159" t="s">
-        <v>45</v>
-      </c>
-      <c r="K159">
-        <v>1.727</v>
       </c>
       <c r="L159">
         <v>3.6</v>
       </c>
       <c r="M159">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N159">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X159">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6858810</v>
+        <v>6859100</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N160">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y160">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6859100</v>
+        <v>6858810</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45220.375</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
         <v>45</v>
       </c>
       <c r="K161">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N161">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>40</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6858811</v>
+        <v>6859099</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,56 +14957,56 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N163">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O163">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P163">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2.75</v>
+      </c>
+      <c r="U163">
         <v>1.825</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.975</v>
       </c>
-      <c r="T163">
-        <v>3.25</v>
-      </c>
-      <c r="U163">
-        <v>1.9</v>
-      </c>
-      <c r="V163">
-        <v>1.9</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
@@ -15014,19 +15014,19 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6859099</v>
+        <v>6858811</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,55 +15046,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164" t="s">
+        <v>45</v>
+      </c>
+      <c r="K164">
+        <v>1.55</v>
+      </c>
+      <c r="L164">
         <v>4</v>
       </c>
-      <c r="J164" t="s">
-        <v>46</v>
-      </c>
-      <c r="K164">
-        <v>3</v>
-      </c>
-      <c r="L164">
-        <v>3.6</v>
-      </c>
       <c r="M164">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O164">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P164">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15103,19 +15103,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB164">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15224,10 +15224,10 @@
         <v>45227.375</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15236,7 +15236,7 @@
         <v>5</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
         <v>2.45</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K167">
         <v>1.769</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K168">
         <v>2.375</v>
@@ -15491,7 +15491,7 @@
         <v>45233.625</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6858815</v>
+        <v>6858817</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45234.375</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>45</v>
       </c>
       <c r="K170">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
+        <v>2.4</v>
+      </c>
+      <c r="N170">
+        <v>2.15</v>
+      </c>
+      <c r="O170">
+        <v>3.8</v>
+      </c>
+      <c r="P170">
+        <v>2.75</v>
+      </c>
+      <c r="Q170">
+        <v>-0.25</v>
+      </c>
+      <c r="R170">
+        <v>1.95</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
         <v>3</v>
       </c>
-      <c r="N170">
-        <v>2.4</v>
-      </c>
-      <c r="O170">
-        <v>3.2</v>
-      </c>
-      <c r="P170">
-        <v>2.7</v>
-      </c>
-      <c r="Q170">
+      <c r="U170">
+        <v>1.75</v>
+      </c>
+      <c r="V170">
+        <v>1.95</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>1.75</v>
+      </c>
+      <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB170">
         <v>0</v>
       </c>
-      <c r="R170">
-        <v>1.775</v>
-      </c>
-      <c r="S170">
-        <v>2.025</v>
-      </c>
-      <c r="T170">
-        <v>2.75</v>
-      </c>
-      <c r="U170">
-        <v>1.975</v>
-      </c>
-      <c r="V170">
-        <v>1.825</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>2.2</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>0</v>
-      </c>
-      <c r="AA170">
+      <c r="AC170">
         <v>-0</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
-      <c r="AC170">
-        <v>0.825</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15681,7 +15681,7 @@
         <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K171">
         <v>1.65</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6858817</v>
+        <v>6858815</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45234.375</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>46</v>
       </c>
       <c r="K172">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
         <v>2.4</v>
       </c>
-      <c r="N172">
-        <v>2.15</v>
-      </c>
       <c r="O172">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
+        <v>2.7</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>1.775</v>
+      </c>
+      <c r="S172">
+        <v>2.025</v>
+      </c>
+      <c r="T172">
         <v>2.75</v>
       </c>
-      <c r="Q172">
-        <v>-0.25</v>
-      </c>
-      <c r="R172">
-        <v>1.95</v>
-      </c>
-      <c r="S172">
-        <v>1.85</v>
-      </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
       <c r="U172">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y172">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K173">
         <v>2.875</v>
@@ -15936,7 +15936,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
         <v>36</v>
@@ -15948,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K174">
         <v>3.1</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6858823</v>
+        <v>6858821</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
         <v>2</v>
-      </c>
-      <c r="I176">
-        <v>1</v>
       </c>
       <c r="J176" t="s">
         <v>47</v>
       </c>
       <c r="K176">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L176">
         <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O176">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q176">
+        <v>-1</v>
+      </c>
+      <c r="R176">
+        <v>1.8</v>
+      </c>
+      <c r="S176">
+        <v>2</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>1.8</v>
+      </c>
+      <c r="V176">
+        <v>2</v>
+      </c>
+      <c r="W176">
+        <v>0.5</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
         <v>0</v>
       </c>
-      <c r="R176">
-        <v>1.95</v>
-      </c>
-      <c r="S176">
-        <v>1.85</v>
-      </c>
-      <c r="T176">
-        <v>3.25</v>
-      </c>
-      <c r="U176">
-        <v>1.95</v>
-      </c>
-      <c r="V176">
-        <v>1.85</v>
-      </c>
-      <c r="W176">
-        <v>1.45</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
-      <c r="Z176">
-        <v>0.95</v>
-      </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC176">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6858821</v>
+        <v>6858823</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,58 +16203,58 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>47</v>
       </c>
       <c r="K177">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L177">
         <v>3.75</v>
       </c>
       <c r="M177">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N177">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P177">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U177">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>0.5</v>
+        <v>1.45</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16304,7 +16304,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>2.55</v>
@@ -16384,7 +16384,7 @@
         <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K179">
         <v>1.571</v>
@@ -16473,7 +16473,7 @@
         <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6859093</v>
+        <v>6859092</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,58 +16559,58 @@
         <v>45248.375</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>1</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>47</v>
       </c>
       <c r="K181">
+        <v>2.5</v>
+      </c>
+      <c r="L181">
+        <v>3.6</v>
+      </c>
+      <c r="M181">
+        <v>2.45</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
+        <v>3.1</v>
+      </c>
+      <c r="Q181">
+        <v>-0.25</v>
+      </c>
+      <c r="R181">
+        <v>1.825</v>
+      </c>
+      <c r="S181">
+        <v>1.975</v>
+      </c>
+      <c r="T181">
         <v>2.75</v>
       </c>
-      <c r="L181">
-        <v>3.4</v>
-      </c>
-      <c r="M181">
-        <v>2.25</v>
-      </c>
-      <c r="N181">
-        <v>2.6</v>
-      </c>
-      <c r="O181">
-        <v>3.4</v>
-      </c>
-      <c r="P181">
-        <v>2.375</v>
-      </c>
-      <c r="Q181">
-        <v>0</v>
-      </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
-        <v>1.8</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16619,16 +16619,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC181">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6859092</v>
+        <v>6859093</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45248.375</v>
       </c>
       <c r="F182" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>47</v>
       </c>
       <c r="K182">
+        <v>2.75</v>
+      </c>
+      <c r="L182">
+        <v>3.4</v>
+      </c>
+      <c r="M182">
+        <v>2.25</v>
+      </c>
+      <c r="N182">
+        <v>2.6</v>
+      </c>
+      <c r="O182">
+        <v>3.4</v>
+      </c>
+      <c r="P182">
+        <v>2.375</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
+        <v>1.8</v>
+      </c>
+      <c r="T182">
         <v>2.5</v>
       </c>
-      <c r="L182">
-        <v>3.6</v>
-      </c>
-      <c r="M182">
-        <v>2.45</v>
-      </c>
-      <c r="N182">
-        <v>2</v>
-      </c>
-      <c r="O182">
-        <v>3.6</v>
-      </c>
-      <c r="P182">
-        <v>3.1</v>
-      </c>
-      <c r="Q182">
-        <v>-0.25</v>
-      </c>
-      <c r="R182">
-        <v>1.825</v>
-      </c>
-      <c r="S182">
-        <v>1.975</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
       <c r="U182">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
+        <v>1.6</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>-1</v>
+      </c>
+      <c r="Z182">
         <v>1</v>
       </c>
-      <c r="X182">
-        <v>-1</v>
-      </c>
-      <c r="Y182">
-        <v>-1</v>
-      </c>
-      <c r="Z182">
-        <v>0.825</v>
-      </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6858828</v>
+        <v>6858825</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45248.375</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="L183">
         <v>3.8</v>
       </c>
       <c r="M183">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="N183">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P183">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA183">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6858827</v>
+        <v>6858826</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,40 +16826,40 @@
         <v>45248.375</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K184">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L184">
+        <v>3.6</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>2.875</v>
+      </c>
+      <c r="O184">
         <v>3.5</v>
       </c>
-      <c r="M184">
-        <v>2.625</v>
-      </c>
-      <c r="N184">
-        <v>1.85</v>
-      </c>
-      <c r="O184">
-        <v>3.75</v>
-      </c>
       <c r="P184">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
         <v>1.875</v>
@@ -16868,13 +16868,13 @@
         <v>1.925</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16883,7 +16883,7 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="Z184">
         <v>-1</v>
@@ -16892,10 +16892,10 @@
         <v>0.925</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6858826</v>
+        <v>6858827</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,40 +16915,40 @@
         <v>45248.375</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K185">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M185">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N185">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O185">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q185">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
         <v>1.875</v>
@@ -16957,13 +16957,13 @@
         <v>1.925</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16972,7 +16972,7 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.15</v>
+        <v>2.4</v>
       </c>
       <c r="Z185">
         <v>-1</v>
@@ -16981,10 +16981,10 @@
         <v>0.925</v>
       </c>
       <c r="AB185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6858825</v>
+        <v>6858828</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45248.375</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="L186">
         <v>3.8</v>
       </c>
       <c r="M186">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="N186">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="O186">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z186">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -103,25 +103,25 @@
     <t>Denmark Division 3</t>
   </si>
   <si>
+    <t>Oure FA</t>
+  </si>
+  <si>
     <t>AB Trnby</t>
   </si>
   <si>
     <t>Middelfart</t>
   </si>
   <si>
-    <t>Oure FA</t>
+    <t>Holstebro</t>
   </si>
   <si>
-    <t>Holstebro</t>
+    <t>Vanlse</t>
   </si>
   <si>
     <t>Ishoj</t>
   </si>
   <si>
     <t>IF Lyseng</t>
-  </si>
-  <si>
-    <t>Vanlse</t>
   </si>
   <si>
     <t>VSK Arhus</t>
@@ -139,10 +139,10 @@
     <t>Young Boys FD</t>
   </si>
   <si>
-    <t>Holbk</t>
+    <t>Vejgaard B</t>
   </si>
   <si>
-    <t>Vejgaard B</t>
+    <t>Holbk</t>
   </si>
   <si>
     <t>Frem</t>
@@ -151,10 +151,10 @@
     <t>Avarta</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5244596</v>
+        <v>5235485</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,70 +631,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M2">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P2">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R2">
+        <v>1.925</v>
+      </c>
+      <c r="S2">
         <v>1.875</v>
       </c>
-      <c r="S2">
-        <v>1.925</v>
-      </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y2">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5244479</v>
+        <v>5244596</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,52 +720,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -774,19 +774,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
+        <v>0.925</v>
+      </c>
+      <c r="AB3">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB3">
-        <v>-1</v>
-      </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5235485</v>
+        <v>5244479</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -821,61 +821,61 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="L4">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M4">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="O4">
         <v>4.5</v>
       </c>
       <c r="P4">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q4">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>3.4</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5244624</v>
+        <v>5244625</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="L6">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N6">
-        <v>1.363</v>
+        <v>1.111</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R6">
         <v>1.9</v>
@@ -1026,16 +1026,16 @@
         <v>1.9</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U6">
+        <v>1.925</v>
+      </c>
+      <c r="V6">
         <v>1.775</v>
       </c>
-      <c r="V6">
-        <v>1.925</v>
-      </c>
       <c r="W6">
-        <v>0.363</v>
+        <v>0.111</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,10 +1050,10 @@
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5244597</v>
+        <v>5244624</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,37 +1076,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L7">
         <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="O7">
         <v>4.5</v>
       </c>
       <c r="P7">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="Q7">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R7">
         <v>1.9</v>
@@ -1115,34 +1115,34 @@
         <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5244625</v>
+        <v>5244597</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,37 +1165,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>1.166</v>
+        <v>5.5</v>
       </c>
       <c r="L8">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>1.45</v>
       </c>
       <c r="N8">
-        <v>1.111</v>
+        <v>6</v>
       </c>
       <c r="O8">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="Q8">
-        <v>-2.75</v>
+        <v>1.25</v>
       </c>
       <c r="R8">
         <v>1.9</v>
@@ -1204,31 +1204,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>3.5</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5244626</v>
+        <v>5251080</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,58 +1340,58 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>2</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
+        <v>1.975</v>
+      </c>
+      <c r="V10">
         <v>1.825</v>
       </c>
-      <c r="V10">
-        <v>1.975</v>
-      </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1400,16 +1400,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5251080</v>
+        <v>5244626</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,58 +1429,58 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
       <c r="K11">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N11">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
+        <v>1.825</v>
+      </c>
+      <c r="V11">
         <v>1.975</v>
       </c>
-      <c r="V11">
-        <v>1.825</v>
-      </c>
       <c r="W11">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1489,16 +1489,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC11">
-        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>45006.625</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>19</v>
@@ -1699,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5251081</v>
+        <v>5244627</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,13 +1785,13 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1800,43 +1800,43 @@
         <v>47</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>1.142</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>15</v>
+      </c>
+      <c r="Q15">
+        <v>-2.25</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>1.975</v>
+      </c>
+      <c r="T15">
         <v>3.5</v>
       </c>
-      <c r="M15">
-        <v>1.85</v>
-      </c>
-      <c r="N15">
-        <v>4.333</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
-      <c r="P15">
-        <v>1.65</v>
-      </c>
-      <c r="Q15">
-        <v>0.75</v>
-      </c>
-      <c r="R15">
+      <c r="U15">
         <v>1.925</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.875</v>
       </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>3.333</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1845,7 +1845,7 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1854,7 +1854,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5244627</v>
+        <v>5251081</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,13 +1963,13 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1978,43 +1978,43 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="N17">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="O17">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="Q17">
-        <v>-2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>0.1419999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,7 +2023,7 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
         <v>-1</v>
@@ -2032,7 +2032,7 @@
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,10 +2052,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>2.4</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5236199</v>
+        <v>5251082</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19">
+        <v>2.35</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
+        <v>2.45</v>
+      </c>
+      <c r="N19">
+        <v>2.4</v>
+      </c>
+      <c r="O19">
+        <v>3.75</v>
+      </c>
+      <c r="P19">
+        <v>2.4</v>
+      </c>
+      <c r="Q19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19">
-        <v>1.083</v>
-      </c>
-      <c r="L19">
-        <v>9.5</v>
-      </c>
-      <c r="M19">
-        <v>19</v>
-      </c>
-      <c r="N19">
-        <v>1.02</v>
-      </c>
-      <c r="O19">
-        <v>17</v>
-      </c>
-      <c r="P19">
-        <v>41</v>
-      </c>
-      <c r="Q19">
-        <v>-4</v>
-      </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5251082</v>
+        <v>5244628</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,10 +2230,10 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2242,64 +2242,64 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5244628</v>
+        <v>5236199</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,49 +2319,49 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.083</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="M21">
-        <v>2.9</v>
+        <v>19</v>
       </c>
       <c r="N21">
+        <v>1.02</v>
+      </c>
+      <c r="O21">
+        <v>17</v>
+      </c>
+      <c r="P21">
+        <v>41</v>
+      </c>
+      <c r="Q21">
+        <v>-4</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.85</v>
       </c>
-      <c r="O21">
-        <v>3.8</v>
-      </c>
-      <c r="P21">
-        <v>3.3</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U21">
         <v>1.95</v>
@@ -2370,25 +2370,25 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X21">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5244630</v>
+        <v>5244602</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45017.375</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5244602</v>
+        <v>5244630</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45017.375</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="N23">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
         <v>3.6</v>
       </c>
       <c r="P23">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
+        <v>1.8</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1.95</v>
+      </c>
+      <c r="V23">
         <v>1.85</v>
       </c>
-      <c r="S23">
-        <v>1.95</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>1.975</v>
-      </c>
-      <c r="V23">
-        <v>1.825</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
+        <v>0.8</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>-0</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>3.4</v>
@@ -2678,7 +2678,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>1.533</v>
@@ -2767,7 +2767,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>2.1</v>
@@ -2945,7 +2945,7 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>1.9</v>
@@ -3034,7 +3034,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>1.6</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5244631</v>
+        <v>5244605</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>1.416</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N30">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5251084</v>
+        <v>5244631</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>1.55</v>
+        <v>1.416</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N31">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244604</v>
+        <v>5236200</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,55 +3298,55 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="N32">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3355,16 +3355,16 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.6499999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5244605</v>
+        <v>5244604</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,76 +3387,76 @@
         <v>45026.375</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
         <v>46</v>
       </c>
       <c r="K33">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M33">
+        <v>1.65</v>
+      </c>
+      <c r="N33">
+        <v>4.2</v>
+      </c>
+      <c r="O33">
+        <v>3.8</v>
+      </c>
+      <c r="P33">
+        <v>1.65</v>
+      </c>
+      <c r="Q33">
+        <v>0.75</v>
+      </c>
+      <c r="R33">
         <v>1.95</v>
       </c>
-      <c r="N33">
-        <v>3.6</v>
-      </c>
-      <c r="O33">
-        <v>3.3</v>
-      </c>
-      <c r="P33">
-        <v>1.909</v>
-      </c>
-      <c r="Q33">
-        <v>0.5</v>
-      </c>
-      <c r="R33">
-        <v>1.875</v>
-      </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5236200</v>
+        <v>5251084</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3479,52 +3479,52 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>1.55</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
         <v>5</v>
       </c>
-      <c r="J34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34">
-        <v>2.05</v>
-      </c>
-      <c r="L34">
-        <v>3.6</v>
-      </c>
-      <c r="M34">
-        <v>2.9</v>
-      </c>
       <c r="N34">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T34">
         <v>3</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3533,19 +3533,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,10 +3565,10 @@
         <v>45031.34375</v>
       </c>
       <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
         <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.3</v>
@@ -3746,7 +3746,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3835,7 +3835,7 @@
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3921,10 +3921,10 @@
         <v>45032.375</v>
       </c>
       <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
         <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4010,7 +4010,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>36</v>
@@ -4022,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>2.375</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4188,10 +4188,10 @@
         <v>45038.375</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>2.5</v>
@@ -4277,10 +4277,10 @@
         <v>45038.375</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>1.533</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>1.714</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6526512</v>
+        <v>6528857</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,46 +4458,46 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>46</v>
       </c>
       <c r="K45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
         <v>1.925</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6528857</v>
+        <v>6526512</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,49 +4544,49 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.925</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y46">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4722,7 +4722,7 @@
         <v>45045.375</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4811,10 +4811,10 @@
         <v>45045.4375</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -4992,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5090,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>2.45</v>
@@ -5170,7 +5170,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5256,7 +5256,7 @@
         <v>45052.375</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5348,7 +5348,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>2.2</v>
@@ -5437,7 +5437,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>2.375</v>
@@ -5523,7 +5523,7 @@
         <v>45059.375</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>1.7</v>
@@ -5612,7 +5612,7 @@
         <v>45059.375</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>32</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>2.625</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5790,7 +5790,7 @@
         <v>45059.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5879,7 +5879,7 @@
         <v>45065.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>1.444</v>
@@ -5968,10 +5968,10 @@
         <v>45065.57291666666</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5980,7 +5980,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>1.75</v>
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>3.1</v>
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6324,7 +6324,7 @@
         <v>45066.375</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6528865</v>
+        <v>6526654</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>3</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N67">
-        <v>2.05</v>
+        <v>12</v>
       </c>
       <c r="O67">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P67">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
         <v>1.875</v>
       </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
         <v>0.875</v>
       </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6526654</v>
+        <v>6528865</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>3.75</v>
+      </c>
+      <c r="M68">
         <v>3</v>
       </c>
-      <c r="J68" t="s">
-        <v>45</v>
-      </c>
-      <c r="K68">
-        <v>12</v>
-      </c>
-      <c r="L68">
-        <v>6.5</v>
-      </c>
-      <c r="M68">
-        <v>1.166</v>
-      </c>
       <c r="N68">
-        <v>12</v>
+        <v>2.05</v>
       </c>
       <c r="O68">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>1.166</v>
+        <v>2.75</v>
       </c>
       <c r="Q68">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
         <v>1.925</v>
       </c>
-      <c r="S68">
-        <v>1.875</v>
-      </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>2.875</v>
@@ -6683,7 +6683,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6769,7 +6769,7 @@
         <v>45073.375</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
         <v>40</v>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -6861,7 +6861,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6528867</v>
+        <v>6526656</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6950,73 +6950,73 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N73">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6526656</v>
+        <v>6528867</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
         <v>34</v>
       </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
       <c r="H74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
         <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N74">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA74">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6526517</v>
+        <v>6528882</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45080.375</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N75">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O75">
         <v>3.6</v>
       </c>
       <c r="P75">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6528882</v>
+        <v>6528881</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45080.375</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76">
+        <v>2.1</v>
+      </c>
+      <c r="L76">
+        <v>3.4</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>1.95</v>
+      </c>
+      <c r="O76">
+        <v>3.4</v>
+      </c>
+      <c r="P76">
+        <v>3.25</v>
+      </c>
+      <c r="Q76">
+        <v>-0.5</v>
+      </c>
+      <c r="R76">
         <v>2</v>
       </c>
-      <c r="J76" t="s">
-        <v>45</v>
-      </c>
-      <c r="K76">
-        <v>3</v>
-      </c>
-      <c r="L76">
-        <v>3.8</v>
-      </c>
-      <c r="M76">
+      <c r="S76">
+        <v>1.8</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.95</v>
       </c>
-      <c r="N76">
-        <v>3.3</v>
-      </c>
-      <c r="O76">
-        <v>3.6</v>
-      </c>
-      <c r="P76">
-        <v>1.909</v>
-      </c>
-      <c r="Q76">
-        <v>0.5</v>
-      </c>
-      <c r="R76">
+      <c r="V76">
         <v>1.85</v>
       </c>
-      <c r="S76">
-        <v>1.95</v>
-      </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.825</v>
-      </c>
-      <c r="V76">
-        <v>1.975</v>
-      </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6528881</v>
+        <v>6526517</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,58 +7303,58 @@
         <v>45080.375</v>
       </c>
       <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
       </c>
-      <c r="G77" t="s">
-        <v>39</v>
-      </c>
       <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
         <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N77">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R77">
+        <v>1.825</v>
+      </c>
+      <c r="S77">
+        <v>1.975</v>
+      </c>
+      <c r="T77">
+        <v>2.75</v>
+      </c>
+      <c r="U77">
+        <v>1.8</v>
+      </c>
+      <c r="V77">
         <v>2</v>
       </c>
-      <c r="S77">
-        <v>1.8</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>1.95</v>
-      </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7481,10 +7481,10 @@
         <v>45086.57291666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>3.6</v>
@@ -7582,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>17</v>
@@ -7748,10 +7748,10 @@
         <v>45087.375</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7760,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>2.3</v>
@@ -7837,7 +7837,7 @@
         <v>45087.5</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>37</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>1.909</v>
@@ -7929,7 +7929,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6528871</v>
+        <v>6526519</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,73 +8015,73 @@
         <v>45094.375</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
+        <v>4.333</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
         <v>4.5</v>
       </c>
-      <c r="N85">
-        <v>1.3</v>
-      </c>
-      <c r="O85">
+      <c r="P85">
         <v>5</v>
       </c>
-      <c r="P85">
-        <v>7</v>
-      </c>
       <c r="Q85">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6528884</v>
+        <v>6526660</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45094.375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>3.6</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>3.1</v>
+      </c>
+      <c r="O86">
         <v>4</v>
       </c>
-      <c r="I86">
-        <v>3</v>
-      </c>
-      <c r="J86" t="s">
-        <v>47</v>
-      </c>
-      <c r="K86">
-        <v>2.875</v>
-      </c>
-      <c r="L86">
-        <v>3.8</v>
-      </c>
-      <c r="M86">
-        <v>2.05</v>
-      </c>
-      <c r="N86">
-        <v>2.8</v>
-      </c>
-      <c r="O86">
-        <v>3.75</v>
-      </c>
       <c r="P86">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q86">
         <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W86">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6526660</v>
+        <v>6527542</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45094.375</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N87">
-        <v>3.1</v>
+        <v>1.125</v>
       </c>
       <c r="O87">
+        <v>8</v>
+      </c>
+      <c r="P87">
+        <v>13</v>
+      </c>
+      <c r="Q87">
+        <v>-2.5</v>
+      </c>
+      <c r="R87">
+        <v>1.85</v>
+      </c>
+      <c r="S87">
+        <v>1.95</v>
+      </c>
+      <c r="T87">
         <v>4</v>
       </c>
-      <c r="P87">
-        <v>1.85</v>
-      </c>
-      <c r="Q87">
-        <v>0.25</v>
-      </c>
-      <c r="R87">
-        <v>2.1</v>
-      </c>
-      <c r="S87">
-        <v>1.7</v>
-      </c>
-      <c r="T87">
-        <v>3.25</v>
-      </c>
       <c r="U87">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6527542</v>
+        <v>6528870</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,37 +8285,37 @@
         <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>1.142</v>
+        <v>1.45</v>
       </c>
       <c r="L88">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="N88">
-        <v>1.125</v>
+        <v>1.333</v>
       </c>
       <c r="O88">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P88">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Q88">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R88">
         <v>1.85</v>
@@ -8324,16 +8324,16 @@
         <v>1.95</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>0.125</v>
+        <v>0.333</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8342,16 +8342,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6528870</v>
+        <v>6528884</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45094.375</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M89">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N89">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q89">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6526519</v>
+        <v>6528871</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,73 +8460,73 @@
         <v>45094.375</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90" t="s">
+        <v>46</v>
+      </c>
+      <c r="K90">
+        <v>1.6</v>
+      </c>
+      <c r="L90">
         <v>4</v>
       </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>47</v>
-      </c>
-      <c r="K90">
-        <v>1.571</v>
-      </c>
-      <c r="L90">
-        <v>4.2</v>
-      </c>
       <c r="M90">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N90">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O90">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8552,7 +8552,7 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>2.25</v>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6858502</v>
+        <v>6859123</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
         <v>3.75</v>
       </c>
       <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>1.85</v>
+      </c>
+      <c r="O93">
+        <v>3.8</v>
+      </c>
+      <c r="P93">
+        <v>3.25</v>
+      </c>
+      <c r="Q93">
+        <v>-0.5</v>
+      </c>
+      <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
+        <v>1.9</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <v>1.8</v>
+      </c>
+      <c r="V93">
         <v>2</v>
       </c>
-      <c r="N93">
-        <v>3.4</v>
-      </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
-      <c r="P93">
-        <v>1.75</v>
-      </c>
-      <c r="Q93">
-        <v>0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.975</v>
-      </c>
-      <c r="S93">
-        <v>1.825</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>1.85</v>
-      </c>
-      <c r="V93">
-        <v>1.95</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6859123</v>
+        <v>6858502</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,73 +8819,73 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L94">
         <v>3.75</v>
       </c>
       <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3.4</v>
+      </c>
+      <c r="O94">
         <v>4</v>
       </c>
-      <c r="N94">
+      <c r="P94">
+        <v>1.75</v>
+      </c>
+      <c r="Q94">
+        <v>0.5</v>
+      </c>
+      <c r="R94">
+        <v>1.975</v>
+      </c>
+      <c r="S94">
+        <v>1.825</v>
+      </c>
+      <c r="T94">
+        <v>3.25</v>
+      </c>
+      <c r="U94">
         <v>1.85</v>
       </c>
-      <c r="O94">
-        <v>3.8</v>
-      </c>
-      <c r="P94">
-        <v>3.25</v>
-      </c>
-      <c r="Q94">
-        <v>-0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.9</v>
-      </c>
-      <c r="S94">
-        <v>1.9</v>
-      </c>
-      <c r="T94">
+      <c r="V94">
+        <v>1.95</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>3</v>
       </c>
-      <c r="U94">
-        <v>1.8</v>
-      </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
-      <c r="W94">
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
-      <c r="Z94">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45143.375</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45143.375</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X96">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859121</v>
+        <v>6859120</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9086,73 +9086,73 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="I97">
+      <c r="J97" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97">
+        <v>2.25</v>
+      </c>
+      <c r="L97">
+        <v>3.5</v>
+      </c>
+      <c r="M97">
+        <v>2.6</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
         <v>3</v>
       </c>
-      <c r="J97" t="s">
-        <v>45</v>
-      </c>
-      <c r="K97">
-        <v>5</v>
-      </c>
-      <c r="L97">
-        <v>4</v>
-      </c>
-      <c r="M97">
-        <v>1.5</v>
-      </c>
-      <c r="N97">
-        <v>4.2</v>
-      </c>
-      <c r="O97">
-        <v>3.8</v>
-      </c>
-      <c r="P97">
-        <v>1.666</v>
-      </c>
       <c r="Q97">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
         <v>1.975</v>
       </c>
-      <c r="S97">
-        <v>1.825</v>
-      </c>
-      <c r="T97">
-        <v>2.75</v>
-      </c>
-      <c r="U97">
-        <v>1.8</v>
-      </c>
-      <c r="V97">
-        <v>2</v>
-      </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6859120</v>
+        <v>6858539</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,49 +9172,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K98">
         <v>2</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.25</v>
-      </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.825</v>
@@ -9223,19 +9223,19 @@
         <v>1.975</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6858539</v>
+        <v>6859121</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>46</v>
       </c>
       <c r="K99">
+        <v>5</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>1.5</v>
+      </c>
+      <c r="N99">
+        <v>4.2</v>
+      </c>
+      <c r="O99">
+        <v>3.8</v>
+      </c>
+      <c r="P99">
+        <v>1.666</v>
+      </c>
+      <c r="Q99">
+        <v>0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
+        <v>1.825</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.8</v>
+      </c>
+      <c r="V99">
         <v>2</v>
       </c>
-      <c r="L99">
-        <v>3.6</v>
-      </c>
-      <c r="M99">
-        <v>3</v>
-      </c>
-      <c r="N99">
-        <v>1.909</v>
-      </c>
-      <c r="O99">
-        <v>3.75</v>
-      </c>
-      <c r="P99">
-        <v>3.2</v>
-      </c>
-      <c r="Q99">
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.825</v>
+      </c>
+      <c r="AB99">
+        <v>0.4</v>
+      </c>
+      <c r="AC99">
         <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>3.25</v>
-      </c>
-      <c r="U99">
-        <v>1.825</v>
-      </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.75</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
-      <c r="AC99">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9353,7 +9353,7 @@
         <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9362,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>1.9</v>
@@ -9531,7 +9531,7 @@
         <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -9617,10 +9617,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.4</v>
@@ -9718,7 +9718,7 @@
         <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>4.333</v>
@@ -9795,10 +9795,10 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -9884,7 +9884,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -9976,7 +9976,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>1.285</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.4</v>
@@ -10154,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10240,7 +10240,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
@@ -10329,7 +10329,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>36</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6858774</v>
+        <v>6858775</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45164.375</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N112">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O112">
         <v>3.8</v>
       </c>
       <c r="P112">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858775</v>
+        <v>6858774</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45164.375</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O113">
         <v>3.8</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z113">
+        <v>-0.5</v>
+      </c>
+      <c r="AA113">
+        <v>0.425</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
-      <c r="AB113">
-        <v>0</v>
-      </c>
-      <c r="AC113">
-        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>1.714</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6858777</v>
+        <v>6859115</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,67 +10685,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M115">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N115">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
         <v>3</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10754,7 +10754,7 @@
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6859115</v>
+        <v>6858777</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,67 +10774,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L116">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X116">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10843,7 +10843,7 @@
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>45171.375</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>44</v>
@@ -11044,7 +11044,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>1.85</v>
@@ -11133,7 +11133,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
         <v>2.4</v>
@@ -11231,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>1.727</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>1.666</v>
@@ -11397,10 +11397,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11486,10 +11486,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -11575,10 +11575,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -11753,10 +11753,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>1.909</v>
@@ -11842,7 +11842,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -11934,7 +11934,7 @@
         <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6858790</v>
+        <v>6859110</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,13 +12020,13 @@
         <v>45185.375</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>2</v>
@@ -12035,61 +12035,61 @@
         <v>46</v>
       </c>
       <c r="K130">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N130">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>45185.375</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>43</v>
@@ -12121,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6859110</v>
+        <v>6858790</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,13 +12198,13 @@
         <v>45185.375</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -12213,61 +12213,61 @@
         <v>45</v>
       </c>
       <c r="K132">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L132">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y132">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6858791</v>
+        <v>6859109</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>46</v>
       </c>
       <c r="K133">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
         <v>3.6</v>
       </c>
       <c r="M133">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
+        <v>2.75</v>
+      </c>
+      <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
+        <v>1.95</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
         <v>3</v>
       </c>
-      <c r="U133">
-        <v>1.875</v>
-      </c>
-      <c r="V133">
-        <v>1.925</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>2.4</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
       <c r="Z133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
+        <v>0.825</v>
+      </c>
+      <c r="AB133">
+        <v>0.425</v>
+      </c>
+      <c r="AC133">
         <v>-0.5</v>
-      </c>
-      <c r="AB133">
-        <v>0.875</v>
-      </c>
-      <c r="AC133">
-        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6858792</v>
+        <v>6858791</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,49 +12376,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N134">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O134">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
         <v>1.925</v>
       </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U134">
         <v>1.875</v>
@@ -12430,16 +12430,16 @@
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA134">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
         <v>0.875</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6859109</v>
+        <v>6858792</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,13 +12465,13 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -12480,61 +12480,61 @@
         <v>45</v>
       </c>
       <c r="K135">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N135">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P135">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y135">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB135">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6858794</v>
+        <v>6859108</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,46 +12643,46 @@
         <v>45192.375</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>47</v>
       </c>
       <c r="K137">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N137">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>3</v>
@@ -12694,7 +12694,7 @@
         <v>1.825</v>
       </c>
       <c r="W137">
-        <v>2.5</v>
+        <v>0.571</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6859108</v>
+        <v>6858794</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,46 +12732,46 @@
         <v>45192.375</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138">
         <v>1</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>47</v>
       </c>
       <c r="K138">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="N138">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>3</v>
@@ -12783,7 +12783,7 @@
         <v>1.825</v>
       </c>
       <c r="W138">
-        <v>0.571</v>
+        <v>2.5</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,10 +12821,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F139" t="s">
+        <v>42</v>
+      </c>
+      <c r="G139" t="s">
         <v>41</v>
-      </c>
-      <c r="G139" t="s">
-        <v>42</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12910,7 +12910,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
         <v>36</v>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>2.8</v>
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6858796</v>
+        <v>6858797</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45199.375</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141">
         <v>1</v>
       </c>
-      <c r="I141">
+      <c r="J141" t="s">
+        <v>47</v>
+      </c>
+      <c r="K141">
+        <v>3.1</v>
+      </c>
+      <c r="L141">
+        <v>3.6</v>
+      </c>
+      <c r="M141">
+        <v>2.05</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141">
+        <v>3.6</v>
+      </c>
+      <c r="P141">
+        <v>2.1</v>
+      </c>
+      <c r="Q141">
+        <v>0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
+        <v>3.5</v>
+      </c>
+      <c r="U141">
+        <v>1.925</v>
+      </c>
+      <c r="V141">
+        <v>1.775</v>
+      </c>
+      <c r="W141">
         <v>2</v>
       </c>
-      <c r="J141" t="s">
-        <v>45</v>
-      </c>
-      <c r="K141">
-        <v>1.65</v>
-      </c>
-      <c r="L141">
-        <v>3.75</v>
-      </c>
-      <c r="M141">
-        <v>4.2</v>
-      </c>
-      <c r="N141">
-        <v>1.65</v>
-      </c>
-      <c r="O141">
-        <v>4</v>
-      </c>
-      <c r="P141">
-        <v>4.333</v>
-      </c>
-      <c r="Q141">
-        <v>-0.75</v>
-      </c>
-      <c r="R141">
-        <v>1.8</v>
-      </c>
-      <c r="S141">
-        <v>2</v>
-      </c>
-      <c r="T141">
-        <v>3.25</v>
-      </c>
-      <c r="U141">
-        <v>1.9</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC141">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6858797</v>
+        <v>6858796</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45199.375</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142" t="s">
+        <v>46</v>
+      </c>
+      <c r="K142">
+        <v>1.65</v>
+      </c>
+      <c r="L142">
+        <v>3.75</v>
+      </c>
+      <c r="M142">
+        <v>4.2</v>
+      </c>
+      <c r="N142">
+        <v>1.65</v>
+      </c>
+      <c r="O142">
+        <v>4</v>
+      </c>
+      <c r="P142">
+        <v>4.333</v>
+      </c>
+      <c r="Q142">
+        <v>-0.75</v>
+      </c>
+      <c r="R142">
+        <v>1.8</v>
+      </c>
+      <c r="S142">
+        <v>2</v>
+      </c>
+      <c r="T142">
+        <v>3.25</v>
+      </c>
+      <c r="U142">
+        <v>1.9</v>
+      </c>
+      <c r="V142">
+        <v>1.9</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>3.333</v>
+      </c>
+      <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
         <v>1</v>
       </c>
-      <c r="J142" t="s">
-        <v>47</v>
-      </c>
-      <c r="K142">
-        <v>3.1</v>
-      </c>
-      <c r="L142">
-        <v>3.6</v>
-      </c>
-      <c r="M142">
-        <v>2.05</v>
-      </c>
-      <c r="N142">
-        <v>3</v>
-      </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
-      <c r="P142">
-        <v>2.1</v>
-      </c>
-      <c r="Q142">
-        <v>0.25</v>
-      </c>
-      <c r="R142">
-        <v>1.95</v>
-      </c>
-      <c r="S142">
-        <v>1.85</v>
-      </c>
-      <c r="T142">
-        <v>3.5</v>
-      </c>
-      <c r="U142">
-        <v>1.925</v>
-      </c>
-      <c r="V142">
-        <v>1.775</v>
-      </c>
-      <c r="W142">
-        <v>2</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>-1</v>
-      </c>
-      <c r="Z142">
-        <v>0.95</v>
-      </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
       <c r="AB142">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K143">
         <v>2.6</v>
@@ -13269,7 +13269,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13355,7 +13355,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K145">
         <v>2.1</v>
@@ -13444,7 +13444,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
         <v>36</v>
@@ -13456,7 +13456,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K146">
         <v>3.1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6858800</v>
+        <v>6858801</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45206.375</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>45</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y147">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6858801</v>
+        <v>6858800</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45206.375</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>46</v>
       </c>
       <c r="K148">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N148">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.75</v>
+      </c>
+      <c r="AB148">
         <v>0</v>
       </c>
-      <c r="AA148">
+      <c r="AC148">
         <v>-0</v>
-      </c>
-      <c r="AB148">
-        <v>-1</v>
-      </c>
-      <c r="AC148">
-        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13723,7 +13723,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -13800,10 +13800,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13892,7 +13892,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K151">
         <v>1.7</v>
@@ -13978,7 +13978,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
         <v>37</v>
@@ -13990,7 +13990,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>2.7</v>
@@ -14079,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K153">
         <v>1.4</v>
@@ -14159,7 +14159,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14245,10 +14245,10 @@
         <v>45213.375</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14423,10 +14423,10 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F157" t="s">
+        <v>41</v>
+      </c>
+      <c r="G157" t="s">
         <v>42</v>
-      </c>
-      <c r="G157" t="s">
-        <v>41</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>1.727</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6858809</v>
+        <v>6858807</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,73 +14515,73 @@
         <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L158">
         <v>3.6</v>
       </c>
       <c r="M158">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O158">
         <v>4</v>
       </c>
       <c r="P158">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6858807</v>
+        <v>6858809</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L159">
         <v>3.6</v>
       </c>
       <c r="M159">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N159">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O159">
         <v>4</v>
       </c>
       <c r="P159">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>1.55</v>
+      </c>
+      <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>1</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X159">
-        <v>-1</v>
-      </c>
-      <c r="Y159">
-        <v>-1</v>
-      </c>
-      <c r="Z159">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA159">
-        <v>-1</v>
-      </c>
-      <c r="AB159">
-        <v>0.925</v>
-      </c>
-      <c r="AC159">
-        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6859100</v>
+        <v>6858810</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N160">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6858810</v>
+        <v>6859100</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45220.375</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>45</v>
       </c>
       <c r="K161">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N161">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y161">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>40</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6859099</v>
+        <v>6858811</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,55 +14957,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>46</v>
+      </c>
+      <c r="K163">
+        <v>1.55</v>
+      </c>
+      <c r="L163">
         <v>4</v>
       </c>
-      <c r="J163" t="s">
-        <v>45</v>
-      </c>
-      <c r="K163">
-        <v>3</v>
-      </c>
-      <c r="L163">
-        <v>3.6</v>
-      </c>
       <c r="M163">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O163">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P163">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15014,19 +15014,19 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6858811</v>
+        <v>6859099</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,56 +15046,56 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K164">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N164">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
+        <v>1.95</v>
+      </c>
+      <c r="S164">
+        <v>1.85</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
         <v>1.825</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>1.975</v>
       </c>
-      <c r="T164">
-        <v>3.25</v>
-      </c>
-      <c r="U164">
-        <v>1.9</v>
-      </c>
-      <c r="V164">
-        <v>1.9</v>
-      </c>
       <c r="W164">
         <v>-1</v>
       </c>
@@ -15103,19 +15103,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15224,10 +15224,10 @@
         <v>45227.375</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15236,7 +15236,7 @@
         <v>5</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>2.45</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.769</v>
@@ -15405,7 +15405,7 @@
         <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>2.375</v>
@@ -15491,7 +15491,7 @@
         <v>45233.625</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6858817</v>
+        <v>6858818</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45234.375</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L170">
+        <v>3.8</v>
+      </c>
+      <c r="M170">
+        <v>4.5</v>
+      </c>
+      <c r="N170">
+        <v>1.533</v>
+      </c>
+      <c r="O170">
+        <v>4.333</v>
+      </c>
+      <c r="P170">
+        <v>4.75</v>
+      </c>
+      <c r="Q170">
+        <v>-1</v>
+      </c>
+      <c r="R170">
+        <v>1.825</v>
+      </c>
+      <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
+        <v>3.25</v>
+      </c>
+      <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
+        <v>1.9</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
         <v>3.75</v>
       </c>
-      <c r="M170">
-        <v>2.4</v>
-      </c>
-      <c r="N170">
-        <v>2.15</v>
-      </c>
-      <c r="O170">
-        <v>3.8</v>
-      </c>
-      <c r="P170">
-        <v>2.75</v>
-      </c>
-      <c r="Q170">
-        <v>-0.25</v>
-      </c>
-      <c r="R170">
-        <v>1.95</v>
-      </c>
-      <c r="S170">
-        <v>1.85</v>
-      </c>
-      <c r="T170">
-        <v>3</v>
-      </c>
-      <c r="U170">
-        <v>1.75</v>
-      </c>
-      <c r="V170">
-        <v>1.95</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>1.75</v>
-      </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6858818</v>
+        <v>6858815</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15672,73 +15672,73 @@
         <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>45</v>
       </c>
       <c r="K171">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L171">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N171">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="O171">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P171">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R171">
+        <v>1.775</v>
+      </c>
+      <c r="S171">
+        <v>2.025</v>
+      </c>
+      <c r="T171">
+        <v>2.75</v>
+      </c>
+      <c r="U171">
+        <v>1.975</v>
+      </c>
+      <c r="V171">
         <v>1.825</v>
       </c>
-      <c r="S171">
-        <v>1.975</v>
-      </c>
-      <c r="T171">
-        <v>3.25</v>
-      </c>
-      <c r="U171">
-        <v>1.9</v>
-      </c>
-      <c r="V171">
-        <v>1.9</v>
-      </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y171">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6858815</v>
+        <v>6858817</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45234.375</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>46</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
+        <v>2.4</v>
+      </c>
+      <c r="N172">
+        <v>2.15</v>
+      </c>
+      <c r="O172">
+        <v>3.8</v>
+      </c>
+      <c r="P172">
+        <v>2.75</v>
+      </c>
+      <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
+        <v>1.85</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="N172">
-        <v>2.4</v>
-      </c>
-      <c r="O172">
-        <v>3.2</v>
-      </c>
-      <c r="P172">
-        <v>2.7</v>
-      </c>
-      <c r="Q172">
+      <c r="U172">
+        <v>1.75</v>
+      </c>
+      <c r="V172">
+        <v>1.95</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>1.75</v>
+      </c>
+      <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB172">
         <v>0</v>
       </c>
-      <c r="R172">
-        <v>1.775</v>
-      </c>
-      <c r="S172">
-        <v>2.025</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>2.2</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>0</v>
-      </c>
-      <c r="AA172">
+      <c r="AC172">
         <v>-0</v>
-      </c>
-      <c r="AB172">
-        <v>-1</v>
-      </c>
-      <c r="AC172">
-        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K173">
         <v>2.875</v>
@@ -15936,7 +15936,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
         <v>36</v>
@@ -15948,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>3.1</v>
@@ -16028,7 +16028,7 @@
         <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>4</v>
@@ -16117,7 +16117,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16203,7 +16203,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16295,7 +16295,7 @@
         <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16304,7 +16304,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K178">
         <v>2.55</v>
@@ -16384,7 +16384,7 @@
         <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K179">
         <v>1.571</v>
@@ -16473,7 +16473,7 @@
         <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6859092</v>
+        <v>6858825</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,58 +16559,58 @@
         <v>45248.375</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H181">
+        <v>4</v>
+      </c>
+      <c r="I181">
         <v>2</v>
-      </c>
-      <c r="I181">
-        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>47</v>
       </c>
       <c r="K181">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M181">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U181">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16619,16 +16619,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6858825</v>
+        <v>6858827</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16740,73 +16740,73 @@
         <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K183">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L183">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N183">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O183">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T183">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>45248.375</v>
       </c>
       <c r="F184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
         <v>43</v>
@@ -16838,7 +16838,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K184">
         <v>3.1</v>
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6858827</v>
+        <v>6859092</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45248.375</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L185">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N185">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17016,7 +17016,7 @@
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K186">
         <v>4</v>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -106,10 +106,10 @@
     <t>Oure FA</t>
   </si>
   <si>
-    <t>AB Trnby</t>
+    <t>Middelfart</t>
   </si>
   <si>
-    <t>Middelfart</t>
+    <t>AB Trnby</t>
   </si>
   <si>
     <t>Holstebro</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5244596</v>
+        <v>5244479</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,52 +720,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P3">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -774,19 +774,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5244479</v>
+        <v>5244596</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,52 +809,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="N4">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -863,19 +863,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
+        <v>0.925</v>
+      </c>
+      <c r="AB4">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -2052,7 +2052,7 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -2500,7 +2500,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2589,7 +2589,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5244631</v>
+        <v>5236200</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,49 +3209,49 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>2.05</v>
+      </c>
+      <c r="L31">
+        <v>3.6</v>
+      </c>
+      <c r="M31">
+        <v>2.9</v>
+      </c>
+      <c r="N31">
+        <v>2.2</v>
+      </c>
+      <c r="O31">
+        <v>3.6</v>
+      </c>
+      <c r="P31">
+        <v>2.8</v>
+      </c>
+      <c r="Q31">
+        <v>-0.25</v>
+      </c>
+      <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
         <v>3</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31">
-        <v>1.416</v>
-      </c>
-      <c r="L31">
-        <v>4.333</v>
-      </c>
-      <c r="M31">
-        <v>6</v>
-      </c>
-      <c r="N31">
-        <v>1.363</v>
-      </c>
-      <c r="O31">
-        <v>4.75</v>
-      </c>
-      <c r="P31">
-        <v>7</v>
-      </c>
-      <c r="Q31">
-        <v>-1.25</v>
-      </c>
-      <c r="R31">
-        <v>1.75</v>
-      </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
-      <c r="T31">
-        <v>2.75</v>
       </c>
       <c r="U31">
         <v>1.975</v>
@@ -3260,19 +3260,19 @@
         <v>1.825</v>
       </c>
       <c r="W31">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
         <v>0.9750000000000001</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5236200</v>
+        <v>5244604</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,55 +3298,55 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
         <v>46</v>
       </c>
       <c r="K32">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3355,16 +3355,16 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.8</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5244604</v>
+        <v>5251084</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,56 +3387,56 @@
         <v>45026.375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>1</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
       </c>
       <c r="J33" t="s">
         <v>46</v>
       </c>
       <c r="K33">
+        <v>1.55</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>1.533</v>
+      </c>
+      <c r="O33">
         <v>4.2</v>
       </c>
-      <c r="L33">
-        <v>3.8</v>
-      </c>
-      <c r="M33">
-        <v>1.65</v>
-      </c>
-      <c r="N33">
-        <v>4.2</v>
-      </c>
-      <c r="O33">
-        <v>3.8</v>
-      </c>
       <c r="P33">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R33">
+        <v>1.8</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
         <v>1.95</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="T33">
-        <v>2.75</v>
-      </c>
-      <c r="U33">
-        <v>1.775</v>
-      </c>
-      <c r="V33">
-        <v>2.025</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
@@ -3444,19 +3444,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.6499999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB33">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5251084</v>
+        <v>5244631</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45026.375</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>1.55</v>
+        <v>1.416</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N34">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P34">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3746,7 +3746,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>45032.375</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -4277,7 +4277,7 @@
         <v>45038.375</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
@@ -4547,7 +4547,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4814,7 +4814,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5170,7 +5170,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5256,7 +5256,7 @@
         <v>45052.375</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5523,7 +5523,7 @@
         <v>45059.375</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5879,7 +5879,7 @@
         <v>45065.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -6324,7 +6324,7 @@
         <v>45066.375</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -6594,7 +6594,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6769,7 +6769,7 @@
         <v>45073.375</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>40</v>
@@ -7214,7 +7214,7 @@
         <v>45080.375</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7306,7 +7306,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7484,7 +7484,7 @@
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7748,7 +7748,7 @@
         <v>45087.375</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>35</v>
@@ -8018,7 +8018,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8282,7 +8282,7 @@
         <v>45094.375</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6858814</v>
+        <v>6858813</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,76 +15224,76 @@
         <v>45227.375</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
-        <v>2.45</v>
+        <v>1.769</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O166">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y166">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6858813</v>
+        <v>6858814</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45227.375</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
+        <v>5</v>
+      </c>
+      <c r="J167" t="s">
+        <v>46</v>
+      </c>
+      <c r="K167">
+        <v>2.45</v>
+      </c>
+      <c r="L167">
+        <v>3.75</v>
+      </c>
+      <c r="M167">
+        <v>2.375</v>
+      </c>
+      <c r="N167">
+        <v>2.45</v>
+      </c>
+      <c r="O167">
+        <v>3.75</v>
+      </c>
+      <c r="P167">
+        <v>2.375</v>
+      </c>
+      <c r="Q167">
         <v>0</v>
       </c>
-      <c r="J167" t="s">
-        <v>45</v>
-      </c>
-      <c r="K167">
-        <v>1.769</v>
-      </c>
-      <c r="L167">
-        <v>3.6</v>
-      </c>
-      <c r="M167">
-        <v>4</v>
-      </c>
-      <c r="N167">
-        <v>1.65</v>
-      </c>
-      <c r="O167">
-        <v>3.8</v>
-      </c>
-      <c r="P167">
-        <v>4.5</v>
-      </c>
-      <c r="Q167">
-        <v>-0.75</v>
-      </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T167">
         <v>3</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6858818</v>
+        <v>6858817</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,55 +15580,55 @@
         <v>45234.375</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>46</v>
       </c>
       <c r="K170">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="L170">
+        <v>3.75</v>
+      </c>
+      <c r="M170">
+        <v>2.4</v>
+      </c>
+      <c r="N170">
+        <v>2.15</v>
+      </c>
+      <c r="O170">
         <v>3.8</v>
       </c>
-      <c r="M170">
-        <v>4.5</v>
-      </c>
-      <c r="N170">
-        <v>1.533</v>
-      </c>
-      <c r="O170">
-        <v>4.333</v>
-      </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15637,19 +15637,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC170">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6858817</v>
+        <v>6858818</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45234.375</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>46</v>
       </c>
       <c r="K172">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L172">
+        <v>3.8</v>
+      </c>
+      <c r="M172">
+        <v>4.5</v>
+      </c>
+      <c r="N172">
+        <v>1.533</v>
+      </c>
+      <c r="O172">
+        <v>4.333</v>
+      </c>
+      <c r="P172">
+        <v>4.75</v>
+      </c>
+      <c r="Q172">
+        <v>-1</v>
+      </c>
+      <c r="R172">
+        <v>1.825</v>
+      </c>
+      <c r="S172">
+        <v>1.975</v>
+      </c>
+      <c r="T172">
+        <v>3.25</v>
+      </c>
+      <c r="U172">
+        <v>1.9</v>
+      </c>
+      <c r="V172">
+        <v>1.9</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
         <v>3.75</v>
       </c>
-      <c r="M172">
-        <v>2.4</v>
-      </c>
-      <c r="N172">
-        <v>2.15</v>
-      </c>
-      <c r="O172">
-        <v>3.8</v>
-      </c>
-      <c r="P172">
-        <v>2.75</v>
-      </c>
-      <c r="Q172">
-        <v>-0.25</v>
-      </c>
-      <c r="R172">
-        <v>1.95</v>
-      </c>
-      <c r="S172">
-        <v>1.85</v>
-      </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
-      <c r="U172">
-        <v>1.75</v>
-      </c>
-      <c r="V172">
-        <v>1.95</v>
-      </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>1.75</v>
-      </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6858825</v>
+        <v>6859093</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,58 +16559,58 @@
         <v>45248.375</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>47</v>
       </c>
       <c r="K181">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L181">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N181">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T181">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16619,16 +16619,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6859093</v>
+        <v>6858827</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45248.375</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K182">
+        <v>2.3</v>
+      </c>
+      <c r="L182">
+        <v>3.5</v>
+      </c>
+      <c r="M182">
+        <v>2.625</v>
+      </c>
+      <c r="N182">
+        <v>1.85</v>
+      </c>
+      <c r="O182">
+        <v>3.75</v>
+      </c>
+      <c r="P182">
+        <v>3.4</v>
+      </c>
+      <c r="Q182">
+        <v>-0.5</v>
+      </c>
+      <c r="R182">
+        <v>1.875</v>
+      </c>
+      <c r="S182">
+        <v>1.925</v>
+      </c>
+      <c r="T182">
         <v>2.75</v>
       </c>
-      <c r="L182">
-        <v>3.4</v>
-      </c>
-      <c r="M182">
-        <v>2.25</v>
-      </c>
-      <c r="N182">
-        <v>2.6</v>
-      </c>
-      <c r="O182">
-        <v>3.4</v>
-      </c>
-      <c r="P182">
-        <v>2.375</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182">
-        <v>2</v>
-      </c>
-      <c r="S182">
-        <v>1.8</v>
-      </c>
-      <c r="T182">
-        <v>2.5</v>
-      </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6858827</v>
+        <v>6858826</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,40 +16737,40 @@
         <v>45248.375</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J183" t="s">
         <v>46</v>
       </c>
       <c r="K183">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L183">
+        <v>3.6</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>2.875</v>
+      </c>
+      <c r="O183">
         <v>3.5</v>
       </c>
-      <c r="M183">
-        <v>2.625</v>
-      </c>
-      <c r="N183">
-        <v>1.85</v>
-      </c>
-      <c r="O183">
-        <v>3.75</v>
-      </c>
       <c r="P183">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
         <v>1.875</v>
@@ -16779,13 +16779,13 @@
         <v>1.925</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16794,7 +16794,7 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="Z183">
         <v>-1</v>
@@ -16803,10 +16803,10 @@
         <v>0.925</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6858826</v>
+        <v>6858825</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45248.375</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M184">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N184">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O184">
+        <v>3.8</v>
+      </c>
+      <c r="P184">
+        <v>4.2</v>
+      </c>
+      <c r="Q184">
+        <v>-0.75</v>
+      </c>
+      <c r="R184">
+        <v>1.85</v>
+      </c>
+      <c r="S184">
+        <v>1.95</v>
+      </c>
+      <c r="T184">
         <v>3.5</v>
       </c>
-      <c r="P184">
-        <v>2.15</v>
-      </c>
-      <c r="Q184">
-        <v>0.25</v>
-      </c>
-      <c r="R184">
-        <v>1.875</v>
-      </c>
-      <c r="S184">
-        <v>1.925</v>
-      </c>
-      <c r="T184">
-        <v>3</v>
-      </c>
       <c r="U184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC184">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6859092</v>
+        <v>6858828</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,40 +16915,40 @@
         <v>45248.375</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
         <v>2</v>
       </c>
-      <c r="I185">
-        <v>1</v>
-      </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K185">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M185">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R185">
         <v>1.825</v>
@@ -16960,28 +16960,28 @@
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z185">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB185">
-        <v>0.375</v>
+        <v>0.4125</v>
       </c>
       <c r="AC185">
         <v>-0.5</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6858828</v>
+        <v>6859092</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,40 +17004,40 @@
         <v>45248.375</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
         <v>1</v>
       </c>
-      <c r="I186">
+      <c r="J186" t="s">
+        <v>47</v>
+      </c>
+      <c r="K186">
+        <v>2.5</v>
+      </c>
+      <c r="L186">
+        <v>3.6</v>
+      </c>
+      <c r="M186">
+        <v>2.45</v>
+      </c>
+      <c r="N186">
         <v>2</v>
       </c>
-      <c r="J186" t="s">
-        <v>46</v>
-      </c>
-      <c r="K186">
-        <v>4</v>
-      </c>
-      <c r="L186">
-        <v>3.8</v>
-      </c>
-      <c r="M186">
-        <v>1.727</v>
-      </c>
-      <c r="N186">
-        <v>4</v>
-      </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q186">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
         <v>1.825</v>
@@ -17049,28 +17049,28 @@
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA186">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.4125</v>
+        <v>0.375</v>
       </c>
       <c r="AC186">
         <v>-0.5</v>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -103,10 +103,10 @@
     <t>Denmark Division 3</t>
   </si>
   <si>
-    <t>Oure FA</t>
+    <t>Middelfart</t>
   </si>
   <si>
-    <t>Middelfart</t>
+    <t>Oure FA</t>
   </si>
   <si>
     <t>AB Trnby</t>
@@ -139,10 +139,10 @@
     <t>Young Boys FD</t>
   </si>
   <si>
-    <t>Vejgaard B</t>
+    <t>Holbk</t>
   </si>
   <si>
-    <t>Holbk</t>
+    <t>Vejgaard B</t>
   </si>
   <si>
     <t>Frem</t>
@@ -151,10 +151,10 @@
     <t>Avarta</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5235485</v>
+        <v>5244479</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,10 +631,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -643,61 +643,61 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="L2">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="N2">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="O2">
         <v>4.5</v>
       </c>
       <c r="P2">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="Q2">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5244479</v>
+        <v>5235485</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,10 +720,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -732,61 +732,61 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="N3">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="O3">
         <v>4.5</v>
       </c>
       <c r="P3">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y3">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>3.75</v>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>3.4</v>
@@ -1174,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>5.5</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>3.5</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5251080</v>
+        <v>5244626</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,58 +1340,58 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
+        <v>1.825</v>
+      </c>
+      <c r="V10">
         <v>1.975</v>
       </c>
-      <c r="V10">
-        <v>1.825</v>
-      </c>
       <c r="W10">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1400,16 +1400,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5244626</v>
+        <v>5251080</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,58 +1429,58 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>2</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N11">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
+        <v>1.975</v>
+      </c>
+      <c r="V11">
         <v>1.825</v>
       </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
       <c r="W11">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1489,16 +1489,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>19</v>
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5244627</v>
+        <v>5244600</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,58 +1785,58 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>15</v>
+        <v>2.15</v>
       </c>
       <c r="Q15">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>0.1419999999999999</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1845,16 +1845,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5244600</v>
+        <v>5244601</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
         <v>2.5</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>1.9</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
+        <v>1.9</v>
+      </c>
+      <c r="V16">
+        <v>1.9</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
         <v>1.875</v>
       </c>
-      <c r="S16">
-        <v>1.925</v>
-      </c>
-      <c r="T16">
-        <v>2.5</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5244601</v>
+        <v>5244627</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <v>1.142</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>-2.25</v>
+      </c>
+      <c r="R18">
+        <v>1.825</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
         <v>3.5</v>
       </c>
-      <c r="M18">
-        <v>2.5</v>
-      </c>
-      <c r="N18">
-        <v>2.1</v>
-      </c>
-      <c r="O18">
-        <v>3.5</v>
-      </c>
-      <c r="P18">
-        <v>2.875</v>
-      </c>
-      <c r="Q18">
-        <v>-0.25</v>
-      </c>
-      <c r="R18">
-        <v>1.9</v>
-      </c>
-      <c r="S18">
-        <v>1.9</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>2.35</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5244628</v>
+        <v>5236199</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,49 +2230,49 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>1.083</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="M20">
-        <v>2.9</v>
+        <v>19</v>
       </c>
       <c r="N20">
+        <v>1.02</v>
+      </c>
+      <c r="O20">
+        <v>17</v>
+      </c>
+      <c r="P20">
+        <v>41</v>
+      </c>
+      <c r="Q20">
+        <v>-4</v>
+      </c>
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
         <v>1.85</v>
       </c>
-      <c r="O20">
-        <v>3.8</v>
-      </c>
-      <c r="P20">
-        <v>3.3</v>
-      </c>
-      <c r="Q20">
-        <v>-0.5</v>
-      </c>
-      <c r="R20">
-        <v>1.925</v>
-      </c>
-      <c r="S20">
-        <v>1.875</v>
-      </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U20">
         <v>1.95</v>
@@ -2281,25 +2281,25 @@
         <v>1.85</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="X20">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5236199</v>
+        <v>5244628</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,49 +2319,49 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>1.083</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>2.9</v>
       </c>
       <c r="N21">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>17</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>41</v>
+        <v>3.3</v>
       </c>
       <c r="Q21">
-        <v>-4</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>1.95</v>
@@ -2370,25 +2370,25 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.02000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>2.7</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5244630</v>
+        <v>5244629</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45017.375</v>
       </c>
       <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
         <v>3.75</v>
       </c>
       <c r="M23">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="N23">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5244629</v>
+        <v>5244630</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45017.375</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="L24">
         <v>3.75</v>
       </c>
       <c r="M24">
+        <v>3.2</v>
+      </c>
+      <c r="N24">
+        <v>2.3</v>
+      </c>
+      <c r="O24">
+        <v>3.6</v>
+      </c>
+      <c r="P24">
+        <v>2.55</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.8</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="N24">
-        <v>3.8</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
-      <c r="P24">
-        <v>1.727</v>
-      </c>
-      <c r="Q24">
-        <v>0.75</v>
-      </c>
-      <c r="R24">
-        <v>1.825</v>
-      </c>
-      <c r="S24">
-        <v>1.975</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
-        <v>1.9</v>
-      </c>
-      <c r="V24">
-        <v>1.9</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.533</v>
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>2.1</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5251083</v>
+        <v>5235486</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,73 +2942,73 @@
         <v>45022.375</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>46</v>
       </c>
       <c r="K28">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N28">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>-1.5</v>
+      </c>
+      <c r="R28">
+        <v>1.875</v>
+      </c>
+      <c r="S28">
+        <v>1.925</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>1.875</v>
+      </c>
+      <c r="V28">
+        <v>1.925</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>3.5</v>
       </c>
-      <c r="Q28">
-        <v>-0.5</v>
-      </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.85</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
       <c r="Y28">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5235486</v>
+        <v>5251083</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,73 +3031,73 @@
         <v>45022.375</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N29">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O29">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5244605</v>
+        <v>5251084</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,13 +3120,13 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3135,61 +3135,61 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>1.533</v>
+      </c>
+      <c r="O30">
+        <v>4.2</v>
+      </c>
+      <c r="P30">
+        <v>5.25</v>
+      </c>
+      <c r="Q30">
+        <v>-1</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
         <v>1.95</v>
       </c>
-      <c r="N30">
-        <v>3.6</v>
-      </c>
-      <c r="O30">
-        <v>3.3</v>
-      </c>
-      <c r="P30">
-        <v>1.909</v>
-      </c>
-      <c r="Q30">
-        <v>0.5</v>
-      </c>
-      <c r="R30">
-        <v>1.875</v>
-      </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.875</v>
-      </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3221,7 +3221,7 @@
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3310,7 +3310,7 @@
         <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>4.2</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5251084</v>
+        <v>5244605</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,13 +3387,13 @@
         <v>45026.375</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -3402,61 +3402,61 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N33">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y33">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>45026.375</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6519913</v>
+        <v>6519855</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,70 +3565,70 @@
         <v>45031.34375</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>2.3</v>
+      </c>
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
+        <v>2.6</v>
+      </c>
+      <c r="N35">
+        <v>2.2</v>
+      </c>
+      <c r="O35">
+        <v>3.5</v>
+      </c>
+      <c r="P35">
+        <v>2.75</v>
+      </c>
+      <c r="Q35">
+        <v>-0.25</v>
+      </c>
+      <c r="R35">
         <v>2</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35">
-        <v>2.2</v>
-      </c>
-      <c r="L35">
-        <v>3.6</v>
-      </c>
-      <c r="M35">
-        <v>2.75</v>
-      </c>
-      <c r="N35">
+      <c r="S35">
+        <v>1.8</v>
+      </c>
+      <c r="T35">
+        <v>2.5</v>
+      </c>
+      <c r="U35">
         <v>1.85</v>
-      </c>
-      <c r="O35">
-        <v>3.75</v>
-      </c>
-      <c r="P35">
-        <v>3.4</v>
-      </c>
-      <c r="Q35">
-        <v>-0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.925</v>
-      </c>
-      <c r="S35">
-        <v>1.875</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.75</v>
       </c>
       <c r="V35">
         <v>1.95</v>
       </c>
       <c r="W35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6519855</v>
+        <v>6519913</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,70 +3654,70 @@
         <v>45031.34375</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
+        <v>3.4</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
         <v>2.75</v>
       </c>
-      <c r="Q36">
-        <v>-0.25</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36">
-        <v>1.8</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V36">
         <v>1.95</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3746,7 +3746,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3924,7 +3924,7 @@
         <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4022,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>2.375</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>45038.375</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
@@ -4200,7 +4200,7 @@
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>2.5</v>
@@ -4277,7 +4277,7 @@
         <v>45038.375</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>1.533</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.714</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6528857</v>
+        <v>6526512</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,49 +4455,49 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>46</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U45">
         <v>1.925</v>
@@ -4509,16 +4509,16 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y45">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6526512</v>
+        <v>6528857</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,49 +4544,49 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>45</v>
       </c>
       <c r="K46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
         <v>1.925</v>
@@ -4598,16 +4598,16 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4722,7 +4722,7 @@
         <v>45045.375</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4814,7 +4814,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -5090,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>2.45</v>
@@ -5170,7 +5170,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6526513</v>
+        <v>6528860</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45052.375</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K54">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
         <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W54">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6528860</v>
+        <v>6526513</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45052.375</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O55">
         <v>3.6</v>
       </c>
       <c r="P55">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC55">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>2.375</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6528879</v>
+        <v>6526514</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45059.375</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N57">
-        <v>1.714</v>
+        <v>1.5</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R57">
+        <v>1.75</v>
+      </c>
+      <c r="S57">
+        <v>1.95</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>1.825</v>
+      </c>
+      <c r="V57">
         <v>1.975</v>
       </c>
-      <c r="S57">
-        <v>1.825</v>
-      </c>
-      <c r="T57">
-        <v>2.5</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
         <v>0.825</v>
       </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6526652</v>
+        <v>6528879</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,73 +5615,73 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
       </c>
       <c r="K58">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="L58">
         <v>3.8</v>
       </c>
       <c r="M58">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N58">
-        <v>2.9</v>
+        <v>1.714</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
+        <v>1.85</v>
+      </c>
+      <c r="V58">
         <v>1.95</v>
       </c>
-      <c r="V58">
-        <v>1.85</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z58">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6526514</v>
+        <v>6526652</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45059.375</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L59">
+        <v>3.8</v>
+      </c>
+      <c r="M59">
+        <v>2.15</v>
+      </c>
+      <c r="N59">
+        <v>2.9</v>
+      </c>
+      <c r="O59">
         <v>4</v>
       </c>
-      <c r="M59">
-        <v>4.75</v>
-      </c>
-      <c r="N59">
-        <v>1.5</v>
-      </c>
-      <c r="O59">
-        <v>4.2</v>
-      </c>
       <c r="P59">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R59">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5879,7 +5879,7 @@
         <v>45065.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>1.444</v>
@@ -5971,7 +5971,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5980,7 +5980,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>1.75</v>
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>3.1</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6425,7 +6425,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>12</v>
@@ -6594,7 +6594,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>2.875</v>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -6861,7 +6861,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6526656</v>
+        <v>6528867</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N73">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6528867</v>
+        <v>6526656</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45080.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
         <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N74">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7137,7 +7137,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6528881</v>
+        <v>6526517</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,55 +7217,55 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
         <v>1</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N76">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>1.975</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
+        <v>1.8</v>
+      </c>
+      <c r="V76">
         <v>2</v>
       </c>
-      <c r="S76">
-        <v>1.8</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
-      <c r="V76">
-        <v>1.85</v>
-      </c>
       <c r="W76">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7274,16 +7274,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6526517</v>
+        <v>6528881</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,55 +7306,55 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
       </c>
       <c r="K77">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>3.6</v>
@@ -7582,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>17</v>
@@ -7760,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>2.3</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>1.909</v>
@@ -7929,7 +7929,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6526660</v>
+        <v>6528870</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45094.375</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="N86">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P86">
+        <v>7.5</v>
+      </c>
+      <c r="Q86">
+        <v>-1.5</v>
+      </c>
+      <c r="R86">
         <v>1.85</v>
       </c>
-      <c r="Q86">
-        <v>0.25</v>
-      </c>
-      <c r="R86">
-        <v>2.1</v>
-      </c>
       <c r="S86">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
         <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z86">
-        <v>-1</v>
-      </c>
       <c r="AA86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6527542</v>
+        <v>6526660</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45094.375</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>1.125</v>
+        <v>3.1</v>
       </c>
       <c r="O87">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>13</v>
+        <v>1.85</v>
       </c>
       <c r="Q87">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W87">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6528870</v>
+        <v>6528871</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45094.375</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
         <v>4.5</v>
       </c>
-      <c r="M88">
-        <v>5.25</v>
-      </c>
       <c r="N88">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O88">
         <v>5</v>
       </c>
       <c r="P88">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q88">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
       </c>
-      <c r="S88">
+      <c r="T88">
+        <v>3.5</v>
+      </c>
+      <c r="U88">
         <v>1.95</v>
       </c>
-      <c r="T88">
-        <v>3.25</v>
-      </c>
-      <c r="U88">
-        <v>1.925</v>
-      </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6528884</v>
+        <v>6527542</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45094.375</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>2.875</v>
+        <v>1.142</v>
       </c>
       <c r="L89">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M89">
-        <v>2.05</v>
+        <v>13</v>
       </c>
       <c r="N89">
-        <v>2.8</v>
+        <v>1.125</v>
       </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="P89">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>1.8</v>
+        <v>0.125</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6528871</v>
+        <v>6528884</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,73 +8460,73 @@
         <v>45094.375</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N90">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q90">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8552,7 +8552,7 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>2.25</v>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859123</v>
+        <v>6858502</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L93">
         <v>3.75</v>
       </c>
       <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>3.4</v>
+      </c>
+      <c r="O93">
         <v>4</v>
       </c>
-      <c r="N93">
+      <c r="P93">
+        <v>1.75</v>
+      </c>
+      <c r="Q93">
+        <v>0.5</v>
+      </c>
+      <c r="R93">
+        <v>1.975</v>
+      </c>
+      <c r="S93">
+        <v>1.825</v>
+      </c>
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
         <v>1.85</v>
       </c>
-      <c r="O93">
-        <v>3.8</v>
-      </c>
-      <c r="P93">
-        <v>3.25</v>
-      </c>
-      <c r="Q93">
-        <v>-0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.9</v>
-      </c>
-      <c r="S93">
-        <v>1.9</v>
-      </c>
-      <c r="T93">
+      <c r="V93">
+        <v>1.95</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>3</v>
       </c>
-      <c r="U93">
-        <v>1.8</v>
-      </c>
-      <c r="V93">
-        <v>2</v>
-      </c>
-      <c r="W93">
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6858502</v>
+        <v>6859123</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L94">
         <v>3.75</v>
       </c>
       <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>1.85</v>
+      </c>
+      <c r="O94">
+        <v>3.8</v>
+      </c>
+      <c r="P94">
+        <v>3.25</v>
+      </c>
+      <c r="Q94">
+        <v>-0.5</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
+        <v>1.8</v>
+      </c>
+      <c r="V94">
         <v>2</v>
       </c>
-      <c r="N94">
-        <v>3.4</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
-      <c r="P94">
-        <v>1.75</v>
-      </c>
-      <c r="Q94">
-        <v>0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.975</v>
-      </c>
-      <c r="S94">
-        <v>1.825</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
-      </c>
-      <c r="U94">
-        <v>1.85</v>
-      </c>
-      <c r="V94">
-        <v>1.95</v>
-      </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X94">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,10 +8905,10 @@
         <v>45143.375</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859120</v>
+        <v>6859121</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9086,73 +9086,73 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>45</v>
+      </c>
+      <c r="K97">
+        <v>5</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>1.5</v>
+      </c>
+      <c r="N97">
+        <v>4.2</v>
+      </c>
+      <c r="O97">
+        <v>3.8</v>
+      </c>
+      <c r="P97">
+        <v>1.666</v>
+      </c>
+      <c r="Q97">
+        <v>0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
+        <v>1.825</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.8</v>
+      </c>
+      <c r="V97">
         <v>2</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>47</v>
-      </c>
-      <c r="K97">
-        <v>2.25</v>
-      </c>
-      <c r="L97">
-        <v>3.5</v>
-      </c>
-      <c r="M97">
-        <v>2.6</v>
-      </c>
-      <c r="N97">
-        <v>2</v>
-      </c>
-      <c r="O97">
-        <v>3.6</v>
-      </c>
-      <c r="P97">
-        <v>3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>1.8</v>
-      </c>
-      <c r="S97">
-        <v>2</v>
-      </c>
-      <c r="T97">
-        <v>3</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>1.975</v>
-      </c>
       <c r="W97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9184,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6859121</v>
+        <v>6859120</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,73 +9264,73 @@
         <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
+      <c r="J99" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99">
+        <v>2.25</v>
+      </c>
+      <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2.6</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>3.6</v>
+      </c>
+      <c r="P99">
         <v>3</v>
       </c>
-      <c r="J99" t="s">
-        <v>46</v>
-      </c>
-      <c r="K99">
-        <v>5</v>
-      </c>
-      <c r="L99">
-        <v>4</v>
-      </c>
-      <c r="M99">
-        <v>1.5</v>
-      </c>
-      <c r="N99">
-        <v>4.2</v>
-      </c>
-      <c r="O99">
-        <v>3.8</v>
-      </c>
-      <c r="P99">
-        <v>1.666</v>
-      </c>
       <c r="Q99">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.825</v>
+      </c>
+      <c r="V99">
         <v>1.975</v>
       </c>
-      <c r="S99">
-        <v>1.825</v>
-      </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.8</v>
-      </c>
-      <c r="V99">
-        <v>2</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.9</v>
@@ -9531,7 +9531,7 @@
         <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6859118</v>
+        <v>6858768</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L103">
+        <v>3.8</v>
+      </c>
+      <c r="M103">
+        <v>1.65</v>
+      </c>
+      <c r="N103">
         <v>4.5</v>
       </c>
-      <c r="M103">
-        <v>6</v>
-      </c>
-      <c r="N103">
-        <v>1.45</v>
-      </c>
       <c r="O103">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6858768</v>
+        <v>6859118</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>46</v>
       </c>
       <c r="K104">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N104">
+        <v>1.45</v>
+      </c>
+      <c r="O104">
         <v>4.5</v>
       </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
       <c r="P104">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y104">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6858770</v>
+        <v>6858769</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K105">
+        <v>2.7</v>
+      </c>
+      <c r="L105">
+        <v>3.5</v>
+      </c>
+      <c r="M105">
         <v>2.25</v>
       </c>
-      <c r="L105">
-        <v>3.6</v>
-      </c>
-      <c r="M105">
-        <v>2.7</v>
-      </c>
       <c r="N105">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X105">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6858769</v>
+        <v>6858770</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K106">
+        <v>2.25</v>
+      </c>
+      <c r="L106">
+        <v>3.6</v>
+      </c>
+      <c r="M106">
         <v>2.7</v>
       </c>
-      <c r="L106">
+      <c r="N106">
+        <v>2.3</v>
+      </c>
+      <c r="O106">
         <v>3.5</v>
       </c>
-      <c r="M106">
-        <v>2.25</v>
-      </c>
-      <c r="N106">
-        <v>3.25</v>
-      </c>
-      <c r="O106">
-        <v>3.75</v>
-      </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
         <v>1.8</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>2</v>
       </c>
-      <c r="T106">
-        <v>3.25</v>
-      </c>
-      <c r="U106">
-        <v>1.875</v>
-      </c>
-      <c r="V106">
-        <v>1.925</v>
-      </c>
       <c r="W106">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>1.285</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>1.4</v>
@@ -10154,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6858773</v>
+        <v>6858772</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,59 +10240,59 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>47</v>
       </c>
       <c r="K110">
-        <v>1.714</v>
+        <v>4.333</v>
       </c>
       <c r="L110">
         <v>3.8</v>
       </c>
       <c r="M110">
-        <v>3.8</v>
+        <v>1.65</v>
       </c>
       <c r="N110">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="O110">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q110">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
+        <v>1.8</v>
+      </c>
+      <c r="V110">
+        <v>2</v>
+      </c>
+      <c r="W110">
         <v>3.5</v>
       </c>
-      <c r="U110">
-        <v>1.95</v>
-      </c>
-      <c r="V110">
-        <v>1.85</v>
-      </c>
-      <c r="W110">
-        <v>0.5</v>
-      </c>
       <c r="X110">
         <v>-1</v>
       </c>
@@ -10300,16 +10300,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6858772</v>
+        <v>6858773</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,58 +10329,58 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
         <v>47</v>
       </c>
       <c r="K111">
-        <v>4.333</v>
+        <v>1.714</v>
       </c>
       <c r="L111">
         <v>3.8</v>
       </c>
       <c r="M111">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="N111">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P111">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W111">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10389,16 +10389,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6858775</v>
+        <v>6858774</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45164.375</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M112">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N112">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O112">
         <v>3.8</v>
       </c>
       <c r="P112">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z112">
+        <v>-0.5</v>
+      </c>
+      <c r="AA112">
+        <v>0.425</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
-      <c r="AB112">
-        <v>0</v>
-      </c>
-      <c r="AC112">
-        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858774</v>
+        <v>6858775</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45164.375</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N113">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
         <v>3.8</v>
       </c>
       <c r="P113">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>1.714</v>
@@ -10685,7 +10685,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
         <v>40</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>5</v>
@@ -10952,7 +10952,7 @@
         <v>45171.375</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>44</v>
@@ -11044,7 +11044,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>1.85</v>
@@ -11142,7 +11142,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>2.4</v>
@@ -11231,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>1.727</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>1.666</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6859113</v>
+        <v>6858784</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,13 +11397,13 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11412,19 +11412,19 @@
         <v>47</v>
       </c>
       <c r="K123">
+        <v>1.65</v>
+      </c>
+      <c r="L123">
+        <v>3.75</v>
+      </c>
+      <c r="M123">
+        <v>4.333</v>
+      </c>
+      <c r="N123">
         <v>1.571</v>
       </c>
-      <c r="L123">
+      <c r="O123">
         <v>3.8</v>
-      </c>
-      <c r="M123">
-        <v>4.5</v>
-      </c>
-      <c r="N123">
-        <v>1.533</v>
-      </c>
-      <c r="O123">
-        <v>4</v>
       </c>
       <c r="P123">
         <v>4.75</v>
@@ -11433,13 +11433,13 @@
         <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
         <v>1.9</v>
@@ -11448,7 +11448,7 @@
         <v>1.9</v>
       </c>
       <c r="W123">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11457,16 +11457,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6858784</v>
+        <v>6858783</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,58 +11486,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>4</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="L124">
         <v>3.75</v>
       </c>
       <c r="M124">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="N124">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>1.975</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>2.75</v>
+      </c>
+      <c r="U124">
         <v>1.925</v>
       </c>
-      <c r="S124">
+      <c r="V124">
         <v>1.875</v>
       </c>
-      <c r="T124">
-        <v>3.25</v>
-      </c>
-      <c r="U124">
-        <v>1.9</v>
-      </c>
-      <c r="V124">
-        <v>1.9</v>
-      </c>
       <c r="W124">
-        <v>0.571</v>
+        <v>2.2</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,13 +11546,13 @@
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
         <v>0.925</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6858783</v>
+        <v>6859113</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,58 +11575,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>47</v>
       </c>
       <c r="K125">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M125">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N125">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>2.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,16 +11635,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>1.909</v>
@@ -11842,7 +11842,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
         <v>1.5</v>
@@ -12109,7 +12109,7 @@
         <v>45185.375</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>43</v>
@@ -12121,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -12210,7 +12210,7 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
         <v>2.35</v>
@@ -12287,7 +12287,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
         <v>44</v>
@@ -12299,7 +12299,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K133">
         <v>1.75</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6858791</v>
+        <v>6858792</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,49 +12376,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N134">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P134">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
+        <v>1.925</v>
+      </c>
+      <c r="S134">
         <v>1.875</v>
       </c>
-      <c r="S134">
-        <v>1.925</v>
-      </c>
       <c r="T134">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U134">
         <v>1.875</v>
@@ -12430,16 +12430,16 @@
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB134">
         <v>0.875</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6858792</v>
+        <v>6858791</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,49 +12465,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="L135">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N135">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O135">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
+        <v>1.875</v>
+      </c>
+      <c r="S135">
         <v>1.925</v>
       </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U135">
         <v>1.875</v>
@@ -12519,16 +12519,16 @@
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA135">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
         <v>0.875</v>
@@ -12646,7 +12646,7 @@
         <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6859107</v>
+        <v>6858795</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N139">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P139">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q139">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
+        <v>1.875</v>
+      </c>
+      <c r="S139">
+        <v>1.925</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
         <v>1.8</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>2</v>
       </c>
-      <c r="T139">
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
         <v>2.75</v>
       </c>
-      <c r="U139">
-        <v>1.875</v>
-      </c>
-      <c r="V139">
-        <v>1.925</v>
-      </c>
-      <c r="W139">
-        <v>2.3</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6858795</v>
+        <v>6859107</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
         <v>1.875</v>
       </c>
-      <c r="S140">
+      <c r="V140">
         <v>1.925</v>
       </c>
-      <c r="T140">
-        <v>3</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X140">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6858797</v>
+        <v>6858796</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45199.375</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>45</v>
+      </c>
+      <c r="K141">
+        <v>1.65</v>
+      </c>
+      <c r="L141">
+        <v>3.75</v>
+      </c>
+      <c r="M141">
+        <v>4.2</v>
+      </c>
+      <c r="N141">
+        <v>1.65</v>
+      </c>
+      <c r="O141">
+        <v>4</v>
+      </c>
+      <c r="P141">
+        <v>4.333</v>
+      </c>
+      <c r="Q141">
+        <v>-0.75</v>
+      </c>
+      <c r="R141">
+        <v>1.8</v>
+      </c>
+      <c r="S141">
+        <v>2</v>
+      </c>
+      <c r="T141">
+        <v>3.25</v>
+      </c>
+      <c r="U141">
+        <v>1.9</v>
+      </c>
+      <c r="V141">
+        <v>1.9</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>3.333</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
         <v>1</v>
       </c>
-      <c r="J141" t="s">
-        <v>47</v>
-      </c>
-      <c r="K141">
-        <v>3.1</v>
-      </c>
-      <c r="L141">
-        <v>3.6</v>
-      </c>
-      <c r="M141">
-        <v>2.05</v>
-      </c>
-      <c r="N141">
-        <v>3</v>
-      </c>
-      <c r="O141">
-        <v>3.6</v>
-      </c>
-      <c r="P141">
-        <v>2.1</v>
-      </c>
-      <c r="Q141">
-        <v>0.25</v>
-      </c>
-      <c r="R141">
-        <v>1.95</v>
-      </c>
-      <c r="S141">
-        <v>1.85</v>
-      </c>
-      <c r="T141">
-        <v>3.5</v>
-      </c>
-      <c r="U141">
-        <v>1.925</v>
-      </c>
-      <c r="V141">
-        <v>1.775</v>
-      </c>
-      <c r="W141">
-        <v>2</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
-      <c r="Z141">
-        <v>0.95</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6858796</v>
+        <v>6858797</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45199.375</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
+      <c r="J142" t="s">
+        <v>47</v>
+      </c>
+      <c r="K142">
+        <v>3.1</v>
+      </c>
+      <c r="L142">
+        <v>3.6</v>
+      </c>
+      <c r="M142">
+        <v>2.05</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142">
+        <v>3.6</v>
+      </c>
+      <c r="P142">
+        <v>2.1</v>
+      </c>
+      <c r="Q142">
+        <v>0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>3.5</v>
+      </c>
+      <c r="U142">
+        <v>1.925</v>
+      </c>
+      <c r="V142">
+        <v>1.775</v>
+      </c>
+      <c r="W142">
         <v>2</v>
       </c>
-      <c r="J142" t="s">
-        <v>46</v>
-      </c>
-      <c r="K142">
-        <v>1.65</v>
-      </c>
-      <c r="L142">
-        <v>3.75</v>
-      </c>
-      <c r="M142">
-        <v>4.2</v>
-      </c>
-      <c r="N142">
-        <v>1.65</v>
-      </c>
-      <c r="O142">
-        <v>4</v>
-      </c>
-      <c r="P142">
-        <v>4.333</v>
-      </c>
-      <c r="Q142">
-        <v>-0.75</v>
-      </c>
-      <c r="R142">
-        <v>1.8</v>
-      </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142">
-        <v>3.25</v>
-      </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC142">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K143">
         <v>2.6</v>
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6859105</v>
+        <v>6858799</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,40 +13355,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>45</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N145">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
         <v>1.975</v>
@@ -13397,22 +13397,22 @@
         <v>1.825</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z145">
         <v>-1</v>
@@ -13421,10 +13421,10 @@
         <v>0.825</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6858799</v>
+        <v>6859105</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,40 +13444,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>46</v>
       </c>
       <c r="K146">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
         <v>1.975</v>
@@ -13486,22 +13486,22 @@
         <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y146">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
@@ -13510,10 +13510,10 @@
         <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13545,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
         <v>2.45</v>
@@ -13634,7 +13634,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>2.3</v>
@@ -13714,7 +13714,7 @@
         <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13723,7 +13723,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -13803,7 +13803,7 @@
         <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13892,7 +13892,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K151">
         <v>1.7</v>
@@ -13978,7 +13978,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
         <v>37</v>
@@ -13990,7 +13990,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>2.7</v>
@@ -14079,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>1.4</v>
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6858806</v>
+        <v>6858805</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,13 +14156,13 @@
         <v>45213.375</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14171,43 +14171,43 @@
         <v>47</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L154">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="N154">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P154">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
+        <v>1.975</v>
+      </c>
+      <c r="S154">
         <v>1.825</v>
       </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14216,7 +14216,7 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA154">
         <v>-1</v>
@@ -14225,7 +14225,7 @@
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6858805</v>
+        <v>6858806</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,13 +14245,13 @@
         <v>45213.375</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14260,43 +14260,43 @@
         <v>47</v>
       </c>
       <c r="K155">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="N155">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O155">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q155">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
+        <v>1.825</v>
+      </c>
+      <c r="S155">
         <v>1.975</v>
       </c>
-      <c r="S155">
-        <v>1.825</v>
-      </c>
       <c r="T155">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14305,7 +14305,7 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
         <v>-1</v>
@@ -14314,7 +14314,7 @@
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6859101</v>
+        <v>6858807</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,73 +14423,73 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>47</v>
+      </c>
+      <c r="K157">
         <v>2</v>
-      </c>
-      <c r="I157">
-        <v>2</v>
-      </c>
-      <c r="J157" t="s">
-        <v>45</v>
-      </c>
-      <c r="K157">
-        <v>1.727</v>
       </c>
       <c r="L157">
         <v>3.6</v>
       </c>
       <c r="M157">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X157">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6858807</v>
+        <v>6858809</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L158">
         <v>3.6</v>
       </c>
       <c r="M158">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N158">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
         <v>4</v>
       </c>
       <c r="P158">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T158">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>1.55</v>
+      </c>
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
+        <v>1</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>0.925</v>
-      </c>
-      <c r="AC158">
-        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6858809</v>
+        <v>6859101</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,46 +14601,46 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L159">
         <v>3.6</v>
       </c>
       <c r="M159">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N159">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
         <v>2.75</v>
@@ -14655,22 +14655,22 @@
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y159">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14702,7 +14702,7 @@
         <v>4</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>3.2</v>
@@ -14791,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K161">
         <v>2.375</v>
@@ -14969,7 +14969,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.55</v>
@@ -15046,7 +15046,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
         <v>34</v>
@@ -15058,7 +15058,7 @@
         <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>3</v>
@@ -15236,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>1.769</v>
@@ -15313,10 +15313,10 @@
         <v>45227.375</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15325,7 +15325,7 @@
         <v>5</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>2.45</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K168">
         <v>2.375</v>
@@ -15491,7 +15491,7 @@
         <v>45233.625</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6858817</v>
+        <v>6858818</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45234.375</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K170">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L170">
+        <v>3.8</v>
+      </c>
+      <c r="M170">
+        <v>4.5</v>
+      </c>
+      <c r="N170">
+        <v>1.533</v>
+      </c>
+      <c r="O170">
+        <v>4.333</v>
+      </c>
+      <c r="P170">
+        <v>4.75</v>
+      </c>
+      <c r="Q170">
+        <v>-1</v>
+      </c>
+      <c r="R170">
+        <v>1.825</v>
+      </c>
+      <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
+        <v>3.25</v>
+      </c>
+      <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
+        <v>1.9</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
         <v>3.75</v>
       </c>
-      <c r="M170">
-        <v>2.4</v>
-      </c>
-      <c r="N170">
-        <v>2.15</v>
-      </c>
-      <c r="O170">
-        <v>3.8</v>
-      </c>
-      <c r="P170">
-        <v>2.75</v>
-      </c>
-      <c r="Q170">
-        <v>-0.25</v>
-      </c>
-      <c r="R170">
-        <v>1.95</v>
-      </c>
-      <c r="S170">
-        <v>1.85</v>
-      </c>
-      <c r="T170">
-        <v>3</v>
-      </c>
-      <c r="U170">
-        <v>1.75</v>
-      </c>
-      <c r="V170">
-        <v>1.95</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>1.75</v>
-      </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6858815</v>
+        <v>6858817</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45234.375</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>45</v>
       </c>
       <c r="K171">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
+        <v>2.4</v>
+      </c>
+      <c r="N171">
+        <v>2.15</v>
+      </c>
+      <c r="O171">
+        <v>3.8</v>
+      </c>
+      <c r="P171">
+        <v>2.75</v>
+      </c>
+      <c r="Q171">
+        <v>-0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.95</v>
+      </c>
+      <c r="S171">
+        <v>1.85</v>
+      </c>
+      <c r="T171">
         <v>3</v>
       </c>
-      <c r="N171">
-        <v>2.4</v>
-      </c>
-      <c r="O171">
-        <v>3.2</v>
-      </c>
-      <c r="P171">
-        <v>2.7</v>
-      </c>
-      <c r="Q171">
+      <c r="U171">
+        <v>1.75</v>
+      </c>
+      <c r="V171">
+        <v>1.95</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>1.75</v>
+      </c>
+      <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB171">
         <v>0</v>
       </c>
-      <c r="R171">
-        <v>1.775</v>
-      </c>
-      <c r="S171">
-        <v>2.025</v>
-      </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.975</v>
-      </c>
-      <c r="V171">
-        <v>1.825</v>
-      </c>
-      <c r="W171">
-        <v>-1</v>
-      </c>
-      <c r="X171">
-        <v>2.2</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
+      <c r="AC171">
         <v>-0</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
-      <c r="AC171">
-        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6858818</v>
+        <v>6858815</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45234.375</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>46</v>
       </c>
       <c r="K172">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N172">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="O172">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R172">
+        <v>1.775</v>
+      </c>
+      <c r="S172">
+        <v>2.025</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
+        <v>1.975</v>
+      </c>
+      <c r="V172">
         <v>1.825</v>
       </c>
-      <c r="S172">
-        <v>1.975</v>
-      </c>
-      <c r="T172">
-        <v>3.25</v>
-      </c>
-      <c r="U172">
-        <v>1.9</v>
-      </c>
-      <c r="V172">
-        <v>1.9</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y172">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K173">
         <v>2.875</v>
@@ -15948,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K174">
         <v>3.1</v>
@@ -16203,7 +16203,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16304,7 +16304,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>2.55</v>
@@ -16384,7 +16384,7 @@
         <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K179">
         <v>1.571</v>
@@ -16473,7 +16473,7 @@
         <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6859093</v>
+        <v>6858828</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,76 +16559,76 @@
         <v>45248.375</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K181">
+        <v>4</v>
+      </c>
+      <c r="L181">
+        <v>3.8</v>
+      </c>
+      <c r="M181">
+        <v>1.727</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181">
+        <v>3.75</v>
+      </c>
+      <c r="P181">
+        <v>1.75</v>
+      </c>
+      <c r="Q181">
+        <v>0.75</v>
+      </c>
+      <c r="R181">
+        <v>1.825</v>
+      </c>
+      <c r="S181">
+        <v>1.975</v>
+      </c>
+      <c r="T181">
         <v>2.75</v>
       </c>
-      <c r="L181">
-        <v>3.4</v>
-      </c>
-      <c r="M181">
-        <v>2.25</v>
-      </c>
-      <c r="N181">
-        <v>2.6</v>
-      </c>
-      <c r="O181">
-        <v>3.4</v>
-      </c>
-      <c r="P181">
-        <v>2.375</v>
-      </c>
-      <c r="Q181">
-        <v>0</v>
-      </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
-        <v>1.8</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z181">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC181">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16660,7 +16660,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K182">
         <v>2.3</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6858826</v>
+        <v>6859093</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45248.375</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
         <v>0</v>
       </c>
-      <c r="I183">
-        <v>3</v>
-      </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
+        <v>2.25</v>
+      </c>
+      <c r="N183">
+        <v>2.6</v>
+      </c>
+      <c r="O183">
+        <v>3.4</v>
+      </c>
+      <c r="P183">
+        <v>2.375</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
         <v>2</v>
       </c>
-      <c r="N183">
-        <v>2.875</v>
-      </c>
-      <c r="O183">
-        <v>3.5</v>
-      </c>
-      <c r="P183">
-        <v>2.15</v>
-      </c>
-      <c r="Q183">
-        <v>0.25</v>
-      </c>
-      <c r="R183">
+      <c r="S183">
+        <v>1.8</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.925</v>
+      </c>
+      <c r="V183">
         <v>1.875</v>
       </c>
-      <c r="S183">
-        <v>1.925</v>
-      </c>
-      <c r="T183">
-        <v>3</v>
-      </c>
-      <c r="U183">
-        <v>1.875</v>
-      </c>
-      <c r="V183">
-        <v>1.925</v>
-      </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6858825</v>
+        <v>6859092</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,58 +16826,58 @@
         <v>45248.375</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>47</v>
       </c>
       <c r="K184">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L184">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="N184">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O184">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
+        <v>2.75</v>
+      </c>
+      <c r="U184">
+        <v>1.75</v>
+      </c>
+      <c r="V184">
         <v>1.95</v>
       </c>
-      <c r="T184">
-        <v>3.5</v>
-      </c>
-      <c r="U184">
-        <v>1.95</v>
-      </c>
-      <c r="V184">
-        <v>1.85</v>
-      </c>
       <c r="W184">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16886,16 +16886,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6858828</v>
+        <v>6858825</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,76 +16915,76 @@
         <v>45248.375</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I185">
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="L185">
         <v>3.8</v>
       </c>
       <c r="M185">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="N185">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P185">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q185">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA185">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6859092</v>
+        <v>6858826</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17007,73 +17007,73 @@
         <v>42</v>
       </c>
       <c r="G186" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L186">
         <v>3.6</v>
       </c>
       <c r="M186">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P186">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U186">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z186">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB186">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -103,10 +103,10 @@
     <t>Denmark Division 3</t>
   </si>
   <si>
-    <t>IF Lyseng</t>
+    <t>Vanlse</t>
   </si>
   <si>
-    <t>Vanlse</t>
+    <t>IF Lyseng</t>
   </si>
   <si>
     <t>Oure FA</t>
@@ -133,16 +133,16 @@
     <t>AB Trnby</t>
   </si>
   <si>
+    <t>VSK Arhus</t>
+  </si>
+  <si>
     <t>Holstebro</t>
   </si>
   <si>
-    <t>VSK Arhus</t>
+    <t>Holbk</t>
   </si>
   <si>
     <t>Vejgaard B</t>
-  </si>
-  <si>
-    <t>Holbk</t>
   </si>
   <si>
     <t>Frem</t>
@@ -151,10 +151,10 @@
     <t>Avarta</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6526656</v>
+        <v>6528867</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,10 +631,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -643,61 +643,61 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6528867</v>
+        <v>6526656</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,10 +720,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -732,61 +732,61 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
         <v>3.6</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N3">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>2.4</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>2.1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>1.071</v>
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>3.6</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>17</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>2.3</v>
@@ -1518,7 +1518,7 @@
         <v>45087.5</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>1.4</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6528884</v>
+        <v>6528871</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,13 +1696,13 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1711,58 +1711,58 @@
         <v>46</v>
       </c>
       <c r="K14">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Q14">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1788,7 +1788,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>1.45</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>1.142</v>
@@ -1963,7 +1963,7 @@
         <v>45094.375</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2052,7 +2052,7 @@
         <v>45094.375</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>1.571</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6528871</v>
+        <v>6528884</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,13 +2141,13 @@
         <v>45094.375</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -2156,58 +2156,58 @@
         <v>45</v>
       </c>
       <c r="K19">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M19">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N19">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q19">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2230,10 +2230,10 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2319,7 +2319,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -2408,7 +2408,7 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>44</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>1.666</v>
@@ -2497,7 +2497,7 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>2.3</v>
@@ -2678,7 +2678,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6859120</v>
+        <v>6859121</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,73 +2767,73 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>46</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="N26">
+        <v>4.2</v>
+      </c>
+      <c r="O26">
+        <v>3.8</v>
+      </c>
+      <c r="P26">
+        <v>1.666</v>
+      </c>
+      <c r="Q26">
+        <v>0.75</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.8</v>
+      </c>
+      <c r="V26">
         <v>2</v>
       </c>
-      <c r="O26">
-        <v>3.6</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="Q26">
-        <v>-0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.8</v>
-      </c>
-      <c r="S26">
-        <v>2</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6858539</v>
+        <v>6859120</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,49 +2853,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
+        <v>2.25</v>
+      </c>
+      <c r="L27">
+        <v>3.5</v>
+      </c>
+      <c r="M27">
+        <v>2.6</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>3.6</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>3</v>
       </c>
-      <c r="N27">
-        <v>1.909</v>
-      </c>
-      <c r="O27">
-        <v>3.75</v>
-      </c>
-      <c r="P27">
-        <v>3.2</v>
-      </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <v>1.825</v>
@@ -2904,19 +2904,19 @@
         <v>1.975</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6859121</v>
+        <v>6858539</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>3.6</v>
+      </c>
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="J28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>1.5</v>
-      </c>
       <c r="N28">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>1.85</v>
+      </c>
+      <c r="T28">
+        <v>3.25</v>
+      </c>
+      <c r="U28">
+        <v>1.825</v>
+      </c>
+      <c r="V28">
         <v>1.975</v>
       </c>
-      <c r="S28">
-        <v>1.825</v>
-      </c>
-      <c r="T28">
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>2.75</v>
       </c>
-      <c r="U28">
-        <v>1.8</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
       <c r="Y28">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB28">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>2.4</v>
@@ -3123,7 +3123,7 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>1.9</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.333</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6859118</v>
+        <v>6858768</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L32">
+        <v>3.8</v>
+      </c>
+      <c r="M32">
+        <v>1.65</v>
+      </c>
+      <c r="N32">
         <v>4.5</v>
       </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
-      <c r="N32">
-        <v>1.45</v>
-      </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6858768</v>
+        <v>6859118</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,76 +3387,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N33">
+        <v>1.45</v>
+      </c>
+      <c r="O33">
         <v>4.5</v>
       </c>
-      <c r="O33">
-        <v>4</v>
-      </c>
       <c r="P33">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y33">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6858769</v>
+        <v>6858770</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
+        <v>2.25</v>
+      </c>
+      <c r="L34">
+        <v>3.6</v>
+      </c>
+      <c r="M34">
         <v>2.7</v>
       </c>
-      <c r="L34">
+      <c r="N34">
+        <v>2.3</v>
+      </c>
+      <c r="O34">
         <v>3.5</v>
       </c>
-      <c r="M34">
-        <v>2.25</v>
-      </c>
-      <c r="N34">
-        <v>3.25</v>
-      </c>
-      <c r="O34">
-        <v>3.75</v>
-      </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R34">
+        <v>1.775</v>
+      </c>
+      <c r="S34">
+        <v>2.025</v>
+      </c>
+      <c r="T34">
+        <v>2.75</v>
+      </c>
+      <c r="U34">
         <v>1.8</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>2</v>
       </c>
-      <c r="T34">
-        <v>3.25</v>
-      </c>
-      <c r="U34">
-        <v>1.875</v>
-      </c>
-      <c r="V34">
-        <v>1.925</v>
-      </c>
       <c r="W34">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858770</v>
+        <v>6858769</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K35">
+        <v>2.7</v>
+      </c>
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
         <v>2.25</v>
       </c>
-      <c r="L35">
-        <v>3.6</v>
-      </c>
-      <c r="M35">
-        <v>2.7</v>
-      </c>
       <c r="N35">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>45157.35416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -3666,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>1.285</v>
@@ -3835,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3921,10 +3921,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>4.333</v>
@@ -4013,7 +4013,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4022,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>1.714</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6858775</v>
+        <v>6858774</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45164.375</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>46</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O41">
         <v>3.8</v>
       </c>
       <c r="P41">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z41">
+        <v>-0.5</v>
+      </c>
+      <c r="AA41">
+        <v>0.425</v>
+      </c>
+      <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6858774</v>
+        <v>6858775</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45164.375</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
         <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>45</v>
       </c>
       <c r="K42">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N42">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
         <v>3.8</v>
       </c>
       <c r="P42">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q42">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4280,7 +4280,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>1.714</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6859115</v>
+        <v>6858777</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,67 +4366,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N44">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X44">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4435,7 +4435,7 @@
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6858777</v>
+        <v>6859115</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,67 +4455,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N45">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
         <v>-1</v>
@@ -4524,7 +4524,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>45171.35416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>1.85</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>2.3</v>
@@ -4725,7 +4725,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4734,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>1.85</v>
@@ -4811,10 +4811,10 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>2.4</v>
@@ -4992,7 +4992,7 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6859113</v>
+        <v>6858784</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,34 +5078,34 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
+        <v>1.65</v>
+      </c>
+      <c r="L52">
+        <v>3.75</v>
+      </c>
+      <c r="M52">
+        <v>4.333</v>
+      </c>
+      <c r="N52">
         <v>1.571</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>3.8</v>
-      </c>
-      <c r="M52">
-        <v>4.5</v>
-      </c>
-      <c r="N52">
-        <v>1.533</v>
-      </c>
-      <c r="O52">
-        <v>4</v>
       </c>
       <c r="P52">
         <v>4.75</v>
@@ -5114,13 +5114,13 @@
         <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,7 +5129,7 @@
         <v>1.9</v>
       </c>
       <c r="W52">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5138,16 +5138,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6858784</v>
+        <v>6859113</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,34 +5167,34 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
         <v>41</v>
       </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L53">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M53">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N53">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O53">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P53">
         <v>4.75</v>
@@ -5203,13 +5203,13 @@
         <v>-1</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U53">
         <v>1.9</v>
@@ -5218,7 +5218,7 @@
         <v>1.9</v>
       </c>
       <c r="W53">
-        <v>0.571</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,16 +5227,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,10 +5256,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
         <v>29</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5268,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>3.25</v>
@@ -5348,7 +5348,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>4.333</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6858785</v>
+        <v>6859111</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L56">
+        <v>3.5</v>
+      </c>
+      <c r="M56">
+        <v>2.7</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
         <v>3.6</v>
       </c>
-      <c r="M56">
-        <v>3.4</v>
-      </c>
-      <c r="N56">
+      <c r="P56">
+        <v>2.8</v>
+      </c>
+      <c r="Q56">
+        <v>-0.25</v>
+      </c>
+      <c r="R56">
+        <v>1.95</v>
+      </c>
+      <c r="S56">
         <v>1.85</v>
       </c>
-      <c r="O56">
-        <v>3.75</v>
-      </c>
-      <c r="P56">
-        <v>3.4</v>
-      </c>
-      <c r="Q56">
+      <c r="T56">
+        <v>2.75</v>
+      </c>
+      <c r="U56">
+        <v>1.975</v>
+      </c>
+      <c r="V56">
+        <v>1.825</v>
+      </c>
+      <c r="W56">
+        <v>1.15</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
+        <v>-1</v>
+      </c>
+      <c r="Z56">
+        <v>0.95</v>
+      </c>
+      <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>0.4875</v>
+      </c>
+      <c r="AC56">
         <v>-0.5</v>
-      </c>
-      <c r="R56">
-        <v>1.925</v>
-      </c>
-      <c r="S56">
-        <v>1.875</v>
-      </c>
-      <c r="T56">
-        <v>3</v>
-      </c>
-      <c r="U56">
-        <v>1.8</v>
-      </c>
-      <c r="V56">
-        <v>2</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>2.75</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>-1</v>
-      </c>
-      <c r="AA56">
-        <v>0.875</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6859111</v>
+        <v>6858785</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s">
         <v>42</v>
       </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
       <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57">
+        <v>1.909</v>
+      </c>
+      <c r="L57">
+        <v>3.6</v>
+      </c>
+      <c r="M57">
+        <v>3.4</v>
+      </c>
+      <c r="N57">
+        <v>1.85</v>
+      </c>
+      <c r="O57">
+        <v>3.75</v>
+      </c>
+      <c r="P57">
+        <v>3.4</v>
+      </c>
+      <c r="Q57">
+        <v>-0.5</v>
+      </c>
+      <c r="R57">
+        <v>1.925</v>
+      </c>
+      <c r="S57">
+        <v>1.875</v>
+      </c>
+      <c r="T57">
         <v>3</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>46</v>
-      </c>
-      <c r="K57">
-        <v>2.3</v>
-      </c>
-      <c r="L57">
-        <v>3.5</v>
-      </c>
-      <c r="M57">
-        <v>2.7</v>
-      </c>
-      <c r="N57">
-        <v>2.15</v>
-      </c>
-      <c r="O57">
-        <v>3.6</v>
-      </c>
-      <c r="P57">
-        <v>2.8</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.95</v>
-      </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
-      <c r="T57">
+      <c r="U57">
+        <v>1.8</v>
+      </c>
+      <c r="V57">
+        <v>2</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
         <v>2.75</v>
       </c>
-      <c r="U57">
-        <v>1.975</v>
-      </c>
-      <c r="V57">
-        <v>1.825</v>
-      </c>
-      <c r="W57">
-        <v>1.15</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>45185.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858790</v>
+        <v>6858789</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45185.375</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z59">
         <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AB59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858789</v>
+        <v>6858790</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45185.375</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="L60">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="N60">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
         <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y60">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
         <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>1.5</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6859109</v>
+        <v>6858791</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L62">
         <v>3.6</v>
       </c>
       <c r="M62">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N62">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6858792</v>
+        <v>6859109</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L63">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6858791</v>
+        <v>6858792</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,49 +6146,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N64">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P64">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R64">
+        <v>1.925</v>
+      </c>
+      <c r="S64">
         <v>1.875</v>
       </c>
-      <c r="S64">
-        <v>1.925</v>
-      </c>
       <c r="T64">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U64">
         <v>1.875</v>
@@ -6200,16 +6200,16 @@
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
         <v>0.875</v>
@@ -6235,7 +6235,7 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.769</v>
@@ -6324,10 +6324,10 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6336,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>3.5</v>
@@ -6416,7 +6416,7 @@
         <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>1.615</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6859107</v>
+        <v>6858795</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L68">
         <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N68">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
         <v>1.8</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>2</v>
       </c>
-      <c r="T68">
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
         <v>2.75</v>
       </c>
-      <c r="U68">
-        <v>1.875</v>
-      </c>
-      <c r="V68">
-        <v>1.925</v>
-      </c>
-      <c r="W68">
-        <v>2.3</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6858795</v>
+        <v>6859107</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6591,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
         <v>3.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N69">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
+        <v>1.8</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
         <v>1.875</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.925</v>
       </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.8</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70">
         <v>1.65</v>
@@ -6772,7 +6772,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>3.1</v>
@@ -6870,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>2.6</v>
@@ -6959,7 +6959,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>1.9</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6859105</v>
+        <v>6858799</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,40 +7036,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
         <v>1.975</v>
@@ -7078,22 +7078,22 @@
         <v>1.825</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7102,10 +7102,10 @@
         <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6858799</v>
+        <v>6859105</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,40 +7125,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
         <v>1.975</v>
@@ -7167,22 +7167,22 @@
         <v>1.825</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
@@ -7191,10 +7191,10 @@
         <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>2.3</v>
@@ -7306,7 +7306,7 @@
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
         <v>31</v>
@@ -7481,10 +7481,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7582,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>1.7</v>
@@ -7659,7 +7659,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
         <v>33</v>
@@ -7671,7 +7671,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
         <v>2.7</v>
@@ -7748,10 +7748,10 @@
         <v>45213.35416666666</v>
       </c>
       <c r="F82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="s">
         <v>40</v>
-      </c>
-      <c r="G82" t="s">
-        <v>39</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>1.4</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6858806</v>
+        <v>6858805</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45213.375</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
         <v>1.825</v>
       </c>
-      <c r="S83">
-        <v>1.975</v>
-      </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,7 +7897,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7906,7 +7906,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6858805</v>
+        <v>6858806</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45213.375</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="N84">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>1.975</v>
       </c>
-      <c r="S84">
-        <v>1.825</v>
-      </c>
       <c r="T84">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,7 +7986,7 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -7995,7 +7995,7 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>2.2</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6859101</v>
+        <v>6858809</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,46 +8104,46 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N86">
+        <v>2.2</v>
+      </c>
+      <c r="O86">
+        <v>4</v>
+      </c>
+      <c r="P86">
+        <v>2.55</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
         <v>1.8</v>
       </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>4.2</v>
-      </c>
-      <c r="Q86">
-        <v>-0.5</v>
-      </c>
-      <c r="R86">
-        <v>1.75</v>
-      </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.75</v>
@@ -8158,22 +8158,22 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6858809</v>
+        <v>6859101</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,46 +8193,46 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
         <v>2.75</v>
@@ -8247,22 +8247,22 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -8371,7 +8371,7 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
         <v>44</v>
@@ -8463,7 +8463,7 @@
         <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8472,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K90">
         <v>3.2</v>
@@ -8561,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>2.8</v>
@@ -8641,7 +8641,7 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>1.55</v>
@@ -8727,7 +8727,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8739,7 +8739,7 @@
         <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8816,10 +8816,10 @@
         <v>45227.35416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>1.571</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858814</v>
+        <v>6858813</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45227.375</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.45</v>
+        <v>1.769</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y95">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858813</v>
+        <v>6858814</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45227.375</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96" t="s">
+        <v>46</v>
+      </c>
+      <c r="K96">
+        <v>2.45</v>
+      </c>
+      <c r="L96">
+        <v>3.75</v>
+      </c>
+      <c r="M96">
+        <v>2.375</v>
+      </c>
+      <c r="N96">
+        <v>2.45</v>
+      </c>
+      <c r="O96">
+        <v>3.75</v>
+      </c>
+      <c r="P96">
+        <v>2.375</v>
+      </c>
+      <c r="Q96">
         <v>0</v>
       </c>
-      <c r="J96" t="s">
-        <v>47</v>
-      </c>
-      <c r="K96">
-        <v>1.769</v>
-      </c>
-      <c r="L96">
-        <v>3.6</v>
-      </c>
-      <c r="M96">
-        <v>4</v>
-      </c>
-      <c r="N96">
-        <v>1.65</v>
-      </c>
-      <c r="O96">
-        <v>3.8</v>
-      </c>
-      <c r="P96">
-        <v>4.5</v>
-      </c>
-      <c r="Q96">
-        <v>-0.75</v>
-      </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>45233.625</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>2.9</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6858815</v>
+        <v>6858818</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,73 +9264,73 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P99">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6858818</v>
+        <v>6858815</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,73 +9353,73 @@
         <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>47</v>
+      </c>
+      <c r="K100">
+        <v>2.1</v>
+      </c>
+      <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>2.4</v>
+      </c>
+      <c r="O100">
+        <v>3.2</v>
+      </c>
+      <c r="P100">
+        <v>2.7</v>
+      </c>
+      <c r="Q100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
-      <c r="J100" t="s">
-        <v>45</v>
-      </c>
-      <c r="K100">
-        <v>1.65</v>
-      </c>
-      <c r="L100">
-        <v>3.8</v>
-      </c>
-      <c r="M100">
-        <v>4.5</v>
-      </c>
-      <c r="N100">
-        <v>1.533</v>
-      </c>
-      <c r="O100">
-        <v>4.333</v>
-      </c>
-      <c r="P100">
-        <v>4.75</v>
-      </c>
-      <c r="Q100">
-        <v>-1</v>
-      </c>
       <c r="R100">
+        <v>1.775</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>3.25</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y100">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9439,7 +9439,7 @@
         <v>45234.375</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9451,7 +9451,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>2.45</v>
@@ -9528,7 +9528,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9540,7 +9540,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>2.875</v>
@@ -9620,7 +9620,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9706,10 +9706,10 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>1.6</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6858823</v>
+        <v>6859096</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,40 +9795,40 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N105">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R105">
         <v>1.95</v>
@@ -9837,34 +9837,34 @@
         <v>1.85</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9896,7 +9896,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>2.55</v>
@@ -9976,7 +9976,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -9985,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>1.666</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6859096</v>
+        <v>6858823</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,40 +10062,40 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>45</v>
+      </c>
+      <c r="K108">
+        <v>2.45</v>
+      </c>
+      <c r="L108">
+        <v>3.75</v>
+      </c>
+      <c r="M108">
+        <v>2.375</v>
+      </c>
+      <c r="N108">
+        <v>2.45</v>
+      </c>
+      <c r="O108">
+        <v>3.75</v>
+      </c>
+      <c r="P108">
+        <v>2.375</v>
+      </c>
+      <c r="Q108">
         <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
-        <v>47</v>
-      </c>
-      <c r="K108">
-        <v>1.571</v>
-      </c>
-      <c r="L108">
-        <v>4</v>
-      </c>
-      <c r="M108">
-        <v>4.75</v>
-      </c>
-      <c r="N108">
-        <v>1.571</v>
-      </c>
-      <c r="O108">
-        <v>4</v>
-      </c>
-      <c r="P108">
-        <v>4.75</v>
-      </c>
-      <c r="Q108">
-        <v>-1</v>
       </c>
       <c r="R108">
         <v>1.95</v>
@@ -10104,34 +10104,34 @@
         <v>1.85</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X108">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>2.45</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6858828</v>
+        <v>6859093</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45248.375</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>45</v>
       </c>
       <c r="K110">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="N110">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>45248.375</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
         <v>43</v>
@@ -10341,7 +10341,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
         <v>3.1</v>
@@ -10421,7 +10421,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -10430,7 +10430,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>1.65</v>
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858827</v>
+        <v>6859092</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,13 +10507,13 @@
         <v>45248.375</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -10522,61 +10522,61 @@
         <v>45</v>
       </c>
       <c r="K113">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6859093</v>
+        <v>6858828</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45248.375</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
         <v>46</v>
       </c>
       <c r="K114">
+        <v>4</v>
+      </c>
+      <c r="L114">
+        <v>3.8</v>
+      </c>
+      <c r="M114">
+        <v>1.727</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114">
+        <v>3.75</v>
+      </c>
+      <c r="P114">
+        <v>1.75</v>
+      </c>
+      <c r="Q114">
+        <v>0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.825</v>
+      </c>
+      <c r="S114">
+        <v>1.975</v>
+      </c>
+      <c r="T114">
         <v>2.75</v>
       </c>
-      <c r="L114">
-        <v>3.4</v>
-      </c>
-      <c r="M114">
-        <v>2.25</v>
-      </c>
-      <c r="N114">
-        <v>2.6</v>
-      </c>
-      <c r="O114">
-        <v>3.4</v>
-      </c>
-      <c r="P114">
-        <v>2.375</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>2</v>
-      </c>
-      <c r="S114">
-        <v>1.8</v>
-      </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z114">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6859092</v>
+        <v>6858827</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,13 +10685,13 @@
         <v>45248.375</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -10700,61 +10700,61 @@
         <v>46</v>
       </c>
       <c r="K115">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -133,16 +133,16 @@
     <t>AB Trnby</t>
   </si>
   <si>
+    <t>Holstebro</t>
+  </si>
+  <si>
     <t>VSK Arhus</t>
   </si>
   <si>
-    <t>Holstebro</t>
+    <t>Vejgaard B</t>
   </si>
   <si>
     <t>Holbk</t>
-  </si>
-  <si>
-    <t>Vejgaard B</t>
   </si>
   <si>
     <t>Frem</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6528871</v>
+        <v>6526519</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,70 +1699,70 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M14">
+        <v>4.333</v>
+      </c>
+      <c r="N14">
+        <v>1.5</v>
+      </c>
+      <c r="O14">
         <v>4.5</v>
       </c>
-      <c r="N14">
-        <v>1.3</v>
-      </c>
-      <c r="O14">
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6528870</v>
+        <v>6526660</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15">
-        <v>1.45</v>
-      </c>
-      <c r="L15">
-        <v>4.5</v>
-      </c>
-      <c r="M15">
-        <v>5.25</v>
-      </c>
       <c r="N15">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q15">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T15">
         <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W15">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6526660</v>
+        <v>6528871</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,55 +1963,55 @@
         <v>45094.375</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>-1.75</v>
+      </c>
+      <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
         <v>1.85</v>
       </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>2.1</v>
-      </c>
-      <c r="S17">
-        <v>1.7</v>
-      </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U17">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2020,19 +2020,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
+        <v>6</v>
+      </c>
+      <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z17">
-        <v>-1</v>
-      </c>
-      <c r="AA17">
-        <v>0.7</v>
-      </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6526519</v>
+        <v>6528870</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,58 +2052,58 @@
         <v>45094.375</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L18">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M18">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N18">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
         <v>3.25</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2112,16 +2112,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2230,10 +2230,10 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6859123</v>
+        <v>6858502</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L22">
         <v>3.75</v>
       </c>
       <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>4</v>
       </c>
-      <c r="N22">
+      <c r="P22">
+        <v>1.75</v>
+      </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
+        <v>1.825</v>
+      </c>
+      <c r="T22">
+        <v>3.25</v>
+      </c>
+      <c r="U22">
         <v>1.85</v>
       </c>
-      <c r="O22">
-        <v>3.8</v>
-      </c>
-      <c r="P22">
-        <v>3.25</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.9</v>
-      </c>
-      <c r="S22">
-        <v>1.9</v>
-      </c>
-      <c r="T22">
+      <c r="V22">
+        <v>1.95</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>3</v>
       </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6858502</v>
+        <v>6859123</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L23">
         <v>3.75</v>
       </c>
       <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>1.85</v>
+      </c>
+      <c r="O23">
+        <v>3.8</v>
+      </c>
+      <c r="P23">
+        <v>3.25</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
+        <v>1.9</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1.8</v>
+      </c>
+      <c r="V23">
         <v>2</v>
       </c>
-      <c r="N23">
-        <v>3.4</v>
-      </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
-      <c r="P23">
-        <v>1.75</v>
-      </c>
-      <c r="Q23">
-        <v>0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
-      <c r="S23">
-        <v>1.825</v>
-      </c>
-      <c r="T23">
-        <v>3.25</v>
-      </c>
-      <c r="U23">
-        <v>1.85</v>
-      </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6859121</v>
+        <v>6859120</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,73 +2767,73 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>2.25</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>2.6</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>3.6</v>
+      </c>
+      <c r="P26">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>1.5</v>
-      </c>
-      <c r="N26">
-        <v>4.2</v>
-      </c>
-      <c r="O26">
-        <v>3.8</v>
-      </c>
-      <c r="P26">
-        <v>1.666</v>
-      </c>
       <c r="Q26">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
+        <v>1.8</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>1.825</v>
+      </c>
+      <c r="V26">
         <v>1.975</v>
       </c>
-      <c r="S26">
-        <v>1.825</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6859120</v>
+        <v>6859121</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,73 +2856,73 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>1.5</v>
+      </c>
+      <c r="N27">
+        <v>4.2</v>
+      </c>
+      <c r="O27">
+        <v>3.8</v>
+      </c>
+      <c r="P27">
+        <v>1.666</v>
+      </c>
+      <c r="Q27">
+        <v>0.75</v>
+      </c>
+      <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
+        <v>1.825</v>
+      </c>
+      <c r="T27">
+        <v>2.75</v>
+      </c>
+      <c r="U27">
+        <v>1.8</v>
+      </c>
+      <c r="V27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27">
-        <v>2.25</v>
-      </c>
-      <c r="L27">
-        <v>3.5</v>
-      </c>
-      <c r="M27">
-        <v>2.6</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>3.6</v>
-      </c>
-      <c r="P27">
-        <v>3</v>
-      </c>
-      <c r="Q27">
-        <v>-0.25</v>
-      </c>
-      <c r="R27">
-        <v>1.8</v>
-      </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>1.825</v>
-      </c>
-      <c r="V27">
-        <v>1.975</v>
-      </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -3390,7 +3390,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6858770</v>
+        <v>6858769</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
+        <v>2.7</v>
+      </c>
+      <c r="L34">
+        <v>3.5</v>
+      </c>
+      <c r="M34">
         <v>2.25</v>
       </c>
-      <c r="L34">
-        <v>3.6</v>
-      </c>
-      <c r="M34">
-        <v>2.7</v>
-      </c>
       <c r="N34">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P34">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X34">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858769</v>
+        <v>6858770</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35">
+        <v>2.25</v>
+      </c>
+      <c r="L35">
+        <v>3.6</v>
+      </c>
+      <c r="M35">
         <v>2.7</v>
       </c>
-      <c r="L35">
+      <c r="N35">
+        <v>2.3</v>
+      </c>
+      <c r="O35">
         <v>3.5</v>
       </c>
-      <c r="M35">
-        <v>2.25</v>
-      </c>
-      <c r="N35">
-        <v>3.25</v>
-      </c>
-      <c r="O35">
-        <v>3.75</v>
-      </c>
       <c r="P35">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R35">
+        <v>1.775</v>
+      </c>
+      <c r="S35">
+        <v>2.025</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
         <v>1.8</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>2</v>
       </c>
-      <c r="T35">
-        <v>3.25</v>
-      </c>
-      <c r="U35">
-        <v>1.875</v>
-      </c>
-      <c r="V35">
-        <v>1.925</v>
-      </c>
       <c r="W35">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>45157.35416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -3835,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6858772</v>
+        <v>6858773</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,58 +3921,58 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>45</v>
       </c>
       <c r="K39">
-        <v>4.333</v>
+        <v>1.714</v>
       </c>
       <c r="L39">
         <v>3.8</v>
       </c>
       <c r="M39">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="N39">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3981,16 +3981,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6858773</v>
+        <v>6858772</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,59 +4010,59 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>40</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>1.714</v>
+        <v>4.333</v>
       </c>
       <c r="L40">
         <v>3.8</v>
       </c>
       <c r="M40">
-        <v>3.8</v>
+        <v>1.65</v>
       </c>
       <c r="N40">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="O40">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
+        <v>2.75</v>
+      </c>
+      <c r="U40">
+        <v>1.8</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
         <v>3.5</v>
       </c>
-      <c r="U40">
-        <v>1.95</v>
-      </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
-      <c r="W40">
-        <v>0.5</v>
-      </c>
       <c r="X40">
         <v>-1</v>
       </c>
@@ -4070,16 +4070,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4455,7 +4455,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4544,7 +4544,7 @@
         <v>45171.35416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4725,7 +4725,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4992,7 +4992,7 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6858784</v>
+        <v>6859113</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,13 +5078,13 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
         <v>42</v>
       </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -5093,19 +5093,19 @@
         <v>45</v>
       </c>
       <c r="K52">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M52">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N52">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O52">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P52">
         <v>4.75</v>
@@ -5114,13 +5114,13 @@
         <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,7 +5129,7 @@
         <v>1.9</v>
       </c>
       <c r="W52">
-        <v>0.571</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5138,16 +5138,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6859113</v>
+        <v>6858783</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,58 +5167,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
         <v>2</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L53">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M53">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N53">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>0.5329999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,16 +5227,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6858783</v>
+        <v>6858784</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,58 +5256,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="L54">
         <v>3.75</v>
       </c>
       <c r="M54">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="N54">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P54">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
-        <v>2.2</v>
+        <v>0.571</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,13 +5316,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5348,7 +5348,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5434,10 +5434,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5526,7 +5526,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5612,7 +5612,7 @@
         <v>45185.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858789</v>
+        <v>6859110</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,55 +5701,55 @@
         <v>45185.375</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>46</v>
       </c>
       <c r="K59">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M59">
-        <v>1.666</v>
+        <v>5.25</v>
       </c>
       <c r="N59">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P59">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q59">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5758,19 +5758,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6859110</v>
+        <v>6858789</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,55 +5879,55 @@
         <v>45185.375</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M61">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="N61">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5936,19 +5936,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6858791</v>
+        <v>6858792</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,49 +5968,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M62">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N62">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
+        <v>1.925</v>
+      </c>
+      <c r="S62">
         <v>1.875</v>
       </c>
-      <c r="S62">
-        <v>1.925</v>
-      </c>
       <c r="T62">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U62">
         <v>1.875</v>
@@ -6022,16 +6022,16 @@
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
         <v>0.875</v>
@@ -6057,7 +6057,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
         <v>44</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6858792</v>
+        <v>6858791</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,49 +6146,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="L64">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O64">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q64">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
+        <v>1.875</v>
+      </c>
+      <c r="S64">
         <v>1.925</v>
       </c>
-      <c r="S64">
-        <v>1.875</v>
-      </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U64">
         <v>1.875</v>
@@ -6200,16 +6200,16 @@
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
         <v>0.875</v>
@@ -6235,7 +6235,7 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6324,7 +6324,7 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
@@ -6416,7 +6416,7 @@
         <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6858795</v>
+        <v>6859107</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K68">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L68">
         <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N68">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
+        <v>1.8</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
         <v>1.875</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.925</v>
       </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.8</v>
-      </c>
-      <c r="V68">
-        <v>2</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6859107</v>
+        <v>6858795</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6591,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K69">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L69">
         <v>3.5</v>
       </c>
       <c r="M69">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N69">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P69">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
+        <v>1.875</v>
+      </c>
+      <c r="S69">
+        <v>1.925</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
         <v>1.8</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>2</v>
       </c>
-      <c r="T69">
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
         <v>2.75</v>
       </c>
-      <c r="U69">
-        <v>1.875</v>
-      </c>
-      <c r="V69">
-        <v>1.925</v>
-      </c>
-      <c r="W69">
-        <v>2.3</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6858796</v>
+        <v>6858797</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45199.375</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="I70">
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70">
+        <v>3.1</v>
+      </c>
+      <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
+        <v>2.05</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70">
+        <v>3.6</v>
+      </c>
+      <c r="P70">
+        <v>2.1</v>
+      </c>
+      <c r="Q70">
+        <v>0.25</v>
+      </c>
+      <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>1.85</v>
+      </c>
+      <c r="T70">
+        <v>3.5</v>
+      </c>
+      <c r="U70">
+        <v>1.925</v>
+      </c>
+      <c r="V70">
+        <v>1.775</v>
+      </c>
+      <c r="W70">
         <v>2</v>
       </c>
-      <c r="J70" t="s">
-        <v>46</v>
-      </c>
-      <c r="K70">
-        <v>1.65</v>
-      </c>
-      <c r="L70">
-        <v>3.75</v>
-      </c>
-      <c r="M70">
-        <v>4.2</v>
-      </c>
-      <c r="N70">
-        <v>1.65</v>
-      </c>
-      <c r="O70">
-        <v>4</v>
-      </c>
-      <c r="P70">
-        <v>4.333</v>
-      </c>
-      <c r="Q70">
-        <v>-0.75</v>
-      </c>
-      <c r="R70">
-        <v>1.8</v>
-      </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
-      <c r="T70">
-        <v>3.25</v>
-      </c>
-      <c r="U70">
-        <v>1.9</v>
-      </c>
-      <c r="V70">
-        <v>1.9</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858797</v>
+        <v>6858796</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45199.375</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71">
+        <v>1.65</v>
+      </c>
+      <c r="L71">
+        <v>3.75</v>
+      </c>
+      <c r="M71">
+        <v>4.2</v>
+      </c>
+      <c r="N71">
+        <v>1.65</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
+      </c>
+      <c r="P71">
+        <v>4.333</v>
+      </c>
+      <c r="Q71">
+        <v>-0.75</v>
+      </c>
+      <c r="R71">
+        <v>1.8</v>
+      </c>
+      <c r="S71">
+        <v>2</v>
+      </c>
+      <c r="T71">
+        <v>3.25</v>
+      </c>
+      <c r="U71">
+        <v>1.9</v>
+      </c>
+      <c r="V71">
+        <v>1.9</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
+        <v>3.333</v>
+      </c>
+      <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
         <v>1</v>
       </c>
-      <c r="J71" t="s">
-        <v>45</v>
-      </c>
-      <c r="K71">
-        <v>3.1</v>
-      </c>
-      <c r="L71">
-        <v>3.6</v>
-      </c>
-      <c r="M71">
-        <v>2.05</v>
-      </c>
-      <c r="N71">
-        <v>3</v>
-      </c>
-      <c r="O71">
-        <v>3.6</v>
-      </c>
-      <c r="P71">
-        <v>2.1</v>
-      </c>
-      <c r="Q71">
-        <v>0.25</v>
-      </c>
-      <c r="R71">
-        <v>1.95</v>
-      </c>
-      <c r="S71">
-        <v>1.85</v>
-      </c>
-      <c r="T71">
-        <v>3.5</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>1.775</v>
-      </c>
-      <c r="W71">
-        <v>2</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
-      <c r="Z71">
-        <v>0.95</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6858799</v>
+        <v>6859105</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,40 +7036,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
         <v>1.975</v>
@@ -7078,22 +7078,22 @@
         <v>1.825</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7102,10 +7102,10 @@
         <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6859105</v>
+        <v>6858799</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,40 +7125,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
         <v>1.975</v>
@@ -7167,22 +7167,22 @@
         <v>1.825</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
         <v>-1</v>
@@ -7191,10 +7191,10 @@
         <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC75">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
         <v>31</v>
@@ -7484,7 +7484,7 @@
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
         <v>33</v>
@@ -7748,10 +7748,10 @@
         <v>45213.35416666666</v>
       </c>
       <c r="F82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" t="s">
         <v>39</v>
-      </c>
-      <c r="G82" t="s">
-        <v>40</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8193,10 +8193,10 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
         <v>42</v>
-      </c>
-      <c r="G87" t="s">
-        <v>41</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8371,7 +8371,7 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
         <v>44</v>
@@ -8463,7 +8463,7 @@
         <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8816,7 +8816,7 @@
         <v>45227.35416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
         <v>30</v>
@@ -8997,7 +8997,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45233.625</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6858818</v>
+        <v>6858815</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45234.375</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99">
+        <v>2.1</v>
+      </c>
+      <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>2.4</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>2.7</v>
+      </c>
+      <c r="Q99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
-      <c r="J99" t="s">
-        <v>46</v>
-      </c>
-      <c r="K99">
-        <v>1.65</v>
-      </c>
-      <c r="L99">
-        <v>3.8</v>
-      </c>
-      <c r="M99">
-        <v>4.5</v>
-      </c>
-      <c r="N99">
-        <v>1.533</v>
-      </c>
-      <c r="O99">
-        <v>4.333</v>
-      </c>
-      <c r="P99">
-        <v>4.75</v>
-      </c>
-      <c r="Q99">
-        <v>-1</v>
-      </c>
       <c r="R99">
+        <v>1.775</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.975</v>
+      </c>
+      <c r="V99">
         <v>1.825</v>
       </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>3.25</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6858815</v>
+        <v>6858817</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45234.375</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
+        <v>2.4</v>
+      </c>
+      <c r="N100">
+        <v>2.15</v>
+      </c>
+      <c r="O100">
+        <v>3.8</v>
+      </c>
+      <c r="P100">
+        <v>2.75</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
         <v>3</v>
       </c>
-      <c r="N100">
-        <v>2.4</v>
-      </c>
-      <c r="O100">
-        <v>3.2</v>
-      </c>
-      <c r="P100">
-        <v>2.7</v>
-      </c>
-      <c r="Q100">
+      <c r="U100">
+        <v>1.75</v>
+      </c>
+      <c r="V100">
+        <v>1.95</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>1.75</v>
+      </c>
+      <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB100">
         <v>0</v>
       </c>
-      <c r="R100">
-        <v>1.775</v>
-      </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.2</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
+      <c r="AC100">
         <v>-0</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6858817</v>
+        <v>6858818</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9439,76 @@
         <v>45234.375</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L101">
+        <v>3.8</v>
+      </c>
+      <c r="M101">
+        <v>4.5</v>
+      </c>
+      <c r="N101">
+        <v>1.533</v>
+      </c>
+      <c r="O101">
+        <v>4.333</v>
+      </c>
+      <c r="P101">
+        <v>4.75</v>
+      </c>
+      <c r="Q101">
+        <v>-1</v>
+      </c>
+      <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
+        <v>3.25</v>
+      </c>
+      <c r="U101">
+        <v>1.9</v>
+      </c>
+      <c r="V101">
+        <v>1.9</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
         <v>3.75</v>
       </c>
-      <c r="M101">
-        <v>2.4</v>
-      </c>
-      <c r="N101">
-        <v>2.15</v>
-      </c>
-      <c r="O101">
-        <v>3.8</v>
-      </c>
-      <c r="P101">
-        <v>2.75</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.95</v>
-      </c>
-      <c r="S101">
-        <v>1.85</v>
-      </c>
-      <c r="T101">
-        <v>3</v>
-      </c>
-      <c r="U101">
-        <v>1.75</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
-      <c r="Y101">
-        <v>1.75</v>
-      </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9620,7 +9620,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9706,7 +9706,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6859096</v>
+        <v>6858821</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,46 +9795,46 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N105">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
         <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>3</v>
@@ -9846,25 +9846,25 @@
         <v>2</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6858824</v>
+        <v>6858823</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K106">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>2.35</v>
+        <v>2.375</v>
       </c>
       <c r="N106">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
         <v>1.85</v>
       </c>
-      <c r="S106">
+      <c r="T106">
+        <v>3.25</v>
+      </c>
+      <c r="U106">
         <v>1.95</v>
       </c>
-      <c r="T106">
-        <v>3</v>
-      </c>
-      <c r="U106">
-        <v>1.925</v>
-      </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6858821</v>
+        <v>6859096</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,46 +9973,46 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N107">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O107">
         <v>4</v>
       </c>
       <c r="P107">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q107">
         <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>3</v>
@@ -10024,25 +10024,25 @@
         <v>2</v>
       </c>
       <c r="W107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6858823</v>
+        <v>6858824</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,76 +10062,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>2.35</v>
       </c>
       <c r="N108">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q108">
         <v>0</v>
       </c>
       <c r="R108">
+        <v>1.85</v>
+      </c>
+      <c r="S108">
         <v>1.95</v>
       </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
         <v>0.95</v>
       </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6858826</v>
+        <v>6858827</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,40 +10329,40 @@
         <v>45248.375</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
         <v>46</v>
       </c>
       <c r="K111">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N111">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
         <v>1.875</v>
@@ -10371,13 +10371,13 @@
         <v>1.925</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10386,7 +10386,7 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.15</v>
+        <v>2.4</v>
       </c>
       <c r="Z111">
         <v>-1</v>
@@ -10395,10 +10395,10 @@
         <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6858825</v>
+        <v>6858826</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45248.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112" t="s">
+        <v>46</v>
+      </c>
+      <c r="K112">
+        <v>3.1</v>
+      </c>
+      <c r="L112">
+        <v>3.6</v>
+      </c>
+      <c r="M112">
         <v>2</v>
       </c>
-      <c r="J112" t="s">
-        <v>45</v>
-      </c>
-      <c r="K112">
-        <v>1.65</v>
-      </c>
-      <c r="L112">
-        <v>3.8</v>
-      </c>
-      <c r="M112">
-        <v>4.5</v>
-      </c>
       <c r="N112">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6859092</v>
+        <v>6858828</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,40 +10507,40 @@
         <v>45248.375</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>2</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
         <v>1.825</v>
@@ -10552,28 +10552,28 @@
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z113">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB113">
-        <v>0.375</v>
+        <v>0.4125</v>
       </c>
       <c r="AC113">
         <v>-0.5</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858828</v>
+        <v>6858825</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45248.375</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="L114">
         <v>3.8</v>
       </c>
       <c r="M114">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P114">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q114">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA114">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6858827</v>
+        <v>6859092</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45248.375</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N115">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC115">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -112,10 +112,10 @@
     <t>Oure FA</t>
   </si>
   <si>
-    <t>Middelfart</t>
+    <t>Nsby</t>
   </si>
   <si>
-    <t>Nsby</t>
+    <t>Middelfart</t>
   </si>
   <si>
     <t>Young Boys FD</t>
@@ -139,10 +139,10 @@
     <t>VSK Arhus</t>
   </si>
   <si>
-    <t>Vejgaard B</t>
+    <t>Holbk</t>
   </si>
   <si>
-    <t>Holbk</t>
+    <t>Vejgaard B</t>
   </si>
   <si>
     <t>Frem</t>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6528881</v>
+        <v>6528882</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N5">
+        <v>3.3</v>
+      </c>
+      <c r="O5">
+        <v>3.6</v>
+      </c>
+      <c r="P5">
+        <v>1.909</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
       </c>
-      <c r="O5">
-        <v>3.4</v>
-      </c>
-      <c r="P5">
-        <v>3.25</v>
-      </c>
-      <c r="Q5">
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
+        <v>1.825</v>
+      </c>
+      <c r="V5">
+        <v>1.975</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>0.909</v>
+      </c>
+      <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
+        <v>0.95</v>
+      </c>
+      <c r="AB5">
+        <v>0.4125</v>
+      </c>
+      <c r="AC5">
         <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.8</v>
-      </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
-      <c r="U5">
-        <v>1.95</v>
-      </c>
-      <c r="V5">
-        <v>1.85</v>
-      </c>
-      <c r="W5">
-        <v>0.95</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
-      <c r="AC5">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6528882</v>
+        <v>6528881</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,73 +987,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>2.1</v>
+      </c>
+      <c r="L6">
+        <v>3.4</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>1.95</v>
+      </c>
+      <c r="O6">
+        <v>3.4</v>
+      </c>
+      <c r="P6">
+        <v>3.25</v>
+      </c>
+      <c r="Q6">
+        <v>-0.5</v>
+      </c>
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>3.8</v>
-      </c>
-      <c r="M6">
+      <c r="S6">
+        <v>1.8</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
         <v>1.95</v>
       </c>
-      <c r="N6">
-        <v>3.3</v>
-      </c>
-      <c r="O6">
-        <v>3.6</v>
-      </c>
-      <c r="P6">
-        <v>1.909</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="R6">
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="S6">
-        <v>1.95</v>
-      </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6526519</v>
+        <v>6527542</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>4.333</v>
+        <v>13</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,16 +1756,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6527542</v>
+        <v>6526519</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,58 +1874,58 @@
         <v>45094.375</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
         <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>45</v>
       </c>
       <c r="K16">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>4.333</v>
       </c>
       <c r="N16">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6528871</v>
+        <v>6528884</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,73 +1963,73 @@
         <v>45094.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N17">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q17">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2052,7 +2052,7 @@
         <v>45094.375</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6528884</v>
+        <v>6528871</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,73 +2141,73 @@
         <v>45094.375</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="L19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N19">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2233,7 +2233,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6858502</v>
+        <v>6859123</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L22">
         <v>3.75</v>
       </c>
       <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>1.85</v>
+      </c>
+      <c r="O22">
+        <v>3.8</v>
+      </c>
+      <c r="P22">
+        <v>3.25</v>
+      </c>
+      <c r="Q22">
+        <v>-0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>1.8</v>
+      </c>
+      <c r="V22">
         <v>2</v>
       </c>
-      <c r="N22">
-        <v>3.4</v>
-      </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <v>1.75</v>
-      </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
-      </c>
-      <c r="T22">
-        <v>3.25</v>
-      </c>
-      <c r="U22">
-        <v>1.85</v>
-      </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6859123</v>
+        <v>6858502</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L23">
         <v>3.75</v>
       </c>
       <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>4</v>
       </c>
-      <c r="N23">
+      <c r="P23">
+        <v>1.75</v>
+      </c>
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.975</v>
+      </c>
+      <c r="S23">
+        <v>1.825</v>
+      </c>
+      <c r="T23">
+        <v>3.25</v>
+      </c>
+      <c r="U23">
         <v>1.85</v>
       </c>
-      <c r="O23">
-        <v>3.8</v>
-      </c>
-      <c r="P23">
-        <v>3.25</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.9</v>
-      </c>
-      <c r="S23">
-        <v>1.9</v>
-      </c>
-      <c r="T23">
+      <c r="V23">
+        <v>1.95</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
         <v>3</v>
       </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45143.375</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>45143.375</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X25">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6859120</v>
+        <v>6859121</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,73 +2767,73 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>1.5</v>
+      </c>
+      <c r="N26">
+        <v>4.2</v>
+      </c>
+      <c r="O26">
+        <v>3.8</v>
+      </c>
+      <c r="P26">
+        <v>1.666</v>
+      </c>
+      <c r="Q26">
+        <v>0.75</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.8</v>
+      </c>
+      <c r="V26">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
-        <v>2.25</v>
-      </c>
-      <c r="L26">
-        <v>3.5</v>
-      </c>
-      <c r="M26">
-        <v>2.6</v>
-      </c>
-      <c r="N26">
-        <v>2</v>
-      </c>
-      <c r="O26">
-        <v>3.6</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="Q26">
-        <v>-0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.8</v>
-      </c>
-      <c r="S26">
-        <v>2</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6859121</v>
+        <v>6858539</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>3.6</v>
+      </c>
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="J27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>1.5</v>
-      </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O27">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
+        <v>1.95</v>
+      </c>
+      <c r="S27">
+        <v>1.85</v>
+      </c>
+      <c r="T27">
+        <v>3.25</v>
+      </c>
+      <c r="U27">
+        <v>1.825</v>
+      </c>
+      <c r="V27">
         <v>1.975</v>
       </c>
-      <c r="S27">
-        <v>1.825</v>
-      </c>
-      <c r="T27">
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
         <v>2.75</v>
       </c>
-      <c r="U27">
-        <v>1.8</v>
-      </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
       <c r="Y27">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB27">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6858539</v>
+        <v>6859120</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,49 +2942,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28">
+        <v>2.25</v>
+      </c>
+      <c r="L28">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <v>2.6</v>
+      </c>
+      <c r="N28">
         <v>2</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>3.6</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>1.909</v>
-      </c>
-      <c r="O28">
-        <v>3.75</v>
-      </c>
-      <c r="P28">
-        <v>3.2</v>
-      </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U28">
         <v>1.825</v>
@@ -2993,19 +2993,19 @@
         <v>1.975</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -3390,7 +3390,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6858769</v>
+        <v>6858770</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K34">
+        <v>2.25</v>
+      </c>
+      <c r="L34">
+        <v>3.6</v>
+      </c>
+      <c r="M34">
         <v>2.7</v>
       </c>
-      <c r="L34">
+      <c r="N34">
+        <v>2.3</v>
+      </c>
+      <c r="O34">
         <v>3.5</v>
       </c>
-      <c r="M34">
-        <v>2.25</v>
-      </c>
-      <c r="N34">
-        <v>3.25</v>
-      </c>
-      <c r="O34">
-        <v>3.75</v>
-      </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R34">
+        <v>1.775</v>
+      </c>
+      <c r="S34">
+        <v>2.025</v>
+      </c>
+      <c r="T34">
+        <v>2.75</v>
+      </c>
+      <c r="U34">
         <v>1.8</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>2</v>
       </c>
-      <c r="T34">
-        <v>3.25</v>
-      </c>
-      <c r="U34">
-        <v>1.875</v>
-      </c>
-      <c r="V34">
-        <v>1.925</v>
-      </c>
       <c r="W34">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858770</v>
+        <v>6858769</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K35">
+        <v>2.7</v>
+      </c>
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
         <v>2.25</v>
       </c>
-      <c r="L35">
-        <v>3.6</v>
-      </c>
-      <c r="M35">
-        <v>2.7</v>
-      </c>
       <c r="N35">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>45157.375</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>44</v>
@@ -3835,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6858773</v>
+        <v>6858772</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,59 +3921,59 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>45</v>
       </c>
       <c r="K39">
-        <v>1.714</v>
+        <v>4.333</v>
       </c>
       <c r="L39">
         <v>3.8</v>
       </c>
       <c r="M39">
-        <v>3.8</v>
+        <v>1.65</v>
       </c>
       <c r="N39">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R39">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
+        <v>2.75</v>
+      </c>
+      <c r="U39">
+        <v>1.8</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
         <v>3.5</v>
       </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
-      <c r="W39">
-        <v>0.5</v>
-      </c>
       <c r="X39">
         <v>-1</v>
       </c>
@@ -3981,16 +3981,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6858772</v>
+        <v>6858773</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,58 +4010,58 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>4.333</v>
+        <v>1.714</v>
       </c>
       <c r="L40">
         <v>3.8</v>
       </c>
       <c r="M40">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="N40">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P40">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="Q40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4070,16 +4070,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6858774</v>
+        <v>6858775</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45164.375</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N41">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O41">
         <v>3.8</v>
       </c>
       <c r="P41">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q41">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA41">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6858775</v>
+        <v>6858774</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45164.375</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O42">
         <v>3.8</v>
       </c>
       <c r="P42">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z42">
+        <v>-0.5</v>
+      </c>
+      <c r="AA42">
+        <v>0.425</v>
+      </c>
+      <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858777</v>
+        <v>6859115</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,67 +4366,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4435,7 +4435,7 @@
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6859115</v>
+        <v>6858777</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,67 +4455,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N45">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X45">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA45">
         <v>-1</v>
@@ -4524,7 +4524,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4722,10 +4722,10 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6859113</v>
+        <v>6858784</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,13 +5078,13 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -5093,19 +5093,19 @@
         <v>45</v>
       </c>
       <c r="K52">
+        <v>1.65</v>
+      </c>
+      <c r="L52">
+        <v>3.75</v>
+      </c>
+      <c r="M52">
+        <v>4.333</v>
+      </c>
+      <c r="N52">
         <v>1.571</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>3.8</v>
-      </c>
-      <c r="M52">
-        <v>4.5</v>
-      </c>
-      <c r="N52">
-        <v>1.533</v>
-      </c>
-      <c r="O52">
-        <v>4</v>
       </c>
       <c r="P52">
         <v>4.75</v>
@@ -5114,13 +5114,13 @@
         <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,7 +5129,7 @@
         <v>1.9</v>
       </c>
       <c r="W52">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5138,16 +5138,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6858783</v>
+        <v>6859113</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,58 +5167,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L53">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M53">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N53">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
-        <v>2.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,16 +5227,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6858784</v>
+        <v>6858783</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,58 +5256,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="L54">
         <v>3.75</v>
       </c>
       <c r="M54">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="N54">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q54">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
+        <v>1.975</v>
+      </c>
+      <c r="S54">
+        <v>1.825</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.875</v>
       </c>
-      <c r="T54">
-        <v>3.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
       <c r="W54">
-        <v>0.571</v>
+        <v>2.2</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,13 +5316,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
         <v>0.925</v>
-      </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
-      <c r="AB54">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6859111</v>
+        <v>6858785</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
         <v>42</v>
       </c>
-      <c r="G56" t="s">
-        <v>39</v>
-      </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56">
+        <v>1.909</v>
+      </c>
+      <c r="L56">
+        <v>3.6</v>
+      </c>
+      <c r="M56">
+        <v>3.4</v>
+      </c>
+      <c r="N56">
+        <v>1.85</v>
+      </c>
+      <c r="O56">
+        <v>3.75</v>
+      </c>
+      <c r="P56">
+        <v>3.4</v>
+      </c>
+      <c r="Q56">
+        <v>-0.5</v>
+      </c>
+      <c r="R56">
+        <v>1.925</v>
+      </c>
+      <c r="S56">
+        <v>1.875</v>
+      </c>
+      <c r="T56">
         <v>3</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>45</v>
-      </c>
-      <c r="K56">
-        <v>2.3</v>
-      </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>2.7</v>
-      </c>
-      <c r="N56">
-        <v>2.15</v>
-      </c>
-      <c r="O56">
-        <v>3.6</v>
-      </c>
-      <c r="P56">
-        <v>2.8</v>
-      </c>
-      <c r="Q56">
-        <v>-0.25</v>
-      </c>
-      <c r="R56">
-        <v>1.95</v>
-      </c>
-      <c r="S56">
-        <v>1.85</v>
-      </c>
-      <c r="T56">
+      <c r="U56">
+        <v>1.8</v>
+      </c>
+      <c r="V56">
+        <v>2</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
         <v>2.75</v>
       </c>
-      <c r="U56">
-        <v>1.975</v>
-      </c>
-      <c r="V56">
-        <v>1.825</v>
-      </c>
-      <c r="W56">
-        <v>1.15</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6858785</v>
+        <v>6859111</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L57">
+        <v>3.5</v>
+      </c>
+      <c r="M57">
+        <v>2.7</v>
+      </c>
+      <c r="N57">
+        <v>2.15</v>
+      </c>
+      <c r="O57">
         <v>3.6</v>
       </c>
-      <c r="M57">
-        <v>3.4</v>
-      </c>
-      <c r="N57">
+      <c r="P57">
+        <v>2.8</v>
+      </c>
+      <c r="Q57">
+        <v>-0.25</v>
+      </c>
+      <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
         <v>1.85</v>
       </c>
-      <c r="O57">
-        <v>3.75</v>
-      </c>
-      <c r="P57">
-        <v>3.4</v>
-      </c>
-      <c r="Q57">
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>1.975</v>
+      </c>
+      <c r="V57">
+        <v>1.825</v>
+      </c>
+      <c r="W57">
+        <v>1.15</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
+        <v>0.95</v>
+      </c>
+      <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
+        <v>0.4875</v>
+      </c>
+      <c r="AC57">
         <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.925</v>
-      </c>
-      <c r="S57">
-        <v>1.875</v>
-      </c>
-      <c r="T57">
-        <v>3</v>
-      </c>
-      <c r="U57">
-        <v>1.8</v>
-      </c>
-      <c r="V57">
-        <v>2</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>2.75</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>-1</v>
-      </c>
-      <c r="AA57">
-        <v>0.875</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
-      <c r="AC57">
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6859110</v>
+        <v>6858789</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,55 +5701,55 @@
         <v>45185.375</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>46</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L59">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5758,19 +5758,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45185.375</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6858789</v>
+        <v>6859110</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,55 +5879,55 @@
         <v>45185.375</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L61">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
-        <v>1.666</v>
+        <v>5.25</v>
       </c>
       <c r="N61">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q61">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5936,19 +5936,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6858792</v>
+        <v>6859109</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="O62">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6859109</v>
+        <v>6858791</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L63">
         <v>3.6</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N63">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6858791</v>
+        <v>6858792</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,49 +6146,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N64">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P64">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R64">
+        <v>1.925</v>
+      </c>
+      <c r="S64">
         <v>1.875</v>
       </c>
-      <c r="S64">
-        <v>1.925</v>
-      </c>
       <c r="T64">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U64">
         <v>1.875</v>
@@ -6200,16 +6200,16 @@
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
         <v>0.875</v>
@@ -6238,7 +6238,7 @@
         <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6416,7 +6416,7 @@
         <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6859107</v>
+        <v>6858795</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L68">
         <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N68">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
         <v>1.8</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>2</v>
       </c>
-      <c r="T68">
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
         <v>2.75</v>
       </c>
-      <c r="U68">
-        <v>1.875</v>
-      </c>
-      <c r="V68">
-        <v>1.925</v>
-      </c>
-      <c r="W68">
-        <v>2.3</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6858795</v>
+        <v>6859107</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6591,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
         <v>3.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N69">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
+        <v>1.8</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
         <v>1.875</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.925</v>
       </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.8</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6769,7 +6769,7 @@
         <v>45199.375</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
         <v>39</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6859105</v>
+        <v>6858799</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,40 +7036,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
         <v>1.975</v>
@@ -7078,22 +7078,22 @@
         <v>1.825</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7102,10 +7102,10 @@
         <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6858799</v>
+        <v>6859105</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,40 +7125,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
         <v>1.975</v>
@@ -7167,22 +7167,22 @@
         <v>1.825</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
@@ -7191,10 +7191,10 @@
         <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>45206.375</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>29</v>
@@ -7484,7 +7484,7 @@
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7659,10 +7659,10 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6858809</v>
+        <v>6858807</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N86">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6859101</v>
+        <v>6858809</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,46 +8193,46 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K87">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N87">
+        <v>2.2</v>
+      </c>
+      <c r="O87">
+        <v>4</v>
+      </c>
+      <c r="P87">
+        <v>2.55</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.75</v>
-      </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T87">
         <v>2.75</v>
@@ -8247,22 +8247,22 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6858807</v>
+        <v>6859101</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,73 +8282,73 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB88">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8460,7 +8460,7 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>40</v>
@@ -8727,7 +8727,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8908,7 +8908,7 @@
         <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8997,7 +8997,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45233.625</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9264,7 +9264,7 @@
         <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9350,7 +9350,7 @@
         <v>45234.375</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6858821</v>
+        <v>6859096</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,46 +9795,46 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N105">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O105">
         <v>4</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q105">
         <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>3</v>
@@ -9846,25 +9846,25 @@
         <v>2</v>
       </c>
       <c r="W105">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6859096</v>
+        <v>6858824</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="J107" t="s">
+        <v>46</v>
+      </c>
+      <c r="K107">
+        <v>2.55</v>
+      </c>
+      <c r="L107">
+        <v>3.6</v>
+      </c>
+      <c r="M107">
+        <v>2.35</v>
+      </c>
+      <c r="N107">
+        <v>2.4</v>
+      </c>
+      <c r="O107">
+        <v>3.6</v>
+      </c>
+      <c r="P107">
+        <v>2.5</v>
+      </c>
+      <c r="Q107">
         <v>0</v>
       </c>
-      <c r="J107" t="s">
-        <v>47</v>
-      </c>
-      <c r="K107">
-        <v>1.571</v>
-      </c>
-      <c r="L107">
-        <v>4</v>
-      </c>
-      <c r="M107">
-        <v>4.75</v>
-      </c>
-      <c r="N107">
-        <v>1.571</v>
-      </c>
-      <c r="O107">
-        <v>4</v>
-      </c>
-      <c r="P107">
-        <v>4.75</v>
-      </c>
-      <c r="Q107">
-        <v>-1</v>
-      </c>
       <c r="R107">
+        <v>1.85</v>
+      </c>
+      <c r="S107">
         <v>1.95</v>
-      </c>
-      <c r="S107">
-        <v>1.85</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC107">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6858824</v>
+        <v>6858821</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,76 +10062,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>2.35</v>
+        <v>4.333</v>
       </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6859093</v>
+        <v>6858825</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,58 +10240,58 @@
         <v>45248.375</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
         <v>45</v>
       </c>
       <c r="K110">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M110">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N110">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10300,16 +10300,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6858827</v>
+        <v>6859092</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45248.375</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N111">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC111">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6858826</v>
+        <v>6858828</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,55 +10418,55 @@
         <v>45248.375</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N112">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10475,19 +10475,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858828</v>
+        <v>6859093</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45248.375</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>45</v>
+      </c>
+      <c r="K113">
+        <v>2.75</v>
+      </c>
+      <c r="L113">
+        <v>3.4</v>
+      </c>
+      <c r="M113">
+        <v>2.25</v>
+      </c>
+      <c r="N113">
+        <v>2.6</v>
+      </c>
+      <c r="O113">
+        <v>3.4</v>
+      </c>
+      <c r="P113">
+        <v>2.375</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
         <v>2</v>
       </c>
-      <c r="J113" t="s">
-        <v>46</v>
-      </c>
-      <c r="K113">
-        <v>4</v>
-      </c>
-      <c r="L113">
-        <v>3.8</v>
-      </c>
-      <c r="M113">
-        <v>1.727</v>
-      </c>
-      <c r="N113">
-        <v>4</v>
-      </c>
-      <c r="O113">
-        <v>3.75</v>
-      </c>
-      <c r="P113">
-        <v>1.75</v>
-      </c>
-      <c r="Q113">
-        <v>0.75</v>
-      </c>
-      <c r="R113">
-        <v>1.825</v>
-      </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858825</v>
+        <v>6858826</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45248.375</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114" t="s">
+        <v>46</v>
+      </c>
+      <c r="K114">
+        <v>3.1</v>
+      </c>
+      <c r="L114">
+        <v>3.6</v>
+      </c>
+      <c r="M114">
         <v>2</v>
       </c>
-      <c r="J114" t="s">
-        <v>45</v>
-      </c>
-      <c r="K114">
-        <v>1.65</v>
-      </c>
-      <c r="L114">
-        <v>3.8</v>
-      </c>
-      <c r="M114">
-        <v>4.5</v>
-      </c>
       <c r="N114">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6859092</v>
+        <v>6858827</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45248.375</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -133,16 +133,16 @@
     <t>AB Trnby</t>
   </si>
   <si>
+    <t>VSK Arhus</t>
+  </si>
+  <si>
     <t>Holstebro</t>
   </si>
   <si>
-    <t>VSK Arhus</t>
+    <t>Vejgaard B</t>
   </si>
   <si>
     <t>Holbk</t>
-  </si>
-  <si>
-    <t>Vejgaard B</t>
   </si>
   <si>
     <t>Frem</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6527542</v>
+        <v>6528870</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,40 +1696,40 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.142</v>
+        <v>1.45</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>1.333</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
         <v>1.85</v>
@@ -1738,16 +1738,16 @@
         <v>1.95</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.333</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,16 +1756,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6526660</v>
+        <v>6528871</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,55 +1785,55 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>46</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>-1.75</v>
+      </c>
+      <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
         <v>1.85</v>
       </c>
-      <c r="Q15">
-        <v>0.25</v>
-      </c>
-      <c r="R15">
-        <v>2.1</v>
-      </c>
-      <c r="S15">
-        <v>1.7</v>
-      </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U15">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1842,19 +1842,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>0.7</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6526519</v>
+        <v>6528884</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,59 +1874,59 @@
         <v>45094.375</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>45</v>
       </c>
       <c r="K16">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L16">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O16">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.875</v>
+      </c>
+      <c r="S16">
+        <v>1.925</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
         <v>1.8</v>
       </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>3.25</v>
-      </c>
-      <c r="U16">
+      <c r="W16">
         <v>1.8</v>
       </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
-      <c r="W16">
-        <v>0.5</v>
-      </c>
       <c r="X16">
         <v>-1</v>
       </c>
@@ -1934,13 +1934,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6528884</v>
+        <v>6526660</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45094.375</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3.6</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>3.1</v>
+      </c>
+      <c r="O17">
         <v>4</v>
       </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17">
-        <v>2.875</v>
-      </c>
-      <c r="L17">
-        <v>3.8</v>
-      </c>
-      <c r="M17">
-        <v>2.05</v>
-      </c>
-      <c r="N17">
-        <v>2.8</v>
-      </c>
-      <c r="O17">
-        <v>3.75</v>
-      </c>
       <c r="P17">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q17">
         <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W17">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6528870</v>
+        <v>6526519</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,58 +2052,58 @@
         <v>45094.375</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
         <v>2</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="L18">
+        <v>4.2</v>
+      </c>
+      <c r="M18">
+        <v>4.333</v>
+      </c>
+      <c r="N18">
+        <v>1.5</v>
+      </c>
+      <c r="O18">
         <v>4.5</v>
       </c>
-      <c r="M18">
-        <v>5.25</v>
-      </c>
-      <c r="N18">
-        <v>1.333</v>
-      </c>
-      <c r="O18">
+      <c r="P18">
         <v>5</v>
       </c>
-      <c r="P18">
-        <v>7.5</v>
-      </c>
       <c r="Q18">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>3.25</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2112,16 +2112,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6528871</v>
+        <v>6527542</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45094.375</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>1.6</v>
+        <v>1.142</v>
       </c>
       <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>1.125</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <v>-2.5</v>
+      </c>
+      <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
         <v>4</v>
       </c>
-      <c r="M19">
-        <v>4.5</v>
-      </c>
-      <c r="N19">
-        <v>1.3</v>
-      </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <v>7</v>
-      </c>
-      <c r="Q19">
-        <v>-1.75</v>
-      </c>
-      <c r="R19">
-        <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
-      </c>
-      <c r="T19">
-        <v>3.5</v>
-      </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,10 +2230,10 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45143.375</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X24">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>45143.375</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P25">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6859121</v>
+        <v>6858539</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>3.6</v>
+      </c>
+      <c r="M26">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>1.5</v>
-      </c>
       <c r="N26">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
+        <v>1.85</v>
+      </c>
+      <c r="T26">
+        <v>3.25</v>
+      </c>
+      <c r="U26">
+        <v>1.825</v>
+      </c>
+      <c r="V26">
         <v>1.975</v>
       </c>
-      <c r="S26">
-        <v>1.825</v>
-      </c>
-      <c r="T26">
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>2.75</v>
       </c>
-      <c r="U26">
-        <v>1.8</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6858539</v>
+        <v>6859120</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,49 +2853,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
+        <v>2.25</v>
+      </c>
+      <c r="L27">
+        <v>3.5</v>
+      </c>
+      <c r="M27">
+        <v>2.6</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>3.6</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>3</v>
       </c>
-      <c r="N27">
-        <v>1.909</v>
-      </c>
-      <c r="O27">
-        <v>3.75</v>
-      </c>
-      <c r="P27">
-        <v>3.2</v>
-      </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <v>1.825</v>
@@ -2904,19 +2904,19 @@
         <v>1.975</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6859120</v>
+        <v>6859121</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,73 +2945,73 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>1.5</v>
+      </c>
+      <c r="N28">
+        <v>4.2</v>
+      </c>
+      <c r="O28">
+        <v>3.8</v>
+      </c>
+      <c r="P28">
+        <v>1.666</v>
+      </c>
+      <c r="Q28">
+        <v>0.75</v>
+      </c>
+      <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.825</v>
+      </c>
+      <c r="T28">
+        <v>2.75</v>
+      </c>
+      <c r="U28">
+        <v>1.8</v>
+      </c>
+      <c r="V28">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28">
-        <v>2.25</v>
-      </c>
-      <c r="L28">
-        <v>3.5</v>
-      </c>
-      <c r="M28">
-        <v>2.6</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>3.6</v>
-      </c>
-      <c r="P28">
-        <v>3</v>
-      </c>
-      <c r="Q28">
-        <v>-0.25</v>
-      </c>
-      <c r="R28">
-        <v>1.8</v>
-      </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
       <c r="W28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z28">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC28">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6858768</v>
+        <v>6859118</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M32">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N32">
+        <v>1.45</v>
+      </c>
+      <c r="O32">
         <v>4.5</v>
       </c>
-      <c r="O32">
-        <v>4</v>
-      </c>
       <c r="P32">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y32">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6859118</v>
+        <v>6858768</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,76 +3387,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L33">
+        <v>3.8</v>
+      </c>
+      <c r="M33">
+        <v>1.65</v>
+      </c>
+      <c r="N33">
         <v>4.5</v>
       </c>
-      <c r="M33">
-        <v>6</v>
-      </c>
-      <c r="N33">
-        <v>1.45</v>
-      </c>
       <c r="O33">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -3654,7 +3654,7 @@
         <v>45157.35416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -3835,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4102,7 +4102,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6859115</v>
+        <v>6858777</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,67 +4366,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N44">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X44">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4435,7 +4435,7 @@
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6858777</v>
+        <v>6859115</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,67 +4455,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N45">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
         <v>-1</v>
@@ -4524,7 +4524,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>45171.35416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4725,7 +4725,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4992,7 +4992,7 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6858784</v>
+        <v>6858783</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,58 +5078,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>45</v>
       </c>
       <c r="K52">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="L52">
         <v>3.75</v>
       </c>
       <c r="M52">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="N52">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O52">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
+        <v>1.975</v>
+      </c>
+      <c r="S52">
+        <v>1.825</v>
+      </c>
+      <c r="T52">
+        <v>2.75</v>
+      </c>
+      <c r="U52">
         <v>1.925</v>
       </c>
-      <c r="S52">
+      <c r="V52">
         <v>1.875</v>
       </c>
-      <c r="T52">
-        <v>3.25</v>
-      </c>
-      <c r="U52">
-        <v>1.9</v>
-      </c>
-      <c r="V52">
-        <v>1.9</v>
-      </c>
       <c r="W52">
-        <v>0.571</v>
+        <v>2.2</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5138,13 +5138,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA52">
+        <v>-1</v>
+      </c>
+      <c r="AB52">
         <v>0.925</v>
-      </c>
-      <c r="AA52">
-        <v>-1</v>
-      </c>
-      <c r="AB52">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6859113</v>
+        <v>6858784</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,13 +5167,13 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -5182,19 +5182,19 @@
         <v>45</v>
       </c>
       <c r="K53">
+        <v>1.65</v>
+      </c>
+      <c r="L53">
+        <v>3.75</v>
+      </c>
+      <c r="M53">
+        <v>4.333</v>
+      </c>
+      <c r="N53">
         <v>1.571</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>3.8</v>
-      </c>
-      <c r="M53">
-        <v>4.5</v>
-      </c>
-      <c r="N53">
-        <v>1.533</v>
-      </c>
-      <c r="O53">
-        <v>4</v>
       </c>
       <c r="P53">
         <v>4.75</v>
@@ -5203,13 +5203,13 @@
         <v>-1</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U53">
         <v>1.9</v>
@@ -5218,7 +5218,7 @@
         <v>1.9</v>
       </c>
       <c r="W53">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,16 +5227,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6858783</v>
+        <v>6859113</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,58 +5256,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M54">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N54">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
-        <v>2.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,16 +5316,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5523,10 +5523,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5612,7 +5612,7 @@
         <v>45185.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858789</v>
+        <v>6859110</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,55 +5701,55 @@
         <v>45185.375</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>46</v>
       </c>
       <c r="K59">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M59">
-        <v>1.666</v>
+        <v>5.25</v>
       </c>
       <c r="N59">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P59">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q59">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5758,19 +5758,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858790</v>
+        <v>6858789</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45185.375</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
         <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z60">
         <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AB60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6859110</v>
+        <v>6858790</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45185.375</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y61">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6859109</v>
+        <v>6858791</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L62">
         <v>3.6</v>
       </c>
       <c r="M62">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N62">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6858791</v>
+        <v>6858792</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,49 +6057,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M63">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P63">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
+        <v>1.925</v>
+      </c>
+      <c r="S63">
         <v>1.875</v>
       </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
       <c r="T63">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
         <v>1.875</v>
@@ -6111,16 +6111,16 @@
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB63">
         <v>0.875</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6858792</v>
+        <v>6859109</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="O64">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6324,7 +6324,7 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
@@ -6416,7 +6416,7 @@
         <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6858795</v>
+        <v>6859107</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K68">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L68">
         <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N68">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
+        <v>1.8</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
         <v>1.875</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.925</v>
       </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.8</v>
-      </c>
-      <c r="V68">
-        <v>2</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6859107</v>
+        <v>6858795</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6591,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K69">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L69">
         <v>3.5</v>
       </c>
       <c r="M69">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N69">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P69">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
+        <v>1.875</v>
+      </c>
+      <c r="S69">
+        <v>1.925</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
         <v>1.8</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>2</v>
       </c>
-      <c r="T69">
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
         <v>2.75</v>
       </c>
-      <c r="U69">
-        <v>1.875</v>
-      </c>
-      <c r="V69">
-        <v>1.925</v>
-      </c>
-      <c r="W69">
-        <v>2.3</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6772,7 +6772,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6858799</v>
+        <v>6859105</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,40 +7036,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
         <v>1.975</v>
@@ -7078,22 +7078,22 @@
         <v>1.825</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7102,10 +7102,10 @@
         <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6859105</v>
+        <v>6858799</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,40 +7125,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
         <v>1.975</v>
@@ -7167,22 +7167,22 @@
         <v>1.825</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
         <v>-1</v>
@@ -7191,10 +7191,10 @@
         <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC75">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6858800</v>
+        <v>6858801</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45206.375</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
         <v>3</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6858801</v>
+        <v>6858800</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45206.375</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N77">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T77">
         <v>3</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
+        <v>0.75</v>
+      </c>
+      <c r="AB77">
         <v>0</v>
       </c>
-      <c r="AA77">
+      <c r="AC77">
         <v>-0</v>
-      </c>
-      <c r="AB77">
-        <v>-1</v>
-      </c>
-      <c r="AC77">
-        <v>0.825</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
         <v>31</v>
@@ -7484,7 +7484,7 @@
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7748,10 +7748,10 @@
         <v>45213.35416666666</v>
       </c>
       <c r="F82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="s">
         <v>40</v>
-      </c>
-      <c r="G82" t="s">
-        <v>39</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6858805</v>
+        <v>6858806</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,13 +7837,13 @@
         <v>45213.375</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7852,43 +7852,43 @@
         <v>45</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="N83">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O83">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
         <v>1.975</v>
       </c>
-      <c r="S83">
-        <v>1.825</v>
-      </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,7 +7897,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7906,7 +7906,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6858806</v>
+        <v>6858805</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,13 +7926,13 @@
         <v>45213.375</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -7941,43 +7941,43 @@
         <v>45</v>
       </c>
       <c r="K84">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
         <v>1.825</v>
       </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,7 +7986,7 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -7995,7 +7995,7 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6858807</v>
+        <v>6859101</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q86">
         <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6859101</v>
+        <v>6858807</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,73 +8282,73 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88">
         <v>2</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
-      <c r="J88" t="s">
-        <v>47</v>
-      </c>
-      <c r="K88">
-        <v>1.727</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8371,7 +8371,7 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
         <v>44</v>
@@ -8463,7 +8463,7 @@
         <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8816,7 +8816,7 @@
         <v>45227.35416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
         <v>30</v>
@@ -8997,7 +8997,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45233.625</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6858815</v>
+        <v>6858817</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45234.375</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
+        <v>2.4</v>
+      </c>
+      <c r="N99">
+        <v>2.15</v>
+      </c>
+      <c r="O99">
+        <v>3.8</v>
+      </c>
+      <c r="P99">
+        <v>2.75</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
         <v>3</v>
       </c>
-      <c r="N99">
-        <v>2.4</v>
-      </c>
-      <c r="O99">
-        <v>3.2</v>
-      </c>
-      <c r="P99">
-        <v>2.7</v>
-      </c>
-      <c r="Q99">
+      <c r="U99">
+        <v>1.75</v>
+      </c>
+      <c r="V99">
+        <v>1.95</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>1.75</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB99">
         <v>0</v>
       </c>
-      <c r="R99">
-        <v>1.775</v>
-      </c>
-      <c r="S99">
-        <v>2.025</v>
-      </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.2</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0</v>
-      </c>
-      <c r="AA99">
+      <c r="AC99">
         <v>-0</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
-      <c r="AC99">
-        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6858817</v>
+        <v>6858815</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45234.375</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
         <v>2.4</v>
       </c>
-      <c r="N100">
-        <v>2.15</v>
-      </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
+        <v>2.7</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>1.775</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
         <v>2.75</v>
       </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
       <c r="U100">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9620,7 +9620,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9706,7 +9706,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6859096</v>
+        <v>6858824</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105" t="s">
+        <v>46</v>
+      </c>
+      <c r="K105">
+        <v>2.55</v>
+      </c>
+      <c r="L105">
+        <v>3.6</v>
+      </c>
+      <c r="M105">
+        <v>2.35</v>
+      </c>
+      <c r="N105">
+        <v>2.4</v>
+      </c>
+      <c r="O105">
+        <v>3.6</v>
+      </c>
+      <c r="P105">
+        <v>2.5</v>
+      </c>
+      <c r="Q105">
         <v>0</v>
       </c>
-      <c r="J105" t="s">
-        <v>47</v>
-      </c>
-      <c r="K105">
-        <v>1.571</v>
-      </c>
-      <c r="L105">
-        <v>4</v>
-      </c>
-      <c r="M105">
-        <v>4.75</v>
-      </c>
-      <c r="N105">
-        <v>1.571</v>
-      </c>
-      <c r="O105">
-        <v>4</v>
-      </c>
-      <c r="P105">
-        <v>4.75</v>
-      </c>
-      <c r="Q105">
-        <v>-1</v>
-      </c>
       <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
         <v>1.95</v>
-      </c>
-      <c r="S105">
-        <v>1.85</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6858823</v>
+        <v>6859096</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,40 +9884,40 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N106">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R106">
         <v>1.95</v>
@@ -9926,34 +9926,34 @@
         <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6858824</v>
+        <v>6858823</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>2.35</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P107">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q107">
         <v>0</v>
       </c>
       <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
         <v>1.85</v>
       </c>
-      <c r="S107">
+      <c r="T107">
+        <v>3.25</v>
+      </c>
+      <c r="U107">
         <v>1.95</v>
       </c>
-      <c r="T107">
-        <v>3</v>
-      </c>
-      <c r="U107">
-        <v>1.925</v>
-      </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6859092</v>
+        <v>6859093</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45248.375</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>
       </c>
       <c r="K111">
+        <v>2.75</v>
+      </c>
+      <c r="L111">
+        <v>3.4</v>
+      </c>
+      <c r="M111">
+        <v>2.25</v>
+      </c>
+      <c r="N111">
+        <v>2.6</v>
+      </c>
+      <c r="O111">
+        <v>3.4</v>
+      </c>
+      <c r="P111">
+        <v>2.375</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>1.8</v>
+      </c>
+      <c r="T111">
         <v>2.5</v>
       </c>
-      <c r="L111">
-        <v>3.6</v>
-      </c>
-      <c r="M111">
-        <v>2.45</v>
-      </c>
-      <c r="N111">
-        <v>2</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>3.1</v>
-      </c>
-      <c r="Q111">
-        <v>-0.25</v>
-      </c>
-      <c r="R111">
-        <v>1.825</v>
-      </c>
-      <c r="S111">
-        <v>1.975</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
       <c r="U111">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
+        <v>1.6</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
         <v>1</v>
       </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>0.825</v>
-      </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6858828</v>
+        <v>6858827</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,46 +10418,46 @@
         <v>45248.375</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>1</v>
-      </c>
-      <c r="I112">
-        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="N112">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O112">
         <v>3.75</v>
       </c>
       <c r="P112">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
         <v>2.75</v>
@@ -10475,19 +10475,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB112">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6859093</v>
+        <v>6858828</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45248.375</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
+        <v>4</v>
+      </c>
+      <c r="L113">
+        <v>3.8</v>
+      </c>
+      <c r="M113">
+        <v>1.727</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113">
+        <v>3.75</v>
+      </c>
+      <c r="P113">
+        <v>1.75</v>
+      </c>
+      <c r="Q113">
+        <v>0.75</v>
+      </c>
+      <c r="R113">
+        <v>1.825</v>
+      </c>
+      <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
         <v>2.75</v>
       </c>
-      <c r="L113">
-        <v>3.4</v>
-      </c>
-      <c r="M113">
-        <v>2.25</v>
-      </c>
-      <c r="N113">
-        <v>2.6</v>
-      </c>
-      <c r="O113">
-        <v>3.4</v>
-      </c>
-      <c r="P113">
-        <v>2.375</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>2</v>
-      </c>
-      <c r="S113">
-        <v>1.8</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z113">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858826</v>
+        <v>6859092</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10599,73 +10599,73 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L114">
         <v>3.6</v>
       </c>
       <c r="M114">
+        <v>2.45</v>
+      </c>
+      <c r="N114">
         <v>2</v>
       </c>
-      <c r="N114">
-        <v>2.875</v>
-      </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6858827</v>
+        <v>6858826</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,40 +10685,40 @@
         <v>45248.375</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
         <v>46</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
+        <v>3.6</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>2.875</v>
+      </c>
+      <c r="O115">
         <v>3.5</v>
       </c>
-      <c r="M115">
-        <v>2.625</v>
-      </c>
-      <c r="N115">
-        <v>1.85</v>
-      </c>
-      <c r="O115">
-        <v>3.75</v>
-      </c>
       <c r="P115">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
         <v>1.875</v>
@@ -10727,13 +10727,13 @@
         <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10742,7 +10742,7 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="Z115">
         <v>-1</v>
@@ -10751,10 +10751,10 @@
         <v>0.925</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -109,10 +109,10 @@
     <t>IF Lyseng</t>
   </si>
   <si>
-    <t>Oure FA</t>
+    <t>Nsby</t>
   </si>
   <si>
-    <t>Nsby</t>
+    <t>Oure FA</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6526517</v>
+        <v>6528882</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M4">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N4">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O4">
         <v>3.6</v>
       </c>
       <c r="P4">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6528882</v>
+        <v>6526517</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N5">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O5">
         <v>3.6</v>
       </c>
       <c r="P5">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6528870</v>
+        <v>6528871</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
         <v>4.5</v>
       </c>
-      <c r="M14">
-        <v>5.25</v>
-      </c>
       <c r="N14">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
         <v>1.85</v>
       </c>
-      <c r="S14">
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.95</v>
       </c>
-      <c r="T14">
-        <v>3.25</v>
-      </c>
-      <c r="U14">
-        <v>1.925</v>
-      </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6528871</v>
+        <v>6526519</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,73 +1785,73 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M15">
+        <v>4.333</v>
+      </c>
+      <c r="N15">
+        <v>1.5</v>
+      </c>
+      <c r="O15">
         <v>4.5</v>
       </c>
-      <c r="N15">
-        <v>1.3</v>
-      </c>
-      <c r="O15">
+      <c r="P15">
         <v>5</v>
       </c>
-      <c r="P15">
-        <v>7</v>
-      </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6528884</v>
+        <v>6527542</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>45</v>
       </c>
       <c r="K16">
-        <v>2.875</v>
+        <v>1.142</v>
       </c>
       <c r="L16">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>2.05</v>
+        <v>13</v>
       </c>
       <c r="N16">
-        <v>2.8</v>
+        <v>1.125</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="P16">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>1.8</v>
+        <v>0.125</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6526660</v>
+        <v>6528870</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45094.375</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17">
+        <v>7.5</v>
+      </c>
+      <c r="Q17">
+        <v>-1.5</v>
+      </c>
+      <c r="R17">
         <v>1.85</v>
       </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>2.1</v>
-      </c>
       <c r="S17">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
         <v>3.25</v>
       </c>
       <c r="U17">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z17">
-        <v>-1</v>
-      </c>
       <c r="AA17">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6526519</v>
+        <v>6526660</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45094.375</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3.1</v>
+      </c>
+      <c r="O18">
         <v>4</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>1.571</v>
-      </c>
-      <c r="L18">
-        <v>4.2</v>
-      </c>
-      <c r="M18">
-        <v>4.333</v>
-      </c>
-      <c r="N18">
-        <v>1.5</v>
-      </c>
-      <c r="O18">
-        <v>4.5</v>
-      </c>
       <c r="P18">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T18">
         <v>3.25</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W18">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6527542</v>
+        <v>6528884</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,55 +2144,55 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
         <v>45</v>
       </c>
       <c r="K19">
-        <v>1.142</v>
+        <v>2.875</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>2.05</v>
       </c>
       <c r="N19">
-        <v>1.125</v>
+        <v>2.8</v>
       </c>
       <c r="O19">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="Q19">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
-        <v>0.125</v>
+        <v>1.8</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2201,16 +2201,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,73 +2589,73 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,73 +2678,73 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X25">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6858539</v>
+        <v>6859120</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,49 +2764,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
+        <v>2.25</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>2.6</v>
+      </c>
+      <c r="N26">
         <v>2</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>3.6</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>3</v>
       </c>
-      <c r="N26">
-        <v>1.909</v>
-      </c>
-      <c r="O26">
-        <v>3.75</v>
-      </c>
-      <c r="P26">
-        <v>3.2</v>
-      </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U26">
         <v>1.825</v>
@@ -2815,19 +2815,19 @@
         <v>1.975</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6859120</v>
+        <v>6858539</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,49 +2853,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27">
-        <v>2.25</v>
-      </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
         <v>1.825</v>
@@ -2904,19 +2904,19 @@
         <v>1.975</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -3657,7 +3657,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>45157.375</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>44</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6858772</v>
+        <v>6858773</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,58 +3921,58 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>45</v>
       </c>
       <c r="K39">
-        <v>4.333</v>
+        <v>1.714</v>
       </c>
       <c r="L39">
         <v>3.8</v>
       </c>
       <c r="M39">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="N39">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3981,16 +3981,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6858773</v>
+        <v>6858772</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,59 +4010,59 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>1.714</v>
+        <v>4.333</v>
       </c>
       <c r="L40">
         <v>3.8</v>
       </c>
       <c r="M40">
-        <v>3.8</v>
+        <v>1.65</v>
       </c>
       <c r="N40">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="O40">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
+        <v>2.75</v>
+      </c>
+      <c r="U40">
+        <v>1.8</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
         <v>3.5</v>
       </c>
-      <c r="U40">
-        <v>1.95</v>
-      </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
-      <c r="W40">
-        <v>0.5</v>
-      </c>
       <c r="X40">
         <v>-1</v>
       </c>
@@ -4070,16 +4070,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6858775</v>
+        <v>6858774</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45164.375</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O41">
         <v>3.8</v>
       </c>
       <c r="P41">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z41">
+        <v>-0.5</v>
+      </c>
+      <c r="AA41">
+        <v>0.425</v>
+      </c>
+      <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6858774</v>
+        <v>6858775</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45164.375</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N42">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
         <v>3.8</v>
       </c>
       <c r="P42">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q42">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4633,7 +4633,7 @@
         <v>45171.375</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>44</v>
@@ -4722,7 +4722,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -4903,7 +4903,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6858783</v>
+        <v>6859113</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,58 +5078,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>45</v>
       </c>
       <c r="K52">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M52">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N52">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>2.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5138,16 +5138,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5170,7 +5170,7 @@
         <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6859113</v>
+        <v>6858783</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,58 +5256,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
         <v>2</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L54">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N54">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q54">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>0.5329999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,16 +5316,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6859110</v>
+        <v>6858789</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,55 +5701,55 @@
         <v>45185.375</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>46</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L59">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5758,19 +5758,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858789</v>
+        <v>6858790</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,73 +5793,73 @@
         <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="L60">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="N60">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
         <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y60">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
         <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6858790</v>
+        <v>6859110</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45185.375</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6858791</v>
+        <v>6858792</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,49 +5968,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M62">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N62">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
+        <v>1.925</v>
+      </c>
+      <c r="S62">
         <v>1.875</v>
       </c>
-      <c r="S62">
-        <v>1.925</v>
-      </c>
       <c r="T62">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U62">
         <v>1.875</v>
@@ -6022,16 +6022,16 @@
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
         <v>0.875</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6858792</v>
+        <v>6859109</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L63">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6859109</v>
+        <v>6858791</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L64">
         <v>3.6</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA64">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6859107</v>
+        <v>6858795</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L68">
         <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N68">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
         <v>1.8</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>2</v>
       </c>
-      <c r="T68">
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
         <v>2.75</v>
       </c>
-      <c r="U68">
-        <v>1.875</v>
-      </c>
-      <c r="V68">
-        <v>1.925</v>
-      </c>
-      <c r="W68">
-        <v>2.3</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6858795</v>
+        <v>6859107</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6591,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
         <v>3.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N69">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
+        <v>1.8</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
         <v>1.875</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.925</v>
       </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.8</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6858797</v>
+        <v>6858796</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,73 +6683,73 @@
         <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>46</v>
+      </c>
+      <c r="K70">
+        <v>1.65</v>
+      </c>
+      <c r="L70">
+        <v>3.75</v>
+      </c>
+      <c r="M70">
+        <v>4.2</v>
+      </c>
+      <c r="N70">
+        <v>1.65</v>
+      </c>
+      <c r="O70">
+        <v>4</v>
+      </c>
+      <c r="P70">
+        <v>4.333</v>
+      </c>
+      <c r="Q70">
+        <v>-0.75</v>
+      </c>
+      <c r="R70">
+        <v>1.8</v>
+      </c>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="T70">
+        <v>3.25</v>
+      </c>
+      <c r="U70">
+        <v>1.9</v>
+      </c>
+      <c r="V70">
+        <v>1.9</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
+        <v>3.333</v>
+      </c>
+      <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
         <v>1</v>
       </c>
-      <c r="J70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K70">
-        <v>3.1</v>
-      </c>
-      <c r="L70">
-        <v>3.6</v>
-      </c>
-      <c r="M70">
-        <v>2.05</v>
-      </c>
-      <c r="N70">
-        <v>3</v>
-      </c>
-      <c r="O70">
-        <v>3.6</v>
-      </c>
-      <c r="P70">
-        <v>2.1</v>
-      </c>
-      <c r="Q70">
-        <v>0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.95</v>
-      </c>
-      <c r="S70">
-        <v>1.85</v>
-      </c>
-      <c r="T70">
-        <v>3.5</v>
-      </c>
-      <c r="U70">
-        <v>1.925</v>
-      </c>
-      <c r="V70">
-        <v>1.775</v>
-      </c>
-      <c r="W70">
-        <v>2</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>0.95</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858796</v>
+        <v>6858797</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,73 +6772,73 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
-      <c r="I71">
+      <c r="J71" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71">
+        <v>3.1</v>
+      </c>
+      <c r="L71">
+        <v>3.6</v>
+      </c>
+      <c r="M71">
+        <v>2.05</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71">
+        <v>3.6</v>
+      </c>
+      <c r="P71">
+        <v>2.1</v>
+      </c>
+      <c r="Q71">
+        <v>0.25</v>
+      </c>
+      <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
+        <v>1.85</v>
+      </c>
+      <c r="T71">
+        <v>3.5</v>
+      </c>
+      <c r="U71">
+        <v>1.925</v>
+      </c>
+      <c r="V71">
+        <v>1.775</v>
+      </c>
+      <c r="W71">
         <v>2</v>
       </c>
-      <c r="J71" t="s">
-        <v>46</v>
-      </c>
-      <c r="K71">
-        <v>1.65</v>
-      </c>
-      <c r="L71">
-        <v>3.75</v>
-      </c>
-      <c r="M71">
-        <v>4.2</v>
-      </c>
-      <c r="N71">
-        <v>1.65</v>
-      </c>
-      <c r="O71">
-        <v>4</v>
-      </c>
-      <c r="P71">
-        <v>4.333</v>
-      </c>
-      <c r="Q71">
-        <v>-0.75</v>
-      </c>
-      <c r="R71">
-        <v>1.8</v>
-      </c>
-      <c r="S71">
-        <v>2</v>
-      </c>
-      <c r="T71">
-        <v>3.25</v>
-      </c>
-      <c r="U71">
-        <v>1.9</v>
-      </c>
-      <c r="V71">
-        <v>1.9</v>
-      </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC71">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>45206.375</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7395,7 +7395,7 @@
         <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7662,7 +7662,7 @@
         <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7926,7 +7926,7 @@
         <v>45213.375</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6859101</v>
+        <v>6858807</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>45</v>
+      </c>
+      <c r="K86">
         <v>2</v>
-      </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86" t="s">
-        <v>47</v>
-      </c>
-      <c r="K86">
-        <v>1.727</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q86">
         <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6858809</v>
+        <v>6859101</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,46 +8193,46 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
         <v>2.75</v>
@@ -8247,22 +8247,22 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6858807</v>
+        <v>6858809</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O88">
         <v>4</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>1.55</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.925</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6859100</v>
+        <v>6858810</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N89">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6858810</v>
+        <v>6859100</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y90">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6858811</v>
+        <v>6859099</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,56 +8638,56 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N92">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
+        <v>1.85</v>
+      </c>
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
         <v>1.825</v>
       </c>
-      <c r="S92">
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>1.9</v>
-      </c>
-      <c r="V92">
-        <v>1.9</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
@@ -8695,19 +8695,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859099</v>
+        <v>6858811</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,55 +8727,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8784,19 +8784,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858813</v>
+        <v>6858814</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45227.375</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="J95" t="s">
+        <v>46</v>
+      </c>
+      <c r="K95">
+        <v>2.45</v>
+      </c>
+      <c r="L95">
+        <v>3.75</v>
+      </c>
+      <c r="M95">
+        <v>2.375</v>
+      </c>
+      <c r="N95">
+        <v>2.45</v>
+      </c>
+      <c r="O95">
+        <v>3.75</v>
+      </c>
+      <c r="P95">
+        <v>2.375</v>
+      </c>
+      <c r="Q95">
         <v>0</v>
       </c>
-      <c r="J95" t="s">
-        <v>47</v>
-      </c>
-      <c r="K95">
-        <v>1.769</v>
-      </c>
-      <c r="L95">
-        <v>3.6</v>
-      </c>
-      <c r="M95">
-        <v>4</v>
-      </c>
-      <c r="N95">
-        <v>1.65</v>
-      </c>
-      <c r="O95">
-        <v>3.8</v>
-      </c>
-      <c r="P95">
-        <v>4.5</v>
-      </c>
-      <c r="Q95">
-        <v>-0.75</v>
-      </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858814</v>
+        <v>6858813</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45227.375</v>
       </c>
       <c r="F96" t="s">
+        <v>43</v>
+      </c>
+      <c r="G96" t="s">
         <v>31</v>
-      </c>
-      <c r="G96" t="s">
-        <v>41</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2.45</v>
+        <v>1.769</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N96">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O96">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y96">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9353,7 +9353,7 @@
         <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9442,7 +9442,7 @@
         <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6858824</v>
+        <v>6858821</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.35</v>
+        <v>4.333</v>
       </c>
       <c r="N105">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6859096</v>
+        <v>6858823</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,40 +9884,40 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>45</v>
+      </c>
+      <c r="K106">
+        <v>2.45</v>
+      </c>
+      <c r="L106">
+        <v>3.75</v>
+      </c>
+      <c r="M106">
+        <v>2.375</v>
+      </c>
+      <c r="N106">
+        <v>2.45</v>
+      </c>
+      <c r="O106">
+        <v>3.75</v>
+      </c>
+      <c r="P106">
+        <v>2.375</v>
+      </c>
+      <c r="Q106">
         <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s">
-        <v>47</v>
-      </c>
-      <c r="K106">
-        <v>1.571</v>
-      </c>
-      <c r="L106">
-        <v>4</v>
-      </c>
-      <c r="M106">
-        <v>4.75</v>
-      </c>
-      <c r="N106">
-        <v>1.571</v>
-      </c>
-      <c r="O106">
-        <v>4</v>
-      </c>
-      <c r="P106">
-        <v>4.75</v>
-      </c>
-      <c r="Q106">
-        <v>-1</v>
       </c>
       <c r="R106">
         <v>1.95</v>
@@ -9926,34 +9926,34 @@
         <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6858823</v>
+        <v>6858824</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,73 +9976,73 @@
         <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.375</v>
+        <v>2.35</v>
       </c>
       <c r="N107">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q107">
         <v>0</v>
       </c>
       <c r="R107">
+        <v>1.85</v>
+      </c>
+      <c r="S107">
         <v>1.95</v>
       </c>
-      <c r="S107">
-        <v>1.85</v>
-      </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
         <v>0.95</v>
       </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC107">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6858821</v>
+        <v>6859096</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,46 +10062,46 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N108">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O108">
         <v>4</v>
       </c>
       <c r="P108">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q108">
         <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>3</v>
@@ -10113,25 +10113,25 @@
         <v>2</v>
       </c>
       <c r="W108">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6858825</v>
+        <v>6859092</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,58 +10240,58 @@
         <v>45248.375</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>45</v>
       </c>
       <c r="K110">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L110">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="N110">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
+        <v>1.975</v>
+      </c>
+      <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
+        <v>1.75</v>
+      </c>
+      <c r="V110">
         <v>1.95</v>
       </c>
-      <c r="T110">
-        <v>3.5</v>
-      </c>
-      <c r="U110">
-        <v>1.95</v>
-      </c>
-      <c r="V110">
-        <v>1.85</v>
-      </c>
       <c r="W110">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10300,16 +10300,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6859093</v>
+        <v>6858828</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45248.375</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
+        <v>4</v>
+      </c>
+      <c r="L111">
+        <v>3.8</v>
+      </c>
+      <c r="M111">
+        <v>1.727</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111">
+        <v>3.75</v>
+      </c>
+      <c r="P111">
+        <v>1.75</v>
+      </c>
+      <c r="Q111">
+        <v>0.75</v>
+      </c>
+      <c r="R111">
+        <v>1.825</v>
+      </c>
+      <c r="S111">
+        <v>1.975</v>
+      </c>
+      <c r="T111">
         <v>2.75</v>
       </c>
-      <c r="L111">
-        <v>3.4</v>
-      </c>
-      <c r="M111">
-        <v>2.25</v>
-      </c>
-      <c r="N111">
-        <v>2.6</v>
-      </c>
-      <c r="O111">
-        <v>3.4</v>
-      </c>
-      <c r="P111">
-        <v>2.375</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>2</v>
-      </c>
-      <c r="S111">
-        <v>1.8</v>
-      </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z111">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6858827</v>
+        <v>6859093</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45248.375</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
+      <c r="J112" t="s">
+        <v>45</v>
+      </c>
+      <c r="K112">
+        <v>2.75</v>
+      </c>
+      <c r="L112">
+        <v>3.4</v>
+      </c>
+      <c r="M112">
+        <v>2.25</v>
+      </c>
+      <c r="N112">
+        <v>2.6</v>
+      </c>
+      <c r="O112">
+        <v>3.4</v>
+      </c>
+      <c r="P112">
+        <v>2.375</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2.5</v>
+      </c>
+      <c r="U112">
+        <v>1.925</v>
+      </c>
+      <c r="V112">
+        <v>1.875</v>
+      </c>
+      <c r="W112">
+        <v>1.6</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
         <v>1</v>
       </c>
-      <c r="J112" t="s">
-        <v>46</v>
-      </c>
-      <c r="K112">
-        <v>2.3</v>
-      </c>
-      <c r="L112">
-        <v>3.5</v>
-      </c>
-      <c r="M112">
-        <v>2.625</v>
-      </c>
-      <c r="N112">
-        <v>1.85</v>
-      </c>
-      <c r="O112">
-        <v>3.75</v>
-      </c>
-      <c r="P112">
-        <v>3.4</v>
-      </c>
-      <c r="Q112">
-        <v>-0.5</v>
-      </c>
-      <c r="R112">
-        <v>1.875</v>
-      </c>
-      <c r="S112">
-        <v>1.925</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>2.4</v>
-      </c>
-      <c r="Z112">
-        <v>-1</v>
-      </c>
       <c r="AA112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858828</v>
+        <v>6858827</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,46 +10507,46 @@
         <v>45248.375</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <v>1</v>
-      </c>
-      <c r="I113">
-        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>46</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="N113">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O113">
         <v>3.75</v>
       </c>
       <c r="P113">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.75</v>
@@ -10564,19 +10564,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6859092</v>
+        <v>6858826</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45248.375</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
         <v>3.6</v>
       </c>
       <c r="M114">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB114">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6858826</v>
+        <v>6858825</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45248.375</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N115">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O115">
+        <v>3.8</v>
+      </c>
+      <c r="P115">
+        <v>4.2</v>
+      </c>
+      <c r="Q115">
+        <v>-0.75</v>
+      </c>
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
+        <v>1.95</v>
+      </c>
+      <c r="T115">
         <v>3.5</v>
       </c>
-      <c r="P115">
-        <v>2.15</v>
-      </c>
-      <c r="Q115">
-        <v>0.25</v>
-      </c>
-      <c r="R115">
-        <v>1.875</v>
-      </c>
-      <c r="S115">
-        <v>1.925</v>
-      </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -103,10 +103,10 @@
     <t>Denmark Division 3</t>
   </si>
   <si>
-    <t>Vanlse</t>
+    <t>IF Lyseng</t>
   </si>
   <si>
-    <t>IF Lyseng</t>
+    <t>Vanlse</t>
   </si>
   <si>
     <t>Nsby</t>
@@ -133,10 +133,10 @@
     <t>AB Trnby</t>
   </si>
   <si>
-    <t>VSK Arhus</t>
+    <t>Holstebro</t>
   </si>
   <si>
-    <t>Holstebro</t>
+    <t>VSK Arhus</t>
   </si>
   <si>
     <t>Vejgaard B</t>
@@ -151,10 +151,10 @@
     <t>Avarta</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6528867</v>
+        <v>6526656</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,10 +631,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -643,61 +643,61 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6526656</v>
+        <v>6528867</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,10 +720,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -732,61 +732,61 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.6</v>
       </c>
       <c r="M3">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>2.4</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>2.1</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>1.071</v>
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>3.6</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>17</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.3</v>
@@ -1518,7 +1518,7 @@
         <v>45087.5</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>1.4</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6528871</v>
+        <v>6526519</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,70 +1699,70 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>46</v>
       </c>
       <c r="K14">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M14">
+        <v>4.333</v>
+      </c>
+      <c r="N14">
+        <v>1.5</v>
+      </c>
+      <c r="O14">
         <v>4.5</v>
       </c>
-      <c r="N14">
-        <v>1.3</v>
-      </c>
-      <c r="O14">
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6526519</v>
+        <v>6526660</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>45</v>
       </c>
       <c r="K15">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O15">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T15">
         <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W15">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>1.142</v>
@@ -1966,7 +1966,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>1.45</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6526660</v>
+        <v>6528871</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,55 +2052,55 @@
         <v>45094.375</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18">
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>-1.75</v>
+      </c>
+      <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
         <v>1.85</v>
       </c>
-      <c r="Q18">
-        <v>0.25</v>
-      </c>
-      <c r="R18">
-        <v>2.1</v>
-      </c>
-      <c r="S18">
-        <v>1.7</v>
-      </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2109,19 +2109,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
+        <v>6</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z18">
-        <v>-1</v>
-      </c>
-      <c r="AA18">
-        <v>0.7</v>
-      </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>2.875</v>
@@ -2230,7 +2230,7 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2319,7 +2319,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -2408,7 +2408,7 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>44</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>1.666</v>
@@ -2497,7 +2497,7 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45143.375</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X24">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>45143.375</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P25">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6859120</v>
+        <v>6858539</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,49 +2764,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
-        <v>2.25</v>
-      </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
         <v>1.825</v>
@@ -2815,19 +2815,19 @@
         <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB26">
         <v>-1</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6858539</v>
+        <v>6859120</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,49 +2853,49 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
+        <v>2.25</v>
+      </c>
+      <c r="L27">
+        <v>3.5</v>
+      </c>
+      <c r="M27">
+        <v>2.6</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>3.6</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>3</v>
       </c>
-      <c r="N27">
-        <v>1.909</v>
-      </c>
-      <c r="O27">
-        <v>3.75</v>
-      </c>
-      <c r="P27">
-        <v>3.2</v>
-      </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <v>1.825</v>
@@ -2904,19 +2904,19 @@
         <v>1.975</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2945,7 +2945,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3034,7 +3034,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.4</v>
@@ -3123,7 +3123,7 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.9</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>1.333</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6859118</v>
+        <v>6858768</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L32">
+        <v>3.8</v>
+      </c>
+      <c r="M32">
+        <v>1.65</v>
+      </c>
+      <c r="N32">
         <v>4.5</v>
       </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
-      <c r="N32">
-        <v>1.45</v>
-      </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6858768</v>
+        <v>6859118</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,76 +3387,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N33">
+        <v>1.45</v>
+      </c>
+      <c r="O33">
         <v>4.5</v>
       </c>
-      <c r="O33">
-        <v>4</v>
-      </c>
       <c r="P33">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y33">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6858770</v>
+        <v>6858769</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
+        <v>2.7</v>
+      </c>
+      <c r="L34">
+        <v>3.5</v>
+      </c>
+      <c r="M34">
         <v>2.25</v>
       </c>
-      <c r="L34">
-        <v>3.6</v>
-      </c>
-      <c r="M34">
-        <v>2.7</v>
-      </c>
       <c r="N34">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P34">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X34">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858769</v>
+        <v>6858770</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35">
+        <v>2.25</v>
+      </c>
+      <c r="L35">
+        <v>3.6</v>
+      </c>
+      <c r="M35">
         <v>2.7</v>
       </c>
-      <c r="L35">
+      <c r="N35">
+        <v>2.3</v>
+      </c>
+      <c r="O35">
         <v>3.5</v>
       </c>
-      <c r="M35">
-        <v>2.25</v>
-      </c>
-      <c r="N35">
-        <v>3.25</v>
-      </c>
-      <c r="O35">
-        <v>3.75</v>
-      </c>
       <c r="P35">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R35">
+        <v>1.775</v>
+      </c>
+      <c r="S35">
+        <v>2.025</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
         <v>1.8</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>2</v>
       </c>
-      <c r="T35">
-        <v>3.25</v>
-      </c>
-      <c r="U35">
-        <v>1.875</v>
-      </c>
-      <c r="V35">
-        <v>1.925</v>
-      </c>
       <c r="W35">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>45157.35416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -3666,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>1.285</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3924,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3933,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <v>1.714</v>
@@ -4010,10 +4010,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>4.333</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6858774</v>
+        <v>6858775</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45164.375</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
         <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>46</v>
       </c>
       <c r="K41">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N41">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O41">
         <v>3.8</v>
       </c>
       <c r="P41">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q41">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA41">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6858775</v>
+        <v>6858774</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45164.375</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>45</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O42">
         <v>3.8</v>
       </c>
       <c r="P42">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>3</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z42">
+        <v>-0.5</v>
+      </c>
+      <c r="AA42">
+        <v>0.425</v>
+      </c>
+      <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4280,7 +4280,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>1.714</v>
@@ -4366,7 +4366,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>2.15</v>
@@ -4544,7 +4544,7 @@
         <v>45171.35416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>1.85</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>2.3</v>
@@ -4734,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>1.85</v>
@@ -4811,10 +4811,10 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.4</v>
@@ -4992,7 +4992,7 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6859113</v>
+        <v>6858783</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,58 +5078,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L52">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N52">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>0.5329999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5138,16 +5138,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>1.65</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6858783</v>
+        <v>6859113</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,58 +5256,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54">
+        <v>1.571</v>
+      </c>
+      <c r="L54">
+        <v>3.8</v>
+      </c>
+      <c r="M54">
+        <v>4.5</v>
+      </c>
+      <c r="N54">
+        <v>1.533</v>
+      </c>
+      <c r="O54">
         <v>4</v>
       </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-      <c r="J54" t="s">
-        <v>45</v>
-      </c>
-      <c r="K54">
-        <v>3.25</v>
-      </c>
-      <c r="L54">
-        <v>3.75</v>
-      </c>
-      <c r="M54">
-        <v>1.85</v>
-      </c>
-      <c r="N54">
-        <v>3.2</v>
-      </c>
-      <c r="O54">
-        <v>3.5</v>
-      </c>
       <c r="P54">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
-        <v>2.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,16 +5316,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>4.333</v>
@@ -5434,7 +5434,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>41</v>
@@ -5526,7 +5526,7 @@
         <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>2.3</v>
@@ -5612,7 +5612,7 @@
         <v>45185.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858790</v>
+        <v>6859110</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45185.375</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6859110</v>
+        <v>6858790</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45185.375</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y61">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6858792</v>
+        <v>6858791</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,49 +5968,49 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="L62">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N62">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
+        <v>1.875</v>
+      </c>
+      <c r="S62">
         <v>1.925</v>
       </c>
-      <c r="S62">
-        <v>1.875</v>
-      </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U62">
         <v>1.875</v>
@@ -6022,16 +6022,16 @@
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
         <v>0.875</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6859109</v>
+        <v>6858792</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB63">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6858791</v>
+        <v>6859109</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
         <v>3.6</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
+        <v>1.95</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>3</v>
       </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.925</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>2.4</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
       <c r="Z64">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
+        <v>0.825</v>
+      </c>
+      <c r="AB64">
+        <v>0.425</v>
+      </c>
+      <c r="AC64">
         <v>-0.5</v>
-      </c>
-      <c r="AB64">
-        <v>0.875</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>1.769</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6858794</v>
+        <v>6859108</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,46 +6324,46 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N66">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P66">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
         <v>3</v>
@@ -6375,7 +6375,7 @@
         <v>1.825</v>
       </c>
       <c r="W66">
-        <v>2.5</v>
+        <v>0.571</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6384,16 +6384,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6859108</v>
+        <v>6858794</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,46 +6413,46 @@
         <v>45192.375</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="N67">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q67">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
         <v>3</v>
@@ -6464,7 +6464,7 @@
         <v>1.825</v>
       </c>
       <c r="W67">
-        <v>0.571</v>
+        <v>2.5</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6473,16 +6473,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,10 +6502,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>3.1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6858796</v>
+        <v>6858797</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45199.375</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>46</v>
       </c>
       <c r="K70">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="N70">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
+        <v>1.85</v>
+      </c>
+      <c r="T70">
+        <v>3.5</v>
+      </c>
+      <c r="U70">
+        <v>1.925</v>
+      </c>
+      <c r="V70">
+        <v>1.775</v>
+      </c>
+      <c r="W70">
         <v>2</v>
       </c>
-      <c r="T70">
-        <v>3.25</v>
-      </c>
-      <c r="U70">
-        <v>1.9</v>
-      </c>
-      <c r="V70">
-        <v>1.9</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858797</v>
+        <v>6858796</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45199.375</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>45</v>
       </c>
       <c r="K71">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6870,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>2.6</v>
@@ -6959,7 +6959,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K73">
         <v>1.9</v>
@@ -7128,7 +7128,7 @@
         <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7137,7 +7137,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>3.1</v>
@@ -7217,7 +7217,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7392,7 +7392,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
         <v>32</v>
@@ -7481,7 +7481,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>42</v>
@@ -7582,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>1.7</v>
@@ -7671,7 +7671,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>2.7</v>
@@ -7748,10 +7748,10 @@
         <v>45213.35416666666</v>
       </c>
       <c r="F82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" t="s">
         <v>39</v>
-      </c>
-      <c r="G82" t="s">
-        <v>40</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>1.4</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>1.8</v>
@@ -7929,7 +7929,7 @@
         <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -8018,7 +8018,7 @@
         <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>2.2</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6858807</v>
+        <v>6859101</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q86">
         <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6859101</v>
+        <v>6858807</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,73 +8193,73 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87">
         <v>2</v>
-      </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87" t="s">
-        <v>47</v>
-      </c>
-      <c r="K87">
-        <v>1.727</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q87">
         <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8282,7 +8282,7 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>43</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>2.4</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6858810</v>
+        <v>6859100</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y89">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6859100</v>
+        <v>6858810</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
         <v>40</v>
       </c>
-      <c r="G90" t="s">
-        <v>44</v>
-      </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N90">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8561,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>2.8</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6859099</v>
+        <v>6858811</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,55 +8638,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92">
+        <v>1.55</v>
+      </c>
+      <c r="L92">
         <v>4</v>
       </c>
-      <c r="J92" t="s">
-        <v>46</v>
-      </c>
-      <c r="K92">
-        <v>3</v>
-      </c>
-      <c r="L92">
-        <v>3.6</v>
-      </c>
       <c r="M92">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8695,19 +8695,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6858811</v>
+        <v>6859099</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,56 +8727,56 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N93">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
+        <v>1.85</v>
+      </c>
+      <c r="T93">
+        <v>2.75</v>
+      </c>
+      <c r="U93">
         <v>1.825</v>
       </c>
-      <c r="S93">
+      <c r="V93">
         <v>1.975</v>
       </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>1.9</v>
-      </c>
-      <c r="V93">
-        <v>1.9</v>
-      </c>
       <c r="W93">
         <v>-1</v>
       </c>
@@ -8784,19 +8784,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,10 +8816,10 @@
         <v>45227.35416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.571</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858814</v>
+        <v>6858813</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45227.375</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.45</v>
+        <v>1.769</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y95">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858813</v>
+        <v>6858814</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45227.375</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96" t="s">
+        <v>45</v>
+      </c>
+      <c r="K96">
+        <v>2.45</v>
+      </c>
+      <c r="L96">
+        <v>3.75</v>
+      </c>
+      <c r="M96">
+        <v>2.375</v>
+      </c>
+      <c r="N96">
+        <v>2.45</v>
+      </c>
+      <c r="O96">
+        <v>3.75</v>
+      </c>
+      <c r="P96">
+        <v>2.375</v>
+      </c>
+      <c r="Q96">
         <v>0</v>
       </c>
-      <c r="J96" t="s">
-        <v>47</v>
-      </c>
-      <c r="K96">
-        <v>1.769</v>
-      </c>
-      <c r="L96">
-        <v>3.6</v>
-      </c>
-      <c r="M96">
-        <v>4</v>
-      </c>
-      <c r="N96">
-        <v>1.65</v>
-      </c>
-      <c r="O96">
-        <v>3.8</v>
-      </c>
-      <c r="P96">
-        <v>4.5</v>
-      </c>
-      <c r="Q96">
-        <v>-0.75</v>
-      </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
         <v>2.9</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6858817</v>
+        <v>6858815</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45234.375</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
         <v>2.4</v>
       </c>
-      <c r="N99">
-        <v>2.15</v>
-      </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
+        <v>2.7</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>1.775</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
         <v>2.75</v>
       </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
       <c r="U99">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6858815</v>
+        <v>6858817</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45234.375</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
+        <v>2.4</v>
+      </c>
+      <c r="N100">
+        <v>2.15</v>
+      </c>
+      <c r="O100">
+        <v>3.8</v>
+      </c>
+      <c r="P100">
+        <v>2.75</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
         <v>3</v>
       </c>
-      <c r="N100">
-        <v>2.4</v>
-      </c>
-      <c r="O100">
-        <v>3.2</v>
-      </c>
-      <c r="P100">
-        <v>2.7</v>
-      </c>
-      <c r="Q100">
+      <c r="U100">
+        <v>1.75</v>
+      </c>
+      <c r="V100">
+        <v>1.95</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>1.75</v>
+      </c>
+      <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB100">
         <v>0</v>
       </c>
-      <c r="R100">
-        <v>1.775</v>
-      </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.2</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
+      <c r="AC100">
         <v>-0</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9439,7 +9439,7 @@
         <v>45234.375</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>32</v>
@@ -9451,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.65</v>
@@ -9528,7 +9528,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9540,7 +9540,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>2.875</v>
@@ -9620,7 +9620,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9706,10 +9706,10 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>1.6</v>
@@ -9798,7 +9798,7 @@
         <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9807,7 +9807,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>1.666</v>
@@ -9887,7 +9887,7 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9896,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>2.45</v>
@@ -9985,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>2.55</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>2.45</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6859092</v>
+        <v>6858827</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,13 +10240,13 @@
         <v>45248.375</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -10255,61 +10255,61 @@
         <v>45</v>
       </c>
       <c r="K110">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6858828</v>
+        <v>6858826</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,55 +10329,55 @@
         <v>45248.375</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111" t="s">
+        <v>45</v>
+      </c>
+      <c r="K111">
+        <v>3.1</v>
+      </c>
+      <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
         <v>2</v>
       </c>
-      <c r="J111" t="s">
-        <v>46</v>
-      </c>
-      <c r="K111">
-        <v>4</v>
-      </c>
-      <c r="L111">
-        <v>3.8</v>
-      </c>
-      <c r="M111">
-        <v>1.727</v>
-      </c>
       <c r="N111">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10386,19 +10386,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6859093</v>
+        <v>6859092</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,58 +10418,58 @@
         <v>45248.375</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
+        <v>2.5</v>
+      </c>
+      <c r="L112">
+        <v>3.6</v>
+      </c>
+      <c r="M112">
+        <v>2.45</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112">
+        <v>3.6</v>
+      </c>
+      <c r="P112">
+        <v>3.1</v>
+      </c>
+      <c r="Q112">
+        <v>-0.25</v>
+      </c>
+      <c r="R112">
+        <v>1.825</v>
+      </c>
+      <c r="S112">
+        <v>1.975</v>
+      </c>
+      <c r="T112">
         <v>2.75</v>
       </c>
-      <c r="L112">
-        <v>3.4</v>
-      </c>
-      <c r="M112">
-        <v>2.25</v>
-      </c>
-      <c r="N112">
-        <v>2.6</v>
-      </c>
-      <c r="O112">
-        <v>3.4</v>
-      </c>
-      <c r="P112">
-        <v>2.375</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>1.8</v>
-      </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10478,16 +10478,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858827</v>
+        <v>6859093</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45248.375</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>0</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>46</v>
       </c>
       <c r="K113">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N113">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>1.8</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.925</v>
+      </c>
+      <c r="V113">
         <v>1.875</v>
       </c>
-      <c r="S113">
-        <v>1.925</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858826</v>
+        <v>6858828</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,55 +10596,55 @@
         <v>45248.375</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N114">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10653,19 +10653,19 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -10697,7 +10697,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>1.65</v>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +103,19 @@
     <t>Denmark Division 3</t>
   </si>
   <si>
-    <t>IF Lyseng</t>
+    <t>Vanlse</t>
   </si>
   <si>
-    <t>Vanlse</t>
+    <t>IF Lyseng</t>
   </si>
   <si>
     <t>Nsby</t>
   </si>
   <si>
-    <t>Oure FA</t>
+    <t>Middelfart</t>
   </si>
   <si>
-    <t>Middelfart</t>
+    <t>Oure FA</t>
   </si>
   <si>
     <t>Young Boys FD</t>
@@ -133,10 +133,10 @@
     <t>AB Trnby</t>
   </si>
   <si>
-    <t>Holstebro</t>
+    <t>VSK Arhus</t>
   </si>
   <si>
-    <t>VSK Arhus</t>
+    <t>Holstebro</t>
   </si>
   <si>
     <t>Vejgaard B</t>
@@ -151,10 +151,10 @@
     <t>Avarta</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC115"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6526656</v>
+        <v>6528867</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,10 +631,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -643,61 +643,61 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6528867</v>
+        <v>6526656</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,10 +720,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -732,61 +732,61 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
         <v>3.6</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N3">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6526517</v>
+        <v>6528881</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <v>2.1</v>
+      </c>
+      <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>1.95</v>
+      </c>
+      <c r="O5">
+        <v>3.4</v>
+      </c>
+      <c r="P5">
+        <v>3.25</v>
+      </c>
+      <c r="Q5">
+        <v>-0.5</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.95</v>
+      </c>
+      <c r="V5">
+        <v>1.85</v>
+      </c>
+      <c r="W5">
+        <v>0.95</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>3.75</v>
-      </c>
-      <c r="M5">
-        <v>2.4</v>
-      </c>
-      <c r="N5">
-        <v>2.375</v>
-      </c>
-      <c r="O5">
-        <v>3.6</v>
-      </c>
-      <c r="P5">
-        <v>2.55</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1.825</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>1.375</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.825</v>
-      </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6528881</v>
+        <v>6526517</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,55 +987,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>2.4</v>
+      </c>
+      <c r="L6">
+        <v>3.75</v>
+      </c>
+      <c r="M6">
+        <v>2.4</v>
+      </c>
+      <c r="N6">
+        <v>2.375</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
+        <v>2.55</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6">
-        <v>2.1</v>
-      </c>
-      <c r="L6">
-        <v>3.4</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>1.95</v>
-      </c>
-      <c r="O6">
-        <v>3.4</v>
-      </c>
-      <c r="P6">
-        <v>3.25</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
       <c r="R6">
+        <v>1.825</v>
+      </c>
+      <c r="S6">
+        <v>1.975</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>1.8</v>
+      </c>
+      <c r="V6">
         <v>2</v>
       </c>
-      <c r="S6">
-        <v>1.8</v>
-      </c>
-      <c r="T6">
-        <v>2.5</v>
-      </c>
-      <c r="U6">
-        <v>1.95</v>
-      </c>
-      <c r="V6">
-        <v>1.85</v>
-      </c>
       <c r="W6">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1044,16 +1044,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>1.071</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>3.6</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>17</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>2.3</v>
@@ -1518,7 +1518,7 @@
         <v>45087.5</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1610,7 +1610,7 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>1.4</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6526519</v>
+        <v>6528870</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
         <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,16 +1756,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6526660</v>
+        <v>6528871</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,55 +1785,55 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>-1.75</v>
+      </c>
+      <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
         <v>1.85</v>
       </c>
-      <c r="Q15">
-        <v>0.25</v>
-      </c>
-      <c r="R15">
-        <v>2.1</v>
-      </c>
-      <c r="S15">
-        <v>1.7</v>
-      </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U15">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1842,19 +1842,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>0.7</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6527542</v>
+        <v>6528884</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>45094.375</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16">
+        <v>2.875</v>
+      </c>
+      <c r="L16">
+        <v>3.8</v>
+      </c>
+      <c r="M16">
+        <v>2.05</v>
+      </c>
+      <c r="N16">
+        <v>2.8</v>
+      </c>
+      <c r="O16">
+        <v>3.75</v>
+      </c>
+      <c r="P16">
+        <v>2.1</v>
+      </c>
+      <c r="Q16">
+        <v>0.25</v>
+      </c>
+      <c r="R16">
+        <v>1.875</v>
+      </c>
+      <c r="S16">
+        <v>1.925</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16">
+        <v>1.8</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>0.875</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16">
-        <v>1.142</v>
-      </c>
-      <c r="L16">
-        <v>7</v>
-      </c>
-      <c r="M16">
-        <v>13</v>
-      </c>
-      <c r="N16">
-        <v>1.125</v>
-      </c>
-      <c r="O16">
-        <v>8</v>
-      </c>
-      <c r="P16">
-        <v>13</v>
-      </c>
-      <c r="Q16">
-        <v>-2.5</v>
-      </c>
-      <c r="R16">
-        <v>1.85</v>
-      </c>
-      <c r="S16">
-        <v>1.95</v>
-      </c>
-      <c r="T16">
-        <v>4</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>0.125</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>0.95</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6528870</v>
+        <v>6526660</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45094.375</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q17">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T17">
         <v>3.25</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W17">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6528871</v>
+        <v>6527542</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45094.375</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>1</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
       </c>
       <c r="J18" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>1.6</v>
+        <v>1.142</v>
       </c>
       <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>1.125</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+      <c r="P18">
+        <v>13</v>
+      </c>
+      <c r="Q18">
+        <v>-2.5</v>
+      </c>
+      <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
+        <v>1.95</v>
+      </c>
+      <c r="T18">
         <v>4</v>
       </c>
-      <c r="M18">
-        <v>4.5</v>
-      </c>
-      <c r="N18">
-        <v>1.3</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <v>7</v>
-      </c>
-      <c r="Q18">
-        <v>-1.75</v>
-      </c>
-      <c r="R18">
-        <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
-      </c>
-      <c r="T18">
-        <v>3.5</v>
-      </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6528884</v>
+        <v>6526519</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,58 +2141,58 @@
         <v>45094.375</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L19">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N19">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
+        <v>1.8</v>
+      </c>
+      <c r="V19">
         <v>2</v>
       </c>
-      <c r="V19">
-        <v>1.8</v>
-      </c>
       <c r="W19">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2201,13 +2201,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2230,7 +2230,7 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2319,7 +2319,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6859123</v>
+        <v>6858502</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,73 +2411,73 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L22">
         <v>3.75</v>
       </c>
       <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>4</v>
       </c>
-      <c r="N22">
+      <c r="P22">
+        <v>1.75</v>
+      </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
+        <v>1.825</v>
+      </c>
+      <c r="T22">
+        <v>3.25</v>
+      </c>
+      <c r="U22">
         <v>1.85</v>
       </c>
-      <c r="O22">
-        <v>3.8</v>
-      </c>
-      <c r="P22">
-        <v>3.25</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.9</v>
-      </c>
-      <c r="S22">
-        <v>1.9</v>
-      </c>
-      <c r="T22">
+      <c r="V22">
+        <v>1.95</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>3</v>
       </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6858502</v>
+        <v>6859123</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,73 +2500,73 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L23">
         <v>3.75</v>
       </c>
       <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>1.85</v>
+      </c>
+      <c r="O23">
+        <v>3.8</v>
+      </c>
+      <c r="P23">
+        <v>3.25</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
+        <v>1.9</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1.8</v>
+      </c>
+      <c r="V23">
         <v>2</v>
       </c>
-      <c r="N23">
-        <v>3.4</v>
-      </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
-      <c r="P23">
-        <v>1.75</v>
-      </c>
-      <c r="Q23">
-        <v>0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
-      <c r="S23">
-        <v>1.825</v>
-      </c>
-      <c r="T23">
-        <v>3.25</v>
-      </c>
-      <c r="U23">
-        <v>1.85</v>
-      </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858504</v>
+        <v>6859122</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45143.375</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6859122</v>
+        <v>6858504</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>45143.375</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X25">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2856,7 +2856,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>2.25</v>
@@ -2945,7 +2945,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3034,7 +3034,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>2.4</v>
@@ -3123,7 +3123,7 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>1.9</v>
@@ -3212,7 +3212,7 @@
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.333</v>
@@ -3298,7 +3298,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -3310,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>4.333</v>
@@ -3387,7 +3387,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
@@ -3476,7 +3476,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>43</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>2.7</v>
@@ -3654,10 +3654,10 @@
         <v>45157.35416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3666,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>1.285</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3924,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3933,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.714</v>
@@ -4010,10 +4010,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>4.333</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>2.2</v>
@@ -4188,7 +4188,7 @@
         <v>45164.375</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>3.5</v>
@@ -4280,7 +4280,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>1.714</v>
@@ -4366,7 +4366,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>2.15</v>
@@ -4544,7 +4544,7 @@
         <v>45171.35416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>1.85</v>
@@ -4633,7 +4633,7 @@
         <v>45171.375</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>44</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>2.3</v>
@@ -4734,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>1.85</v>
@@ -4811,10 +4811,10 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>2.4</v>
@@ -4992,7 +4992,7 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5078,10 +5078,10 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
         <v>29</v>
-      </c>
-      <c r="G52" t="s">
-        <v>30</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5090,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>3.25</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6858784</v>
+        <v>6859113</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,34 +5167,34 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L53">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M53">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N53">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O53">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P53">
         <v>4.75</v>
@@ -5203,13 +5203,13 @@
         <v>-1</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U53">
         <v>1.9</v>
@@ -5218,7 +5218,7 @@
         <v>1.9</v>
       </c>
       <c r="W53">
-        <v>0.571</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,16 +5227,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6859113</v>
+        <v>6858784</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,34 +5256,34 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
+        <v>1.65</v>
+      </c>
+      <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>4.333</v>
+      </c>
+      <c r="N54">
         <v>1.571</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>3.8</v>
-      </c>
-      <c r="M54">
-        <v>4.5</v>
-      </c>
-      <c r="N54">
-        <v>1.533</v>
-      </c>
-      <c r="O54">
-        <v>4</v>
       </c>
       <c r="P54">
         <v>4.75</v>
@@ -5292,13 +5292,13 @@
         <v>-1</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U54">
         <v>1.9</v>
@@ -5307,7 +5307,7 @@
         <v>1.9</v>
       </c>
       <c r="W54">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,16 +5316,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>4.333</v>
@@ -5434,7 +5434,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
         <v>41</v>
@@ -5526,7 +5526,7 @@
         <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.3</v>
@@ -5612,7 +5612,7 @@
         <v>45185.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858789</v>
+        <v>6859110</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45185.375</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59">
+        <v>1.5</v>
+      </c>
+      <c r="L59">
+        <v>4.2</v>
+      </c>
+      <c r="M59">
+        <v>5.25</v>
+      </c>
+      <c r="N59">
+        <v>1.5</v>
+      </c>
+      <c r="O59">
+        <v>4.2</v>
+      </c>
+      <c r="P59">
+        <v>5.5</v>
+      </c>
+      <c r="Q59">
+        <v>-1</v>
+      </c>
+      <c r="R59">
+        <v>1.8</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
+        <v>1.85</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>4.5</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
         <v>1</v>
       </c>
-      <c r="J59" t="s">
-        <v>45</v>
-      </c>
-      <c r="K59">
-        <v>4</v>
-      </c>
-      <c r="L59">
-        <v>3.8</v>
-      </c>
-      <c r="M59">
-        <v>1.666</v>
-      </c>
-      <c r="N59">
-        <v>3.8</v>
-      </c>
-      <c r="O59">
-        <v>3.8</v>
-      </c>
-      <c r="P59">
-        <v>1.7</v>
-      </c>
-      <c r="Q59">
-        <v>0.75</v>
-      </c>
-      <c r="R59">
-        <v>1.875</v>
-      </c>
-      <c r="S59">
-        <v>1.925</v>
-      </c>
-      <c r="T59">
-        <v>3.25</v>
-      </c>
-      <c r="U59">
-        <v>1.925</v>
-      </c>
-      <c r="V59">
-        <v>1.875</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>0.7</v>
-      </c>
-      <c r="Z59">
-        <v>-0.5</v>
-      </c>
-      <c r="AA59">
-        <v>0.4625</v>
-      </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6859110</v>
+        <v>6858789</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,55 +5790,55 @@
         <v>45185.375</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="N60">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5847,19 +5847,19 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6858791</v>
+        <v>6859109</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
         <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
+        <v>1.85</v>
+      </c>
+      <c r="V62">
+        <v>1.95</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
         <v>3</v>
       </c>
-      <c r="U62">
-        <v>1.875</v>
-      </c>
-      <c r="V62">
-        <v>1.925</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>2.4</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
       <c r="Z62">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
+        <v>0.825</v>
+      </c>
+      <c r="AB62">
+        <v>0.425</v>
+      </c>
+      <c r="AC62">
         <v>-0.5</v>
-      </c>
-      <c r="AB62">
-        <v>0.875</v>
-      </c>
-      <c r="AC62">
-        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6859109</v>
+        <v>6858791</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L64">
         <v>3.6</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA64">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.769</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6859108</v>
+        <v>6858794</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,46 +6324,46 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K66">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="N66">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
         <v>3</v>
@@ -6375,7 +6375,7 @@
         <v>1.825</v>
       </c>
       <c r="W66">
-        <v>0.571</v>
+        <v>2.5</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6384,16 +6384,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6858794</v>
+        <v>6859108</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,46 +6413,46 @@
         <v>45192.375</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O67">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
         <v>3</v>
@@ -6464,7 +6464,7 @@
         <v>1.825</v>
       </c>
       <c r="W67">
-        <v>2.5</v>
+        <v>0.571</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6473,16 +6473,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,10 +6502,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>3.1</v>
@@ -6680,10 +6680,10 @@
         <v>45199.375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6692,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K70">
         <v>3.1</v>
@@ -6772,7 +6772,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6781,7 +6781,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>1.65</v>
@@ -6870,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>2.6</v>
@@ -6959,7 +6959,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>1.9</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6859105</v>
+        <v>6858799</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,40 +7036,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
         <v>1.975</v>
@@ -7078,22 +7078,22 @@
         <v>1.825</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7102,10 +7102,10 @@
         <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6858799</v>
+        <v>6859105</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,40 +7125,40 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
         <v>1.975</v>
@@ -7167,22 +7167,22 @@
         <v>1.825</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
@@ -7191,10 +7191,10 @@
         <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7217,7 +7217,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7392,10 +7392,10 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7481,7 +7481,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>42</v>
@@ -7582,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>1.7</v>
@@ -7671,7 +7671,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
         <v>2.7</v>
@@ -7748,10 +7748,10 @@
         <v>45213.35416666666</v>
       </c>
       <c r="F82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="s">
         <v>40</v>
-      </c>
-      <c r="G82" t="s">
-        <v>39</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>1.4</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6858806</v>
+        <v>6858805</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45213.375</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
         <v>1.825</v>
       </c>
-      <c r="S83">
-        <v>1.975</v>
-      </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,7 +7897,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7906,7 +7906,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6858805</v>
+        <v>6858806</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45213.375</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="N84">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>1.975</v>
       </c>
-      <c r="S84">
-        <v>1.825</v>
-      </c>
       <c r="T84">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,7 +7986,7 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -7995,7 +7995,7 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>2.2</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6858807</v>
+        <v>6858809</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8196,10 +8196,10 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -8208,61 +8208,61 @@
         <v>46</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N87">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>1.55</v>
+      </c>
+      <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>1</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>0.925</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6858809</v>
+        <v>6858807</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,10 +8285,10 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -8297,61 +8297,61 @@
         <v>45</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
         <v>4</v>
       </c>
       <c r="P88">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6859100</v>
+        <v>6858810</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45220.375</v>
       </c>
       <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
         <v>39</v>
       </c>
-      <c r="G89" t="s">
-        <v>44</v>
-      </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N89">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6858810</v>
+        <v>6859100</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y90">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8561,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>2.8</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6858811</v>
+        <v>6859099</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,56 +8638,56 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N92">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
+        <v>1.85</v>
+      </c>
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
         <v>1.825</v>
       </c>
-      <c r="S92">
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>1.9</v>
-      </c>
-      <c r="V92">
-        <v>1.9</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
@@ -8695,19 +8695,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859099</v>
+        <v>6858811</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,55 +8727,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93">
+        <v>1.55</v>
+      </c>
+      <c r="L93">
         <v>4</v>
       </c>
-      <c r="J93" t="s">
-        <v>45</v>
-      </c>
-      <c r="K93">
-        <v>3</v>
-      </c>
-      <c r="L93">
-        <v>3.6</v>
-      </c>
       <c r="M93">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8784,19 +8784,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,10 +8816,10 @@
         <v>45227.35416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>1.571</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858813</v>
+        <v>6858814</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45227.375</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="J95" t="s">
+        <v>46</v>
+      </c>
+      <c r="K95">
+        <v>2.45</v>
+      </c>
+      <c r="L95">
+        <v>3.75</v>
+      </c>
+      <c r="M95">
+        <v>2.375</v>
+      </c>
+      <c r="N95">
+        <v>2.45</v>
+      </c>
+      <c r="O95">
+        <v>3.75</v>
+      </c>
+      <c r="P95">
+        <v>2.375</v>
+      </c>
+      <c r="Q95">
         <v>0</v>
       </c>
-      <c r="J95" t="s">
-        <v>47</v>
-      </c>
-      <c r="K95">
-        <v>1.769</v>
-      </c>
-      <c r="L95">
-        <v>3.6</v>
-      </c>
-      <c r="M95">
-        <v>4</v>
-      </c>
-      <c r="N95">
-        <v>1.65</v>
-      </c>
-      <c r="O95">
-        <v>3.8</v>
-      </c>
-      <c r="P95">
-        <v>4.5</v>
-      </c>
-      <c r="Q95">
-        <v>-0.75</v>
-      </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858814</v>
+        <v>6858813</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45227.375</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2.45</v>
+        <v>1.769</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N96">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O96">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>3</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y96">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>2.9</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6858815</v>
+        <v>6858818</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,73 +9264,73 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P99">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>2.45</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6858818</v>
+        <v>6858815</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,73 +9442,73 @@
         <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>47</v>
+      </c>
+      <c r="K101">
+        <v>2.1</v>
+      </c>
+      <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>2.4</v>
+      </c>
+      <c r="O101">
+        <v>3.2</v>
+      </c>
+      <c r="P101">
+        <v>2.7</v>
+      </c>
+      <c r="Q101">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
-      <c r="J101" t="s">
-        <v>45</v>
-      </c>
-      <c r="K101">
-        <v>1.65</v>
-      </c>
-      <c r="L101">
-        <v>3.8</v>
-      </c>
-      <c r="M101">
-        <v>4.5</v>
-      </c>
-      <c r="N101">
-        <v>1.533</v>
-      </c>
-      <c r="O101">
-        <v>4.333</v>
-      </c>
-      <c r="P101">
-        <v>4.75</v>
-      </c>
-      <c r="Q101">
-        <v>-1</v>
-      </c>
       <c r="R101">
+        <v>1.775</v>
+      </c>
+      <c r="S101">
+        <v>2.025</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="S101">
-        <v>1.975</v>
-      </c>
-      <c r="T101">
-        <v>3.25</v>
-      </c>
-      <c r="U101">
-        <v>1.9</v>
-      </c>
-      <c r="V101">
-        <v>1.9</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y101">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9540,7 +9540,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>2.875</v>
@@ -9620,7 +9620,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9706,10 +9706,10 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>1.6</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6858821</v>
+        <v>6858824</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
         <v>3</v>
-      </c>
-      <c r="I105">
-        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>46</v>
       </c>
       <c r="K105">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>4.333</v>
+        <v>2.35</v>
       </c>
       <c r="N105">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
+        <v>0.95</v>
+      </c>
+      <c r="AB105">
         <v>0</v>
       </c>
-      <c r="AA105">
+      <c r="AC105">
         <v>-0</v>
-      </c>
-      <c r="AB105">
-        <v>0.8</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,10 +9884,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9896,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K106">
         <v>2.45</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6858824</v>
+        <v>6858821</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>45</v>
       </c>
       <c r="K107">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>2.35</v>
+        <v>4.333</v>
       </c>
       <c r="N107">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>2.45</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6858827</v>
+        <v>6858825</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45248.375</v>
       </c>
       <c r="F110" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" t="s">
         <v>30</v>
       </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
       <c r="H110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
         <v>45</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L110">
+        <v>3.8</v>
+      </c>
+      <c r="M110">
+        <v>4.5</v>
+      </c>
+      <c r="N110">
+        <v>1.7</v>
+      </c>
+      <c r="O110">
+        <v>3.8</v>
+      </c>
+      <c r="P110">
+        <v>4.2</v>
+      </c>
+      <c r="Q110">
+        <v>-0.75</v>
+      </c>
+      <c r="R110">
+        <v>1.85</v>
+      </c>
+      <c r="S110">
+        <v>1.95</v>
+      </c>
+      <c r="T110">
         <v>3.5</v>
       </c>
-      <c r="M110">
-        <v>2.625</v>
-      </c>
-      <c r="N110">
+      <c r="U110">
+        <v>1.95</v>
+      </c>
+      <c r="V110">
         <v>1.85</v>
       </c>
-      <c r="O110">
-        <v>3.75</v>
-      </c>
-      <c r="P110">
-        <v>3.4</v>
-      </c>
-      <c r="Q110">
-        <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.875</v>
-      </c>
-      <c r="S110">
-        <v>1.925</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.825</v>
-      </c>
-      <c r="V110">
-        <v>1.975</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6858826</v>
+        <v>6858827</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,40 +10329,40 @@
         <v>45248.375</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N111">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
         <v>1.875</v>
@@ -10371,13 +10371,13 @@
         <v>1.925</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10386,7 +10386,7 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.15</v>
+        <v>2.4</v>
       </c>
       <c r="Z111">
         <v>-1</v>
@@ -10395,10 +10395,10 @@
         <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6859092</v>
+        <v>6858828</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,40 +10418,40 @@
         <v>45248.375</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>2</v>
-      </c>
-      <c r="I112">
-        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
         <v>1.825</v>
@@ -10463,28 +10463,28 @@
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB112">
-        <v>0.375</v>
+        <v>0.4125</v>
       </c>
       <c r="AC112">
         <v>-0.5</v>
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6859093</v>
+        <v>6859092</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,58 +10507,58 @@
         <v>45248.375</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
+        <v>2.5</v>
+      </c>
+      <c r="L113">
+        <v>3.6</v>
+      </c>
+      <c r="M113">
+        <v>2.45</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113">
+        <v>3.6</v>
+      </c>
+      <c r="P113">
+        <v>3.1</v>
+      </c>
+      <c r="Q113">
+        <v>-0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.825</v>
+      </c>
+      <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
         <v>2.75</v>
       </c>
-      <c r="L113">
-        <v>3.4</v>
-      </c>
-      <c r="M113">
-        <v>2.25</v>
-      </c>
-      <c r="N113">
-        <v>2.6</v>
-      </c>
-      <c r="O113">
-        <v>3.4</v>
-      </c>
-      <c r="P113">
-        <v>2.375</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>2</v>
-      </c>
-      <c r="S113">
-        <v>1.8</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10567,16 +10567,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858828</v>
+        <v>6859093</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45248.375</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>45</v>
       </c>
       <c r="K114">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L114">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA114">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6858825</v>
+        <v>6858826</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,75 +10685,609 @@
         <v>45248.375</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
         <v>46</v>
       </c>
       <c r="K115">
+        <v>3.1</v>
+      </c>
+      <c r="L115">
+        <v>3.6</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>2.875</v>
+      </c>
+      <c r="O115">
+        <v>3.5</v>
+      </c>
+      <c r="P115">
+        <v>2.15</v>
+      </c>
+      <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.875</v>
+      </c>
+      <c r="S115">
+        <v>1.925</v>
+      </c>
+      <c r="T115">
+        <v>3</v>
+      </c>
+      <c r="U115">
+        <v>1.875</v>
+      </c>
+      <c r="V115">
+        <v>1.925</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>1.15</v>
+      </c>
+      <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
+        <v>0.925</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>6858829</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45360.375</v>
+      </c>
+      <c r="F116" t="s">
+        <v>35</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116">
+        <v>1.9</v>
+      </c>
+      <c r="L116">
+        <v>3.6</v>
+      </c>
+      <c r="M116">
+        <v>3.4</v>
+      </c>
+      <c r="N116">
+        <v>1.909</v>
+      </c>
+      <c r="O116">
+        <v>3.5</v>
+      </c>
+      <c r="P116">
+        <v>3.4</v>
+      </c>
+      <c r="Q116">
+        <v>-0.5</v>
+      </c>
+      <c r="R116">
+        <v>1.95</v>
+      </c>
+      <c r="S116">
+        <v>1.85</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.85</v>
+      </c>
+      <c r="V116">
+        <v>1.95</v>
+      </c>
+      <c r="W116">
+        <v>0.909</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.95</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC116">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>6858830</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45360.375</v>
+      </c>
+      <c r="F117" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" t="s">
+        <v>40</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117">
+        <v>2.15</v>
+      </c>
+      <c r="L117">
+        <v>3.6</v>
+      </c>
+      <c r="M117">
+        <v>2.7</v>
+      </c>
+      <c r="N117">
+        <v>2.45</v>
+      </c>
+      <c r="O117">
+        <v>3.5</v>
+      </c>
+      <c r="P117">
+        <v>2.45</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.9</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
+        <v>1.85</v>
+      </c>
+      <c r="W117">
+        <v>1.45</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>0.95</v>
+      </c>
+      <c r="AC117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>6858831</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45360.39583333334</v>
+      </c>
+      <c r="F118" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" t="s">
+        <v>41</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <v>1.571</v>
+      </c>
+      <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118">
+        <v>4.5</v>
+      </c>
+      <c r="N118">
         <v>1.65</v>
       </c>
-      <c r="L115">
+      <c r="O118">
         <v>3.8</v>
       </c>
-      <c r="M115">
-        <v>4.5</v>
-      </c>
-      <c r="N115">
-        <v>1.7</v>
-      </c>
-      <c r="O115">
+      <c r="P118">
+        <v>4.2</v>
+      </c>
+      <c r="Q118">
+        <v>-0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.85</v>
+      </c>
+      <c r="V118">
+        <v>1.95</v>
+      </c>
+      <c r="W118">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
+        <v>0.4125</v>
+      </c>
+      <c r="AA118">
+        <v>-0.5</v>
+      </c>
+      <c r="AB118">
+        <v>0.425</v>
+      </c>
+      <c r="AC118">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>6859091</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F119" t="s">
+        <v>43</v>
+      </c>
+      <c r="G119" t="s">
+        <v>44</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>45</v>
+      </c>
+      <c r="K119">
+        <v>1.75</v>
+      </c>
+      <c r="L119">
+        <v>3.5</v>
+      </c>
+      <c r="M119">
+        <v>4.2</v>
+      </c>
+      <c r="N119">
+        <v>1.615</v>
+      </c>
+      <c r="O119">
+        <v>3.75</v>
+      </c>
+      <c r="P119">
+        <v>5</v>
+      </c>
+      <c r="Q119">
+        <v>-0.75</v>
+      </c>
+      <c r="R119">
+        <v>1.75</v>
+      </c>
+      <c r="S119">
+        <v>1.95</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
+        <v>1.85</v>
+      </c>
+      <c r="V119">
+        <v>1.95</v>
+      </c>
+      <c r="W119">
+        <v>0.615</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>0.375</v>
+      </c>
+      <c r="AA119">
+        <v>-0.5</v>
+      </c>
+      <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>6858832</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F120" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s">
+        <v>34</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>45</v>
+      </c>
+      <c r="K120">
+        <v>3.1</v>
+      </c>
+      <c r="L120">
+        <v>3.75</v>
+      </c>
+      <c r="M120">
+        <v>1.95</v>
+      </c>
+      <c r="N120">
         <v>3.8</v>
       </c>
-      <c r="P115">
-        <v>4.2</v>
-      </c>
-      <c r="Q115">
-        <v>-0.75</v>
-      </c>
-      <c r="R115">
+      <c r="O120">
+        <v>3.8</v>
+      </c>
+      <c r="P120">
+        <v>1.75</v>
+      </c>
+      <c r="Q120">
+        <v>0.5</v>
+      </c>
+      <c r="R120">
+        <v>1.925</v>
+      </c>
+      <c r="S120">
+        <v>1.775</v>
+      </c>
+      <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
+        <v>1.925</v>
+      </c>
+      <c r="V120">
+        <v>1.875</v>
+      </c>
+      <c r="W120">
+        <v>2.8</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>0.925</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>6859090</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
+        <v>42</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121" t="s">
+        <v>46</v>
+      </c>
+      <c r="K121">
         <v>1.85</v>
       </c>
-      <c r="S115">
-        <v>1.95</v>
-      </c>
-      <c r="T115">
+      <c r="L121">
         <v>3.5</v>
       </c>
-      <c r="U115">
-        <v>1.95</v>
-      </c>
-      <c r="V115">
-        <v>1.85</v>
-      </c>
-      <c r="W115">
-        <v>0.7</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>0.95</v>
-      </c>
-      <c r="AC115">
+      <c r="M121">
+        <v>3.6</v>
+      </c>
+      <c r="N121">
+        <v>2.15</v>
+      </c>
+      <c r="O121">
+        <v>3.25</v>
+      </c>
+      <c r="P121">
+        <v>3.1</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
+        <v>1.9</v>
+      </c>
+      <c r="V121">
+        <v>1.9</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>2.1</v>
+      </c>
+      <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB121">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC121">
         <v>-1</v>
       </c>
     </row>

--- a/Denmark Division 3/Denmark Division 3.xlsx
+++ b/Denmark Division 3/Denmark Division 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Denmark Division 3</t>
   </si>
   <si>
-    <t>Vanlse</t>
+    <t>IF Lyseng</t>
   </si>
   <si>
-    <t>IF Lyseng</t>
+    <t>Vanlse</t>
   </si>
   <si>
     <t>Nsby</t>
@@ -133,16 +133,16 @@
     <t>AB Trnby</t>
   </si>
   <si>
+    <t>Holstebro</t>
+  </si>
+  <si>
     <t>VSK Arhus</t>
   </si>
   <si>
-    <t>Holstebro</t>
+    <t>Holbk</t>
   </si>
   <si>
     <t>Vejgaard B</t>
-  </si>
-  <si>
-    <t>Holbk</t>
   </si>
   <si>
     <t>Frem</t>
@@ -151,10 +151,10 @@
     <t>Avarta</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6528867</v>
+        <v>6526656</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,10 +631,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -643,61 +643,61 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="N2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6526656</v>
+        <v>6528867</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,10 +720,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -732,61 +732,61 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.6</v>
       </c>
       <c r="M3">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>2.1</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>2.4</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>1.071</v>
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>3.6</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>17</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.3</v>
@@ -1518,7 +1518,7 @@
         <v>45087.5</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>1.4</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6528870</v>
+        <v>6526519</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="L14">
+        <v>4.2</v>
+      </c>
+      <c r="M14">
+        <v>4.333</v>
+      </c>
+      <c r="N14">
+        <v>1.5</v>
+      </c>
+      <c r="O14">
         <v>4.5</v>
       </c>
-      <c r="M14">
-        <v>5.25</v>
-      </c>
-      <c r="N14">
-        <v>1.333</v>
-      </c>
-      <c r="O14">
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="P14">
-        <v>7.5</v>
-      </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,16 +1756,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6528871</v>
+        <v>6526660</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,55 +1785,55 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15">
-        <v>1.6</v>
-      </c>
       <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>3.1</v>
+      </c>
+      <c r="O15">
         <v>4</v>
       </c>
-      <c r="M15">
-        <v>4.5</v>
-      </c>
-      <c r="N15">
-        <v>1.3</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
       <c r="P15">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1842,19 +1842,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>6</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6528884</v>
+        <v>6528870</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,58 +1874,58 @@
         <v>45094.375</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="L16">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N16">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R16">
+        <v>1.85</v>
+      </c>
+      <c r="S16">
+        <v>1.95</v>
+      </c>
+      <c r="T16">
+        <v>3.25</v>
+      </c>
+      <c r="U16">
+        <v>1.925</v>
+      </c>
+      <c r="V16">
         <v>1.875</v>
       </c>
-      <c r="S16">
-        <v>1.925</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
       <c r="W16">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.875</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6526660</v>
+        <v>6527542</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,13 +1963,13 @@
         <v>45094.375</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1978,61 +1978,61 @@
         <v>46</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N17">
-        <v>3.1</v>
+        <v>1.125</v>
       </c>
       <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>-2.5</v>
+      </c>
+      <c r="R17">
+        <v>1.85</v>
+      </c>
+      <c r="S17">
+        <v>1.95</v>
+      </c>
+      <c r="T17">
         <v>4</v>
       </c>
-      <c r="P17">
-        <v>1.85</v>
-      </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>2.1</v>
-      </c>
-      <c r="S17">
-        <v>1.7</v>
-      </c>
-      <c r="T17">
-        <v>3.25</v>
-      </c>
       <c r="U17">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6527542</v>
+        <v>6528871</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45094.375</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>1.142</v>
+        <v>1.6</v>
       </c>
       <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>4.5</v>
+      </c>
+      <c r="N18">
+        <v>1.3</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
         <v>7</v>
       </c>
-      <c r="M18">
-        <v>13</v>
-      </c>
-      <c r="N18">
-        <v>1.125</v>
-      </c>
-      <c r="O18">
-        <v>8</v>
-      </c>
-      <c r="P18">
-        <v>13</v>
-      </c>
       <c r="Q18">
-        <v>-2.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
         <v>1.85</v>
       </c>
-      <c r="S18">
+      <c r="T18">
+        <v>3.5</v>
+      </c>
+      <c r="U18">
         <v>1.95</v>
       </c>
-      <c r="T18">
-        <v>4</v>
-      </c>
-      <c r="U18">
-        <v>1.9</v>
-      </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB18">
         <v>0.95</v>
       </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6526519</v>
+        <v>6528884</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,59 +2141,59 @@
         <v>45094.375</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
       <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19">
+        <v>2.875</v>
+      </c>
+      <c r="L19">
+        <v>3.8</v>
+      </c>
+      <c r="M19">
+        <v>2.05</v>
+      </c>
+      <c r="N19">
+        <v>2.8</v>
+      </c>
+      <c r="O19">
+        <v>3.75</v>
+      </c>
+      <c r="P19">
+        <v>2.1</v>
+      </c>
+      <c r="Q19">
+        <v>0.25</v>
+      </c>
+      <c r="R19">
+        <v>1.875</v>
+      </c>
+      <c r="S19">
+        <v>1.925</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
         <v>2</v>
       </c>
-      <c r="J19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>1.571</v>
-      </c>
-      <c r="L19">
-        <v>4.2</v>
-      </c>
-      <c r="M19">
-        <v>4.333</v>
-      </c>
-      <c r="N19">
-        <v>1.5</v>
-      </c>
-      <c r="O19">
-        <v>4.5</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19">
-        <v>-1</v>
-      </c>
-      <c r="R19">
+      <c r="V19">
         <v>1.8</v>
       </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-      <c r="T19">
-        <v>3.25</v>
-      </c>
-      <c r="U19">
+      <c r="W19">
         <v>1.8</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>0.5</v>
-      </c>
       <c r="X19">
         <v>-1</v>
       </c>
@@ -2201,13 +2201,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2230,10 +2230,10 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2319,7 +2319,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6858502</v>
+        <v>6859123</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,73 +2411,73 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L22">
         <v>3.75</v>
       </c>
       <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>1.85</v>
+      </c>
+      <c r="O22">
+        <v>3.8</v>
+      </c>
+      <c r="P22">
+        <v>3.25</v>
+      </c>
+      <c r="Q22">
+        <v>-0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>1.8</v>
+      </c>
+      <c r="V22">
         <v>2</v>
       </c>
-      <c r="N22">
-        <v>3.4</v>
-      </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <v>1.75</v>
-      </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
-      </c>
-      <c r="T22">
-        <v>3.25</v>
-      </c>
-      <c r="U22">
-        <v>1.85</v>
-      </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6859123</v>
+        <v>6858502</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,73 +2500,73 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L23">
         <v>3.75</v>
       </c>
       <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>4</v>
       </c>
-      <c r="N23">
+      <c r="P23">
+        <v>1.75</v>
+      </c>
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.975</v>
+      </c>
+      <c r="S23">
+        <v>1.825</v>
+      </c>
+      <c r="T23">
+        <v>3.25</v>
+      </c>
+      <c r="U23">
         <v>1.85</v>
       </c>
-      <c r="O23">
-        <v>3.8</v>
-      </c>
-      <c r="P23">
-        <v>3.25</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.9</v>
-      </c>
-      <c r="S23">
-        <v>1.9</v>
-      </c>
-      <c r="T23">
+      <c r="V23">
+        <v>1.95</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
         <v>3</v>
       </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>2.3</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6858539</v>
+        <v>6859121</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>1.5</v>
+      </c>
+      <c r="N26">
+        <v>4.2</v>
+      </c>
+      <c r="O26">
+        <v>3.8</v>
+      </c>
+      <c r="P26">
+        <v>1.666</v>
+      </c>
+      <c r="Q26">
+        <v>0.75</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.8</v>
+      </c>
+      <c r="V26">
         <v>2</v>
       </c>
-      <c r="L26">
-        <v>3.6</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <v>1.909</v>
-      </c>
-      <c r="O26">
-        <v>3.75</v>
-      </c>
-      <c r="P26">
-        <v>3.2</v>
-      </c>
-      <c r="Q26">
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z26">
+        <v>-1</v>
+      </c>
+      <c r="AA26">
+        <v>0.825</v>
+      </c>
+      <c r="AB26">
+        <v>0.4</v>
+      </c>
+      <c r="AC26">
         <v>-0.5</v>
-      </c>
-      <c r="R26">
-        <v>1.95</v>
-      </c>
-      <c r="S26">
-        <v>1.85</v>
-      </c>
-      <c r="T26">
-        <v>3.25</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>2.75</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>-1</v>
-      </c>
-      <c r="AA26">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
-      <c r="AC26">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,10 +2853,10 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>2.25</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6859121</v>
+        <v>6858539</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>3.6</v>
+      </c>
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="J28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>1.5</v>
-      </c>
       <c r="N28">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>1.85</v>
+      </c>
+      <c r="T28">
+        <v>3.25</v>
+      </c>
+      <c r="U28">
+        <v>1.825</v>
+      </c>
+      <c r="V28">
         <v>1.975</v>
       </c>
-      <c r="S28">
-        <v>1.825</v>
-      </c>
-      <c r="T28">
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>2.75</v>
       </c>
-      <c r="U28">
-        <v>1.8</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
       <c r="Y28">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB28">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.4</v>
@@ -3123,7 +3123,7 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.9</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>1.333</v>
@@ -3298,7 +3298,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -3310,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>4.333</v>
@@ -3387,10 +3387,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6858769</v>
+        <v>6858770</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K34">
+        <v>2.25</v>
+      </c>
+      <c r="L34">
+        <v>3.6</v>
+      </c>
+      <c r="M34">
         <v>2.7</v>
       </c>
-      <c r="L34">
+      <c r="N34">
+        <v>2.3</v>
+      </c>
+      <c r="O34">
         <v>3.5</v>
       </c>
-      <c r="M34">
-        <v>2.25</v>
-      </c>
-      <c r="N34">
-        <v>3.25</v>
-      </c>
-      <c r="O34">
-        <v>3.75</v>
-      </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R34">
+        <v>1.775</v>
+      </c>
+      <c r="S34">
+        <v>2.025</v>
+      </c>
+      <c r="T34">
+        <v>2.75</v>
+      </c>
+      <c r="U34">
         <v>1.8</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>2</v>
       </c>
-      <c r="T34">
-        <v>3.25</v>
-      </c>
-      <c r="U34">
-        <v>1.875</v>
-      </c>
-      <c r="V34">
-        <v>1.925</v>
-      </c>
       <c r="W34">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858770</v>
+        <v>6858769</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
+        <v>2.7</v>
+      </c>
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
         <v>2.25</v>
       </c>
-      <c r="L35">
-        <v>3.6</v>
-      </c>
-      <c r="M35">
-        <v>2.7</v>
-      </c>
       <c r="N35">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>45157.35416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3666,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>1.285</v>
@@ -3835,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3924,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3933,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <v>1.714</v>
@@ -4010,10 +4010,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>4.333</v>
@@ -4102,7 +4102,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>2.2</v>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>3.5</v>
@@ -4280,7 +4280,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>1.714</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858777</v>
+        <v>6859115</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,67 +4366,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4435,7 +4435,7 @@
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6859115</v>
+        <v>6858777</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,67 +4455,67 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N45">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X45">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA45">
         <v>-1</v>
@@ -4524,7 +4524,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>45171.35416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>1.85</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>2.3</v>
@@ -4725,7 +4725,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4734,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>1.85</v>
@@ -4811,10 +4811,10 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.4</v>
@@ -4992,7 +4992,7 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6858783</v>
+        <v>6858784</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,58 +5078,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="L52">
         <v>3.75</v>
       </c>
       <c r="M52">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="N52">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>2.2</v>
+        <v>0.571</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5138,13 +5138,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5170,7 +5170,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>1.571</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6858784</v>
+        <v>6858783</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,58 +5256,58 @@
         <v>45178.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="L54">
         <v>3.75</v>
       </c>
       <c r="M54">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="N54">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q54">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
+        <v>1.975</v>
+      </c>
+      <c r="S54">
+        <v>1.825</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.875</v>
       </c>
-      <c r="T54">
-        <v>3.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
       <c r="W54">
-        <v>0.571</v>
+        <v>2.2</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,13 +5316,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
         <v>0.925</v>
-      </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
-      <c r="AB54">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5348,7 +5348,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>4.333</v>
@@ -5434,10 +5434,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5523,10 +5523,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>2.3</v>
@@ -5612,7 +5612,7 @@
         <v>45185.35416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>1.5</v>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -5882,7 +5882,7 @@
         <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6859109</v>
+        <v>6858791</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L62">
         <v>3.6</v>
       </c>
       <c r="M62">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N62">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6858791</v>
+        <v>6859109</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
         <v>3.6</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
+        <v>1.95</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>3</v>
       </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.925</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>2.4</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
       <c r="Z64">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
+        <v>0.825</v>
+      </c>
+      <c r="AB64">
+        <v>0.425</v>
+      </c>
+      <c r="AC64">
         <v>-0.5</v>
-      </c>
-      <c r="AB64">
-        <v>0.875</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45192.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>1.769</v>
@@ -6324,10 +6324,10 @@
         <v>45192.375</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6336,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66">
         <v>3.5</v>
@@ -6416,7 +6416,7 @@
         <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>1.615</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6858795</v>
+        <v>6859107</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L68">
         <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N68">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
+        <v>1.8</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
         <v>1.875</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.925</v>
       </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.8</v>
-      </c>
-      <c r="V68">
-        <v>2</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6859107</v>
+        <v>6858795</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6591,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
    